--- a/data/metadata_corrected.xlsx
+++ b/data/metadata_corrected.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mikekestemont/GitRepos/mdu/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06ACD857-E649-2546-9B2F-DFF204AE2FB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B91A1927-5D37-A14F-9E4C-160CE62B3659}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1754" uniqueCount="603">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1756" uniqueCount="603">
   <si>
     <t>id</t>
   </si>
@@ -2228,8 +2228,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I284"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A83" workbookViewId="0">
-      <selection activeCell="H110" sqref="H110"/>
+    <sheetView tabSelected="1" topLeftCell="A165" workbookViewId="0">
+      <selection activeCell="I192" sqref="I192"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6317,7 +6317,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
         <v>331</v>
       </c>
@@ -6343,7 +6343,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
         <v>360</v>
       </c>
@@ -6369,7 +6369,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
         <v>50</v>
       </c>
@@ -6389,7 +6389,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
         <v>202</v>
       </c>
@@ -6412,7 +6412,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
         <v>18</v>
       </c>
@@ -6435,7 +6435,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
         <v>181</v>
       </c>
@@ -6458,7 +6458,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
         <v>248</v>
       </c>
@@ -6481,7 +6481,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
         <v>336</v>
       </c>
@@ -6504,7 +6504,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
         <v>372</v>
       </c>
@@ -6527,7 +6527,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
         <v>311</v>
       </c>
@@ -6550,7 +6550,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
         <v>177</v>
       </c>
@@ -6573,7 +6573,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
         <v>244</v>
       </c>
@@ -6596,7 +6596,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
         <v>329</v>
       </c>
@@ -6619,7 +6619,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
         <v>391</v>
       </c>
@@ -6642,7 +6642,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
         <v>200</v>
       </c>
@@ -6664,8 +6664,11 @@
       <c r="H191" t="s">
         <v>596</v>
       </c>
-    </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I191" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
         <v>293</v>
       </c>
@@ -6686,6 +6689,9 @@
       </c>
       <c r="H192" t="s">
         <v>596</v>
+      </c>
+      <c r="I192" t="s">
+        <v>571</v>
       </c>
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.2">

--- a/data/metadata_corrected.xlsx
+++ b/data/metadata_corrected.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mikekestemont/GitRepos/mdu/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B91A1927-5D37-A14F-9E4C-160CE62B3659}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39F206F1-8D3A-8A4E-B4CF-715FDFF502E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1756" uniqueCount="603">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1763" uniqueCount="604">
   <si>
     <t>id</t>
   </si>
@@ -1247,9 +1247,6 @@
     <t>Van den verkeerden Martijn</t>
   </si>
   <si>
-    <t>historie_van_den_grale</t>
-  </si>
-  <si>
     <t>Historie van den grale</t>
   </si>
   <si>
@@ -1842,6 +1839,12 @@
   </si>
   <si>
     <t>Collectief lunarium II</t>
+  </si>
+  <si>
+    <t>Merlijn-Maerlant</t>
+  </si>
+  <si>
+    <t>Merlijn-Velthem</t>
   </si>
 </sst>
 </file>
@@ -1920,7 +1923,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2226,10 +2229,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I284"/>
+  <dimension ref="A1:I285"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A165" workbookViewId="0">
-      <selection activeCell="I192" sqref="I192"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="F87" sqref="F87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2268,7 +2271,7 @@
         <v>7</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -2288,7 +2291,7 @@
         <v>14</v>
       </c>
       <c r="G2" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -2311,41 +2314,41 @@
         <v>31</v>
       </c>
       <c r="G3" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H3" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B4" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D4">
         <v>1295.5</v>
       </c>
       <c r="E4" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F4" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="G4" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H4" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="B5" t="s">
         <v>411</v>
-      </c>
-      <c r="B5" t="s">
-        <v>412</v>
       </c>
       <c r="D5">
         <v>1375</v>
@@ -2357,18 +2360,18 @@
         <v>17</v>
       </c>
       <c r="G5" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H5" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="B6" t="s">
         <v>483</v>
-      </c>
-      <c r="B6" t="s">
-        <v>484</v>
       </c>
       <c r="D6">
         <v>1544</v>
@@ -2377,10 +2380,10 @@
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="G6" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -2400,10 +2403,10 @@
         <v>91</v>
       </c>
       <c r="G7" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H7" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -2423,10 +2426,10 @@
         <v>34</v>
       </c>
       <c r="G8" t="s">
+        <v>549</v>
+      </c>
+      <c r="H8" t="s">
         <v>550</v>
-      </c>
-      <c r="H8" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -2446,7 +2449,7 @@
         <v>328</v>
       </c>
       <c r="G9" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -2466,10 +2469,10 @@
         <v>11</v>
       </c>
       <c r="G10" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H10" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -2489,10 +2492,10 @@
         <v>91</v>
       </c>
       <c r="G11" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H11" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -2512,10 +2515,10 @@
         <v>68</v>
       </c>
       <c r="G12" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H12" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -2535,10 +2538,10 @@
         <v>34</v>
       </c>
       <c r="G13" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H13" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -2558,18 +2561,18 @@
         <v>158</v>
       </c>
       <c r="G14" t="s">
+        <v>549</v>
+      </c>
+      <c r="H14" t="s">
         <v>550</v>
-      </c>
-      <c r="H14" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="B15" t="s">
         <v>478</v>
-      </c>
-      <c r="B15" t="s">
-        <v>479</v>
       </c>
       <c r="D15">
         <v>1650</v>
@@ -2578,13 +2581,13 @@
         <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="G15" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H15" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
@@ -2604,15 +2607,15 @@
         <v>215</v>
       </c>
       <c r="G16" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="B17" t="s">
         <v>418</v>
-      </c>
-      <c r="B17" t="s">
-        <v>419</v>
       </c>
       <c r="D17">
         <v>1510</v>
@@ -2621,13 +2624,13 @@
         <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="G17" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H17" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
@@ -2635,7 +2638,7 @@
         <v>128</v>
       </c>
       <c r="B18" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="D18">
         <v>1339</v>
@@ -2647,18 +2650,18 @@
         <v>78</v>
       </c>
       <c r="G18" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H18" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="B19" t="s">
         <v>509</v>
-      </c>
-      <c r="B19" t="s">
-        <v>510</v>
       </c>
       <c r="C19" t="s">
         <v>131</v>
@@ -2673,33 +2676,33 @@
         <v>31</v>
       </c>
       <c r="G19" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H19" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B20" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="D20">
         <v>1265</v>
       </c>
       <c r="E20" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F20" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G20" t="s">
+        <v>549</v>
+      </c>
+      <c r="H20" t="s">
         <v>550</v>
-      </c>
-      <c r="H20" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
@@ -2719,10 +2722,10 @@
         <v>11</v>
       </c>
       <c r="G21" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H21" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
@@ -2742,10 +2745,10 @@
         <v>11</v>
       </c>
       <c r="G22" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H22" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
@@ -2765,15 +2768,15 @@
         <v>57</v>
       </c>
       <c r="G23" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H23" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B24" t="s">
         <v>25</v>
@@ -2788,10 +2791,10 @@
         <v>57</v>
       </c>
       <c r="G24" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H24" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
@@ -2811,10 +2814,10 @@
         <v>14</v>
       </c>
       <c r="G25" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H25" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
@@ -2834,10 +2837,10 @@
         <v>194</v>
       </c>
       <c r="G26" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H26" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
@@ -2857,15 +2860,15 @@
         <v>83</v>
       </c>
       <c r="G27" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H27" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B28" t="s">
         <v>85</v>
@@ -2880,10 +2883,10 @@
         <v>34</v>
       </c>
       <c r="G28" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H28" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
@@ -2891,7 +2894,7 @@
         <v>307</v>
       </c>
       <c r="B29" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C29" t="s">
         <v>131</v>
@@ -2906,10 +2909,10 @@
         <v>286</v>
       </c>
       <c r="G29" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H29" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
@@ -2917,7 +2920,7 @@
         <v>309</v>
       </c>
       <c r="B30" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="D30">
         <v>1432</v>
@@ -2929,10 +2932,10 @@
         <v>310</v>
       </c>
       <c r="G30" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H30" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
@@ -2940,7 +2943,7 @@
         <v>285</v>
       </c>
       <c r="B31" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="D31">
         <v>1470</v>
@@ -2952,33 +2955,33 @@
         <v>286</v>
       </c>
       <c r="G31" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H31" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B32" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="D32">
         <v>1270</v>
       </c>
       <c r="E32" t="s">
+        <v>516</v>
+      </c>
+      <c r="F32" t="s">
         <v>517</v>
       </c>
-      <c r="F32" t="s">
-        <v>518</v>
-      </c>
       <c r="G32" t="s">
+        <v>549</v>
+      </c>
+      <c r="H32" t="s">
         <v>550</v>
-      </c>
-      <c r="H32" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
@@ -2998,7 +3001,7 @@
         <v>14</v>
       </c>
       <c r="G33" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
@@ -3018,18 +3021,18 @@
         <v>57</v>
       </c>
       <c r="G34" t="s">
+        <v>549</v>
+      </c>
+      <c r="H34" t="s">
         <v>550</v>
-      </c>
-      <c r="H34" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="B35" t="s">
         <v>486</v>
-      </c>
-      <c r="B35" t="s">
-        <v>487</v>
       </c>
       <c r="C35" t="s">
         <v>37</v>
@@ -3044,7 +3047,7 @@
         <v>78</v>
       </c>
       <c r="G35" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
@@ -3052,7 +3055,7 @@
         <v>228</v>
       </c>
       <c r="B36" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D36">
         <v>1310</v>
@@ -3064,10 +3067,10 @@
         <v>229</v>
       </c>
       <c r="G36" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H36" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
@@ -3075,7 +3078,7 @@
         <v>143</v>
       </c>
       <c r="B37" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="D37">
         <v>1450</v>
@@ -3087,10 +3090,10 @@
         <v>75</v>
       </c>
       <c r="G37" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H37" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
@@ -3098,7 +3101,7 @@
         <v>390</v>
       </c>
       <c r="B38" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="D38">
         <v>1387.5</v>
@@ -3110,10 +3113,10 @@
         <v>11</v>
       </c>
       <c r="G38" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H38" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
@@ -3121,7 +3124,7 @@
         <v>385</v>
       </c>
       <c r="B39" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D39">
         <v>1435</v>
@@ -3133,10 +3136,10 @@
         <v>386</v>
       </c>
       <c r="G39" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H39" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
@@ -3156,18 +3159,18 @@
         <v>75</v>
       </c>
       <c r="G40" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H40" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="B41" t="s">
         <v>495</v>
-      </c>
-      <c r="B41" t="s">
-        <v>496</v>
       </c>
       <c r="C41" t="s">
         <v>37</v>
@@ -3179,10 +3182,10 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G41" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
@@ -3205,18 +3208,18 @@
         <v>34</v>
       </c>
       <c r="G42" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H42" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="B43" t="s">
         <v>492</v>
-      </c>
-      <c r="B43" t="s">
-        <v>493</v>
       </c>
       <c r="D43">
         <v>1351</v>
@@ -3225,24 +3228,24 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="G43" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H43" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="B44" t="s">
         <v>474</v>
       </c>
-      <c r="B44" t="s">
+      <c r="C44" t="s">
         <v>475</v>
-      </c>
-      <c r="C44" t="s">
-        <v>476</v>
       </c>
       <c r="D44">
         <v>1480</v>
@@ -3254,59 +3257,59 @@
         <v>52</v>
       </c>
       <c r="G44" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H44" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B45" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="D45">
         <v>1287</v>
       </c>
       <c r="E45" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F45" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="G45" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H45" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B46" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="D46">
         <v>1288</v>
       </c>
       <c r="E46" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F46" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="G46" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H46" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="I46" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
@@ -3326,10 +3329,10 @@
         <v>254</v>
       </c>
       <c r="G47" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H47" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
@@ -3349,10 +3352,10 @@
         <v>34</v>
       </c>
       <c r="G48" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H48" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
@@ -3375,7 +3378,7 @@
         <v>38</v>
       </c>
       <c r="G49" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
@@ -3395,7 +3398,7 @@
         <v>270</v>
       </c>
       <c r="G50" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
@@ -3415,10 +3418,10 @@
         <v>68</v>
       </c>
       <c r="G51" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H51" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
@@ -3438,10 +3441,10 @@
         <v>14</v>
       </c>
       <c r="G52" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H52" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
@@ -3464,15 +3467,15 @@
         <v>38</v>
       </c>
       <c r="G53" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="B54" t="s">
         <v>450</v>
-      </c>
-      <c r="B54" t="s">
-        <v>451</v>
       </c>
       <c r="D54">
         <v>1410</v>
@@ -3484,15 +3487,15 @@
         <v>14</v>
       </c>
       <c r="G54" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="B55" t="s">
         <v>513</v>
-      </c>
-      <c r="B55" t="s">
-        <v>514</v>
       </c>
       <c r="D55">
         <v>1481</v>
@@ -3501,13 +3504,13 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="G55" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H55" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
@@ -3530,38 +3533,38 @@
         <v>38</v>
       </c>
       <c r="G56" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B57" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="D57">
         <v>1290</v>
       </c>
       <c r="E57" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F57" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="G57" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H57" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="B58" t="s">
         <v>409</v>
-      </c>
-      <c r="B58" t="s">
-        <v>410</v>
       </c>
       <c r="D58">
         <v>1410</v>
@@ -3573,7 +3576,7 @@
         <v>14</v>
       </c>
       <c r="G58" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
@@ -3596,10 +3599,10 @@
         <v>34</v>
       </c>
       <c r="G59" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H59" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
@@ -3619,10 +3622,10 @@
         <v>14</v>
       </c>
       <c r="G60" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H60" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
@@ -3642,10 +3645,10 @@
         <v>34</v>
       </c>
       <c r="G61" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H61" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
@@ -3665,18 +3668,18 @@
         <v>34</v>
       </c>
       <c r="G62" t="s">
+        <v>549</v>
+      </c>
+      <c r="H62" t="s">
         <v>550</v>
-      </c>
-      <c r="H62" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="B63" t="s">
         <v>440</v>
-      </c>
-      <c r="B63" t="s">
-        <v>441</v>
       </c>
       <c r="D63">
         <v>1375</v>
@@ -3688,10 +3691,10 @@
         <v>17</v>
       </c>
       <c r="G63" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H63" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
@@ -3711,10 +3714,10 @@
         <v>194</v>
       </c>
       <c r="G64" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H64" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
@@ -3734,15 +3737,15 @@
         <v>11</v>
       </c>
       <c r="G65" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H65" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B66" t="s">
         <v>184</v>
@@ -3757,10 +3760,10 @@
         <v>11</v>
       </c>
       <c r="G66" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H66" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
@@ -3768,7 +3771,7 @@
         <v>349</v>
       </c>
       <c r="B67" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D67">
         <v>1350</v>
@@ -3780,10 +3783,10 @@
         <v>34</v>
       </c>
       <c r="G67" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H67" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.2">
@@ -3806,18 +3809,18 @@
         <v>34</v>
       </c>
       <c r="G68" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H68" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="B69" t="s">
         <v>472</v>
-      </c>
-      <c r="B69" t="s">
-        <v>473</v>
       </c>
       <c r="D69">
         <v>1450</v>
@@ -3829,41 +3832,41 @@
         <v>75</v>
       </c>
       <c r="G69" t="s">
+        <v>549</v>
+      </c>
+      <c r="H69" t="s">
         <v>550</v>
-      </c>
-      <c r="H69" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B70" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="D70">
         <v>1213</v>
       </c>
       <c r="E70" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F70" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="G70" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H70" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="B71" t="s">
         <v>459</v>
-      </c>
-      <c r="B71" t="s">
-        <v>460</v>
       </c>
       <c r="D71">
         <v>1325</v>
@@ -3875,7 +3878,7 @@
         <v>91</v>
       </c>
       <c r="G71" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.2">
@@ -3883,7 +3886,7 @@
         <v>341</v>
       </c>
       <c r="B72" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="D72">
         <v>1405</v>
@@ -3895,10 +3898,10 @@
         <v>254</v>
       </c>
       <c r="G72" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H72" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.2">
@@ -3918,10 +3921,10 @@
         <v>34</v>
       </c>
       <c r="G73" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H73" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
@@ -3944,15 +3947,15 @@
         <v>52</v>
       </c>
       <c r="G74" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="B75" t="s">
         <v>500</v>
-      </c>
-      <c r="B75" t="s">
-        <v>501</v>
       </c>
       <c r="D75">
         <v>1325</v>
@@ -3964,10 +3967,10 @@
         <v>91</v>
       </c>
       <c r="G75" t="s">
+        <v>549</v>
+      </c>
+      <c r="H75" t="s">
         <v>550</v>
-      </c>
-      <c r="H75" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
@@ -3987,7 +3990,7 @@
         <v>14</v>
       </c>
       <c r="G76" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
@@ -4007,18 +4010,18 @@
         <v>34</v>
       </c>
       <c r="G77" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H77" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="B78" t="s">
         <v>466</v>
-      </c>
-      <c r="B78" t="s">
-        <v>467</v>
       </c>
       <c r="D78">
         <v>1325</v>
@@ -4030,10 +4033,10 @@
         <v>91</v>
       </c>
       <c r="G78" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H78" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.2">
@@ -4053,18 +4056,18 @@
         <v>91</v>
       </c>
       <c r="G79" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H79" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B80" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="D80">
         <v>1375</v>
@@ -4076,7 +4079,7 @@
         <v>17</v>
       </c>
       <c r="G80" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
@@ -4084,7 +4087,7 @@
         <v>242</v>
       </c>
       <c r="B81" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="D81">
         <v>1375</v>
@@ -4096,15 +4099,15 @@
         <v>17</v>
       </c>
       <c r="G81" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B82" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="D82">
         <v>1375</v>
@@ -4116,7 +4119,7 @@
         <v>17</v>
       </c>
       <c r="G82" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.2">
@@ -4136,10 +4139,10 @@
         <v>34</v>
       </c>
       <c r="G83" t="s">
+        <v>549</v>
+      </c>
+      <c r="H83" t="s">
         <v>550</v>
-      </c>
-      <c r="H83" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.2">
@@ -4159,7 +4162,7 @@
         <v>31</v>
       </c>
       <c r="G84" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
@@ -4179,7 +4182,7 @@
         <v>14</v>
       </c>
       <c r="G85" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.2">
@@ -4202,18 +4205,18 @@
         <v>68</v>
       </c>
       <c r="G86" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H86" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="B87" t="s">
         <v>404</v>
-      </c>
-      <c r="B87" t="s">
-        <v>405</v>
       </c>
       <c r="C87" t="s">
         <v>37</v>
@@ -4225,13 +4228,13 @@
         <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="G87" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H87" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.2">
@@ -4251,10 +4254,10 @@
         <v>114</v>
       </c>
       <c r="G88" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H88" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.2">
@@ -4277,18 +4280,18 @@
         <v>117</v>
       </c>
       <c r="G89" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H89" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="B90" t="s">
         <v>436</v>
-      </c>
-      <c r="B90" t="s">
-        <v>437</v>
       </c>
       <c r="D90">
         <v>1375</v>
@@ -4300,18 +4303,18 @@
         <v>17</v>
       </c>
       <c r="G90" t="s">
+        <v>549</v>
+      </c>
+      <c r="H90" t="s">
         <v>550</v>
-      </c>
-      <c r="H90" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B91" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D91">
         <v>1325</v>
@@ -4323,10 +4326,10 @@
         <v>91</v>
       </c>
       <c r="G91" t="s">
+        <v>549</v>
+      </c>
+      <c r="H91" t="s">
         <v>550</v>
-      </c>
-      <c r="H91" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.2">
@@ -4334,7 +4337,7 @@
         <v>330</v>
       </c>
       <c r="B92" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D92">
         <v>1350</v>
@@ -4346,10 +4349,10 @@
         <v>34</v>
       </c>
       <c r="G92" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H92" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.2">
@@ -4369,15 +4372,15 @@
         <v>169</v>
       </c>
       <c r="G93" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="B94" t="s">
         <v>497</v>
-      </c>
-      <c r="B94" t="s">
-        <v>498</v>
       </c>
       <c r="D94">
         <v>1550</v>
@@ -4386,21 +4389,21 @@
         <v>10</v>
       </c>
       <c r="F94" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="G94" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H94" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="B95" t="s">
         <v>481</v>
-      </c>
-      <c r="B95" t="s">
-        <v>482</v>
       </c>
       <c r="C95" t="s">
         <v>131</v>
@@ -4415,10 +4418,10 @@
         <v>31</v>
       </c>
       <c r="G95" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H95" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.2">
@@ -4438,10 +4441,10 @@
         <v>317</v>
       </c>
       <c r="G96" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H96" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.2">
@@ -4461,10 +4464,10 @@
         <v>282</v>
       </c>
       <c r="G97" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H97" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.2">
@@ -4484,10 +4487,10 @@
         <v>114</v>
       </c>
       <c r="G98" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H98" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.2">
@@ -4507,10 +4510,10 @@
         <v>401</v>
       </c>
       <c r="G99" t="s">
+        <v>549</v>
+      </c>
+      <c r="H99" t="s">
         <v>550</v>
-      </c>
-      <c r="H99" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.2">
@@ -4533,10 +4536,10 @@
         <v>353</v>
       </c>
       <c r="G100" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H100" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.2">
@@ -4559,10 +4562,10 @@
         <v>14</v>
       </c>
       <c r="G101" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H101" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.2">
@@ -4582,10 +4585,10 @@
         <v>91</v>
       </c>
       <c r="G102" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H102" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.2">
@@ -4593,7 +4596,7 @@
         <v>120</v>
       </c>
       <c r="B103" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="D103">
         <v>1325</v>
@@ -4605,13 +4608,13 @@
         <v>91</v>
       </c>
       <c r="G103" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H103" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="I103" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.2">
@@ -4619,7 +4622,7 @@
         <v>284</v>
       </c>
       <c r="B104" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="D104">
         <v>1325</v>
@@ -4631,10 +4634,10 @@
         <v>91</v>
       </c>
       <c r="G104" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H104" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.2">
@@ -4654,7 +4657,7 @@
         <v>14</v>
       </c>
       <c r="G105" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.2">
@@ -4674,10 +4677,10 @@
         <v>91</v>
       </c>
       <c r="G106" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H106" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.2">
@@ -4700,10 +4703,10 @@
         <v>83</v>
       </c>
       <c r="G107" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H107" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.2">
@@ -4723,10 +4726,10 @@
         <v>31</v>
       </c>
       <c r="G108" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H108" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.2">
@@ -4734,7 +4737,7 @@
         <v>69</v>
       </c>
       <c r="B109" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C109" t="s">
         <v>70</v>
@@ -4749,41 +4752,41 @@
         <v>34</v>
       </c>
       <c r="G109" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H109" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B110" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D110">
         <v>1230</v>
       </c>
       <c r="E110" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F110" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="G110" t="s">
+        <v>549</v>
+      </c>
+      <c r="H110" t="s">
         <v>550</v>
-      </c>
-      <c r="H110" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="B111" t="s">
         <v>502</v>
-      </c>
-      <c r="B111" t="s">
-        <v>503</v>
       </c>
       <c r="D111">
         <v>1387.5</v>
@@ -4795,10 +4798,10 @@
         <v>11</v>
       </c>
       <c r="G111" t="s">
+        <v>549</v>
+      </c>
+      <c r="H111" t="s">
         <v>550</v>
-      </c>
-      <c r="H111" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.2">
@@ -4818,7 +4821,7 @@
         <v>14</v>
       </c>
       <c r="G112" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.2">
@@ -4838,10 +4841,10 @@
         <v>17</v>
       </c>
       <c r="G113" t="s">
+        <v>549</v>
+      </c>
+      <c r="H113" t="s">
         <v>550</v>
-      </c>
-      <c r="H113" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.2">
@@ -4861,15 +4864,15 @@
         <v>17</v>
       </c>
       <c r="G114" t="s">
+        <v>549</v>
+      </c>
+      <c r="H114" t="s">
         <v>550</v>
-      </c>
-      <c r="H114" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B115" t="s">
         <v>174</v>
@@ -4884,15 +4887,15 @@
         <v>83</v>
       </c>
       <c r="G115" t="s">
+        <v>549</v>
+      </c>
+      <c r="H115" t="s">
         <v>550</v>
-      </c>
-      <c r="H115" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B116" t="s">
         <v>174</v>
@@ -4907,33 +4910,33 @@
         <v>83</v>
       </c>
       <c r="G116" t="s">
+        <v>549</v>
+      </c>
+      <c r="H116" t="s">
         <v>550</v>
-      </c>
-      <c r="H116" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B117" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="D117">
         <v>1295.5</v>
       </c>
       <c r="E117" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F117" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="G117" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H117" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.2">
@@ -4953,10 +4956,10 @@
         <v>17</v>
       </c>
       <c r="G118" t="s">
+        <v>549</v>
+      </c>
+      <c r="H118" t="s">
         <v>550</v>
-      </c>
-      <c r="H118" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.2">
@@ -4976,10 +4979,10 @@
         <v>17</v>
       </c>
       <c r="G119" t="s">
+        <v>549</v>
+      </c>
+      <c r="H119" t="s">
         <v>550</v>
-      </c>
-      <c r="H119" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.2">
@@ -4999,10 +5002,10 @@
         <v>17</v>
       </c>
       <c r="G120" t="s">
+        <v>549</v>
+      </c>
+      <c r="H120" t="s">
         <v>550</v>
-      </c>
-      <c r="H120" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.2">
@@ -5022,10 +5025,10 @@
         <v>34</v>
       </c>
       <c r="G121" t="s">
+        <v>549</v>
+      </c>
+      <c r="H121" t="s">
         <v>550</v>
-      </c>
-      <c r="H121" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.2">
@@ -5045,10 +5048,10 @@
         <v>34</v>
       </c>
       <c r="G122" t="s">
+        <v>549</v>
+      </c>
+      <c r="H122" t="s">
         <v>550</v>
-      </c>
-      <c r="H122" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.2">
@@ -5068,10 +5071,10 @@
         <v>17</v>
       </c>
       <c r="G123" t="s">
+        <v>549</v>
+      </c>
+      <c r="H123" t="s">
         <v>550</v>
-      </c>
-      <c r="H123" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.2">
@@ -5091,10 +5094,10 @@
         <v>11</v>
       </c>
       <c r="G124" t="s">
+        <v>549</v>
+      </c>
+      <c r="H124" t="s">
         <v>550</v>
-      </c>
-      <c r="H124" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.2">
@@ -5114,10 +5117,10 @@
         <v>11</v>
       </c>
       <c r="G125" t="s">
+        <v>549</v>
+      </c>
+      <c r="H125" t="s">
         <v>550</v>
-      </c>
-      <c r="H125" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.2">
@@ -5137,10 +5140,10 @@
         <v>34</v>
       </c>
       <c r="G126" t="s">
+        <v>549</v>
+      </c>
+      <c r="H126" t="s">
         <v>550</v>
-      </c>
-      <c r="H126" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.2">
@@ -5160,10 +5163,10 @@
         <v>34</v>
       </c>
       <c r="G127" t="s">
+        <v>549</v>
+      </c>
+      <c r="H127" t="s">
         <v>550</v>
-      </c>
-      <c r="H127" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.2">
@@ -5183,10 +5186,10 @@
         <v>34</v>
       </c>
       <c r="G128" t="s">
+        <v>549</v>
+      </c>
+      <c r="H128" t="s">
         <v>550</v>
-      </c>
-      <c r="H128" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.2">
@@ -5206,10 +5209,10 @@
         <v>17</v>
       </c>
       <c r="G129" t="s">
+        <v>549</v>
+      </c>
+      <c r="H129" t="s">
         <v>550</v>
-      </c>
-      <c r="H129" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.2">
@@ -5229,10 +5232,10 @@
         <v>17</v>
       </c>
       <c r="G130" t="s">
+        <v>549</v>
+      </c>
+      <c r="H130" t="s">
         <v>550</v>
-      </c>
-      <c r="H130" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.2">
@@ -5252,10 +5255,10 @@
         <v>31</v>
       </c>
       <c r="G131" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H131" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.2">
@@ -5263,7 +5266,7 @@
         <v>230</v>
       </c>
       <c r="B132" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C132" t="s">
         <v>231</v>
@@ -5278,7 +5281,7 @@
         <v>34</v>
       </c>
       <c r="G132" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.2">
@@ -5301,13 +5304,13 @@
         <v>91</v>
       </c>
       <c r="G133" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H133" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="I133" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.2">
@@ -5330,13 +5333,13 @@
         <v>17</v>
       </c>
       <c r="G134" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H134" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="I134" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.2">
@@ -5359,13 +5362,13 @@
         <v>17</v>
       </c>
       <c r="G135" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H135" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="I135" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.2">
@@ -5388,18 +5391,18 @@
         <v>91</v>
       </c>
       <c r="G136" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H136" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="B137" t="s">
         <v>507</v>
-      </c>
-      <c r="B137" t="s">
-        <v>508</v>
       </c>
       <c r="D137">
         <v>1325</v>
@@ -5411,15 +5414,15 @@
         <v>91</v>
       </c>
       <c r="G137" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="B138" t="s">
         <v>488</v>
-      </c>
-      <c r="B138" t="s">
-        <v>489</v>
       </c>
       <c r="D138">
         <v>1350</v>
@@ -5431,27 +5434,27 @@
         <v>83</v>
       </c>
       <c r="G138" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B139" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="D139">
         <v>1295.5</v>
       </c>
       <c r="E139" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F139" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="G139" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.2">
@@ -5459,7 +5462,7 @@
         <v>90</v>
       </c>
       <c r="B140" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D140">
         <v>1325</v>
@@ -5471,10 +5474,10 @@
         <v>91</v>
       </c>
       <c r="G140" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H140" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.2">
@@ -5494,10 +5497,10 @@
         <v>299</v>
       </c>
       <c r="G141" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H141" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.2">
@@ -5520,18 +5523,18 @@
         <v>14</v>
       </c>
       <c r="G142" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H142" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="B143" t="s">
         <v>421</v>
-      </c>
-      <c r="B143" t="s">
-        <v>422</v>
       </c>
       <c r="D143">
         <v>1400</v>
@@ -5543,10 +5546,10 @@
         <v>31</v>
       </c>
       <c r="G143" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H143" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.2">
@@ -5566,18 +5569,18 @@
         <v>31</v>
       </c>
       <c r="G144" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H144" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="B145" t="s">
         <v>490</v>
-      </c>
-      <c r="B145" t="s">
-        <v>491</v>
       </c>
       <c r="D145">
         <v>1400</v>
@@ -5589,10 +5592,10 @@
         <v>31</v>
       </c>
       <c r="G145" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H145" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.2">
@@ -5612,10 +5615,10 @@
         <v>161</v>
       </c>
       <c r="G146" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H146" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.2">
@@ -5635,10 +5638,10 @@
         <v>83</v>
       </c>
       <c r="G147" t="s">
+        <v>549</v>
+      </c>
+      <c r="H147" t="s">
         <v>550</v>
-      </c>
-      <c r="H147" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.2">
@@ -5658,10 +5661,10 @@
         <v>83</v>
       </c>
       <c r="G148" t="s">
+        <v>549</v>
+      </c>
+      <c r="H148" t="s">
         <v>550</v>
-      </c>
-      <c r="H148" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.2">
@@ -5681,10 +5684,10 @@
         <v>83</v>
       </c>
       <c r="G149" t="s">
+        <v>549</v>
+      </c>
+      <c r="H149" t="s">
         <v>550</v>
-      </c>
-      <c r="H149" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.2">
@@ -5704,10 +5707,10 @@
         <v>83</v>
       </c>
       <c r="G150" t="s">
+        <v>549</v>
+      </c>
+      <c r="H150" t="s">
         <v>550</v>
-      </c>
-      <c r="H150" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.2">
@@ -5727,10 +5730,10 @@
         <v>109</v>
       </c>
       <c r="G151" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H151" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.2">
@@ -5750,10 +5753,10 @@
         <v>11</v>
       </c>
       <c r="G152" t="s">
+        <v>549</v>
+      </c>
+      <c r="H152" t="s">
         <v>550</v>
-      </c>
-      <c r="H152" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.2">
@@ -5773,10 +5776,10 @@
         <v>34</v>
       </c>
       <c r="G153" t="s">
+        <v>549</v>
+      </c>
+      <c r="H153" t="s">
         <v>550</v>
-      </c>
-      <c r="H153" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.2">
@@ -5796,10 +5799,10 @@
         <v>83</v>
       </c>
       <c r="G154" t="s">
+        <v>549</v>
+      </c>
+      <c r="H154" t="s">
         <v>550</v>
-      </c>
-      <c r="H154" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.2">
@@ -5819,18 +5822,18 @@
         <v>11</v>
       </c>
       <c r="G155" t="s">
+        <v>549</v>
+      </c>
+      <c r="H155" t="s">
         <v>550</v>
-      </c>
-      <c r="H155" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="B156" t="s">
         <v>443</v>
-      </c>
-      <c r="B156" t="s">
-        <v>444</v>
       </c>
       <c r="D156">
         <v>1390</v>
@@ -5839,13 +5842,13 @@
         <v>10</v>
       </c>
       <c r="F156" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G156" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H156" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.2">
@@ -5865,10 +5868,10 @@
         <v>99</v>
       </c>
       <c r="G157" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H157" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.2">
@@ -5888,10 +5891,10 @@
         <v>34</v>
       </c>
       <c r="G158" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H158" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.2">
@@ -5911,10 +5914,10 @@
         <v>34</v>
       </c>
       <c r="G159" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H159" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.2">
@@ -5934,10 +5937,10 @@
         <v>247</v>
       </c>
       <c r="G160" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H160" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.2">
@@ -5957,15 +5960,15 @@
         <v>11</v>
       </c>
       <c r="G161" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H161" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B162" t="s">
         <v>33</v>
@@ -5980,15 +5983,15 @@
         <v>17</v>
       </c>
       <c r="G162" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H162" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B163" t="s">
         <v>33</v>
@@ -6003,33 +6006,33 @@
         <v>247</v>
       </c>
       <c r="G163" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H163" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B164" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="D164">
         <v>1288</v>
       </c>
       <c r="E164" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F164" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="G164" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H164" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.2">
@@ -6037,7 +6040,7 @@
         <v>182</v>
       </c>
       <c r="B165" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="D165">
         <v>1325</v>
@@ -6049,13 +6052,13 @@
         <v>91</v>
       </c>
       <c r="G165" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H165" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="I165" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.2">
@@ -6063,7 +6066,7 @@
         <v>201</v>
       </c>
       <c r="B166" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="D166">
         <v>1325</v>
@@ -6075,13 +6078,13 @@
         <v>91</v>
       </c>
       <c r="G166" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H166" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="I166" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.2">
@@ -6101,18 +6104,18 @@
         <v>91</v>
       </c>
       <c r="G167" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H167" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="B168" t="s">
         <v>511</v>
-      </c>
-      <c r="B168" t="s">
-        <v>512</v>
       </c>
       <c r="D168">
         <v>1470</v>
@@ -6124,33 +6127,33 @@
         <v>286</v>
       </c>
       <c r="G168" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H168" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B169" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="D169">
         <v>1288</v>
       </c>
       <c r="E169" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F169" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="G169" t="s">
+        <v>549</v>
+      </c>
+      <c r="H169" t="s">
         <v>550</v>
-      </c>
-      <c r="H169" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.2">
@@ -6170,10 +6173,10 @@
         <v>34</v>
       </c>
       <c r="G170" t="s">
+        <v>549</v>
+      </c>
+      <c r="H170" t="s">
         <v>550</v>
-      </c>
-      <c r="H170" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.2">
@@ -6193,10 +6196,10 @@
         <v>83</v>
       </c>
       <c r="G171" t="s">
+        <v>549</v>
+      </c>
+      <c r="H171" t="s">
         <v>550</v>
-      </c>
-      <c r="H171" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.2">
@@ -6216,10 +6219,10 @@
         <v>317</v>
       </c>
       <c r="G172" t="s">
+        <v>549</v>
+      </c>
+      <c r="H172" t="s">
         <v>550</v>
-      </c>
-      <c r="H172" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.2">
@@ -6239,10 +6242,10 @@
         <v>34</v>
       </c>
       <c r="G173" t="s">
+        <v>549</v>
+      </c>
+      <c r="H173" t="s">
         <v>550</v>
-      </c>
-      <c r="H173" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.2">
@@ -6250,7 +6253,7 @@
         <v>251</v>
       </c>
       <c r="B174" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="D174">
         <v>1362.5</v>
@@ -6262,21 +6265,21 @@
         <v>194</v>
       </c>
       <c r="G174" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H174" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="I174" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B175" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="D175">
         <v>1325</v>
@@ -6288,33 +6291,33 @@
         <v>91</v>
       </c>
       <c r="G175" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H175" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B176" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="D176">
         <v>1285</v>
       </c>
       <c r="E176" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F176" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="G176" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H176" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.2">
@@ -6337,10 +6340,10 @@
         <v>334</v>
       </c>
       <c r="G177" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H177" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.2">
@@ -6363,10 +6366,10 @@
         <v>363</v>
       </c>
       <c r="G178" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H178" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.2">
@@ -6386,7 +6389,7 @@
         <v>52</v>
       </c>
       <c r="G179" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.2">
@@ -6409,7 +6412,7 @@
         <v>31</v>
       </c>
       <c r="G180" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.2">
@@ -6429,10 +6432,10 @@
         <v>17</v>
       </c>
       <c r="G181" t="s">
+        <v>549</v>
+      </c>
+      <c r="H181" t="s">
         <v>550</v>
-      </c>
-      <c r="H181" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.2">
@@ -6452,10 +6455,10 @@
         <v>83</v>
       </c>
       <c r="G182" t="s">
+        <v>549</v>
+      </c>
+      <c r="H182" t="s">
         <v>550</v>
-      </c>
-      <c r="H182" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.2">
@@ -6475,10 +6478,10 @@
         <v>17</v>
       </c>
       <c r="G183" t="s">
+        <v>549</v>
+      </c>
+      <c r="H183" t="s">
         <v>550</v>
-      </c>
-      <c r="H183" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.2">
@@ -6498,10 +6501,10 @@
         <v>17</v>
       </c>
       <c r="G184" t="s">
+        <v>549</v>
+      </c>
+      <c r="H184" t="s">
         <v>550</v>
-      </c>
-      <c r="H184" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.2">
@@ -6521,10 +6524,10 @@
         <v>373</v>
       </c>
       <c r="G185" t="s">
+        <v>549</v>
+      </c>
+      <c r="H185" t="s">
         <v>550</v>
-      </c>
-      <c r="H185" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.2">
@@ -6544,10 +6547,10 @@
         <v>34</v>
       </c>
       <c r="G186" t="s">
+        <v>549</v>
+      </c>
+      <c r="H186" t="s">
         <v>550</v>
-      </c>
-      <c r="H186" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.2">
@@ -6567,10 +6570,10 @@
         <v>91</v>
       </c>
       <c r="G187" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H187" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.2">
@@ -6590,10 +6593,10 @@
         <v>91</v>
       </c>
       <c r="G188" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H188" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.2">
@@ -6613,10 +6616,10 @@
         <v>91</v>
       </c>
       <c r="G189" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H189" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="190" spans="1:9" x14ac:dyDescent="0.2">
@@ -6636,10 +6639,10 @@
         <v>91</v>
       </c>
       <c r="G190" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H190" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="191" spans="1:9" x14ac:dyDescent="0.2">
@@ -6647,7 +6650,7 @@
         <v>200</v>
       </c>
       <c r="B191" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="D191">
         <v>1350</v>
@@ -6659,13 +6662,13 @@
         <v>34</v>
       </c>
       <c r="G191" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H191" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="I191" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="192" spans="1:9" x14ac:dyDescent="0.2">
@@ -6673,7 +6676,7 @@
         <v>293</v>
       </c>
       <c r="B192" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="D192">
         <v>1325</v>
@@ -6685,13 +6688,13 @@
         <v>91</v>
       </c>
       <c r="G192" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H192" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="I192" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.2">
@@ -6699,7 +6702,7 @@
         <v>207</v>
       </c>
       <c r="B193" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D193">
         <v>1325</v>
@@ -6711,10 +6714,10 @@
         <v>91</v>
       </c>
       <c r="G193" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H193" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="194" spans="1:9" x14ac:dyDescent="0.2">
@@ -6734,10 +6737,10 @@
         <v>83</v>
       </c>
       <c r="G194" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H194" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="195" spans="1:9" x14ac:dyDescent="0.2">
@@ -6760,18 +6763,18 @@
         <v>91</v>
       </c>
       <c r="G195" s="3" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H195" s="3" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A196" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="B196" t="s">
         <v>423</v>
-      </c>
-      <c r="B196" t="s">
-        <v>424</v>
       </c>
       <c r="D196">
         <v>1410</v>
@@ -6783,10 +6786,10 @@
         <v>14</v>
       </c>
       <c r="G196" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H196" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="197" spans="1:9" x14ac:dyDescent="0.2">
@@ -6794,7 +6797,7 @@
         <v>348</v>
       </c>
       <c r="B197" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D197">
         <v>1387.5</v>
@@ -6806,10 +6809,10 @@
         <v>11</v>
       </c>
       <c r="G197" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H197" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="198" spans="1:9" x14ac:dyDescent="0.2">
@@ -6832,10 +6835,10 @@
         <v>14</v>
       </c>
       <c r="G198" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H198" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.2">
@@ -6858,10 +6861,10 @@
         <v>61</v>
       </c>
       <c r="G199" s="3" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H199" s="3" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="200" spans="1:9" x14ac:dyDescent="0.2">
@@ -6869,7 +6872,7 @@
         <v>195</v>
       </c>
       <c r="B200" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="D200">
         <v>1350</v>
@@ -6881,21 +6884,21 @@
         <v>83</v>
       </c>
       <c r="G200" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H200" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A201" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="B201" t="s">
         <v>461</v>
       </c>
-      <c r="B201" t="s">
+      <c r="C201" t="s">
         <v>462</v>
-      </c>
-      <c r="C201" t="s">
-        <v>463</v>
       </c>
       <c r="D201">
         <v>1475</v>
@@ -6904,13 +6907,13 @@
         <v>10</v>
       </c>
       <c r="F201" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="G201" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H201" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="202" spans="1:9" x14ac:dyDescent="0.2">
@@ -6933,10 +6936,10 @@
         <v>91</v>
       </c>
       <c r="G202" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H202" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="203" spans="1:9" x14ac:dyDescent="0.2">
@@ -6959,33 +6962,33 @@
         <v>14</v>
       </c>
       <c r="G203" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H203" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="204" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A204" s="1" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B204" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="D204">
         <v>1288</v>
       </c>
       <c r="E204" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F204" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="G204" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H204" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="205" spans="1:9" x14ac:dyDescent="0.2">
@@ -7005,59 +7008,59 @@
         <v>41</v>
       </c>
       <c r="G205" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H205" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="I205" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="206" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A206" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B206" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D206">
         <v>1267.5</v>
       </c>
       <c r="E206" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F206" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="G206" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H206" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="207" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A207" s="1" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B207" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D207">
         <v>1288</v>
       </c>
       <c r="E207" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F207" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="G207" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H207" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="208" spans="1:9" x14ac:dyDescent="0.2">
@@ -7077,10 +7080,10 @@
         <v>17</v>
       </c>
       <c r="G208" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H208" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="209" spans="1:9" x14ac:dyDescent="0.2">
@@ -7103,10 +7106,10 @@
         <v>75</v>
       </c>
       <c r="G209" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H209" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="210" spans="1:9" x14ac:dyDescent="0.2">
@@ -7126,7 +7129,7 @@
         <v>75</v>
       </c>
       <c r="G210" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.2">
@@ -7146,7 +7149,7 @@
         <v>339</v>
       </c>
       <c r="G211" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.2">
@@ -7169,10 +7172,10 @@
         <v>23</v>
       </c>
       <c r="G212" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H212" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="213" spans="1:9" x14ac:dyDescent="0.2">
@@ -7180,7 +7183,7 @@
         <v>301</v>
       </c>
       <c r="B213" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D213">
         <v>1450</v>
@@ -7192,18 +7195,18 @@
         <v>75</v>
       </c>
       <c r="G213" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H213" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A214" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B214" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D214">
         <v>1450</v>
@@ -7215,21 +7218,21 @@
         <v>75</v>
       </c>
       <c r="G214" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H214" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="I214" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="215" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A215" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B215" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D215">
         <v>1375</v>
@@ -7241,21 +7244,21 @@
         <v>17</v>
       </c>
       <c r="G215" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H215" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="I215" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A216" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B216" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D216">
         <v>1350</v>
@@ -7267,13 +7270,13 @@
         <v>83</v>
       </c>
       <c r="G216" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H216" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="I216" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="217" spans="1:9" x14ac:dyDescent="0.2">
@@ -7281,7 +7284,7 @@
         <v>185</v>
       </c>
       <c r="B217" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C217" t="s">
         <v>37</v>
@@ -7296,10 +7299,10 @@
         <v>57</v>
       </c>
       <c r="G217" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H217" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="218" spans="1:9" x14ac:dyDescent="0.2">
@@ -7307,7 +7310,7 @@
         <v>26</v>
       </c>
       <c r="B218" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C218" t="s">
         <v>27</v>
@@ -7322,10 +7325,10 @@
         <v>28</v>
       </c>
       <c r="G218" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H218" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="219" spans="1:9" x14ac:dyDescent="0.2">
@@ -7333,7 +7336,7 @@
         <v>87</v>
       </c>
       <c r="B219" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C219" t="s">
         <v>27</v>
@@ -7348,10 +7351,10 @@
         <v>31</v>
       </c>
       <c r="G219" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H219" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="220" spans="1:9" x14ac:dyDescent="0.2">
@@ -7359,7 +7362,7 @@
         <v>133</v>
       </c>
       <c r="B220" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C220" t="s">
         <v>27</v>
@@ -7374,10 +7377,10 @@
         <v>134</v>
       </c>
       <c r="G220" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H220" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="221" spans="1:9" x14ac:dyDescent="0.2">
@@ -7385,7 +7388,7 @@
         <v>271</v>
       </c>
       <c r="B221" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C221" t="s">
         <v>27</v>
@@ -7400,10 +7403,10 @@
         <v>91</v>
       </c>
       <c r="G221" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H221" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="222" spans="1:9" x14ac:dyDescent="0.2">
@@ -7411,7 +7414,7 @@
         <v>274</v>
       </c>
       <c r="B222" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C222" t="s">
         <v>27</v>
@@ -7426,10 +7429,10 @@
         <v>31</v>
       </c>
       <c r="G222" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H222" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="223" spans="1:9" x14ac:dyDescent="0.2">
@@ -7437,7 +7440,7 @@
         <v>306</v>
       </c>
       <c r="B223" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C223" t="s">
         <v>27</v>
@@ -7452,10 +7455,10 @@
         <v>258</v>
       </c>
       <c r="G223" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H223" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="224" spans="1:9" x14ac:dyDescent="0.2">
@@ -7463,7 +7466,7 @@
         <v>340</v>
       </c>
       <c r="B224" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C224" t="s">
         <v>27</v>
@@ -7478,10 +7481,10 @@
         <v>57</v>
       </c>
       <c r="G224" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H224" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.2">
@@ -7489,7 +7492,7 @@
         <v>398</v>
       </c>
       <c r="B225" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C225" t="s">
         <v>27</v>
@@ -7504,10 +7507,10 @@
         <v>17</v>
       </c>
       <c r="G225" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H225" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.2">
@@ -7515,7 +7518,7 @@
         <v>29</v>
       </c>
       <c r="B226" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C226" t="s">
         <v>30</v>
@@ -7530,10 +7533,10 @@
         <v>31</v>
       </c>
       <c r="G226" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H226" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.2">
@@ -7541,7 +7544,7 @@
         <v>56</v>
       </c>
       <c r="B227" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C227" t="s">
         <v>30</v>
@@ -7556,10 +7559,10 @@
         <v>57</v>
       </c>
       <c r="G227" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H227" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.2">
@@ -7567,7 +7570,7 @@
         <v>89</v>
       </c>
       <c r="B228" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C228" t="s">
         <v>30</v>
@@ -7582,10 +7585,10 @@
         <v>31</v>
       </c>
       <c r="G228" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H228" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.2">
@@ -7593,7 +7596,7 @@
         <v>96</v>
       </c>
       <c r="B229" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C229" t="s">
         <v>30</v>
@@ -7608,10 +7611,10 @@
         <v>31</v>
       </c>
       <c r="G229" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H229" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.2">
@@ -7619,7 +7622,7 @@
         <v>124</v>
       </c>
       <c r="B230" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C230" t="s">
         <v>30</v>
@@ -7634,10 +7637,10 @@
         <v>31</v>
       </c>
       <c r="G230" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H230" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.2">
@@ -7645,7 +7648,7 @@
         <v>127</v>
       </c>
       <c r="B231" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C231" t="s">
         <v>30</v>
@@ -7660,10 +7663,10 @@
         <v>31</v>
       </c>
       <c r="G231" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H231" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.2">
@@ -7671,7 +7674,7 @@
         <v>257</v>
       </c>
       <c r="B232" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C232" t="s">
         <v>30</v>
@@ -7686,10 +7689,10 @@
         <v>258</v>
       </c>
       <c r="G232" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H232" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.2">
@@ -7697,7 +7700,7 @@
         <v>277</v>
       </c>
       <c r="B233" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C233" t="s">
         <v>30</v>
@@ -7712,10 +7715,10 @@
         <v>258</v>
       </c>
       <c r="G233" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H233" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.2">
@@ -7723,7 +7726,7 @@
         <v>280</v>
       </c>
       <c r="B234" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C234" t="s">
         <v>30</v>
@@ -7738,10 +7741,10 @@
         <v>134</v>
       </c>
       <c r="G234" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H234" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="235" spans="1:8" x14ac:dyDescent="0.2">
@@ -7749,7 +7752,7 @@
         <v>335</v>
       </c>
       <c r="B235" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C235" t="s">
         <v>30</v>
@@ -7764,18 +7767,18 @@
         <v>31</v>
       </c>
       <c r="G235" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H235" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="236" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A236" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B236" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C236" t="s">
         <v>30</v>
@@ -7790,18 +7793,18 @@
         <v>57</v>
       </c>
       <c r="G236" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H236" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A237" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B237" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C237" t="s">
         <v>30</v>
@@ -7816,10 +7819,10 @@
         <v>34</v>
       </c>
       <c r="G237" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H237" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.2">
@@ -7827,7 +7830,7 @@
         <v>43</v>
       </c>
       <c r="B238" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C238" t="s">
         <v>30</v>
@@ -7842,18 +7845,18 @@
         <v>44</v>
       </c>
       <c r="G238" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H238" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A239" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="B239" t="s">
         <v>470</v>
-      </c>
-      <c r="B239" t="s">
-        <v>471</v>
       </c>
       <c r="D239">
         <v>1410</v>
@@ -7865,10 +7868,10 @@
         <v>14</v>
       </c>
       <c r="G239" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H239" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="240" spans="1:8" x14ac:dyDescent="0.2">
@@ -7876,7 +7879,7 @@
         <v>313</v>
       </c>
       <c r="B240" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C240" t="s">
         <v>231</v>
@@ -7891,15 +7894,15 @@
         <v>34</v>
       </c>
       <c r="G240" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="241" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A241" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="B241" t="s">
         <v>454</v>
-      </c>
-      <c r="B241" t="s">
-        <v>455</v>
       </c>
       <c r="D241">
         <v>1508</v>
@@ -7908,10 +7911,10 @@
         <v>10</v>
       </c>
       <c r="F241" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="G241" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="242" spans="1:9" x14ac:dyDescent="0.2">
@@ -7931,18 +7934,18 @@
         <v>14</v>
       </c>
       <c r="G242" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H242" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="243" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A243" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="B243" t="s">
         <v>468</v>
-      </c>
-      <c r="B243" t="s">
-        <v>469</v>
       </c>
       <c r="D243">
         <v>1400</v>
@@ -7954,10 +7957,10 @@
         <v>31</v>
       </c>
       <c r="G243" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H243" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="244" spans="1:9" x14ac:dyDescent="0.2">
@@ -7965,7 +7968,7 @@
         <v>235</v>
       </c>
       <c r="B244" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C244" t="s">
         <v>37</v>
@@ -7980,34 +7983,34 @@
         <v>91</v>
       </c>
       <c r="G244" s="3" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H244" s="3" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="I244" s="3"/>
     </row>
     <row r="245" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A245" s="1" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B245" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D245">
         <v>1250</v>
       </c>
       <c r="E245" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F245" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="G245" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H245" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="246" spans="1:9" x14ac:dyDescent="0.2">
@@ -8027,7 +8030,7 @@
         <v>14</v>
       </c>
       <c r="G246" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="247" spans="1:9" x14ac:dyDescent="0.2">
@@ -8047,7 +8050,7 @@
         <v>169</v>
       </c>
       <c r="G247" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="248" spans="1:9" x14ac:dyDescent="0.2">
@@ -8070,7 +8073,7 @@
         <v>38</v>
       </c>
       <c r="G248" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="249" spans="1:9" x14ac:dyDescent="0.2">
@@ -8090,10 +8093,10 @@
         <v>83</v>
       </c>
       <c r="G249" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H249" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="250" spans="1:9" x14ac:dyDescent="0.2">
@@ -8113,10 +8116,10 @@
         <v>34</v>
       </c>
       <c r="G250" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H250" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="251" spans="1:9" x14ac:dyDescent="0.2">
@@ -8139,10 +8142,10 @@
         <v>132</v>
       </c>
       <c r="G251" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H251" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="252" spans="1:9" x14ac:dyDescent="0.2">
@@ -8165,15 +8168,15 @@
         <v>78</v>
       </c>
       <c r="G252" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="253" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A253" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B253" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="D253">
         <v>1487.5</v>
@@ -8185,10 +8188,10 @@
         <v>373</v>
       </c>
       <c r="G253" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H253" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="254" spans="1:9" x14ac:dyDescent="0.2">
@@ -8196,7 +8199,7 @@
         <v>236</v>
       </c>
       <c r="B254" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="D254">
         <v>1465</v>
@@ -8208,10 +8211,10 @@
         <v>237</v>
       </c>
       <c r="G254" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H254" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="255" spans="1:9" x14ac:dyDescent="0.2">
@@ -8234,7 +8237,7 @@
         <v>78</v>
       </c>
       <c r="G255" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="256" spans="1:9" x14ac:dyDescent="0.2">
@@ -8254,10 +8257,10 @@
         <v>17</v>
       </c>
       <c r="G256" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H256" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="257" spans="1:9" x14ac:dyDescent="0.2">
@@ -8280,21 +8283,21 @@
         <v>78</v>
       </c>
       <c r="G257" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H257" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="258" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A258" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B258" t="s">
         <v>504</v>
       </c>
-      <c r="B258" t="s">
+      <c r="C258" t="s">
         <v>505</v>
-      </c>
-      <c r="C258" t="s">
-        <v>506</v>
       </c>
       <c r="D258">
         <v>1402.5</v>
@@ -8306,62 +8309,62 @@
         <v>38</v>
       </c>
       <c r="G258" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H258" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="259" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A259" s="1" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B259" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="D259">
         <v>1288</v>
       </c>
       <c r="E259" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F259" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="G259" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H259" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="I259" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="260" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A260" s="1" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B260" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="D260">
         <v>1270</v>
       </c>
       <c r="E260" t="s">
+        <v>516</v>
+      </c>
+      <c r="F260" t="s">
         <v>517</v>
       </c>
-      <c r="F260" t="s">
-        <v>518</v>
-      </c>
       <c r="G260" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H260" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="I260" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="261" spans="1:9" x14ac:dyDescent="0.2">
@@ -8381,10 +8384,10 @@
         <v>78</v>
       </c>
       <c r="G261" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H261" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="262" spans="1:9" x14ac:dyDescent="0.2">
@@ -8404,10 +8407,10 @@
         <v>17</v>
       </c>
       <c r="G262" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H262" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="263" spans="1:9" x14ac:dyDescent="0.2">
@@ -8427,10 +8430,10 @@
         <v>31</v>
       </c>
       <c r="G263" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H263" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="264" spans="1:9" x14ac:dyDescent="0.2">
@@ -8450,7 +8453,7 @@
         <v>31</v>
       </c>
       <c r="G264" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="265" spans="1:9" x14ac:dyDescent="0.2">
@@ -8473,7 +8476,7 @@
         <v>339</v>
       </c>
       <c r="G265" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="266" spans="1:9" x14ac:dyDescent="0.2">
@@ -8496,10 +8499,10 @@
         <v>31</v>
       </c>
       <c r="G266" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H266" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="267" spans="1:9" x14ac:dyDescent="0.2">
@@ -8519,10 +8522,10 @@
         <v>38</v>
       </c>
       <c r="G267" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H267" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="268" spans="1:9" x14ac:dyDescent="0.2">
@@ -8542,10 +8545,10 @@
         <v>14</v>
       </c>
       <c r="G268" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H268" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="269" spans="1:9" x14ac:dyDescent="0.2">
@@ -8565,10 +8568,10 @@
         <v>83</v>
       </c>
       <c r="G269" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H269" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="270" spans="1:9" x14ac:dyDescent="0.2">
@@ -8588,18 +8591,18 @@
         <v>320</v>
       </c>
       <c r="G270" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H270" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="271" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A271" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="B271" t="s">
         <v>414</v>
-      </c>
-      <c r="B271" t="s">
-        <v>415</v>
       </c>
       <c r="D271">
         <v>1438</v>
@@ -8608,13 +8611,13 @@
         <v>10</v>
       </c>
       <c r="F271" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="G271" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H271" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="272" spans="1:9" x14ac:dyDescent="0.2">
@@ -8634,15 +8637,15 @@
         <v>14</v>
       </c>
       <c r="G272" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="273" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A273" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="B273" t="s">
         <v>433</v>
-      </c>
-      <c r="B273" t="s">
-        <v>434</v>
       </c>
       <c r="C273" t="s">
         <v>212</v>
@@ -8657,21 +8660,21 @@
         <v>14</v>
       </c>
       <c r="G273" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H273" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="274" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A274" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="B274" t="s">
         <v>426</v>
       </c>
-      <c r="B274" t="s">
+      <c r="C274" t="s">
         <v>427</v>
-      </c>
-      <c r="C274" t="s">
-        <v>428</v>
       </c>
       <c r="D274">
         <v>1395</v>
@@ -8680,10 +8683,10 @@
         <v>10</v>
       </c>
       <c r="F274" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G274" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="275" spans="1:9" x14ac:dyDescent="0.2">
@@ -8691,7 +8694,7 @@
         <v>375</v>
       </c>
       <c r="B275" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="D275">
         <v>1350</v>
@@ -8703,10 +8706,10 @@
         <v>34</v>
       </c>
       <c r="G275" t="s">
+        <v>549</v>
+      </c>
+      <c r="H275" t="s">
         <v>550</v>
-      </c>
-      <c r="H275" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="276" spans="1:9" x14ac:dyDescent="0.2">
@@ -8726,21 +8729,21 @@
         <v>247</v>
       </c>
       <c r="G276" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H276" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="277" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A277" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="B277" t="s">
+        <v>580</v>
+      </c>
+      <c r="C277" t="s">
         <v>446</v>
-      </c>
-      <c r="B277" t="s">
-        <v>581</v>
-      </c>
-      <c r="C277" t="s">
-        <v>447</v>
       </c>
       <c r="D277">
         <v>1350</v>
@@ -8749,13 +8752,13 @@
         <v>10</v>
       </c>
       <c r="F277" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="G277" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H277" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="278" spans="1:9" x14ac:dyDescent="0.2">
@@ -8775,10 +8778,10 @@
         <v>91</v>
       </c>
       <c r="G278" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H278" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="279" spans="1:9" x14ac:dyDescent="0.2">
@@ -8801,7 +8804,7 @@
         <v>38</v>
       </c>
       <c r="G279" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="280" spans="1:9" x14ac:dyDescent="0.2">
@@ -8824,41 +8827,41 @@
         <v>91</v>
       </c>
       <c r="G280" t="s">
+        <v>549</v>
+      </c>
+      <c r="H280" t="s">
         <v>550</v>
-      </c>
-      <c r="H280" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="281" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A281" s="1" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B281" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D281">
         <v>1295.5</v>
       </c>
       <c r="E281" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F281" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="G281" t="s">
+        <v>549</v>
+      </c>
+      <c r="H281" t="s">
         <v>550</v>
-      </c>
-      <c r="H281" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="282" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A282" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="B282" t="s">
         <v>457</v>
-      </c>
-      <c r="B282" t="s">
-        <v>458</v>
       </c>
       <c r="D282">
         <v>1350</v>
@@ -8870,39 +8873,39 @@
         <v>34</v>
       </c>
       <c r="G282" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H282" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="I282" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="283" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A283" s="1" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B283" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D283">
         <v>1270</v>
       </c>
       <c r="E283" t="s">
+        <v>516</v>
+      </c>
+      <c r="F283" t="s">
         <v>517</v>
       </c>
-      <c r="F283" t="s">
-        <v>518</v>
-      </c>
       <c r="G283" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H283" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="I283" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="284" spans="1:9" x14ac:dyDescent="0.2">
@@ -8910,7 +8913,7 @@
         <v>292</v>
       </c>
       <c r="B284" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D284">
         <v>1325</v>
@@ -8922,10 +8925,36 @@
         <v>91</v>
       </c>
       <c r="G284" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H284" t="s">
-        <v>554</v>
+        <v>553</v>
+      </c>
+    </row>
+    <row r="285" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A285" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="B285" t="s">
+        <v>104</v>
+      </c>
+      <c r="C285" t="s">
+        <v>30</v>
+      </c>
+      <c r="D285">
+        <v>1425</v>
+      </c>
+      <c r="E285" t="s">
+        <v>10</v>
+      </c>
+      <c r="F285" t="s">
+        <v>405</v>
+      </c>
+      <c r="G285" t="s">
+        <v>549</v>
+      </c>
+      <c r="H285" t="s">
+        <v>553</v>
       </c>
     </row>
   </sheetData>

--- a/data/metadata_corrected.xlsx
+++ b/data/metadata_corrected.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mikekestemont/GitRepos/mdu/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39F206F1-8D3A-8A4E-B4CF-715FDFF502E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F7758AA-B2CD-0F41-83E2-E030789F4C1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2231,8 +2231,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I285"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="F87" sqref="F87"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A102" sqref="A102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6034,6 +6034,9 @@
       <c r="H164" t="s">
         <v>553</v>
       </c>
+      <c r="I164" t="s">
+        <v>570</v>
+      </c>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
@@ -6082,9 +6085,6 @@
       </c>
       <c r="H166" t="s">
         <v>553</v>
-      </c>
-      <c r="I166" t="s">
-        <v>570</v>
       </c>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.2">

--- a/data/metadata_corrected.xlsx
+++ b/data/metadata_corrected.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mikekestemont/GitRepos/mdu/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F7758AA-B2CD-0F41-83E2-E030789F4C1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{476902B9-A695-514A-A967-176E4B7F3FA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1763" uniqueCount="604">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1764" uniqueCount="604">
   <si>
     <t>id</t>
   </si>
@@ -1247,9 +1247,6 @@
     <t>Van den verkeerden Martijn</t>
   </si>
   <si>
-    <t>Historie van den grale</t>
-  </si>
-  <si>
     <t>1415-1435</t>
   </si>
   <si>
@@ -1845,6 +1842,9 @@
   </si>
   <si>
     <t>Merlijn-Velthem</t>
+  </si>
+  <si>
+    <t>Merlijn</t>
   </si>
 </sst>
 </file>
@@ -1863,6 +1863,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2231,8 +2232,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I285"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A102" sqref="A102"/>
+    <sheetView tabSelected="1" topLeftCell="A245" workbookViewId="0">
+      <selection activeCell="B285" sqref="B285"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2271,7 +2272,7 @@
         <v>7</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -2291,7 +2292,7 @@
         <v>14</v>
       </c>
       <c r="G2" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -2314,41 +2315,41 @@
         <v>31</v>
       </c>
       <c r="G3" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H3" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B4" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="D4">
         <v>1295.5</v>
       </c>
       <c r="E4" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="F4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="G4" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H4" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="B5" t="s">
         <v>410</v>
-      </c>
-      <c r="B5" t="s">
-        <v>411</v>
       </c>
       <c r="D5">
         <v>1375</v>
@@ -2360,18 +2361,18 @@
         <v>17</v>
       </c>
       <c r="G5" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H5" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="B6" t="s">
         <v>482</v>
-      </c>
-      <c r="B6" t="s">
-        <v>483</v>
       </c>
       <c r="D6">
         <v>1544</v>
@@ -2380,10 +2381,10 @@
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="G6" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -2403,10 +2404,10 @@
         <v>91</v>
       </c>
       <c r="G7" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H7" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -2426,10 +2427,10 @@
         <v>34</v>
       </c>
       <c r="G8" t="s">
+        <v>548</v>
+      </c>
+      <c r="H8" t="s">
         <v>549</v>
-      </c>
-      <c r="H8" t="s">
-        <v>550</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -2449,7 +2450,7 @@
         <v>328</v>
       </c>
       <c r="G9" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -2469,10 +2470,10 @@
         <v>11</v>
       </c>
       <c r="G10" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H10" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -2492,10 +2493,10 @@
         <v>91</v>
       </c>
       <c r="G11" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H11" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -2515,10 +2516,10 @@
         <v>68</v>
       </c>
       <c r="G12" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H12" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -2538,10 +2539,10 @@
         <v>34</v>
       </c>
       <c r="G13" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H13" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -2561,18 +2562,18 @@
         <v>158</v>
       </c>
       <c r="G14" t="s">
+        <v>548</v>
+      </c>
+      <c r="H14" t="s">
         <v>549</v>
-      </c>
-      <c r="H14" t="s">
-        <v>550</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="B15" t="s">
         <v>477</v>
-      </c>
-      <c r="B15" t="s">
-        <v>478</v>
       </c>
       <c r="D15">
         <v>1650</v>
@@ -2581,13 +2582,13 @@
         <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="G15" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H15" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
@@ -2607,15 +2608,15 @@
         <v>215</v>
       </c>
       <c r="G16" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="B17" t="s">
         <v>417</v>
-      </c>
-      <c r="B17" t="s">
-        <v>418</v>
       </c>
       <c r="D17">
         <v>1510</v>
@@ -2624,13 +2625,13 @@
         <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="G17" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H17" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
@@ -2638,7 +2639,7 @@
         <v>128</v>
       </c>
       <c r="B18" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D18">
         <v>1339</v>
@@ -2650,18 +2651,18 @@
         <v>78</v>
       </c>
       <c r="G18" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H18" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="B19" t="s">
         <v>508</v>
-      </c>
-      <c r="B19" t="s">
-        <v>509</v>
       </c>
       <c r="C19" t="s">
         <v>131</v>
@@ -2676,33 +2677,33 @@
         <v>31</v>
       </c>
       <c r="G19" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H19" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B20" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D20">
         <v>1265</v>
       </c>
       <c r="E20" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="F20" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="G20" t="s">
+        <v>548</v>
+      </c>
+      <c r="H20" t="s">
         <v>549</v>
-      </c>
-      <c r="H20" t="s">
-        <v>550</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
@@ -2722,10 +2723,10 @@
         <v>11</v>
       </c>
       <c r="G21" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H21" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
@@ -2745,10 +2746,10 @@
         <v>11</v>
       </c>
       <c r="G22" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H22" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
@@ -2768,15 +2769,15 @@
         <v>57</v>
       </c>
       <c r="G23" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H23" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B24" t="s">
         <v>25</v>
@@ -2791,10 +2792,10 @@
         <v>57</v>
       </c>
       <c r="G24" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H24" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
@@ -2814,10 +2815,10 @@
         <v>14</v>
       </c>
       <c r="G25" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H25" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
@@ -2837,10 +2838,10 @@
         <v>194</v>
       </c>
       <c r="G26" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H26" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
@@ -2860,15 +2861,15 @@
         <v>83</v>
       </c>
       <c r="G27" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H27" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B28" t="s">
         <v>85</v>
@@ -2883,10 +2884,10 @@
         <v>34</v>
       </c>
       <c r="G28" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H28" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
@@ -2894,7 +2895,7 @@
         <v>307</v>
       </c>
       <c r="B29" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C29" t="s">
         <v>131</v>
@@ -2909,10 +2910,10 @@
         <v>286</v>
       </c>
       <c r="G29" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H29" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
@@ -2920,7 +2921,7 @@
         <v>309</v>
       </c>
       <c r="B30" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="D30">
         <v>1432</v>
@@ -2932,10 +2933,10 @@
         <v>310</v>
       </c>
       <c r="G30" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H30" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
@@ -2943,7 +2944,7 @@
         <v>285</v>
       </c>
       <c r="B31" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="D31">
         <v>1470</v>
@@ -2955,33 +2956,33 @@
         <v>286</v>
       </c>
       <c r="G31" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H31" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B32" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="D32">
         <v>1270</v>
       </c>
       <c r="E32" t="s">
+        <v>515</v>
+      </c>
+      <c r="F32" t="s">
         <v>516</v>
       </c>
-      <c r="F32" t="s">
-        <v>517</v>
-      </c>
       <c r="G32" t="s">
+        <v>548</v>
+      </c>
+      <c r="H32" t="s">
         <v>549</v>
-      </c>
-      <c r="H32" t="s">
-        <v>550</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
@@ -3001,7 +3002,7 @@
         <v>14</v>
       </c>
       <c r="G33" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
@@ -3021,18 +3022,18 @@
         <v>57</v>
       </c>
       <c r="G34" t="s">
+        <v>548</v>
+      </c>
+      <c r="H34" t="s">
         <v>549</v>
-      </c>
-      <c r="H34" t="s">
-        <v>550</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="B35" t="s">
         <v>485</v>
-      </c>
-      <c r="B35" t="s">
-        <v>486</v>
       </c>
       <c r="C35" t="s">
         <v>37</v>
@@ -3047,7 +3048,7 @@
         <v>78</v>
       </c>
       <c r="G35" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
@@ -3055,7 +3056,7 @@
         <v>228</v>
       </c>
       <c r="B36" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D36">
         <v>1310</v>
@@ -3067,10 +3068,10 @@
         <v>229</v>
       </c>
       <c r="G36" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H36" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
@@ -3078,7 +3079,7 @@
         <v>143</v>
       </c>
       <c r="B37" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D37">
         <v>1450</v>
@@ -3090,10 +3091,10 @@
         <v>75</v>
       </c>
       <c r="G37" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H37" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
@@ -3101,7 +3102,7 @@
         <v>390</v>
       </c>
       <c r="B38" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="D38">
         <v>1387.5</v>
@@ -3113,10 +3114,10 @@
         <v>11</v>
       </c>
       <c r="G38" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H38" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
@@ -3124,7 +3125,7 @@
         <v>385</v>
       </c>
       <c r="B39" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="D39">
         <v>1435</v>
@@ -3136,10 +3137,10 @@
         <v>386</v>
       </c>
       <c r="G39" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H39" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
@@ -3159,18 +3160,18 @@
         <v>75</v>
       </c>
       <c r="G40" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H40" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="B41" t="s">
         <v>494</v>
-      </c>
-      <c r="B41" t="s">
-        <v>495</v>
       </c>
       <c r="C41" t="s">
         <v>37</v>
@@ -3182,10 +3183,10 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="G41" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
@@ -3208,18 +3209,18 @@
         <v>34</v>
       </c>
       <c r="G42" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H42" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="B43" t="s">
         <v>491</v>
-      </c>
-      <c r="B43" t="s">
-        <v>492</v>
       </c>
       <c r="D43">
         <v>1351</v>
@@ -3228,24 +3229,24 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="G43" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H43" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="B44" t="s">
         <v>473</v>
       </c>
-      <c r="B44" t="s">
+      <c r="C44" t="s">
         <v>474</v>
-      </c>
-      <c r="C44" t="s">
-        <v>475</v>
       </c>
       <c r="D44">
         <v>1480</v>
@@ -3257,59 +3258,59 @@
         <v>52</v>
       </c>
       <c r="G44" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H44" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B45" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="D45">
         <v>1287</v>
       </c>
       <c r="E45" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="F45" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="G45" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H45" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B46" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="D46">
         <v>1288</v>
       </c>
       <c r="E46" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="F46" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="G46" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H46" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="I46" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
@@ -3329,10 +3330,10 @@
         <v>254</v>
       </c>
       <c r="G47" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H47" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
@@ -3352,10 +3353,10 @@
         <v>34</v>
       </c>
       <c r="G48" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H48" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
@@ -3378,7 +3379,7 @@
         <v>38</v>
       </c>
       <c r="G49" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
@@ -3398,7 +3399,7 @@
         <v>270</v>
       </c>
       <c r="G50" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
@@ -3418,10 +3419,10 @@
         <v>68</v>
       </c>
       <c r="G51" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H51" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
@@ -3441,10 +3442,10 @@
         <v>14</v>
       </c>
       <c r="G52" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H52" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
@@ -3467,15 +3468,15 @@
         <v>38</v>
       </c>
       <c r="G53" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="B54" t="s">
         <v>449</v>
-      </c>
-      <c r="B54" t="s">
-        <v>450</v>
       </c>
       <c r="D54">
         <v>1410</v>
@@ -3487,15 +3488,15 @@
         <v>14</v>
       </c>
       <c r="G54" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="B55" t="s">
         <v>512</v>
-      </c>
-      <c r="B55" t="s">
-        <v>513</v>
       </c>
       <c r="D55">
         <v>1481</v>
@@ -3504,13 +3505,13 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="G55" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H55" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
@@ -3533,38 +3534,38 @@
         <v>38</v>
       </c>
       <c r="G56" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B57" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="D57">
         <v>1290</v>
       </c>
       <c r="E57" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="F57" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="G57" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H57" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="B58" t="s">
         <v>408</v>
-      </c>
-      <c r="B58" t="s">
-        <v>409</v>
       </c>
       <c r="D58">
         <v>1410</v>
@@ -3576,7 +3577,7 @@
         <v>14</v>
       </c>
       <c r="G58" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
@@ -3599,10 +3600,10 @@
         <v>34</v>
       </c>
       <c r="G59" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H59" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
@@ -3622,10 +3623,10 @@
         <v>14</v>
       </c>
       <c r="G60" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H60" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
@@ -3645,10 +3646,10 @@
         <v>34</v>
       </c>
       <c r="G61" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H61" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
@@ -3668,18 +3669,18 @@
         <v>34</v>
       </c>
       <c r="G62" t="s">
+        <v>548</v>
+      </c>
+      <c r="H62" t="s">
         <v>549</v>
-      </c>
-      <c r="H62" t="s">
-        <v>550</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="B63" t="s">
         <v>439</v>
-      </c>
-      <c r="B63" t="s">
-        <v>440</v>
       </c>
       <c r="D63">
         <v>1375</v>
@@ -3691,10 +3692,10 @@
         <v>17</v>
       </c>
       <c r="G63" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H63" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
@@ -3714,10 +3715,10 @@
         <v>194</v>
       </c>
       <c r="G64" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H64" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
@@ -3737,15 +3738,15 @@
         <v>11</v>
       </c>
       <c r="G65" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H65" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B66" t="s">
         <v>184</v>
@@ -3760,10 +3761,10 @@
         <v>11</v>
       </c>
       <c r="G66" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H66" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
@@ -3771,7 +3772,7 @@
         <v>349</v>
       </c>
       <c r="B67" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="D67">
         <v>1350</v>
@@ -3783,10 +3784,10 @@
         <v>34</v>
       </c>
       <c r="G67" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H67" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.2">
@@ -3809,18 +3810,18 @@
         <v>34</v>
       </c>
       <c r="G68" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H68" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="B69" t="s">
         <v>471</v>
-      </c>
-      <c r="B69" t="s">
-        <v>472</v>
       </c>
       <c r="D69">
         <v>1450</v>
@@ -3832,41 +3833,41 @@
         <v>75</v>
       </c>
       <c r="G69" t="s">
+        <v>548</v>
+      </c>
+      <c r="H69" t="s">
         <v>549</v>
-      </c>
-      <c r="H69" t="s">
-        <v>550</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B70" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D70">
         <v>1213</v>
       </c>
       <c r="E70" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="F70" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="G70" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H70" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="B71" t="s">
         <v>458</v>
-      </c>
-      <c r="B71" t="s">
-        <v>459</v>
       </c>
       <c r="D71">
         <v>1325</v>
@@ -3878,7 +3879,7 @@
         <v>91</v>
       </c>
       <c r="G71" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.2">
@@ -3886,7 +3887,7 @@
         <v>341</v>
       </c>
       <c r="B72" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="D72">
         <v>1405</v>
@@ -3898,10 +3899,10 @@
         <v>254</v>
       </c>
       <c r="G72" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H72" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.2">
@@ -3921,10 +3922,10 @@
         <v>34</v>
       </c>
       <c r="G73" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H73" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
@@ -3947,15 +3948,15 @@
         <v>52</v>
       </c>
       <c r="G74" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="B75" t="s">
         <v>499</v>
-      </c>
-      <c r="B75" t="s">
-        <v>500</v>
       </c>
       <c r="D75">
         <v>1325</v>
@@ -3967,10 +3968,10 @@
         <v>91</v>
       </c>
       <c r="G75" t="s">
+        <v>548</v>
+      </c>
+      <c r="H75" t="s">
         <v>549</v>
-      </c>
-      <c r="H75" t="s">
-        <v>550</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
@@ -3990,7 +3991,7 @@
         <v>14</v>
       </c>
       <c r="G76" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
@@ -4010,18 +4011,18 @@
         <v>34</v>
       </c>
       <c r="G77" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H77" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="B78" t="s">
         <v>465</v>
-      </c>
-      <c r="B78" t="s">
-        <v>466</v>
       </c>
       <c r="D78">
         <v>1325</v>
@@ -4033,10 +4034,10 @@
         <v>91</v>
       </c>
       <c r="G78" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H78" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.2">
@@ -4056,18 +4057,18 @@
         <v>91</v>
       </c>
       <c r="G79" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H79" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B80" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="D80">
         <v>1375</v>
@@ -4079,7 +4080,7 @@
         <v>17</v>
       </c>
       <c r="G80" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
@@ -4087,7 +4088,7 @@
         <v>242</v>
       </c>
       <c r="B81" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="D81">
         <v>1375</v>
@@ -4099,15 +4100,15 @@
         <v>17</v>
       </c>
       <c r="G81" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B82" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="D82">
         <v>1375</v>
@@ -4119,7 +4120,7 @@
         <v>17</v>
       </c>
       <c r="G82" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.2">
@@ -4139,10 +4140,10 @@
         <v>34</v>
       </c>
       <c r="G83" t="s">
+        <v>548</v>
+      </c>
+      <c r="H83" t="s">
         <v>549</v>
-      </c>
-      <c r="H83" t="s">
-        <v>550</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.2">
@@ -4162,7 +4163,7 @@
         <v>31</v>
       </c>
       <c r="G84" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
@@ -4182,7 +4183,7 @@
         <v>14</v>
       </c>
       <c r="G85" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.2">
@@ -4205,18 +4206,18 @@
         <v>68</v>
       </c>
       <c r="G86" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H86" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B87" t="s">
-        <v>404</v>
+        <v>603</v>
       </c>
       <c r="C87" t="s">
         <v>37</v>
@@ -4228,13 +4229,13 @@
         <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="G87" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H87" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.2">
@@ -4254,10 +4255,10 @@
         <v>114</v>
       </c>
       <c r="G88" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H88" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.2">
@@ -4280,18 +4281,18 @@
         <v>117</v>
       </c>
       <c r="G89" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H89" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="B90" t="s">
         <v>435</v>
-      </c>
-      <c r="B90" t="s">
-        <v>436</v>
       </c>
       <c r="D90">
         <v>1375</v>
@@ -4303,18 +4304,18 @@
         <v>17</v>
       </c>
       <c r="G90" t="s">
+        <v>548</v>
+      </c>
+      <c r="H90" t="s">
         <v>549</v>
-      </c>
-      <c r="H90" t="s">
-        <v>550</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B91" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D91">
         <v>1325</v>
@@ -4326,10 +4327,10 @@
         <v>91</v>
       </c>
       <c r="G91" t="s">
+        <v>548</v>
+      </c>
+      <c r="H91" t="s">
         <v>549</v>
-      </c>
-      <c r="H91" t="s">
-        <v>550</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.2">
@@ -4337,7 +4338,7 @@
         <v>330</v>
       </c>
       <c r="B92" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D92">
         <v>1350</v>
@@ -4349,10 +4350,10 @@
         <v>34</v>
       </c>
       <c r="G92" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H92" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.2">
@@ -4372,15 +4373,15 @@
         <v>169</v>
       </c>
       <c r="G93" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="B94" t="s">
         <v>496</v>
-      </c>
-      <c r="B94" t="s">
-        <v>497</v>
       </c>
       <c r="D94">
         <v>1550</v>
@@ -4389,21 +4390,21 @@
         <v>10</v>
       </c>
       <c r="F94" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="G94" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H94" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="B95" t="s">
         <v>480</v>
-      </c>
-      <c r="B95" t="s">
-        <v>481</v>
       </c>
       <c r="C95" t="s">
         <v>131</v>
@@ -4418,10 +4419,10 @@
         <v>31</v>
       </c>
       <c r="G95" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H95" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.2">
@@ -4441,10 +4442,10 @@
         <v>317</v>
       </c>
       <c r="G96" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H96" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.2">
@@ -4464,10 +4465,10 @@
         <v>282</v>
       </c>
       <c r="G97" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H97" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.2">
@@ -4487,10 +4488,10 @@
         <v>114</v>
       </c>
       <c r="G98" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H98" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.2">
@@ -4510,10 +4511,10 @@
         <v>401</v>
       </c>
       <c r="G99" t="s">
+        <v>548</v>
+      </c>
+      <c r="H99" t="s">
         <v>549</v>
-      </c>
-      <c r="H99" t="s">
-        <v>550</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.2">
@@ -4536,10 +4537,10 @@
         <v>353</v>
       </c>
       <c r="G100" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H100" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.2">
@@ -4562,10 +4563,10 @@
         <v>14</v>
       </c>
       <c r="G101" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H101" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.2">
@@ -4585,10 +4586,10 @@
         <v>91</v>
       </c>
       <c r="G102" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H102" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.2">
@@ -4596,7 +4597,7 @@
         <v>120</v>
       </c>
       <c r="B103" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D103">
         <v>1325</v>
@@ -4608,13 +4609,13 @@
         <v>91</v>
       </c>
       <c r="G103" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H103" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="I103" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.2">
@@ -4622,7 +4623,7 @@
         <v>284</v>
       </c>
       <c r="B104" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D104">
         <v>1325</v>
@@ -4634,10 +4635,10 @@
         <v>91</v>
       </c>
       <c r="G104" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H104" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.2">
@@ -4657,7 +4658,7 @@
         <v>14</v>
       </c>
       <c r="G105" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.2">
@@ -4677,10 +4678,10 @@
         <v>91</v>
       </c>
       <c r="G106" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H106" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.2">
@@ -4703,10 +4704,10 @@
         <v>83</v>
       </c>
       <c r="G107" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H107" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.2">
@@ -4726,10 +4727,10 @@
         <v>31</v>
       </c>
       <c r="G108" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H108" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.2">
@@ -4737,7 +4738,7 @@
         <v>69</v>
       </c>
       <c r="B109" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C109" t="s">
         <v>70</v>
@@ -4752,41 +4753,41 @@
         <v>34</v>
       </c>
       <c r="G109" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H109" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B110" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D110">
         <v>1230</v>
       </c>
       <c r="E110" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="F110" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="G110" t="s">
+        <v>548</v>
+      </c>
+      <c r="H110" t="s">
         <v>549</v>
-      </c>
-      <c r="H110" t="s">
-        <v>550</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="B111" t="s">
         <v>501</v>
-      </c>
-      <c r="B111" t="s">
-        <v>502</v>
       </c>
       <c r="D111">
         <v>1387.5</v>
@@ -4798,10 +4799,10 @@
         <v>11</v>
       </c>
       <c r="G111" t="s">
+        <v>548</v>
+      </c>
+      <c r="H111" t="s">
         <v>549</v>
-      </c>
-      <c r="H111" t="s">
-        <v>550</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.2">
@@ -4821,7 +4822,7 @@
         <v>14</v>
       </c>
       <c r="G112" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.2">
@@ -4841,10 +4842,10 @@
         <v>17</v>
       </c>
       <c r="G113" t="s">
+        <v>548</v>
+      </c>
+      <c r="H113" t="s">
         <v>549</v>
-      </c>
-      <c r="H113" t="s">
-        <v>550</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.2">
@@ -4864,15 +4865,15 @@
         <v>17</v>
       </c>
       <c r="G114" t="s">
+        <v>548</v>
+      </c>
+      <c r="H114" t="s">
         <v>549</v>
-      </c>
-      <c r="H114" t="s">
-        <v>550</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B115" t="s">
         <v>174</v>
@@ -4887,15 +4888,15 @@
         <v>83</v>
       </c>
       <c r="G115" t="s">
+        <v>548</v>
+      </c>
+      <c r="H115" t="s">
         <v>549</v>
-      </c>
-      <c r="H115" t="s">
-        <v>550</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B116" t="s">
         <v>174</v>
@@ -4910,33 +4911,33 @@
         <v>83</v>
       </c>
       <c r="G116" t="s">
+        <v>548</v>
+      </c>
+      <c r="H116" t="s">
         <v>549</v>
-      </c>
-      <c r="H116" t="s">
-        <v>550</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B117" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="D117">
         <v>1295.5</v>
       </c>
       <c r="E117" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="F117" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="G117" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H117" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.2">
@@ -4956,10 +4957,10 @@
         <v>17</v>
       </c>
       <c r="G118" t="s">
+        <v>548</v>
+      </c>
+      <c r="H118" t="s">
         <v>549</v>
-      </c>
-      <c r="H118" t="s">
-        <v>550</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.2">
@@ -4979,10 +4980,10 @@
         <v>17</v>
       </c>
       <c r="G119" t="s">
+        <v>548</v>
+      </c>
+      <c r="H119" t="s">
         <v>549</v>
-      </c>
-      <c r="H119" t="s">
-        <v>550</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.2">
@@ -5002,10 +5003,10 @@
         <v>17</v>
       </c>
       <c r="G120" t="s">
+        <v>548</v>
+      </c>
+      <c r="H120" t="s">
         <v>549</v>
-      </c>
-      <c r="H120" t="s">
-        <v>550</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.2">
@@ -5025,10 +5026,10 @@
         <v>34</v>
       </c>
       <c r="G121" t="s">
+        <v>548</v>
+      </c>
+      <c r="H121" t="s">
         <v>549</v>
-      </c>
-      <c r="H121" t="s">
-        <v>550</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.2">
@@ -5048,10 +5049,10 @@
         <v>34</v>
       </c>
       <c r="G122" t="s">
+        <v>548</v>
+      </c>
+      <c r="H122" t="s">
         <v>549</v>
-      </c>
-      <c r="H122" t="s">
-        <v>550</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.2">
@@ -5071,10 +5072,10 @@
         <v>17</v>
       </c>
       <c r="G123" t="s">
+        <v>548</v>
+      </c>
+      <c r="H123" t="s">
         <v>549</v>
-      </c>
-      <c r="H123" t="s">
-        <v>550</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.2">
@@ -5094,10 +5095,10 @@
         <v>11</v>
       </c>
       <c r="G124" t="s">
+        <v>548</v>
+      </c>
+      <c r="H124" t="s">
         <v>549</v>
-      </c>
-      <c r="H124" t="s">
-        <v>550</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.2">
@@ -5117,10 +5118,10 @@
         <v>11</v>
       </c>
       <c r="G125" t="s">
+        <v>548</v>
+      </c>
+      <c r="H125" t="s">
         <v>549</v>
-      </c>
-      <c r="H125" t="s">
-        <v>550</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.2">
@@ -5140,10 +5141,10 @@
         <v>34</v>
       </c>
       <c r="G126" t="s">
+        <v>548</v>
+      </c>
+      <c r="H126" t="s">
         <v>549</v>
-      </c>
-      <c r="H126" t="s">
-        <v>550</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.2">
@@ -5163,10 +5164,10 @@
         <v>34</v>
       </c>
       <c r="G127" t="s">
+        <v>548</v>
+      </c>
+      <c r="H127" t="s">
         <v>549</v>
-      </c>
-      <c r="H127" t="s">
-        <v>550</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.2">
@@ -5186,10 +5187,10 @@
         <v>34</v>
       </c>
       <c r="G128" t="s">
+        <v>548</v>
+      </c>
+      <c r="H128" t="s">
         <v>549</v>
-      </c>
-      <c r="H128" t="s">
-        <v>550</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.2">
@@ -5209,10 +5210,10 @@
         <v>17</v>
       </c>
       <c r="G129" t="s">
+        <v>548</v>
+      </c>
+      <c r="H129" t="s">
         <v>549</v>
-      </c>
-      <c r="H129" t="s">
-        <v>550</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.2">
@@ -5232,10 +5233,10 @@
         <v>17</v>
       </c>
       <c r="G130" t="s">
+        <v>548</v>
+      </c>
+      <c r="H130" t="s">
         <v>549</v>
-      </c>
-      <c r="H130" t="s">
-        <v>550</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.2">
@@ -5255,10 +5256,10 @@
         <v>31</v>
       </c>
       <c r="G131" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H131" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.2">
@@ -5266,7 +5267,7 @@
         <v>230</v>
       </c>
       <c r="B132" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C132" t="s">
         <v>231</v>
@@ -5281,7 +5282,7 @@
         <v>34</v>
       </c>
       <c r="G132" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.2">
@@ -5304,13 +5305,13 @@
         <v>91</v>
       </c>
       <c r="G133" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H133" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="I133" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.2">
@@ -5333,13 +5334,13 @@
         <v>17</v>
       </c>
       <c r="G134" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H134" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="I134" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.2">
@@ -5362,13 +5363,13 @@
         <v>17</v>
       </c>
       <c r="G135" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H135" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="I135" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.2">
@@ -5391,18 +5392,21 @@
         <v>91</v>
       </c>
       <c r="G136" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H136" t="s">
-        <v>553</v>
+        <v>552</v>
+      </c>
+      <c r="I136" t="s">
+        <v>569</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="B137" t="s">
         <v>506</v>
-      </c>
-      <c r="B137" t="s">
-        <v>507</v>
       </c>
       <c r="D137">
         <v>1325</v>
@@ -5414,15 +5418,15 @@
         <v>91</v>
       </c>
       <c r="G137" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="B138" t="s">
         <v>487</v>
-      </c>
-      <c r="B138" t="s">
-        <v>488</v>
       </c>
       <c r="D138">
         <v>1350</v>
@@ -5434,27 +5438,27 @@
         <v>83</v>
       </c>
       <c r="G138" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B139" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D139">
         <v>1295.5</v>
       </c>
       <c r="E139" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="F139" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="G139" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.2">
@@ -5462,7 +5466,7 @@
         <v>90</v>
       </c>
       <c r="B140" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D140">
         <v>1325</v>
@@ -5474,10 +5478,10 @@
         <v>91</v>
       </c>
       <c r="G140" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H140" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.2">
@@ -5497,10 +5501,10 @@
         <v>299</v>
       </c>
       <c r="G141" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H141" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.2">
@@ -5523,18 +5527,18 @@
         <v>14</v>
       </c>
       <c r="G142" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H142" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="B143" t="s">
         <v>420</v>
-      </c>
-      <c r="B143" t="s">
-        <v>421</v>
       </c>
       <c r="D143">
         <v>1400</v>
@@ -5546,10 +5550,10 @@
         <v>31</v>
       </c>
       <c r="G143" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H143" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.2">
@@ -5569,18 +5573,18 @@
         <v>31</v>
       </c>
       <c r="G144" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H144" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="B145" t="s">
         <v>489</v>
-      </c>
-      <c r="B145" t="s">
-        <v>490</v>
       </c>
       <c r="D145">
         <v>1400</v>
@@ -5592,10 +5596,10 @@
         <v>31</v>
       </c>
       <c r="G145" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H145" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.2">
@@ -5615,10 +5619,10 @@
         <v>161</v>
       </c>
       <c r="G146" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H146" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.2">
@@ -5638,10 +5642,10 @@
         <v>83</v>
       </c>
       <c r="G147" t="s">
+        <v>548</v>
+      </c>
+      <c r="H147" t="s">
         <v>549</v>
-      </c>
-      <c r="H147" t="s">
-        <v>550</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.2">
@@ -5661,10 +5665,10 @@
         <v>83</v>
       </c>
       <c r="G148" t="s">
+        <v>548</v>
+      </c>
+      <c r="H148" t="s">
         <v>549</v>
-      </c>
-      <c r="H148" t="s">
-        <v>550</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.2">
@@ -5684,10 +5688,10 @@
         <v>83</v>
       </c>
       <c r="G149" t="s">
+        <v>548</v>
+      </c>
+      <c r="H149" t="s">
         <v>549</v>
-      </c>
-      <c r="H149" t="s">
-        <v>550</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.2">
@@ -5707,10 +5711,10 @@
         <v>83</v>
       </c>
       <c r="G150" t="s">
+        <v>548</v>
+      </c>
+      <c r="H150" t="s">
         <v>549</v>
-      </c>
-      <c r="H150" t="s">
-        <v>550</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.2">
@@ -5730,10 +5734,10 @@
         <v>109</v>
       </c>
       <c r="G151" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H151" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.2">
@@ -5753,10 +5757,10 @@
         <v>11</v>
       </c>
       <c r="G152" t="s">
+        <v>548</v>
+      </c>
+      <c r="H152" t="s">
         <v>549</v>
-      </c>
-      <c r="H152" t="s">
-        <v>550</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.2">
@@ -5776,10 +5780,10 @@
         <v>34</v>
       </c>
       <c r="G153" t="s">
+        <v>548</v>
+      </c>
+      <c r="H153" t="s">
         <v>549</v>
-      </c>
-      <c r="H153" t="s">
-        <v>550</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.2">
@@ -5799,10 +5803,10 @@
         <v>83</v>
       </c>
       <c r="G154" t="s">
+        <v>548</v>
+      </c>
+      <c r="H154" t="s">
         <v>549</v>
-      </c>
-      <c r="H154" t="s">
-        <v>550</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.2">
@@ -5822,18 +5826,18 @@
         <v>11</v>
       </c>
       <c r="G155" t="s">
+        <v>548</v>
+      </c>
+      <c r="H155" t="s">
         <v>549</v>
-      </c>
-      <c r="H155" t="s">
-        <v>550</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="B156" t="s">
         <v>442</v>
-      </c>
-      <c r="B156" t="s">
-        <v>443</v>
       </c>
       <c r="D156">
         <v>1390</v>
@@ -5842,13 +5846,13 @@
         <v>10</v>
       </c>
       <c r="F156" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="G156" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H156" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.2">
@@ -5868,10 +5872,10 @@
         <v>99</v>
       </c>
       <c r="G157" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H157" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.2">
@@ -5891,10 +5895,10 @@
         <v>34</v>
       </c>
       <c r="G158" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H158" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.2">
@@ -5914,10 +5918,10 @@
         <v>34</v>
       </c>
       <c r="G159" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H159" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.2">
@@ -5937,10 +5941,10 @@
         <v>247</v>
       </c>
       <c r="G160" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H160" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.2">
@@ -5960,15 +5964,15 @@
         <v>11</v>
       </c>
       <c r="G161" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H161" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B162" t="s">
         <v>33</v>
@@ -5983,15 +5987,15 @@
         <v>17</v>
       </c>
       <c r="G162" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H162" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B163" t="s">
         <v>33</v>
@@ -6006,36 +6010,36 @@
         <v>247</v>
       </c>
       <c r="G163" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H163" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B164" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D164">
         <v>1288</v>
       </c>
       <c r="E164" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="F164" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="G164" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H164" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="I164" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.2">
@@ -6043,7 +6047,7 @@
         <v>182</v>
       </c>
       <c r="B165" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D165">
         <v>1325</v>
@@ -6055,13 +6059,13 @@
         <v>91</v>
       </c>
       <c r="G165" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H165" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="I165" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.2">
@@ -6069,7 +6073,7 @@
         <v>201</v>
       </c>
       <c r="B166" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D166">
         <v>1325</v>
@@ -6081,10 +6085,10 @@
         <v>91</v>
       </c>
       <c r="G166" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H166" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.2">
@@ -6104,18 +6108,18 @@
         <v>91</v>
       </c>
       <c r="G167" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H167" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="B168" t="s">
         <v>510</v>
-      </c>
-      <c r="B168" t="s">
-        <v>511</v>
       </c>
       <c r="D168">
         <v>1470</v>
@@ -6127,33 +6131,33 @@
         <v>286</v>
       </c>
       <c r="G168" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H168" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B169" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D169">
         <v>1288</v>
       </c>
       <c r="E169" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="F169" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="G169" t="s">
+        <v>548</v>
+      </c>
+      <c r="H169" t="s">
         <v>549</v>
-      </c>
-      <c r="H169" t="s">
-        <v>550</v>
       </c>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.2">
@@ -6173,10 +6177,10 @@
         <v>34</v>
       </c>
       <c r="G170" t="s">
+        <v>548</v>
+      </c>
+      <c r="H170" t="s">
         <v>549</v>
-      </c>
-      <c r="H170" t="s">
-        <v>550</v>
       </c>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.2">
@@ -6196,10 +6200,10 @@
         <v>83</v>
       </c>
       <c r="G171" t="s">
+        <v>548</v>
+      </c>
+      <c r="H171" t="s">
         <v>549</v>
-      </c>
-      <c r="H171" t="s">
-        <v>550</v>
       </c>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.2">
@@ -6219,10 +6223,10 @@
         <v>317</v>
       </c>
       <c r="G172" t="s">
+        <v>548</v>
+      </c>
+      <c r="H172" t="s">
         <v>549</v>
-      </c>
-      <c r="H172" t="s">
-        <v>550</v>
       </c>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.2">
@@ -6242,10 +6246,10 @@
         <v>34</v>
       </c>
       <c r="G173" t="s">
+        <v>548</v>
+      </c>
+      <c r="H173" t="s">
         <v>549</v>
-      </c>
-      <c r="H173" t="s">
-        <v>550</v>
       </c>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.2">
@@ -6253,7 +6257,7 @@
         <v>251</v>
       </c>
       <c r="B174" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D174">
         <v>1362.5</v>
@@ -6265,21 +6269,21 @@
         <v>194</v>
       </c>
       <c r="G174" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H174" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="I174" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B175" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D175">
         <v>1325</v>
@@ -6291,33 +6295,33 @@
         <v>91</v>
       </c>
       <c r="G175" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H175" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B176" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="D176">
         <v>1285</v>
       </c>
       <c r="E176" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="F176" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="G176" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H176" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.2">
@@ -6340,10 +6344,10 @@
         <v>334</v>
       </c>
       <c r="G177" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H177" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.2">
@@ -6366,10 +6370,10 @@
         <v>363</v>
       </c>
       <c r="G178" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H178" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.2">
@@ -6389,7 +6393,7 @@
         <v>52</v>
       </c>
       <c r="G179" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.2">
@@ -6412,7 +6416,7 @@
         <v>31</v>
       </c>
       <c r="G180" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.2">
@@ -6432,10 +6436,10 @@
         <v>17</v>
       </c>
       <c r="G181" t="s">
+        <v>548</v>
+      </c>
+      <c r="H181" t="s">
         <v>549</v>
-      </c>
-      <c r="H181" t="s">
-        <v>550</v>
       </c>
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.2">
@@ -6455,10 +6459,10 @@
         <v>83</v>
       </c>
       <c r="G182" t="s">
+        <v>548</v>
+      </c>
+      <c r="H182" t="s">
         <v>549</v>
-      </c>
-      <c r="H182" t="s">
-        <v>550</v>
       </c>
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.2">
@@ -6478,10 +6482,10 @@
         <v>17</v>
       </c>
       <c r="G183" t="s">
+        <v>548</v>
+      </c>
+      <c r="H183" t="s">
         <v>549</v>
-      </c>
-      <c r="H183" t="s">
-        <v>550</v>
       </c>
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.2">
@@ -6501,10 +6505,10 @@
         <v>17</v>
       </c>
       <c r="G184" t="s">
+        <v>548</v>
+      </c>
+      <c r="H184" t="s">
         <v>549</v>
-      </c>
-      <c r="H184" t="s">
-        <v>550</v>
       </c>
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.2">
@@ -6524,10 +6528,10 @@
         <v>373</v>
       </c>
       <c r="G185" t="s">
+        <v>548</v>
+      </c>
+      <c r="H185" t="s">
         <v>549</v>
-      </c>
-      <c r="H185" t="s">
-        <v>550</v>
       </c>
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.2">
@@ -6547,10 +6551,10 @@
         <v>34</v>
       </c>
       <c r="G186" t="s">
+        <v>548</v>
+      </c>
+      <c r="H186" t="s">
         <v>549</v>
-      </c>
-      <c r="H186" t="s">
-        <v>550</v>
       </c>
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.2">
@@ -6570,10 +6574,10 @@
         <v>91</v>
       </c>
       <c r="G187" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H187" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.2">
@@ -6593,10 +6597,10 @@
         <v>91</v>
       </c>
       <c r="G188" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H188" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.2">
@@ -6616,10 +6620,10 @@
         <v>91</v>
       </c>
       <c r="G189" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H189" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="190" spans="1:9" x14ac:dyDescent="0.2">
@@ -6639,10 +6643,10 @@
         <v>91</v>
       </c>
       <c r="G190" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H190" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="191" spans="1:9" x14ac:dyDescent="0.2">
@@ -6650,7 +6654,7 @@
         <v>200</v>
       </c>
       <c r="B191" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="D191">
         <v>1350</v>
@@ -6662,13 +6666,13 @@
         <v>34</v>
       </c>
       <c r="G191" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H191" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="I191" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="192" spans="1:9" x14ac:dyDescent="0.2">
@@ -6676,7 +6680,7 @@
         <v>293</v>
       </c>
       <c r="B192" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="D192">
         <v>1325</v>
@@ -6688,13 +6692,13 @@
         <v>91</v>
       </c>
       <c r="G192" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H192" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="I192" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.2">
@@ -6702,7 +6706,7 @@
         <v>207</v>
       </c>
       <c r="B193" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D193">
         <v>1325</v>
@@ -6714,10 +6718,10 @@
         <v>91</v>
       </c>
       <c r="G193" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H193" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="194" spans="1:9" x14ac:dyDescent="0.2">
@@ -6737,10 +6741,10 @@
         <v>83</v>
       </c>
       <c r="G194" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H194" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="195" spans="1:9" x14ac:dyDescent="0.2">
@@ -6763,18 +6767,18 @@
         <v>91</v>
       </c>
       <c r="G195" s="3" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H195" s="3" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A196" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="B196" t="s">
         <v>422</v>
-      </c>
-      <c r="B196" t="s">
-        <v>423</v>
       </c>
       <c r="D196">
         <v>1410</v>
@@ -6786,10 +6790,10 @@
         <v>14</v>
       </c>
       <c r="G196" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H196" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="197" spans="1:9" x14ac:dyDescent="0.2">
@@ -6797,7 +6801,7 @@
         <v>348</v>
       </c>
       <c r="B197" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="D197">
         <v>1387.5</v>
@@ -6809,10 +6813,10 @@
         <v>11</v>
       </c>
       <c r="G197" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H197" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="198" spans="1:9" x14ac:dyDescent="0.2">
@@ -6835,10 +6839,10 @@
         <v>14</v>
       </c>
       <c r="G198" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H198" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.2">
@@ -6861,10 +6865,10 @@
         <v>61</v>
       </c>
       <c r="G199" s="3" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H199" s="3" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="200" spans="1:9" x14ac:dyDescent="0.2">
@@ -6872,7 +6876,7 @@
         <v>195</v>
       </c>
       <c r="B200" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="D200">
         <v>1350</v>
@@ -6884,21 +6888,21 @@
         <v>83</v>
       </c>
       <c r="G200" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H200" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A201" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="B201" t="s">
         <v>460</v>
       </c>
-      <c r="B201" t="s">
+      <c r="C201" t="s">
         <v>461</v>
-      </c>
-      <c r="C201" t="s">
-        <v>462</v>
       </c>
       <c r="D201">
         <v>1475</v>
@@ -6907,13 +6911,13 @@
         <v>10</v>
       </c>
       <c r="F201" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="G201" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H201" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="202" spans="1:9" x14ac:dyDescent="0.2">
@@ -6936,10 +6940,10 @@
         <v>91</v>
       </c>
       <c r="G202" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H202" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="203" spans="1:9" x14ac:dyDescent="0.2">
@@ -6962,33 +6966,33 @@
         <v>14</v>
       </c>
       <c r="G203" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H203" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="204" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A204" s="1" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B204" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D204">
         <v>1288</v>
       </c>
       <c r="E204" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="F204" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="G204" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H204" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="205" spans="1:9" x14ac:dyDescent="0.2">
@@ -7008,59 +7012,59 @@
         <v>41</v>
       </c>
       <c r="G205" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H205" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="I205" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="206" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A206" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B206" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D206">
         <v>1267.5</v>
       </c>
       <c r="E206" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="F206" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="G206" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H206" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="207" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A207" s="1" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B207" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D207">
         <v>1288</v>
       </c>
       <c r="E207" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="F207" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="G207" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H207" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="208" spans="1:9" x14ac:dyDescent="0.2">
@@ -7080,10 +7084,10 @@
         <v>17</v>
       </c>
       <c r="G208" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H208" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="209" spans="1:9" x14ac:dyDescent="0.2">
@@ -7106,10 +7110,10 @@
         <v>75</v>
       </c>
       <c r="G209" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H209" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="210" spans="1:9" x14ac:dyDescent="0.2">
@@ -7129,7 +7133,7 @@
         <v>75</v>
       </c>
       <c r="G210" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.2">
@@ -7149,7 +7153,7 @@
         <v>339</v>
       </c>
       <c r="G211" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.2">
@@ -7172,10 +7176,10 @@
         <v>23</v>
       </c>
       <c r="G212" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H212" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="213" spans="1:9" x14ac:dyDescent="0.2">
@@ -7183,7 +7187,7 @@
         <v>301</v>
       </c>
       <c r="B213" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="D213">
         <v>1450</v>
@@ -7195,18 +7199,18 @@
         <v>75</v>
       </c>
       <c r="G213" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H213" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A214" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B214" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="D214">
         <v>1450</v>
@@ -7218,21 +7222,21 @@
         <v>75</v>
       </c>
       <c r="G214" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H214" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="I214" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="215" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A215" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B215" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="D215">
         <v>1375</v>
@@ -7244,21 +7248,21 @@
         <v>17</v>
       </c>
       <c r="G215" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H215" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="I215" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A216" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B216" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="D216">
         <v>1350</v>
@@ -7270,13 +7274,13 @@
         <v>83</v>
       </c>
       <c r="G216" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H216" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="I216" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="217" spans="1:9" x14ac:dyDescent="0.2">
@@ -7284,7 +7288,7 @@
         <v>185</v>
       </c>
       <c r="B217" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C217" t="s">
         <v>37</v>
@@ -7299,10 +7303,10 @@
         <v>57</v>
       </c>
       <c r="G217" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H217" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="218" spans="1:9" x14ac:dyDescent="0.2">
@@ -7310,7 +7314,7 @@
         <v>26</v>
       </c>
       <c r="B218" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C218" t="s">
         <v>27</v>
@@ -7325,10 +7329,10 @@
         <v>28</v>
       </c>
       <c r="G218" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H218" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="219" spans="1:9" x14ac:dyDescent="0.2">
@@ -7336,7 +7340,7 @@
         <v>87</v>
       </c>
       <c r="B219" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C219" t="s">
         <v>27</v>
@@ -7351,10 +7355,10 @@
         <v>31</v>
       </c>
       <c r="G219" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H219" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="220" spans="1:9" x14ac:dyDescent="0.2">
@@ -7362,7 +7366,7 @@
         <v>133</v>
       </c>
       <c r="B220" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C220" t="s">
         <v>27</v>
@@ -7377,10 +7381,10 @@
         <v>134</v>
       </c>
       <c r="G220" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H220" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="221" spans="1:9" x14ac:dyDescent="0.2">
@@ -7388,7 +7392,7 @@
         <v>271</v>
       </c>
       <c r="B221" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C221" t="s">
         <v>27</v>
@@ -7403,10 +7407,10 @@
         <v>91</v>
       </c>
       <c r="G221" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H221" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="222" spans="1:9" x14ac:dyDescent="0.2">
@@ -7414,7 +7418,7 @@
         <v>274</v>
       </c>
       <c r="B222" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C222" t="s">
         <v>27</v>
@@ -7429,10 +7433,10 @@
         <v>31</v>
       </c>
       <c r="G222" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H222" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="223" spans="1:9" x14ac:dyDescent="0.2">
@@ -7440,7 +7444,7 @@
         <v>306</v>
       </c>
       <c r="B223" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C223" t="s">
         <v>27</v>
@@ -7455,10 +7459,10 @@
         <v>258</v>
       </c>
       <c r="G223" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H223" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="224" spans="1:9" x14ac:dyDescent="0.2">
@@ -7466,7 +7470,7 @@
         <v>340</v>
       </c>
       <c r="B224" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C224" t="s">
         <v>27</v>
@@ -7481,10 +7485,10 @@
         <v>57</v>
       </c>
       <c r="G224" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H224" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.2">
@@ -7492,7 +7496,7 @@
         <v>398</v>
       </c>
       <c r="B225" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C225" t="s">
         <v>27</v>
@@ -7507,10 +7511,10 @@
         <v>17</v>
       </c>
       <c r="G225" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H225" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.2">
@@ -7518,7 +7522,7 @@
         <v>29</v>
       </c>
       <c r="B226" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C226" t="s">
         <v>30</v>
@@ -7533,10 +7537,10 @@
         <v>31</v>
       </c>
       <c r="G226" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H226" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.2">
@@ -7544,7 +7548,7 @@
         <v>56</v>
       </c>
       <c r="B227" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C227" t="s">
         <v>30</v>
@@ -7559,10 +7563,10 @@
         <v>57</v>
       </c>
       <c r="G227" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H227" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.2">
@@ -7570,7 +7574,7 @@
         <v>89</v>
       </c>
       <c r="B228" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C228" t="s">
         <v>30</v>
@@ -7585,10 +7589,10 @@
         <v>31</v>
       </c>
       <c r="G228" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H228" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.2">
@@ -7596,7 +7600,7 @@
         <v>96</v>
       </c>
       <c r="B229" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C229" t="s">
         <v>30</v>
@@ -7611,10 +7615,10 @@
         <v>31</v>
       </c>
       <c r="G229" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H229" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.2">
@@ -7622,7 +7626,7 @@
         <v>124</v>
       </c>
       <c r="B230" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C230" t="s">
         <v>30</v>
@@ -7637,10 +7641,10 @@
         <v>31</v>
       </c>
       <c r="G230" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H230" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.2">
@@ -7648,7 +7652,7 @@
         <v>127</v>
       </c>
       <c r="B231" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C231" t="s">
         <v>30</v>
@@ -7663,10 +7667,10 @@
         <v>31</v>
       </c>
       <c r="G231" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H231" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.2">
@@ -7674,7 +7678,7 @@
         <v>257</v>
       </c>
       <c r="B232" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C232" t="s">
         <v>30</v>
@@ -7689,10 +7693,10 @@
         <v>258</v>
       </c>
       <c r="G232" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H232" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.2">
@@ -7700,7 +7704,7 @@
         <v>277</v>
       </c>
       <c r="B233" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C233" t="s">
         <v>30</v>
@@ -7715,10 +7719,10 @@
         <v>258</v>
       </c>
       <c r="G233" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H233" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.2">
@@ -7726,7 +7730,7 @@
         <v>280</v>
       </c>
       <c r="B234" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C234" t="s">
         <v>30</v>
@@ -7741,10 +7745,10 @@
         <v>134</v>
       </c>
       <c r="G234" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H234" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="235" spans="1:8" x14ac:dyDescent="0.2">
@@ -7752,7 +7756,7 @@
         <v>335</v>
       </c>
       <c r="B235" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C235" t="s">
         <v>30</v>
@@ -7767,18 +7771,18 @@
         <v>31</v>
       </c>
       <c r="G235" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H235" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="236" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A236" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B236" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C236" t="s">
         <v>30</v>
@@ -7793,18 +7797,18 @@
         <v>57</v>
       </c>
       <c r="G236" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H236" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A237" s="1" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B237" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C237" t="s">
         <v>30</v>
@@ -7819,10 +7823,10 @@
         <v>34</v>
       </c>
       <c r="G237" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H237" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.2">
@@ -7830,7 +7834,7 @@
         <v>43</v>
       </c>
       <c r="B238" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C238" t="s">
         <v>30</v>
@@ -7845,18 +7849,18 @@
         <v>44</v>
       </c>
       <c r="G238" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H238" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A239" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="B239" t="s">
         <v>469</v>
-      </c>
-      <c r="B239" t="s">
-        <v>470</v>
       </c>
       <c r="D239">
         <v>1410</v>
@@ -7868,10 +7872,10 @@
         <v>14</v>
       </c>
       <c r="G239" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H239" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="240" spans="1:8" x14ac:dyDescent="0.2">
@@ -7879,7 +7883,7 @@
         <v>313</v>
       </c>
       <c r="B240" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C240" t="s">
         <v>231</v>
@@ -7894,15 +7898,15 @@
         <v>34</v>
       </c>
       <c r="G240" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="241" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A241" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="B241" t="s">
         <v>453</v>
-      </c>
-      <c r="B241" t="s">
-        <v>454</v>
       </c>
       <c r="D241">
         <v>1508</v>
@@ -7911,10 +7915,10 @@
         <v>10</v>
       </c>
       <c r="F241" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="G241" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="242" spans="1:9" x14ac:dyDescent="0.2">
@@ -7934,18 +7938,18 @@
         <v>14</v>
       </c>
       <c r="G242" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H242" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="243" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A243" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="B243" t="s">
         <v>467</v>
-      </c>
-      <c r="B243" t="s">
-        <v>468</v>
       </c>
       <c r="D243">
         <v>1400</v>
@@ -7957,10 +7961,10 @@
         <v>31</v>
       </c>
       <c r="G243" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H243" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="244" spans="1:9" x14ac:dyDescent="0.2">
@@ -7968,7 +7972,7 @@
         <v>235</v>
       </c>
       <c r="B244" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C244" t="s">
         <v>37</v>
@@ -7983,34 +7987,34 @@
         <v>91</v>
       </c>
       <c r="G244" s="3" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H244" s="3" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="I244" s="3"/>
     </row>
     <row r="245" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A245" s="1" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B245" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="D245">
         <v>1250</v>
       </c>
       <c r="E245" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="F245" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="G245" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H245" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="246" spans="1:9" x14ac:dyDescent="0.2">
@@ -8030,7 +8034,7 @@
         <v>14</v>
       </c>
       <c r="G246" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="247" spans="1:9" x14ac:dyDescent="0.2">
@@ -8050,7 +8054,7 @@
         <v>169</v>
       </c>
       <c r="G247" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="248" spans="1:9" x14ac:dyDescent="0.2">
@@ -8073,7 +8077,7 @@
         <v>38</v>
       </c>
       <c r="G248" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="249" spans="1:9" x14ac:dyDescent="0.2">
@@ -8093,10 +8097,10 @@
         <v>83</v>
       </c>
       <c r="G249" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H249" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="250" spans="1:9" x14ac:dyDescent="0.2">
@@ -8116,10 +8120,10 @@
         <v>34</v>
       </c>
       <c r="G250" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H250" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="251" spans="1:9" x14ac:dyDescent="0.2">
@@ -8142,10 +8146,10 @@
         <v>132</v>
       </c>
       <c r="G251" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H251" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="252" spans="1:9" x14ac:dyDescent="0.2">
@@ -8168,15 +8172,15 @@
         <v>78</v>
       </c>
       <c r="G252" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="253" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A253" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B253" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D253">
         <v>1487.5</v>
@@ -8188,10 +8192,10 @@
         <v>373</v>
       </c>
       <c r="G253" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H253" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="254" spans="1:9" x14ac:dyDescent="0.2">
@@ -8199,7 +8203,7 @@
         <v>236</v>
       </c>
       <c r="B254" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="D254">
         <v>1465</v>
@@ -8211,10 +8215,10 @@
         <v>237</v>
       </c>
       <c r="G254" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H254" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="255" spans="1:9" x14ac:dyDescent="0.2">
@@ -8237,7 +8241,7 @@
         <v>78</v>
       </c>
       <c r="G255" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="256" spans="1:9" x14ac:dyDescent="0.2">
@@ -8257,10 +8261,10 @@
         <v>17</v>
       </c>
       <c r="G256" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H256" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="257" spans="1:9" x14ac:dyDescent="0.2">
@@ -8283,21 +8287,21 @@
         <v>78</v>
       </c>
       <c r="G257" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H257" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="258" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A258" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="B258" t="s">
         <v>503</v>
       </c>
-      <c r="B258" t="s">
+      <c r="C258" t="s">
         <v>504</v>
-      </c>
-      <c r="C258" t="s">
-        <v>505</v>
       </c>
       <c r="D258">
         <v>1402.5</v>
@@ -8309,62 +8313,62 @@
         <v>38</v>
       </c>
       <c r="G258" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H258" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="259" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A259" s="1" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B259" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="D259">
         <v>1288</v>
       </c>
       <c r="E259" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="F259" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="G259" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H259" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="I259" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="260" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A260" s="1" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B260" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="D260">
         <v>1270</v>
       </c>
       <c r="E260" t="s">
+        <v>515</v>
+      </c>
+      <c r="F260" t="s">
         <v>516</v>
       </c>
-      <c r="F260" t="s">
-        <v>517</v>
-      </c>
       <c r="G260" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H260" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="I260" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="261" spans="1:9" x14ac:dyDescent="0.2">
@@ -8384,10 +8388,10 @@
         <v>78</v>
       </c>
       <c r="G261" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H261" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="262" spans="1:9" x14ac:dyDescent="0.2">
@@ -8407,10 +8411,10 @@
         <v>17</v>
       </c>
       <c r="G262" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H262" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="263" spans="1:9" x14ac:dyDescent="0.2">
@@ -8430,10 +8434,10 @@
         <v>31</v>
       </c>
       <c r="G263" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H263" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="264" spans="1:9" x14ac:dyDescent="0.2">
@@ -8453,7 +8457,7 @@
         <v>31</v>
       </c>
       <c r="G264" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="265" spans="1:9" x14ac:dyDescent="0.2">
@@ -8476,7 +8480,7 @@
         <v>339</v>
       </c>
       <c r="G265" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="266" spans="1:9" x14ac:dyDescent="0.2">
@@ -8499,10 +8503,10 @@
         <v>31</v>
       </c>
       <c r="G266" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H266" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="267" spans="1:9" x14ac:dyDescent="0.2">
@@ -8522,10 +8526,10 @@
         <v>38</v>
       </c>
       <c r="G267" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H267" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="268" spans="1:9" x14ac:dyDescent="0.2">
@@ -8545,10 +8549,10 @@
         <v>14</v>
       </c>
       <c r="G268" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H268" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="269" spans="1:9" x14ac:dyDescent="0.2">
@@ -8568,10 +8572,10 @@
         <v>83</v>
       </c>
       <c r="G269" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H269" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="270" spans="1:9" x14ac:dyDescent="0.2">
@@ -8591,18 +8595,18 @@
         <v>320</v>
       </c>
       <c r="G270" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H270" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="271" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A271" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="B271" t="s">
         <v>413</v>
-      </c>
-      <c r="B271" t="s">
-        <v>414</v>
       </c>
       <c r="D271">
         <v>1438</v>
@@ -8611,13 +8615,13 @@
         <v>10</v>
       </c>
       <c r="F271" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="G271" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H271" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="272" spans="1:9" x14ac:dyDescent="0.2">
@@ -8637,15 +8641,15 @@
         <v>14</v>
       </c>
       <c r="G272" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="273" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A273" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="B273" t="s">
         <v>432</v>
-      </c>
-      <c r="B273" t="s">
-        <v>433</v>
       </c>
       <c r="C273" t="s">
         <v>212</v>
@@ -8660,21 +8664,21 @@
         <v>14</v>
       </c>
       <c r="G273" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H273" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="274" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A274" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="B274" t="s">
         <v>425</v>
       </c>
-      <c r="B274" t="s">
+      <c r="C274" t="s">
         <v>426</v>
-      </c>
-      <c r="C274" t="s">
-        <v>427</v>
       </c>
       <c r="D274">
         <v>1395</v>
@@ -8683,10 +8687,10 @@
         <v>10</v>
       </c>
       <c r="F274" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="G274" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="275" spans="1:9" x14ac:dyDescent="0.2">
@@ -8694,7 +8698,7 @@
         <v>375</v>
       </c>
       <c r="B275" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D275">
         <v>1350</v>
@@ -8706,10 +8710,10 @@
         <v>34</v>
       </c>
       <c r="G275" t="s">
+        <v>548</v>
+      </c>
+      <c r="H275" t="s">
         <v>549</v>
-      </c>
-      <c r="H275" t="s">
-        <v>550</v>
       </c>
     </row>
     <row r="276" spans="1:9" x14ac:dyDescent="0.2">
@@ -8729,21 +8733,21 @@
         <v>247</v>
       </c>
       <c r="G276" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H276" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="277" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A277" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="B277" t="s">
+        <v>579</v>
+      </c>
+      <c r="C277" t="s">
         <v>445</v>
-      </c>
-      <c r="B277" t="s">
-        <v>580</v>
-      </c>
-      <c r="C277" t="s">
-        <v>446</v>
       </c>
       <c r="D277">
         <v>1350</v>
@@ -8752,13 +8756,13 @@
         <v>10</v>
       </c>
       <c r="F277" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="G277" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H277" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="278" spans="1:9" x14ac:dyDescent="0.2">
@@ -8778,10 +8782,10 @@
         <v>91</v>
       </c>
       <c r="G278" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H278" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="279" spans="1:9" x14ac:dyDescent="0.2">
@@ -8804,7 +8808,7 @@
         <v>38</v>
       </c>
       <c r="G279" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="280" spans="1:9" x14ac:dyDescent="0.2">
@@ -8827,41 +8831,41 @@
         <v>91</v>
       </c>
       <c r="G280" t="s">
+        <v>548</v>
+      </c>
+      <c r="H280" t="s">
         <v>549</v>
-      </c>
-      <c r="H280" t="s">
-        <v>550</v>
       </c>
     </row>
     <row r="281" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A281" s="1" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B281" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="D281">
         <v>1295.5</v>
       </c>
       <c r="E281" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="F281" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="G281" t="s">
+        <v>548</v>
+      </c>
+      <c r="H281" t="s">
         <v>549</v>
-      </c>
-      <c r="H281" t="s">
-        <v>550</v>
       </c>
     </row>
     <row r="282" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A282" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="B282" t="s">
         <v>456</v>
-      </c>
-      <c r="B282" t="s">
-        <v>457</v>
       </c>
       <c r="D282">
         <v>1350</v>
@@ -8873,39 +8877,39 @@
         <v>34</v>
       </c>
       <c r="G282" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H282" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="I282" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="283" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A283" s="1" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B283" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D283">
         <v>1270</v>
       </c>
       <c r="E283" t="s">
+        <v>515</v>
+      </c>
+      <c r="F283" t="s">
         <v>516</v>
       </c>
-      <c r="F283" t="s">
-        <v>517</v>
-      </c>
       <c r="G283" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H283" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="I283" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="284" spans="1:9" x14ac:dyDescent="0.2">
@@ -8913,7 +8917,7 @@
         <v>292</v>
       </c>
       <c r="B284" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D284">
         <v>1325</v>
@@ -8925,15 +8929,15 @@
         <v>91</v>
       </c>
       <c r="G284" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H284" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="285" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A285" s="1" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B285" t="s">
         <v>104</v>
@@ -8948,13 +8952,13 @@
         <v>10</v>
       </c>
       <c r="F285" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="G285" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H285" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
   </sheetData>

--- a/data/metadata_corrected.xlsx
+++ b/data/metadata_corrected.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mikekestemont/GitRepos/mdu/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{476902B9-A695-514A-A967-176E4B7F3FA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB827FAA-7C6F-774F-9068-7AD96C4F9718}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/data/metadata_corrected.xlsx
+++ b/data/metadata_corrected.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mikekestemont/GitRepos/mdu/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB827FAA-7C6F-774F-9068-7AD96C4F9718}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C025CFCE-B7FB-DF42-943A-C6161C682429}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="520" windowWidth="33600" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1764" uniqueCount="604">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1760" uniqueCount="602">
   <si>
     <t>id</t>
   </si>
@@ -182,9 +182,6 @@
     <t>Esopet</t>
   </si>
   <si>
-    <t>Calfstaf en Noydekin(?)</t>
-  </si>
-  <si>
     <t>rijmspreuken</t>
   </si>
   <si>
@@ -551,9 +548,6 @@
     <t>Lapidarijs</t>
   </si>
   <si>
-    <t>Jacob van Maerlant(?)</t>
-  </si>
-  <si>
     <t>loyhier_en_malaert_fragm_a</t>
   </si>
   <si>
@@ -1313,9 +1307,6 @@
     <t>Vierde Martijn</t>
   </si>
   <si>
-    <t>Hein van Aken(?)</t>
-  </si>
-  <si>
     <t>1390-1400</t>
   </si>
   <si>
@@ -1845,6 +1836,9 @@
   </si>
   <si>
     <t>Merlijn</t>
+  </si>
+  <si>
+    <t>Calfstaf en Noydekin</t>
   </si>
 </sst>
 </file>
@@ -2232,8 +2226,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I285"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A245" workbookViewId="0">
-      <selection activeCell="B285" sqref="B285"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C63" sqref="C63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2272,15 +2266,15 @@
         <v>7</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B2" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D2">
         <v>1410</v>
@@ -2292,15 +2286,15 @@
         <v>14</v>
       </c>
       <c r="G2" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B3" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C3" t="s">
         <v>37</v>
@@ -2315,41 +2309,41 @@
         <v>31</v>
       </c>
       <c r="G3" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="H3" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="B4" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="D4">
         <v>1295.5</v>
       </c>
       <c r="E4" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="F4" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="G4" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="H4" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B5" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="D5">
         <v>1375</v>
@@ -2361,18 +2355,18 @@
         <v>17</v>
       </c>
       <c r="G5" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="H5" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="B6" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D6">
         <v>1544</v>
@@ -2381,18 +2375,18 @@
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="G6" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B7" t="s">
         <v>154</v>
-      </c>
-      <c r="B7" t="s">
-        <v>155</v>
       </c>
       <c r="D7">
         <v>1325</v>
@@ -2401,21 +2395,21 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G7" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="H7" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B8" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D8">
         <v>1350</v>
@@ -2427,18 +2421,18 @@
         <v>34</v>
       </c>
       <c r="G8" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="H8" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B9" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D9">
         <v>1490</v>
@@ -2447,18 +2441,18 @@
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="G9" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B10" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D10">
         <v>1387.5</v>
@@ -2470,18 +2464,18 @@
         <v>11</v>
       </c>
       <c r="G10" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="H10" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B11" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D11">
         <v>1325</v>
@@ -2490,21 +2484,21 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G11" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="H11" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B12" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D12">
         <v>1374</v>
@@ -2513,21 +2507,21 @@
         <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G12" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="H12" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B13" t="s">
         <v>144</v>
-      </c>
-      <c r="B13" t="s">
-        <v>145</v>
       </c>
       <c r="D13">
         <v>1350</v>
@@ -2539,18 +2533,18 @@
         <v>34</v>
       </c>
       <c r="G13" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="H13" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B14" t="s">
         <v>156</v>
-      </c>
-      <c r="B14" t="s">
-        <v>157</v>
       </c>
       <c r="D14">
         <v>1400</v>
@@ -2559,21 +2553,21 @@
         <v>10</v>
       </c>
       <c r="F14" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G14" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="H14" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="B15" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="D15">
         <v>1650</v>
@@ -2582,21 +2576,21 @@
         <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="G15" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="H15" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B16" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D16">
         <v>1412.5</v>
@@ -2605,18 +2599,18 @@
         <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="G16" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B17" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="D17">
         <v>1510</v>
@@ -2625,21 +2619,21 @@
         <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="G17" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="H17" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B18" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="D18">
         <v>1339</v>
@@ -2648,24 +2642,24 @@
         <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G18" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="H18" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="B19" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="C19" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D19">
         <v>1400</v>
@@ -2677,33 +2671,33 @@
         <v>31</v>
       </c>
       <c r="G19" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="H19" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="B20" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="D20">
         <v>1265</v>
       </c>
       <c r="E20" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="F20" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="G20" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="H20" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
@@ -2723,15 +2717,15 @@
         <v>11</v>
       </c>
       <c r="G21" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="H21" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B22" t="s">
         <v>25</v>
@@ -2746,15 +2740,15 @@
         <v>11</v>
       </c>
       <c r="G22" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="H22" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B23" t="s">
         <v>25</v>
@@ -2766,18 +2760,18 @@
         <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G23" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="H23" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="B24" t="s">
         <v>25</v>
@@ -2789,21 +2783,21 @@
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G24" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="H24" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B25" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D25">
         <v>1410</v>
@@ -2815,18 +2809,18 @@
         <v>14</v>
       </c>
       <c r="G25" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="H25" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B26" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D26">
         <v>1362.5</v>
@@ -2835,21 +2829,21 @@
         <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G26" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="H26" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B27" t="s">
         <v>84</v>
-      </c>
-      <c r="B27" t="s">
-        <v>85</v>
       </c>
       <c r="D27">
         <v>1350</v>
@@ -2858,21 +2852,21 @@
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G27" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="H27" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B28" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D28">
         <v>1350</v>
@@ -2884,21 +2878,21 @@
         <v>34</v>
       </c>
       <c r="G28" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="H28" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B29" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="C29" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D29">
         <v>1470</v>
@@ -2907,21 +2901,21 @@
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="G29" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="H29" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B30" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="D30">
         <v>1432</v>
@@ -2930,21 +2924,21 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="G30" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="H30" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B31" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="D31">
         <v>1470</v>
@@ -2953,44 +2947,44 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="G31" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="H31" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="B32" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="D32">
         <v>1270</v>
       </c>
       <c r="E32" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="F32" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="G32" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="H32" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B33" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D33">
         <v>1410</v>
@@ -3002,15 +2996,15 @@
         <v>14</v>
       </c>
       <c r="G33" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B34" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D34">
         <v>1312.5</v>
@@ -3019,21 +3013,21 @@
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G34" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="H34" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="B35" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="C35" t="s">
         <v>37</v>
@@ -3045,18 +3039,18 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G35" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B36" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="D36">
         <v>1310</v>
@@ -3065,21 +3059,21 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="G36" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="H36" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B37" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="D37">
         <v>1450</v>
@@ -3088,21 +3082,21 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G37" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="H37" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B38" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="D38">
         <v>1387.5</v>
@@ -3114,18 +3108,18 @@
         <v>11</v>
       </c>
       <c r="G38" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="H38" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B39" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="D39">
         <v>1435</v>
@@ -3134,21 +3128,21 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="G39" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="H39" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B40" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D40">
         <v>1450</v>
@@ -3157,21 +3151,21 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G40" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="H40" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="B41" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="C41" t="s">
         <v>37</v>
@@ -3183,21 +3177,21 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="G41" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B42" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C42" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D42">
         <v>1350</v>
@@ -3209,18 +3203,18 @@
         <v>34</v>
       </c>
       <c r="G42" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="H42" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="B43" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="D43">
         <v>1351</v>
@@ -3229,24 +3223,24 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="G43" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="H43" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="B44" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="C44" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="D44">
         <v>1480</v>
@@ -3255,70 +3249,70 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G44" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="H44" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="B45" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="D45">
         <v>1287</v>
       </c>
       <c r="E45" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="F45" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="G45" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="H45" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="B46" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="D46">
         <v>1288</v>
       </c>
       <c r="E46" t="s">
+        <v>512</v>
+      </c>
+      <c r="F46" t="s">
         <v>515</v>
       </c>
-      <c r="F46" t="s">
-        <v>518</v>
-      </c>
       <c r="G46" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="H46" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="I46" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B47" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D47">
         <v>1405</v>
@@ -3327,21 +3321,21 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G47" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="H47" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B48" t="s">
         <v>150</v>
-      </c>
-      <c r="B48" t="s">
-        <v>151</v>
       </c>
       <c r="D48">
         <v>1350</v>
@@ -3353,18 +3347,18 @@
         <v>34</v>
       </c>
       <c r="G48" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="H48" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B49" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C49" t="s">
         <v>37</v>
@@ -3379,15 +3373,15 @@
         <v>38</v>
       </c>
       <c r="G49" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B50" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D50">
         <v>1539</v>
@@ -3396,18 +3390,18 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G50" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B51" t="s">
         <v>125</v>
-      </c>
-      <c r="B51" t="s">
-        <v>126</v>
       </c>
       <c r="D51">
         <v>1374</v>
@@ -3416,21 +3410,21 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G51" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="H51" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B52" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D52">
         <v>1410</v>
@@ -3442,18 +3436,18 @@
         <v>14</v>
       </c>
       <c r="G52" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="H52" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B53" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C53" t="s">
         <v>37</v>
@@ -3468,15 +3462,15 @@
         <v>38</v>
       </c>
       <c r="G53" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="B54" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="D54">
         <v>1410</v>
@@ -3488,15 +3482,15 @@
         <v>14</v>
       </c>
       <c r="G54" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="B55" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="D55">
         <v>1481</v>
@@ -3505,21 +3499,21 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="G55" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="H55" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B56" t="s">
         <v>165</v>
-      </c>
-      <c r="B56" t="s">
-        <v>166</v>
       </c>
       <c r="C56" t="s">
         <v>37</v>
@@ -3534,38 +3528,38 @@
         <v>38</v>
       </c>
       <c r="G56" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="B57" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="D57">
         <v>1290</v>
       </c>
       <c r="E57" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="F57" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="G57" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="H57" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B58" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D58">
         <v>1410</v>
@@ -3577,7 +3571,7 @@
         <v>14</v>
       </c>
       <c r="G58" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
@@ -3588,7 +3582,7 @@
         <v>48</v>
       </c>
       <c r="C59" t="s">
-        <v>49</v>
+        <v>601</v>
       </c>
       <c r="D59">
         <v>1350</v>
@@ -3600,18 +3594,18 @@
         <v>34</v>
       </c>
       <c r="G59" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="H59" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B60" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D60">
         <v>1410</v>
@@ -3623,18 +3617,18 @@
         <v>14</v>
       </c>
       <c r="G60" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="H60" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B61" t="s">
         <v>79</v>
-      </c>
-      <c r="B61" t="s">
-        <v>80</v>
       </c>
       <c r="D61">
         <v>1350</v>
@@ -3646,18 +3640,18 @@
         <v>34</v>
       </c>
       <c r="G61" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="H61" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B62" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D62">
         <v>1350</v>
@@ -3669,18 +3663,18 @@
         <v>34</v>
       </c>
       <c r="G62" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="H62" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="B63" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="D63">
         <v>1375</v>
@@ -3692,18 +3686,18 @@
         <v>17</v>
       </c>
       <c r="G63" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="H63" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B64" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D64">
         <v>1362.5</v>
@@ -3712,21 +3706,21 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G64" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="H64" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B65" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D65">
         <v>1387.5</v>
@@ -3738,18 +3732,18 @@
         <v>11</v>
       </c>
       <c r="G65" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="H65" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="B66" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D66">
         <v>1387.5</v>
@@ -3761,18 +3755,18 @@
         <v>11</v>
       </c>
       <c r="G66" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="H66" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B67" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="D67">
         <v>1350</v>
@@ -3784,21 +3778,21 @@
         <v>34</v>
       </c>
       <c r="G67" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="H67" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B68" t="s">
         <v>147</v>
       </c>
-      <c r="B68" t="s">
+      <c r="C68" t="s">
         <v>148</v>
-      </c>
-      <c r="C68" t="s">
-        <v>149</v>
       </c>
       <c r="D68">
         <v>1350</v>
@@ -3810,18 +3804,18 @@
         <v>34</v>
       </c>
       <c r="G68" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="H68" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="B69" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="D69">
         <v>1450</v>
@@ -3830,44 +3824,44 @@
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G69" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="H69" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="B70" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="D70">
         <v>1213</v>
       </c>
       <c r="E70" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="F70" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="G70" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="H70" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="B71" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="D71">
         <v>1325</v>
@@ -3876,18 +3870,18 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G71" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B72" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="D72">
         <v>1405</v>
@@ -3896,21 +3890,21 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G72" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="H72" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B73" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D73">
         <v>1350</v>
@@ -3922,21 +3916,21 @@
         <v>34</v>
       </c>
       <c r="G73" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="H73" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="B74" t="s">
+        <v>386</v>
+      </c>
+      <c r="C74" t="s">
         <v>387</v>
-      </c>
-      <c r="B74" t="s">
-        <v>388</v>
-      </c>
-      <c r="C74" t="s">
-        <v>389</v>
       </c>
       <c r="D74">
         <v>1480</v>
@@ -3945,18 +3939,18 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G74" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="B75" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="D75">
         <v>1325</v>
@@ -3965,21 +3959,21 @@
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G75" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="H75" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B76" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D76">
         <v>1410</v>
@@ -3991,15 +3985,15 @@
         <v>14</v>
       </c>
       <c r="G76" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B77" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D77">
         <v>1350</v>
@@ -4011,18 +4005,18 @@
         <v>34</v>
       </c>
       <c r="G77" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="H77" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="B78" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="D78">
         <v>1325</v>
@@ -4031,21 +4025,21 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G78" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="H78" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B79" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D79">
         <v>1325</v>
@@ -4054,21 +4048,21 @@
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G79" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="H79" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="B80" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="D80">
         <v>1375</v>
@@ -4080,15 +4074,15 @@
         <v>17</v>
       </c>
       <c r="G80" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B81" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="D81">
         <v>1375</v>
@@ -4100,15 +4094,15 @@
         <v>17</v>
       </c>
       <c r="G81" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="B82" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="D82">
         <v>1375</v>
@@ -4120,15 +4114,15 @@
         <v>17</v>
       </c>
       <c r="G82" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B83" t="s">
         <v>71</v>
-      </c>
-      <c r="B83" t="s">
-        <v>72</v>
       </c>
       <c r="D83">
         <v>1350</v>
@@ -4140,18 +4134,18 @@
         <v>34</v>
       </c>
       <c r="G83" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="H83" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B84" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D84">
         <v>1400</v>
@@ -4163,15 +4157,15 @@
         <v>31</v>
       </c>
       <c r="G84" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B85" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D85">
         <v>1410</v>
@@ -4183,15 +4177,15 @@
         <v>14</v>
       </c>
       <c r="G85" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B86" t="s">
         <v>66</v>
-      </c>
-      <c r="B86" t="s">
-        <v>67</v>
       </c>
       <c r="C86" t="s">
         <v>37</v>
@@ -4203,21 +4197,21 @@
         <v>10</v>
       </c>
       <c r="F86" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G86" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="H86" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="B87" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="C87" t="s">
         <v>37</v>
@@ -4229,21 +4223,21 @@
         <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="G87" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="H87" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B88" t="s">
         <v>112</v>
-      </c>
-      <c r="B88" t="s">
-        <v>113</v>
       </c>
       <c r="D88">
         <v>1510</v>
@@ -4252,21 +4246,21 @@
         <v>10</v>
       </c>
       <c r="F88" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G88" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="H88" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B89" t="s">
         <v>115</v>
-      </c>
-      <c r="B89" t="s">
-        <v>116</v>
       </c>
       <c r="C89" t="s">
         <v>37</v>
@@ -4278,21 +4272,21 @@
         <v>10</v>
       </c>
       <c r="F89" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G89" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="H89" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="B90" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="D90">
         <v>1375</v>
@@ -4304,18 +4298,18 @@
         <v>17</v>
       </c>
       <c r="G90" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="H90" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="B91" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="D91">
         <v>1325</v>
@@ -4324,21 +4318,21 @@
         <v>10</v>
       </c>
       <c r="F91" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G91" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="H91" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B92" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="D92">
         <v>1350</v>
@@ -4350,18 +4344,18 @@
         <v>34</v>
       </c>
       <c r="G92" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="H92" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B93" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D93">
         <v>1551</v>
@@ -4370,18 +4364,18 @@
         <v>10</v>
       </c>
       <c r="F93" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G93" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="B94" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="D94">
         <v>1550</v>
@@ -4390,24 +4384,24 @@
         <v>10</v>
       </c>
       <c r="F94" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="G94" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="H94" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="B95" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="C95" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D95">
         <v>1400</v>
@@ -4419,18 +4413,18 @@
         <v>31</v>
       </c>
       <c r="G95" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="H95" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B96" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="D96">
         <v>1500</v>
@@ -4439,21 +4433,21 @@
         <v>10</v>
       </c>
       <c r="F96" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G96" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="H96" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B97" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="D97">
         <v>1505</v>
@@ -4462,21 +4456,21 @@
         <v>10</v>
       </c>
       <c r="F97" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G97" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="H97" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B98" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="D98">
         <v>1510</v>
@@ -4485,21 +4479,21 @@
         <v>10</v>
       </c>
       <c r="F98" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G98" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="H98" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B99" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D99">
         <v>1487</v>
@@ -4508,24 +4502,24 @@
         <v>10</v>
       </c>
       <c r="F99" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="G99" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="H99" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B100" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C100" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D100">
         <v>1404.5</v>
@@ -4534,24 +4528,24 @@
         <v>10</v>
       </c>
       <c r="F100" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="G100" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="H100" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B101" t="s">
         <v>100</v>
       </c>
-      <c r="B101" t="s">
+      <c r="C101" t="s">
         <v>101</v>
-      </c>
-      <c r="C101" t="s">
-        <v>102</v>
       </c>
       <c r="D101">
         <v>1410</v>
@@ -4563,18 +4557,18 @@
         <v>14</v>
       </c>
       <c r="G101" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="H101" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B102" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D102">
         <v>1325</v>
@@ -4583,21 +4577,21 @@
         <v>10</v>
       </c>
       <c r="F102" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G102" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="H102" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B103" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="D103">
         <v>1325</v>
@@ -4606,24 +4600,24 @@
         <v>10</v>
       </c>
       <c r="F103" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G103" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="H103" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="I103" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B104" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="D104">
         <v>1325</v>
@@ -4632,21 +4626,21 @@
         <v>10</v>
       </c>
       <c r="F104" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G104" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="H104" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B105" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D105">
         <v>1410</v>
@@ -4658,15 +4652,15 @@
         <v>14</v>
       </c>
       <c r="G105" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B106" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D106">
         <v>1325</v>
@@ -4675,24 +4669,21 @@
         <v>10</v>
       </c>
       <c r="F106" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G106" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="H106" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B107" t="s">
         <v>170</v>
-      </c>
-      <c r="B107" t="s">
-        <v>171</v>
-      </c>
-      <c r="C107" t="s">
-        <v>172</v>
       </c>
       <c r="D107">
         <v>1350</v>
@@ -4701,21 +4692,21 @@
         <v>10</v>
       </c>
       <c r="F107" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G107" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="H107" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B108" t="s">
         <v>139</v>
-      </c>
-      <c r="B108" t="s">
-        <v>140</v>
       </c>
       <c r="D108">
         <v>1400</v>
@@ -4727,21 +4718,21 @@
         <v>31</v>
       </c>
       <c r="G108" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="H108" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B109" t="s">
+        <v>570</v>
+      </c>
+      <c r="C109" t="s">
         <v>69</v>
-      </c>
-      <c r="B109" t="s">
-        <v>573</v>
-      </c>
-      <c r="C109" t="s">
-        <v>70</v>
       </c>
       <c r="D109">
         <v>1350</v>
@@ -4753,41 +4744,41 @@
         <v>34</v>
       </c>
       <c r="G109" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="H109" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="B110" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="D110">
         <v>1230</v>
       </c>
       <c r="E110" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="F110" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="G110" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="H110" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="B111" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="D111">
         <v>1387.5</v>
@@ -4799,18 +4790,18 @@
         <v>11</v>
       </c>
       <c r="G111" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="H111" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B112" t="s">
         <v>62</v>
-      </c>
-      <c r="B112" t="s">
-        <v>63</v>
       </c>
       <c r="D112">
         <v>1410</v>
@@ -4822,15 +4813,15 @@
         <v>14</v>
       </c>
       <c r="G112" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B113" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D113">
         <v>1375</v>
@@ -4842,18 +4833,18 @@
         <v>17</v>
       </c>
       <c r="G113" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="H113" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B114" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D114">
         <v>1375</v>
@@ -4865,18 +4856,18 @@
         <v>17</v>
       </c>
       <c r="G114" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="H114" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B115" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D115">
         <v>1350</v>
@@ -4885,21 +4876,21 @@
         <v>10</v>
       </c>
       <c r="F115" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G115" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="H115" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="B116" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D116">
         <v>1350</v>
@@ -4908,36 +4899,36 @@
         <v>10</v>
       </c>
       <c r="F116" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G116" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="H116" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="B117" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="D117">
         <v>1295.5</v>
       </c>
       <c r="E117" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="F117" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="G117" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="H117" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.2">
@@ -4957,10 +4948,10 @@
         <v>17</v>
       </c>
       <c r="G118" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="H118" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.2">
@@ -4980,15 +4971,15 @@
         <v>17</v>
       </c>
       <c r="G119" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="H119" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B120" t="s">
         <v>16</v>
@@ -5003,15 +4994,15 @@
         <v>17</v>
       </c>
       <c r="G120" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="H120" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B121" t="s">
         <v>16</v>
@@ -5026,15 +5017,15 @@
         <v>34</v>
       </c>
       <c r="G121" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="H121" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B122" t="s">
         <v>16</v>
@@ -5049,15 +5040,15 @@
         <v>34</v>
       </c>
       <c r="G122" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="H122" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B123" t="s">
         <v>16</v>
@@ -5072,15 +5063,15 @@
         <v>17</v>
       </c>
       <c r="G123" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="H123" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B124" t="s">
         <v>16</v>
@@ -5095,15 +5086,15 @@
         <v>11</v>
       </c>
       <c r="G124" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="H124" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B125" t="s">
         <v>16</v>
@@ -5118,15 +5109,15 @@
         <v>11</v>
       </c>
       <c r="G125" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="H125" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B126" t="s">
         <v>16</v>
@@ -5141,15 +5132,15 @@
         <v>34</v>
       </c>
       <c r="G126" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="H126" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B127" t="s">
         <v>16</v>
@@ -5164,15 +5155,15 @@
         <v>34</v>
       </c>
       <c r="G127" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="H127" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B128" t="s">
         <v>16</v>
@@ -5187,15 +5178,15 @@
         <v>34</v>
       </c>
       <c r="G128" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="H128" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B129" t="s">
         <v>16</v>
@@ -5210,15 +5201,15 @@
         <v>17</v>
       </c>
       <c r="G129" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="H129" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B130" t="s">
         <v>16</v>
@@ -5233,18 +5224,18 @@
         <v>17</v>
       </c>
       <c r="G130" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="H130" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B131" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D131">
         <v>1400</v>
@@ -5256,21 +5247,21 @@
         <v>31</v>
       </c>
       <c r="G131" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="H131" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B132" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="C132" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D132">
         <v>1350</v>
@@ -5282,15 +5273,15 @@
         <v>34</v>
       </c>
       <c r="G132" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B133" t="s">
         <v>103</v>
-      </c>
-      <c r="B133" t="s">
-        <v>104</v>
       </c>
       <c r="C133" t="s">
         <v>30</v>
@@ -5302,24 +5293,24 @@
         <v>10</v>
       </c>
       <c r="F133" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G133" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="H133" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="I133" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B134" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C134" t="s">
         <v>30</v>
@@ -5334,21 +5325,21 @@
         <v>17</v>
       </c>
       <c r="G134" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="H134" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="I134" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B135" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C135" t="s">
         <v>30</v>
@@ -5363,21 +5354,21 @@
         <v>17</v>
       </c>
       <c r="G135" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="H135" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="I135" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B136" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C136" t="s">
         <v>37</v>
@@ -5389,24 +5380,24 @@
         <v>10</v>
       </c>
       <c r="F136" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G136" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="H136" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="I136" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="B137" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="D137">
         <v>1325</v>
@@ -5415,18 +5406,18 @@
         <v>10</v>
       </c>
       <c r="F137" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G137" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="B138" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="D138">
         <v>1350</v>
@@ -5435,38 +5426,38 @@
         <v>10</v>
       </c>
       <c r="F138" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G138" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="B139" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="D139">
         <v>1295.5</v>
       </c>
       <c r="E139" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="F139" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="G139" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B140" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="D140">
         <v>1325</v>
@@ -5475,21 +5466,21 @@
         <v>10</v>
       </c>
       <c r="F140" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G140" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="H140" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B141" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D141">
         <v>1414.5</v>
@@ -5498,24 +5489,24 @@
         <v>10</v>
       </c>
       <c r="F141" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="G141" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="H141" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B142" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C142" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D142">
         <v>1410</v>
@@ -5527,18 +5518,18 @@
         <v>14</v>
       </c>
       <c r="G142" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="H142" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B143" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="D143">
         <v>1400</v>
@@ -5550,18 +5541,18 @@
         <v>31</v>
       </c>
       <c r="G143" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="H143" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B144" t="s">
         <v>54</v>
-      </c>
-      <c r="B144" t="s">
-        <v>55</v>
       </c>
       <c r="D144">
         <v>1400</v>
@@ -5573,18 +5564,18 @@
         <v>31</v>
       </c>
       <c r="G144" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="H144" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="B145" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="D145">
         <v>1400</v>
@@ -5596,18 +5587,18 @@
         <v>31</v>
       </c>
       <c r="G145" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="H145" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B146" t="s">
         <v>159</v>
-      </c>
-      <c r="B146" t="s">
-        <v>160</v>
       </c>
       <c r="D146">
         <v>1478.5</v>
@@ -5616,21 +5607,21 @@
         <v>10</v>
       </c>
       <c r="F146" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G146" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="H146" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B147" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D147">
         <v>1350</v>
@@ -5639,21 +5630,21 @@
         <v>10</v>
       </c>
       <c r="F147" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G147" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="H147" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B148" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D148">
         <v>1350</v>
@@ -5662,21 +5653,21 @@
         <v>10</v>
       </c>
       <c r="F148" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G148" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="H148" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B149" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D149">
         <v>1350</v>
@@ -5685,21 +5676,21 @@
         <v>10</v>
       </c>
       <c r="F149" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G149" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="H149" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B150" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D150">
         <v>1350</v>
@@ -5708,21 +5699,21 @@
         <v>10</v>
       </c>
       <c r="F150" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G150" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="H150" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B151" t="s">
         <v>107</v>
-      </c>
-      <c r="B151" t="s">
-        <v>108</v>
       </c>
       <c r="D151">
         <v>1225</v>
@@ -5731,21 +5722,21 @@
         <v>10</v>
       </c>
       <c r="F151" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G151" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="H151" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B152" t="s">
         <v>141</v>
-      </c>
-      <c r="B152" t="s">
-        <v>142</v>
       </c>
       <c r="D152">
         <v>1387.5</v>
@@ -5757,18 +5748,18 @@
         <v>11</v>
       </c>
       <c r="G152" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="H152" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B153" t="s">
         <v>110</v>
-      </c>
-      <c r="B153" t="s">
-        <v>111</v>
       </c>
       <c r="D153">
         <v>1350</v>
@@ -5780,18 +5771,18 @@
         <v>34</v>
       </c>
       <c r="G153" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="H153" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B154" t="s">
         <v>81</v>
-      </c>
-      <c r="B154" t="s">
-        <v>82</v>
       </c>
       <c r="D154">
         <v>1350</v>
@@ -5800,13 +5791,13 @@
         <v>10</v>
       </c>
       <c r="F154" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G154" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="H154" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.2">
@@ -5826,18 +5817,18 @@
         <v>11</v>
       </c>
       <c r="G155" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="H155" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="B156" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="D156">
         <v>1390</v>
@@ -5846,21 +5837,21 @@
         <v>10</v>
       </c>
       <c r="F156" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="G156" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="H156" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B157" t="s">
         <v>97</v>
-      </c>
-      <c r="B157" t="s">
-        <v>98</v>
       </c>
       <c r="D157">
         <v>1445</v>
@@ -5869,13 +5860,13 @@
         <v>10</v>
       </c>
       <c r="F157" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G157" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="H157" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.2">
@@ -5895,15 +5886,15 @@
         <v>34</v>
       </c>
       <c r="G158" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="H158" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B159" t="s">
         <v>33</v>
@@ -5918,15 +5909,15 @@
         <v>34</v>
       </c>
       <c r="G159" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="H159" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B160" t="s">
         <v>33</v>
@@ -5938,18 +5929,18 @@
         <v>10</v>
       </c>
       <c r="F160" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G160" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="H160" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B161" t="s">
         <v>33</v>
@@ -5964,15 +5955,15 @@
         <v>11</v>
       </c>
       <c r="G161" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="H161" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B162" t="s">
         <v>33</v>
@@ -5987,15 +5978,15 @@
         <v>17</v>
       </c>
       <c r="G162" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="H162" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="B163" t="s">
         <v>33</v>
@@ -6007,47 +5998,47 @@
         <v>10</v>
       </c>
       <c r="F163" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G163" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="H163" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="B164" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="D164">
         <v>1288</v>
       </c>
       <c r="E164" t="s">
+        <v>512</v>
+      </c>
+      <c r="F164" t="s">
         <v>515</v>
       </c>
-      <c r="F164" t="s">
-        <v>518</v>
-      </c>
       <c r="G164" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="H164" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="I164" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B165" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="D165">
         <v>1325</v>
@@ -6056,24 +6047,24 @@
         <v>10</v>
       </c>
       <c r="F165" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G165" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="H165" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="I165" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B166" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="D166">
         <v>1325</v>
@@ -6082,21 +6073,21 @@
         <v>10</v>
       </c>
       <c r="F166" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G166" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="H166" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B167" t="s">
         <v>137</v>
-      </c>
-      <c r="B167" t="s">
-        <v>138</v>
       </c>
       <c r="D167">
         <v>1325</v>
@@ -6105,21 +6096,21 @@
         <v>10</v>
       </c>
       <c r="F167" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G167" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="H167" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="B168" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="D168">
         <v>1470</v>
@@ -6128,44 +6119,44 @@
         <v>10</v>
       </c>
       <c r="F168" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="G168" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="H168" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="B169" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="D169">
         <v>1288</v>
       </c>
       <c r="E169" t="s">
+        <v>512</v>
+      </c>
+      <c r="F169" t="s">
         <v>515</v>
       </c>
-      <c r="F169" t="s">
-        <v>518</v>
-      </c>
       <c r="G169" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="H169" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B170" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D170">
         <v>1350</v>
@@ -6177,18 +6168,18 @@
         <v>34</v>
       </c>
       <c r="G170" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="H170" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B171" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D171">
         <v>1350</v>
@@ -6197,21 +6188,21 @@
         <v>10</v>
       </c>
       <c r="F171" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G171" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="H171" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B172" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D172">
         <v>1500</v>
@@ -6220,21 +6211,21 @@
         <v>10</v>
       </c>
       <c r="F172" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G172" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="H172" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B173" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D173">
         <v>1350</v>
@@ -6246,18 +6237,18 @@
         <v>34</v>
       </c>
       <c r="G173" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="H173" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B174" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="D174">
         <v>1362.5</v>
@@ -6266,24 +6257,24 @@
         <v>10</v>
       </c>
       <c r="F174" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G174" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="H174" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="I174" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="B175" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="D175">
         <v>1325</v>
@@ -6292,47 +6283,47 @@
         <v>10</v>
       </c>
       <c r="F175" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G175" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="H175" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="B176" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="D176">
         <v>1285</v>
       </c>
       <c r="E176" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="F176" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="G176" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="H176" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="B177" t="s">
+        <v>330</v>
+      </c>
+      <c r="C177" t="s">
         <v>331</v>
-      </c>
-      <c r="B177" t="s">
-        <v>332</v>
-      </c>
-      <c r="C177" t="s">
-        <v>333</v>
       </c>
       <c r="D177">
         <v>1375</v>
@@ -6341,24 +6332,24 @@
         <v>10</v>
       </c>
       <c r="F177" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="G177" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="H177" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="B178" t="s">
+        <v>359</v>
+      </c>
+      <c r="C178" t="s">
         <v>360</v>
-      </c>
-      <c r="B178" t="s">
-        <v>361</v>
-      </c>
-      <c r="C178" t="s">
-        <v>362</v>
       </c>
       <c r="D178">
         <v>1440</v>
@@ -6367,21 +6358,21 @@
         <v>10</v>
       </c>
       <c r="F178" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="G178" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="H178" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B179" t="s">
         <v>50</v>
-      </c>
-      <c r="B179" t="s">
-        <v>51</v>
       </c>
       <c r="D179">
         <v>1480</v>
@@ -6390,21 +6381,21 @@
         <v>10</v>
       </c>
       <c r="F179" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G179" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B180" t="s">
+        <v>201</v>
+      </c>
+      <c r="C180" t="s">
         <v>202</v>
-      </c>
-      <c r="B180" t="s">
-        <v>203</v>
-      </c>
-      <c r="C180" t="s">
-        <v>204</v>
       </c>
       <c r="D180">
         <v>1400</v>
@@ -6416,7 +6407,7 @@
         <v>31</v>
       </c>
       <c r="G180" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.2">
@@ -6436,15 +6427,15 @@
         <v>17</v>
       </c>
       <c r="G181" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="H181" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B182" t="s">
         <v>19</v>
@@ -6456,18 +6447,18 @@
         <v>10</v>
       </c>
       <c r="F182" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G182" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="H182" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B183" t="s">
         <v>19</v>
@@ -6482,15 +6473,15 @@
         <v>17</v>
       </c>
       <c r="G183" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="H183" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B184" t="s">
         <v>19</v>
@@ -6505,15 +6496,15 @@
         <v>17</v>
       </c>
       <c r="G184" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="H184" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B185" t="s">
         <v>19</v>
@@ -6525,21 +6516,21 @@
         <v>10</v>
       </c>
       <c r="F185" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="G185" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="H185" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B186" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D186">
         <v>1350</v>
@@ -6551,18 +6542,18 @@
         <v>34</v>
       </c>
       <c r="G186" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="H186" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B187" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D187">
         <v>1325</v>
@@ -6571,21 +6562,21 @@
         <v>10</v>
       </c>
       <c r="F187" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G187" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="H187" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B188" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D188">
         <v>1325</v>
@@ -6594,21 +6585,21 @@
         <v>10</v>
       </c>
       <c r="F188" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G188" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="H188" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B189" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D189">
         <v>1325</v>
@@ -6617,21 +6608,21 @@
         <v>10</v>
       </c>
       <c r="F189" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G189" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="H189" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
     </row>
     <row r="190" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B190" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D190">
         <v>1325</v>
@@ -6640,21 +6631,21 @@
         <v>10</v>
       </c>
       <c r="F190" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G190" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="H190" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
     </row>
     <row r="191" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B191" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="D191">
         <v>1350</v>
@@ -6666,21 +6657,21 @@
         <v>34</v>
       </c>
       <c r="G191" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="H191" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="I191" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
     </row>
     <row r="192" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B192" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="D192">
         <v>1325</v>
@@ -6689,24 +6680,24 @@
         <v>10</v>
       </c>
       <c r="F192" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G192" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="H192" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="I192" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B193" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="D193">
         <v>1325</v>
@@ -6715,21 +6706,21 @@
         <v>10</v>
       </c>
       <c r="F193" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G193" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="H193" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
     </row>
     <row r="194" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A194" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B194" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="D194">
         <v>1350</v>
@@ -6738,24 +6729,24 @@
         <v>10</v>
       </c>
       <c r="F194" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G194" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="H194" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
     </row>
     <row r="195" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A195" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B195" t="s">
         <v>93</v>
       </c>
-      <c r="B195" t="s">
+      <c r="C195" t="s">
         <v>94</v>
-      </c>
-      <c r="C195" t="s">
-        <v>95</v>
       </c>
       <c r="D195">
         <v>1325</v>
@@ -6764,21 +6755,21 @@
         <v>10</v>
       </c>
       <c r="F195" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G195" s="3" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="H195" s="3" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A196" s="1" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B196" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="D196">
         <v>1410</v>
@@ -6790,18 +6781,18 @@
         <v>14</v>
       </c>
       <c r="G196" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="H196" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
     </row>
     <row r="197" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A197" s="1" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B197" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="D197">
         <v>1387.5</v>
@@ -6813,21 +6804,21 @@
         <v>11</v>
       </c>
       <c r="G197" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="H197" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
     </row>
     <row r="198" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A198" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B198" t="s">
+        <v>209</v>
+      </c>
+      <c r="C198" t="s">
         <v>210</v>
-      </c>
-      <c r="B198" t="s">
-        <v>211</v>
-      </c>
-      <c r="C198" t="s">
-        <v>212</v>
       </c>
       <c r="D198">
         <v>1410</v>
@@ -6839,21 +6830,21 @@
         <v>14</v>
       </c>
       <c r="G198" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="H198" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A199" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B199" t="s">
         <v>58</v>
       </c>
-      <c r="B199" t="s">
+      <c r="C199" t="s">
         <v>59</v>
-      </c>
-      <c r="C199" t="s">
-        <v>60</v>
       </c>
       <c r="D199">
         <v>1413.5</v>
@@ -6862,21 +6853,21 @@
         <v>10</v>
       </c>
       <c r="F199" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G199" s="3" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="H199" s="3" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
     </row>
     <row r="200" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A200" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B200" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="D200">
         <v>1350</v>
@@ -6885,24 +6876,24 @@
         <v>10</v>
       </c>
       <c r="F200" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G200" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="H200" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A201" s="1" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="B201" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="C201" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="D201">
         <v>1475</v>
@@ -6911,21 +6902,21 @@
         <v>10</v>
       </c>
       <c r="F201" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="G201" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="H201" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
     </row>
     <row r="202" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A202" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B202" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C202" t="s">
         <v>37</v>
@@ -6937,24 +6928,24 @@
         <v>10</v>
       </c>
       <c r="F202" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G202" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="H202" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
     </row>
     <row r="203" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A203" s="1" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B203" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C203" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D203">
         <v>1410</v>
@@ -6966,33 +6957,33 @@
         <v>14</v>
       </c>
       <c r="G203" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="H203" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
     </row>
     <row r="204" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A204" s="1" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="B204" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="D204">
         <v>1288</v>
       </c>
       <c r="E204" t="s">
+        <v>512</v>
+      </c>
+      <c r="F204" t="s">
         <v>515</v>
       </c>
-      <c r="F204" t="s">
-        <v>518</v>
-      </c>
       <c r="G204" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="H204" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
     </row>
     <row r="205" spans="1:9" x14ac:dyDescent="0.2">
@@ -7012,67 +7003,67 @@
         <v>41</v>
       </c>
       <c r="G205" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="H205" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="I205" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
     </row>
     <row r="206" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A206" s="1" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="B206" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="D206">
         <v>1267.5</v>
       </c>
       <c r="E206" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="F206" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="G206" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="H206" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
     </row>
     <row r="207" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A207" s="1" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="B207" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="D207">
         <v>1288</v>
       </c>
       <c r="E207" t="s">
+        <v>512</v>
+      </c>
+      <c r="F207" t="s">
         <v>515</v>
       </c>
-      <c r="F207" t="s">
-        <v>518</v>
-      </c>
       <c r="G207" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="H207" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
     </row>
     <row r="208" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A208" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B208" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D208">
         <v>1375</v>
@@ -7084,21 +7075,21 @@
         <v>17</v>
       </c>
       <c r="G208" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="H208" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
     </row>
     <row r="209" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A209" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="B209" t="s">
+        <v>375</v>
+      </c>
+      <c r="C209" t="s">
         <v>376</v>
-      </c>
-      <c r="B209" t="s">
-        <v>377</v>
-      </c>
-      <c r="C209" t="s">
-        <v>378</v>
       </c>
       <c r="D209">
         <v>1450</v>
@@ -7107,21 +7098,21 @@
         <v>10</v>
       </c>
       <c r="F209" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G209" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="H209" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
     </row>
     <row r="210" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A210" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B210" t="s">
         <v>73</v>
-      </c>
-      <c r="B210" t="s">
-        <v>74</v>
       </c>
       <c r="D210">
         <v>1450</v>
@@ -7130,18 +7121,18 @@
         <v>10</v>
       </c>
       <c r="F210" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G210" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A211" s="1" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B211" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="D211">
         <v>1425</v>
@@ -7150,10 +7141,10 @@
         <v>10</v>
       </c>
       <c r="F211" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="G211" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
     </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.2">
@@ -7176,18 +7167,18 @@
         <v>23</v>
       </c>
       <c r="G212" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="H212" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
     </row>
     <row r="213" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A213" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B213" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="D213">
         <v>1450</v>
@@ -7196,21 +7187,21 @@
         <v>10</v>
       </c>
       <c r="F213" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G213" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="H213" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A214" s="1" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B214" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="D214">
         <v>1450</v>
@@ -7219,24 +7210,24 @@
         <v>10</v>
       </c>
       <c r="F214" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G214" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="H214" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="I214" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
     </row>
     <row r="215" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A215" s="1" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B215" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="D215">
         <v>1375</v>
@@ -7248,21 +7239,21 @@
         <v>17</v>
       </c>
       <c r="G215" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="H215" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="I215" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A216" s="1" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="B216" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="D216">
         <v>1350</v>
@@ -7271,24 +7262,24 @@
         <v>10</v>
       </c>
       <c r="F216" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G216" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="H216" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="I216" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
     </row>
     <row r="217" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A217" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B217" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="C217" t="s">
         <v>37</v>
@@ -7300,13 +7291,13 @@
         <v>10</v>
       </c>
       <c r="F217" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G217" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="H217" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
     </row>
     <row r="218" spans="1:9" x14ac:dyDescent="0.2">
@@ -7314,7 +7305,7 @@
         <v>26</v>
       </c>
       <c r="B218" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="C218" t="s">
         <v>27</v>
@@ -7329,18 +7320,18 @@
         <v>28</v>
       </c>
       <c r="G218" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="H218" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
     </row>
     <row r="219" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A219" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B219" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="C219" t="s">
         <v>27</v>
@@ -7355,18 +7346,18 @@
         <v>31</v>
       </c>
       <c r="G219" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="H219" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
     </row>
     <row r="220" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A220" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B220" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="C220" t="s">
         <v>27</v>
@@ -7378,21 +7369,21 @@
         <v>10</v>
       </c>
       <c r="F220" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G220" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="H220" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
     </row>
     <row r="221" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A221" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B221" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="C221" t="s">
         <v>27</v>
@@ -7404,21 +7395,21 @@
         <v>10</v>
       </c>
       <c r="F221" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G221" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="H221" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
     </row>
     <row r="222" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A222" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B222" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="C222" t="s">
         <v>27</v>
@@ -7433,18 +7424,18 @@
         <v>31</v>
       </c>
       <c r="G222" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="H222" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
     </row>
     <row r="223" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A223" s="1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B223" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="C223" t="s">
         <v>27</v>
@@ -7456,21 +7447,21 @@
         <v>10</v>
       </c>
       <c r="F223" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="G223" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="H223" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
     </row>
     <row r="224" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A224" s="1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B224" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="C224" t="s">
         <v>27</v>
@@ -7482,21 +7473,21 @@
         <v>10</v>
       </c>
       <c r="F224" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G224" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="H224" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A225" s="1" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B225" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="C225" t="s">
         <v>27</v>
@@ -7511,10 +7502,10 @@
         <v>17</v>
       </c>
       <c r="G225" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="H225" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.2">
@@ -7522,7 +7513,7 @@
         <v>29</v>
       </c>
       <c r="B226" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="C226" t="s">
         <v>30</v>
@@ -7537,18 +7528,18 @@
         <v>31</v>
       </c>
       <c r="G226" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="H226" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A227" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B227" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="C227" t="s">
         <v>30</v>
@@ -7560,21 +7551,21 @@
         <v>10</v>
       </c>
       <c r="F227" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G227" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="H227" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A228" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B228" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="C228" t="s">
         <v>30</v>
@@ -7589,18 +7580,18 @@
         <v>31</v>
       </c>
       <c r="G228" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="H228" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A229" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B229" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="C229" t="s">
         <v>30</v>
@@ -7615,18 +7606,18 @@
         <v>31</v>
       </c>
       <c r="G229" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="H229" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A230" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B230" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="C230" t="s">
         <v>30</v>
@@ -7641,18 +7632,18 @@
         <v>31</v>
       </c>
       <c r="G230" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="H230" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A231" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B231" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="C231" t="s">
         <v>30</v>
@@ -7667,18 +7658,18 @@
         <v>31</v>
       </c>
       <c r="G231" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="H231" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A232" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B232" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="C232" t="s">
         <v>30</v>
@@ -7690,21 +7681,21 @@
         <v>10</v>
       </c>
       <c r="F232" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="G232" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="H232" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A233" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B233" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="C233" t="s">
         <v>30</v>
@@ -7716,21 +7707,21 @@
         <v>10</v>
       </c>
       <c r="F233" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="G233" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="H233" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A234" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B234" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="C234" t="s">
         <v>30</v>
@@ -7742,21 +7733,21 @@
         <v>10</v>
       </c>
       <c r="F234" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G234" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="H234" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
     </row>
     <row r="235" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A235" s="1" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B235" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="C235" t="s">
         <v>30</v>
@@ -7771,18 +7762,18 @@
         <v>31</v>
       </c>
       <c r="G235" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="H235" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
     </row>
     <row r="236" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A236" s="1" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="B236" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="C236" t="s">
         <v>30</v>
@@ -7794,21 +7785,21 @@
         <v>10</v>
       </c>
       <c r="F236" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G236" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="H236" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A237" s="1" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="B237" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="C237" t="s">
         <v>30</v>
@@ -7823,10 +7814,10 @@
         <v>34</v>
       </c>
       <c r="G237" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="H237" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.2">
@@ -7834,7 +7825,7 @@
         <v>43</v>
       </c>
       <c r="B238" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="C238" t="s">
         <v>30</v>
@@ -7849,18 +7840,18 @@
         <v>44</v>
       </c>
       <c r="G238" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="H238" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A239" s="1" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="B239" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="D239">
         <v>1410</v>
@@ -7872,21 +7863,21 @@
         <v>14</v>
       </c>
       <c r="G239" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="H239" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
     </row>
     <row r="240" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A240" s="1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B240" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="C240" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D240">
         <v>1350</v>
@@ -7898,15 +7889,15 @@
         <v>34</v>
       </c>
       <c r="G240" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
     </row>
     <row r="241" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A241" s="1" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="B241" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="D241">
         <v>1508</v>
@@ -7915,10 +7906,10 @@
         <v>10</v>
       </c>
       <c r="F241" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="G241" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
     </row>
     <row r="242" spans="1:9" x14ac:dyDescent="0.2">
@@ -7938,18 +7929,18 @@
         <v>14</v>
       </c>
       <c r="G242" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="H242" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
     </row>
     <row r="243" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A243" s="1" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="B243" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="D243">
         <v>1400</v>
@@ -7961,18 +7952,18 @@
         <v>31</v>
       </c>
       <c r="G243" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="H243" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
     </row>
     <row r="244" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A244" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B244" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="C244" t="s">
         <v>37</v>
@@ -7984,45 +7975,45 @@
         <v>10</v>
       </c>
       <c r="F244" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G244" s="3" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="H244" s="3" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="I244" s="3"/>
     </row>
     <row r="245" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A245" s="1" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="B245" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="D245">
         <v>1250</v>
       </c>
       <c r="E245" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="F245" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="G245" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="H245" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
     <row r="246" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A246" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B246" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D246">
         <v>1410</v>
@@ -8034,15 +8025,15 @@
         <v>14</v>
       </c>
       <c r="G246" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
     </row>
     <row r="247" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A247" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B247" t="s">
         <v>167</v>
-      </c>
-      <c r="B247" t="s">
-        <v>168</v>
       </c>
       <c r="D247">
         <v>1551</v>
@@ -8051,10 +8042,10 @@
         <v>10</v>
       </c>
       <c r="F247" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G247" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
     </row>
     <row r="248" spans="1:9" x14ac:dyDescent="0.2">
@@ -8077,15 +8068,15 @@
         <v>38</v>
       </c>
       <c r="G248" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
     </row>
     <row r="249" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A249" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B249" t="s">
         <v>118</v>
-      </c>
-      <c r="B249" t="s">
-        <v>119</v>
       </c>
       <c r="D249">
         <v>1350</v>
@@ -8094,21 +8085,21 @@
         <v>10</v>
       </c>
       <c r="F249" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G249" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="H249" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
     </row>
     <row r="250" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A250" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B250" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D250">
         <v>1350</v>
@@ -8120,21 +8111,21 @@
         <v>34</v>
       </c>
       <c r="G250" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="H250" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
     </row>
     <row r="251" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A251" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B251" t="s">
         <v>129</v>
       </c>
-      <c r="B251" t="s">
+      <c r="C251" t="s">
         <v>130</v>
-      </c>
-      <c r="C251" t="s">
-        <v>131</v>
       </c>
       <c r="D251">
         <v>1445</v>
@@ -8143,21 +8134,21 @@
         <v>10</v>
       </c>
       <c r="F251" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G251" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="H251" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
     </row>
     <row r="252" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A252" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B252" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C252" t="s">
         <v>37</v>
@@ -8169,18 +8160,18 @@
         <v>10</v>
       </c>
       <c r="F252" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G252" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
     </row>
     <row r="253" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A253" s="1" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="B253" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="D253">
         <v>1487.5</v>
@@ -8189,21 +8180,21 @@
         <v>10</v>
       </c>
       <c r="F253" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="G253" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="H253" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
     </row>
     <row r="254" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A254" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B254" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="D254">
         <v>1465</v>
@@ -8212,24 +8203,24 @@
         <v>10</v>
       </c>
       <c r="F254" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G254" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="H254" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
     </row>
     <row r="255" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A255" s="1" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B255" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C255" t="s">
-        <v>172</v>
+        <v>37</v>
       </c>
       <c r="D255">
         <v>1339</v>
@@ -8238,18 +8229,18 @@
         <v>10</v>
       </c>
       <c r="F255" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G255" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
     </row>
     <row r="256" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A256" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B256" t="s">
         <v>105</v>
-      </c>
-      <c r="B256" t="s">
-        <v>106</v>
       </c>
       <c r="D256">
         <v>1375</v>
@@ -8261,21 +8252,18 @@
         <v>17</v>
       </c>
       <c r="G256" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="H256" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
     </row>
     <row r="257" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A257" s="1" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B257" t="s">
-        <v>382</v>
-      </c>
-      <c r="C257" t="s">
-        <v>172</v>
+        <v>380</v>
       </c>
       <c r="D257">
         <v>1339</v>
@@ -8284,24 +8272,24 @@
         <v>10</v>
       </c>
       <c r="F257" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G257" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="H257" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
     </row>
     <row r="258" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A258" s="1" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="B258" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="C258" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="D258">
         <v>1402.5</v>
@@ -8313,70 +8301,70 @@
         <v>38</v>
       </c>
       <c r="G258" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="H258" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
     </row>
     <row r="259" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A259" s="1" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="B259" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="D259">
         <v>1288</v>
       </c>
       <c r="E259" t="s">
+        <v>512</v>
+      </c>
+      <c r="F259" t="s">
         <v>515</v>
       </c>
-      <c r="F259" t="s">
-        <v>518</v>
-      </c>
       <c r="G259" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="H259" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="I259" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
     </row>
     <row r="260" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A260" s="1" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="B260" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="D260">
         <v>1270</v>
       </c>
       <c r="E260" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="F260" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="G260" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="H260" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="I260" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
     </row>
     <row r="261" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A261" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B261" t="s">
         <v>76</v>
-      </c>
-      <c r="B261" t="s">
-        <v>77</v>
       </c>
       <c r="D261">
         <v>1339</v>
@@ -8385,21 +8373,21 @@
         <v>10</v>
       </c>
       <c r="F261" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G261" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="H261" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
     </row>
     <row r="262" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A262" s="1" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B262" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="D262">
         <v>1375</v>
@@ -8411,18 +8399,18 @@
         <v>17</v>
       </c>
       <c r="G262" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="H262" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
     </row>
     <row r="263" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A263" s="1" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B263" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="D263">
         <v>1400</v>
@@ -8434,10 +8422,10 @@
         <v>31</v>
       </c>
       <c r="G263" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="H263" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
     </row>
     <row r="264" spans="1:9" x14ac:dyDescent="0.2">
@@ -8457,18 +8445,15 @@
         <v>31</v>
       </c>
       <c r="G264" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
     </row>
     <row r="265" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A265" s="1" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B265" t="s">
-        <v>338</v>
-      </c>
-      <c r="C265" t="s">
-        <v>172</v>
+        <v>336</v>
       </c>
       <c r="D265">
         <v>1425</v>
@@ -8477,21 +8462,21 @@
         <v>10</v>
       </c>
       <c r="F265" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="G265" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
     </row>
     <row r="266" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A266" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B266" t="s">
         <v>152</v>
       </c>
-      <c r="B266" t="s">
-        <v>153</v>
-      </c>
       <c r="C266" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D266">
         <v>1400</v>
@@ -8503,18 +8488,18 @@
         <v>31</v>
       </c>
       <c r="G266" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="H266" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
     </row>
     <row r="267" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A267" s="1" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B267" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D267">
         <v>1402.5</v>
@@ -8526,18 +8511,18 @@
         <v>38</v>
       </c>
       <c r="G267" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="H267" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
     </row>
     <row r="268" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A268" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B268" t="s">
         <v>64</v>
-      </c>
-      <c r="B268" t="s">
-        <v>65</v>
       </c>
       <c r="D268">
         <v>1410</v>
@@ -8549,18 +8534,18 @@
         <v>14</v>
       </c>
       <c r="G268" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="H268" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
     </row>
     <row r="269" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A269" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B269" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D269">
         <v>1350</v>
@@ -8569,21 +8554,21 @@
         <v>10</v>
       </c>
       <c r="F269" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G269" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="H269" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
     </row>
     <row r="270" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A270" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B270" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D270">
         <v>1580</v>
@@ -8592,21 +8577,21 @@
         <v>10</v>
       </c>
       <c r="F270" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="G270" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="H270" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
     </row>
     <row r="271" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A271" s="1" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B271" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D271">
         <v>1438</v>
@@ -8615,21 +8600,21 @@
         <v>10</v>
       </c>
       <c r="F271" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="G271" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="H271" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
     </row>
     <row r="272" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A272" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B272" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D272">
         <v>1410</v>
@@ -8641,18 +8626,18 @@
         <v>14</v>
       </c>
       <c r="G272" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
     </row>
     <row r="273" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A273" s="1" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="B273" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="C273" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D273">
         <v>1410</v>
@@ -8664,21 +8649,18 @@
         <v>14</v>
       </c>
       <c r="G273" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="H273" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
     </row>
     <row r="274" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A274" s="1" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B274" t="s">
-        <v>425</v>
-      </c>
-      <c r="C274" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="D274">
         <v>1395</v>
@@ -8687,18 +8669,18 @@
         <v>10</v>
       </c>
       <c r="F274" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="G274" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
     </row>
     <row r="275" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A275" s="1" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B275" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="D275">
         <v>1350</v>
@@ -8710,18 +8692,18 @@
         <v>34</v>
       </c>
       <c r="G275" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="H275" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
     </row>
     <row r="276" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A276" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B276" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D276">
         <v>1300</v>
@@ -8730,24 +8712,24 @@
         <v>10</v>
       </c>
       <c r="F276" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G276" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="H276" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
     </row>
     <row r="277" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A277" s="1" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="B277" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="C277" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="D277">
         <v>1350</v>
@@ -8756,21 +8738,21 @@
         <v>10</v>
       </c>
       <c r="F277" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="G277" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="H277" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
     <row r="278" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A278" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B278" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D278">
         <v>1325</v>
@@ -8779,24 +8761,24 @@
         <v>10</v>
       </c>
       <c r="F278" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G278" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="H278" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
     <row r="279" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A279" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B279" t="s">
         <v>162</v>
       </c>
-      <c r="B279" t="s">
+      <c r="C279" t="s">
         <v>163</v>
-      </c>
-      <c r="C279" t="s">
-        <v>164</v>
       </c>
       <c r="D279">
         <v>1402.5</v>
@@ -8808,18 +8790,18 @@
         <v>38</v>
       </c>
       <c r="G279" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
     </row>
     <row r="280" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A280" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B280" t="s">
         <v>121</v>
       </c>
-      <c r="B280" t="s">
+      <c r="C280" t="s">
         <v>122</v>
-      </c>
-      <c r="C280" t="s">
-        <v>123</v>
       </c>
       <c r="D280">
         <v>1325</v>
@@ -8828,44 +8810,44 @@
         <v>10</v>
       </c>
       <c r="F280" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G280" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="H280" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
     </row>
     <row r="281" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A281" s="1" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="B281" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="D281">
         <v>1295.5</v>
       </c>
       <c r="E281" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="F281" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="G281" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="H281" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
     </row>
     <row r="282" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A282" s="1" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B282" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="D282">
         <v>1350</v>
@@ -8877,47 +8859,47 @@
         <v>34</v>
       </c>
       <c r="G282" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="H282" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="I282" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
     </row>
     <row r="283" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A283" s="1" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="B283" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="D283">
         <v>1270</v>
       </c>
       <c r="E283" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="F283" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="G283" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="H283" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="I283" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
     </row>
     <row r="284" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A284" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B284" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="D284">
         <v>1325</v>
@@ -8926,21 +8908,21 @@
         <v>10</v>
       </c>
       <c r="F284" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G284" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="H284" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
     <row r="285" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A285" s="1" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="B285" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C285" t="s">
         <v>30</v>
@@ -8952,13 +8934,13 @@
         <v>10</v>
       </c>
       <c r="F285" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="G285" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="H285" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
   </sheetData>

--- a/data/metadata_corrected.xlsx
+++ b/data/metadata_corrected.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mikekestemont/GitRepos/mdu/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C025CFCE-B7FB-DF42-943A-C6161C682429}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87676845-907E-3E47-A94D-589347BA0922}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="520" windowWidth="33600" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1781,12 +1781,6 @@
     <t>Strofische gedichten</t>
   </si>
   <si>
-    <t>Spiegel historiael (P4 [Velthem])</t>
-  </si>
-  <si>
-    <t>Spiegel historiael (P1-P4 [Maerlant])</t>
-  </si>
-  <si>
     <t>Van den neghen besten (kort)</t>
   </si>
   <si>
@@ -1839,6 +1833,12 @@
   </si>
   <si>
     <t>Calfstaf en Noydekin</t>
+  </si>
+  <si>
+    <t>Spiegel historiael (P4)</t>
+  </si>
+  <si>
+    <t>Spiegel historiael (P1-P4)</t>
   </si>
 </sst>
 </file>
@@ -2226,8 +2226,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I285"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C63" sqref="C63"/>
+    <sheetView tabSelected="1" topLeftCell="A251" workbookViewId="0">
+      <selection activeCell="B218" sqref="B218"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2312,7 +2312,7 @@
         <v>545</v>
       </c>
       <c r="H3" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -2467,7 +2467,7 @@
         <v>545</v>
       </c>
       <c r="H10" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -2490,7 +2490,7 @@
         <v>545</v>
       </c>
       <c r="H11" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -2536,7 +2536,7 @@
         <v>545</v>
       </c>
       <c r="H13" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -2633,7 +2633,7 @@
         <v>127</v>
       </c>
       <c r="B18" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="D18">
         <v>1339</v>
@@ -2648,7 +2648,7 @@
         <v>545</v>
       </c>
       <c r="H18" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
@@ -2720,7 +2720,7 @@
         <v>545</v>
       </c>
       <c r="H21" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
@@ -2743,7 +2743,7 @@
         <v>545</v>
       </c>
       <c r="H22" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
@@ -2766,7 +2766,7 @@
         <v>545</v>
       </c>
       <c r="H23" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
@@ -2789,7 +2789,7 @@
         <v>545</v>
       </c>
       <c r="H24" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
@@ -2812,7 +2812,7 @@
         <v>545</v>
       </c>
       <c r="H25" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
@@ -2835,7 +2835,7 @@
         <v>545</v>
       </c>
       <c r="H26" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
@@ -2889,7 +2889,7 @@
         <v>305</v>
       </c>
       <c r="B29" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="C29" t="s">
         <v>130</v>
@@ -2915,7 +2915,7 @@
         <v>307</v>
       </c>
       <c r="B30" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="D30">
         <v>1432</v>
@@ -2938,7 +2938,7 @@
         <v>283</v>
       </c>
       <c r="B31" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="D31">
         <v>1470</v>
@@ -2961,7 +2961,7 @@
         <v>511</v>
       </c>
       <c r="B32" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D32">
         <v>1270</v>
@@ -2996,7 +2996,7 @@
         <v>14</v>
       </c>
       <c r="G33" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
@@ -3111,7 +3111,7 @@
         <v>545</v>
       </c>
       <c r="H38" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
@@ -3119,7 +3119,7 @@
         <v>383</v>
       </c>
       <c r="B39" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="D39">
         <v>1435</v>
@@ -3482,7 +3482,7 @@
         <v>14</v>
       </c>
       <c r="G54" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
@@ -3571,7 +3571,7 @@
         <v>14</v>
       </c>
       <c r="G58" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
@@ -3582,7 +3582,7 @@
         <v>48</v>
       </c>
       <c r="C59" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="D59">
         <v>1350</v>
@@ -3597,7 +3597,7 @@
         <v>545</v>
       </c>
       <c r="H59" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
@@ -3689,7 +3689,7 @@
         <v>545</v>
       </c>
       <c r="H63" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
@@ -3712,7 +3712,7 @@
         <v>545</v>
       </c>
       <c r="H64" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
@@ -3735,7 +3735,7 @@
         <v>545</v>
       </c>
       <c r="H65" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
@@ -3758,7 +3758,7 @@
         <v>545</v>
       </c>
       <c r="H66" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
@@ -3781,7 +3781,7 @@
         <v>545</v>
       </c>
       <c r="H67" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.2">
@@ -3807,7 +3807,7 @@
         <v>545</v>
       </c>
       <c r="H68" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.2">
@@ -3853,7 +3853,7 @@
         <v>545</v>
       </c>
       <c r="H70" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.2">
@@ -3985,7 +3985,7 @@
         <v>14</v>
       </c>
       <c r="G76" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
@@ -4177,7 +4177,7 @@
         <v>14</v>
       </c>
       <c r="G85" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.2">
@@ -4208,10 +4208,10 @@
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="B87" t="s">
         <v>598</v>
-      </c>
-      <c r="B87" t="s">
-        <v>600</v>
       </c>
       <c r="C87" t="s">
         <v>37</v>
@@ -4252,7 +4252,7 @@
         <v>545</v>
       </c>
       <c r="H88" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.2">
@@ -4278,7 +4278,7 @@
         <v>545</v>
       </c>
       <c r="H89" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.2">
@@ -4347,7 +4347,7 @@
         <v>545</v>
       </c>
       <c r="H92" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.2">
@@ -4439,7 +4439,7 @@
         <v>545</v>
       </c>
       <c r="H96" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.2">
@@ -4462,7 +4462,7 @@
         <v>545</v>
       </c>
       <c r="H97" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.2">
@@ -4485,7 +4485,7 @@
         <v>545</v>
       </c>
       <c r="H98" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.2">
@@ -4652,7 +4652,7 @@
         <v>14</v>
       </c>
       <c r="G105" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.2">
@@ -4747,7 +4747,7 @@
         <v>545</v>
       </c>
       <c r="H109" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.2">
@@ -4813,7 +4813,7 @@
         <v>14</v>
       </c>
       <c r="G112" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.2">
@@ -4928,7 +4928,7 @@
         <v>545</v>
       </c>
       <c r="H117" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.2">
@@ -5544,7 +5544,7 @@
         <v>545</v>
       </c>
       <c r="H143" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.2">
@@ -5590,7 +5590,7 @@
         <v>545</v>
       </c>
       <c r="H145" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.2">
@@ -5613,7 +5613,7 @@
         <v>545</v>
       </c>
       <c r="H146" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.2">
@@ -5728,7 +5728,7 @@
         <v>545</v>
       </c>
       <c r="H151" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.2">
@@ -5866,7 +5866,7 @@
         <v>545</v>
       </c>
       <c r="H157" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.2">
@@ -5889,7 +5889,7 @@
         <v>545</v>
       </c>
       <c r="H158" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.2">
@@ -5912,7 +5912,7 @@
         <v>545</v>
       </c>
       <c r="H159" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.2">
@@ -5935,7 +5935,7 @@
         <v>545</v>
       </c>
       <c r="H160" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.2">
@@ -5958,7 +5958,7 @@
         <v>545</v>
       </c>
       <c r="H161" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.2">
@@ -5981,7 +5981,7 @@
         <v>545</v>
       </c>
       <c r="H162" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.2">
@@ -6004,7 +6004,7 @@
         <v>545</v>
       </c>
       <c r="H163" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.2">
@@ -6125,7 +6125,7 @@
         <v>545</v>
       </c>
       <c r="H168" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.2">
@@ -6312,7 +6312,7 @@
         <v>545</v>
       </c>
       <c r="H176" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.2">
@@ -6637,7 +6637,7 @@
         <v>545</v>
       </c>
       <c r="H190" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="191" spans="1:9" x14ac:dyDescent="0.2">
@@ -6645,7 +6645,7 @@
         <v>198</v>
       </c>
       <c r="B191" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="D191">
         <v>1350</v>
@@ -6660,7 +6660,7 @@
         <v>545</v>
       </c>
       <c r="H191" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="I191" t="s">
         <v>566</v>
@@ -6671,7 +6671,7 @@
         <v>291</v>
       </c>
       <c r="B192" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="D192">
         <v>1325</v>
@@ -6686,7 +6686,7 @@
         <v>545</v>
       </c>
       <c r="H192" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="I192" t="s">
         <v>566</v>
@@ -6697,7 +6697,7 @@
         <v>205</v>
       </c>
       <c r="B193" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="D193">
         <v>1325</v>
@@ -6712,7 +6712,7 @@
         <v>545</v>
       </c>
       <c r="H193" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="194" spans="1:9" x14ac:dyDescent="0.2">
@@ -7124,7 +7124,7 @@
         <v>74</v>
       </c>
       <c r="G210" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.2">
@@ -7144,7 +7144,7 @@
         <v>337</v>
       </c>
       <c r="G211" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
     </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.2">
@@ -7279,7 +7279,7 @@
         <v>183</v>
       </c>
       <c r="B217" t="s">
-        <v>583</v>
+        <v>601</v>
       </c>
       <c r="C217" t="s">
         <v>37</v>
@@ -7513,7 +7513,7 @@
         <v>29</v>
       </c>
       <c r="B226" t="s">
-        <v>582</v>
+        <v>600</v>
       </c>
       <c r="C226" t="s">
         <v>30</v>
@@ -7539,7 +7539,7 @@
         <v>55</v>
       </c>
       <c r="B227" t="s">
-        <v>582</v>
+        <v>600</v>
       </c>
       <c r="C227" t="s">
         <v>30</v>
@@ -7565,7 +7565,7 @@
         <v>88</v>
       </c>
       <c r="B228" t="s">
-        <v>582</v>
+        <v>600</v>
       </c>
       <c r="C228" t="s">
         <v>30</v>
@@ -7591,7 +7591,7 @@
         <v>95</v>
       </c>
       <c r="B229" t="s">
-        <v>582</v>
+        <v>600</v>
       </c>
       <c r="C229" t="s">
         <v>30</v>
@@ -7617,7 +7617,7 @@
         <v>123</v>
       </c>
       <c r="B230" t="s">
-        <v>582</v>
+        <v>600</v>
       </c>
       <c r="C230" t="s">
         <v>30</v>
@@ -7643,7 +7643,7 @@
         <v>126</v>
       </c>
       <c r="B231" t="s">
-        <v>582</v>
+        <v>600</v>
       </c>
       <c r="C231" t="s">
         <v>30</v>
@@ -7669,7 +7669,7 @@
         <v>255</v>
       </c>
       <c r="B232" t="s">
-        <v>582</v>
+        <v>600</v>
       </c>
       <c r="C232" t="s">
         <v>30</v>
@@ -7695,7 +7695,7 @@
         <v>275</v>
       </c>
       <c r="B233" t="s">
-        <v>582</v>
+        <v>600</v>
       </c>
       <c r="C233" t="s">
         <v>30</v>
@@ -7721,7 +7721,7 @@
         <v>278</v>
       </c>
       <c r="B234" t="s">
-        <v>582</v>
+        <v>600</v>
       </c>
       <c r="C234" t="s">
         <v>30</v>
@@ -7747,7 +7747,7 @@
         <v>333</v>
       </c>
       <c r="B235" t="s">
-        <v>582</v>
+        <v>600</v>
       </c>
       <c r="C235" t="s">
         <v>30</v>
@@ -7773,7 +7773,7 @@
         <v>426</v>
       </c>
       <c r="B236" t="s">
-        <v>582</v>
+        <v>600</v>
       </c>
       <c r="C236" t="s">
         <v>30</v>
@@ -7799,7 +7799,7 @@
         <v>444</v>
       </c>
       <c r="B237" t="s">
-        <v>582</v>
+        <v>600</v>
       </c>
       <c r="C237" t="s">
         <v>30</v>
@@ -8025,7 +8025,7 @@
         <v>14</v>
       </c>
       <c r="G246" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
     </row>
     <row r="247" spans="1:9" x14ac:dyDescent="0.2">
@@ -8091,7 +8091,7 @@
         <v>545</v>
       </c>
       <c r="H249" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="250" spans="1:9" x14ac:dyDescent="0.2">
@@ -8114,7 +8114,7 @@
         <v>545</v>
       </c>
       <c r="H250" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="251" spans="1:9" x14ac:dyDescent="0.2">
@@ -8171,7 +8171,7 @@
         <v>427</v>
       </c>
       <c r="B253" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="D253">
         <v>1487.5</v>
@@ -8194,7 +8194,7 @@
         <v>234</v>
       </c>
       <c r="B254" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="D254">
         <v>1465</v>
@@ -8304,7 +8304,7 @@
         <v>545</v>
       </c>
       <c r="H258" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="259" spans="1:9" x14ac:dyDescent="0.2">
@@ -8327,7 +8327,7 @@
         <v>545</v>
       </c>
       <c r="H259" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="I259" t="s">
         <v>566</v>
@@ -8353,7 +8353,7 @@
         <v>545</v>
       </c>
       <c r="H260" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="I260" t="s">
         <v>566</v>
@@ -8445,7 +8445,7 @@
         <v>31</v>
       </c>
       <c r="G264" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
     </row>
     <row r="265" spans="1:9" x14ac:dyDescent="0.2">
@@ -8626,7 +8626,7 @@
         <v>14</v>
       </c>
       <c r="G272" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
     </row>
     <row r="273" spans="1:9" x14ac:dyDescent="0.2">
@@ -8919,7 +8919,7 @@
     </row>
     <row r="285" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A285" s="1" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="B285" t="s">
         <v>103</v>

--- a/data/metadata_corrected.xlsx
+++ b/data/metadata_corrected.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mikekestemont/GitRepos/mdu/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87676845-907E-3E47-A94D-589347BA0922}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B0D883D-B208-BF46-9E87-E7219B060D4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1154,9 +1154,6 @@
     <t>parthonopeus_van_bloys_fragm_pr</t>
   </si>
   <si>
-    <t>aiol</t>
-  </si>
-  <si>
     <t>speghel_der_wijsheit</t>
   </si>
   <si>
@@ -1839,6 +1836,9 @@
   </si>
   <si>
     <t>Spiegel historiael (P1-P4)</t>
+  </si>
+  <si>
+    <t>vl-aiol</t>
   </si>
 </sst>
 </file>
@@ -2226,8 +2226,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I285"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A251" workbookViewId="0">
-      <selection activeCell="B218" sqref="B218"/>
+    <sheetView tabSelected="1" topLeftCell="A250" workbookViewId="0">
+      <selection activeCell="B275" sqref="B275"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2266,7 +2266,7 @@
         <v>7</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -2286,7 +2286,7 @@
         <v>14</v>
       </c>
       <c r="G2" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -2309,41 +2309,41 @@
         <v>31</v>
       </c>
       <c r="G3" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H3" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B4" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D4">
         <v>1295.5</v>
       </c>
       <c r="E4" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="F4" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="G4" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H4" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="B5" t="s">
         <v>407</v>
-      </c>
-      <c r="B5" t="s">
-        <v>408</v>
       </c>
       <c r="D5">
         <v>1375</v>
@@ -2355,18 +2355,18 @@
         <v>17</v>
       </c>
       <c r="G5" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H5" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="B6" t="s">
         <v>478</v>
-      </c>
-      <c r="B6" t="s">
-        <v>479</v>
       </c>
       <c r="D6">
         <v>1544</v>
@@ -2375,10 +2375,10 @@
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="G6" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -2398,10 +2398,10 @@
         <v>90</v>
       </c>
       <c r="G7" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H7" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -2421,10 +2421,10 @@
         <v>34</v>
       </c>
       <c r="G8" t="s">
+        <v>544</v>
+      </c>
+      <c r="H8" t="s">
         <v>545</v>
-      </c>
-      <c r="H8" t="s">
-        <v>546</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -2444,7 +2444,7 @@
         <v>326</v>
       </c>
       <c r="G9" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -2464,10 +2464,10 @@
         <v>11</v>
       </c>
       <c r="G10" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H10" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -2487,10 +2487,10 @@
         <v>90</v>
       </c>
       <c r="G11" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H11" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -2510,10 +2510,10 @@
         <v>67</v>
       </c>
       <c r="G12" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H12" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -2533,10 +2533,10 @@
         <v>34</v>
       </c>
       <c r="G13" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H13" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -2556,18 +2556,18 @@
         <v>157</v>
       </c>
       <c r="G14" t="s">
+        <v>544</v>
+      </c>
+      <c r="H14" t="s">
         <v>545</v>
-      </c>
-      <c r="H14" t="s">
-        <v>546</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="B15" t="s">
         <v>473</v>
-      </c>
-      <c r="B15" t="s">
-        <v>474</v>
       </c>
       <c r="D15">
         <v>1650</v>
@@ -2576,13 +2576,13 @@
         <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="G15" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H15" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
@@ -2602,15 +2602,15 @@
         <v>213</v>
       </c>
       <c r="G16" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="B17" t="s">
         <v>414</v>
-      </c>
-      <c r="B17" t="s">
-        <v>415</v>
       </c>
       <c r="D17">
         <v>1510</v>
@@ -2619,13 +2619,13 @@
         <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="G17" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H17" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
@@ -2633,7 +2633,7 @@
         <v>127</v>
       </c>
       <c r="B18" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D18">
         <v>1339</v>
@@ -2645,18 +2645,18 @@
         <v>77</v>
       </c>
       <c r="G18" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H18" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B19" t="s">
         <v>504</v>
-      </c>
-      <c r="B19" t="s">
-        <v>505</v>
       </c>
       <c r="C19" t="s">
         <v>130</v>
@@ -2671,33 +2671,33 @@
         <v>31</v>
       </c>
       <c r="G19" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H19" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B20" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="D20">
         <v>1265</v>
       </c>
       <c r="E20" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="F20" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="G20" t="s">
+        <v>544</v>
+      </c>
+      <c r="H20" t="s">
         <v>545</v>
-      </c>
-      <c r="H20" t="s">
-        <v>546</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
@@ -2717,10 +2717,10 @@
         <v>11</v>
       </c>
       <c r="G21" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H21" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
@@ -2740,10 +2740,10 @@
         <v>11</v>
       </c>
       <c r="G22" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H22" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
@@ -2763,15 +2763,15 @@
         <v>56</v>
       </c>
       <c r="G23" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H23" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B24" t="s">
         <v>25</v>
@@ -2786,10 +2786,10 @@
         <v>56</v>
       </c>
       <c r="G24" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H24" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
@@ -2809,10 +2809,10 @@
         <v>14</v>
       </c>
       <c r="G25" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H25" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
@@ -2832,10 +2832,10 @@
         <v>192</v>
       </c>
       <c r="G26" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H26" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
@@ -2855,15 +2855,15 @@
         <v>82</v>
       </c>
       <c r="G27" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H27" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B28" t="s">
         <v>84</v>
@@ -2878,10 +2878,10 @@
         <v>34</v>
       </c>
       <c r="G28" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H28" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
@@ -2889,7 +2889,7 @@
         <v>305</v>
       </c>
       <c r="B29" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C29" t="s">
         <v>130</v>
@@ -2904,10 +2904,10 @@
         <v>284</v>
       </c>
       <c r="G29" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H29" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
@@ -2915,7 +2915,7 @@
         <v>307</v>
       </c>
       <c r="B30" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D30">
         <v>1432</v>
@@ -2927,10 +2927,10 @@
         <v>308</v>
       </c>
       <c r="G30" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H30" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
@@ -2938,7 +2938,7 @@
         <v>283</v>
       </c>
       <c r="B31" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="D31">
         <v>1470</v>
@@ -2950,33 +2950,33 @@
         <v>284</v>
       </c>
       <c r="G31" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H31" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B32" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="D32">
         <v>1270</v>
       </c>
       <c r="E32" t="s">
+        <v>511</v>
+      </c>
+      <c r="F32" t="s">
         <v>512</v>
       </c>
-      <c r="F32" t="s">
-        <v>513</v>
-      </c>
       <c r="G32" t="s">
+        <v>544</v>
+      </c>
+      <c r="H32" t="s">
         <v>545</v>
-      </c>
-      <c r="H32" t="s">
-        <v>546</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
@@ -2996,7 +2996,7 @@
         <v>14</v>
       </c>
       <c r="G33" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
@@ -3016,18 +3016,18 @@
         <v>56</v>
       </c>
       <c r="G34" t="s">
+        <v>544</v>
+      </c>
+      <c r="H34" t="s">
         <v>545</v>
-      </c>
-      <c r="H34" t="s">
-        <v>546</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="B35" t="s">
         <v>481</v>
-      </c>
-      <c r="B35" t="s">
-        <v>482</v>
       </c>
       <c r="C35" t="s">
         <v>37</v>
@@ -3042,7 +3042,7 @@
         <v>77</v>
       </c>
       <c r="G35" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
@@ -3050,7 +3050,7 @@
         <v>226</v>
       </c>
       <c r="B36" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="D36">
         <v>1310</v>
@@ -3062,10 +3062,10 @@
         <v>227</v>
       </c>
       <c r="G36" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H36" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
@@ -3073,7 +3073,7 @@
         <v>142</v>
       </c>
       <c r="B37" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="D37">
         <v>1450</v>
@@ -3085,18 +3085,18 @@
         <v>74</v>
       </c>
       <c r="G37" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H37" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B38" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D38">
         <v>1387.5</v>
@@ -3108,18 +3108,18 @@
         <v>11</v>
       </c>
       <c r="G38" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H38" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B39" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="D39">
         <v>1435</v>
@@ -3128,13 +3128,13 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="G39" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H39" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
@@ -3154,18 +3154,18 @@
         <v>74</v>
       </c>
       <c r="G40" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H40" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="B41" t="s">
         <v>490</v>
-      </c>
-      <c r="B41" t="s">
-        <v>491</v>
       </c>
       <c r="C41" t="s">
         <v>37</v>
@@ -3177,10 +3177,10 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="G41" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
@@ -3203,18 +3203,18 @@
         <v>34</v>
       </c>
       <c r="G42" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H42" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="B43" t="s">
         <v>487</v>
-      </c>
-      <c r="B43" t="s">
-        <v>488</v>
       </c>
       <c r="D43">
         <v>1351</v>
@@ -3223,24 +3223,24 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="G43" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H43" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="B44" t="s">
         <v>469</v>
       </c>
-      <c r="B44" t="s">
+      <c r="C44" t="s">
         <v>470</v>
-      </c>
-      <c r="C44" t="s">
-        <v>471</v>
       </c>
       <c r="D44">
         <v>1480</v>
@@ -3252,59 +3252,59 @@
         <v>51</v>
       </c>
       <c r="G44" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H44" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B45" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D45">
         <v>1287</v>
       </c>
       <c r="E45" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="F45" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="G45" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H45" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B46" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D46">
         <v>1288</v>
       </c>
       <c r="E46" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="F46" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="G46" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H46" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="I46" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
@@ -3324,10 +3324,10 @@
         <v>252</v>
       </c>
       <c r="G47" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H47" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
@@ -3347,10 +3347,10 @@
         <v>34</v>
       </c>
       <c r="G48" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H48" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
@@ -3373,7 +3373,7 @@
         <v>38</v>
       </c>
       <c r="G49" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
@@ -3393,7 +3393,7 @@
         <v>268</v>
       </c>
       <c r="G50" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
@@ -3413,10 +3413,10 @@
         <v>67</v>
       </c>
       <c r="G51" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H51" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
@@ -3436,10 +3436,10 @@
         <v>14</v>
       </c>
       <c r="G52" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H52" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
@@ -3462,15 +3462,15 @@
         <v>38</v>
       </c>
       <c r="G53" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="B54" t="s">
         <v>445</v>
-      </c>
-      <c r="B54" t="s">
-        <v>446</v>
       </c>
       <c r="D54">
         <v>1410</v>
@@ -3482,15 +3482,15 @@
         <v>14</v>
       </c>
       <c r="G54" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="B55" t="s">
         <v>508</v>
-      </c>
-      <c r="B55" t="s">
-        <v>509</v>
       </c>
       <c r="D55">
         <v>1481</v>
@@ -3499,13 +3499,13 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="G55" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H55" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
@@ -3528,38 +3528,38 @@
         <v>38</v>
       </c>
       <c r="G56" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B57" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D57">
         <v>1290</v>
       </c>
       <c r="E57" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="F57" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="G57" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H57" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="B58" t="s">
         <v>405</v>
-      </c>
-      <c r="B58" t="s">
-        <v>406</v>
       </c>
       <c r="D58">
         <v>1410</v>
@@ -3571,7 +3571,7 @@
         <v>14</v>
       </c>
       <c r="G58" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
@@ -3582,7 +3582,7 @@
         <v>48</v>
       </c>
       <c r="C59" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="D59">
         <v>1350</v>
@@ -3594,18 +3594,18 @@
         <v>34</v>
       </c>
       <c r="G59" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H59" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="B60" t="s">
         <v>392</v>
-      </c>
-      <c r="B60" t="s">
-        <v>393</v>
       </c>
       <c r="D60">
         <v>1410</v>
@@ -3617,10 +3617,10 @@
         <v>14</v>
       </c>
       <c r="G60" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H60" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
@@ -3640,10 +3640,10 @@
         <v>34</v>
       </c>
       <c r="G61" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H61" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
@@ -3663,18 +3663,18 @@
         <v>34</v>
       </c>
       <c r="G62" t="s">
+        <v>544</v>
+      </c>
+      <c r="H62" t="s">
         <v>545</v>
-      </c>
-      <c r="H62" t="s">
-        <v>546</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="B63" t="s">
         <v>435</v>
-      </c>
-      <c r="B63" t="s">
-        <v>436</v>
       </c>
       <c r="D63">
         <v>1375</v>
@@ -3686,10 +3686,10 @@
         <v>17</v>
       </c>
       <c r="G63" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H63" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
@@ -3709,10 +3709,10 @@
         <v>192</v>
       </c>
       <c r="G64" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H64" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
@@ -3732,15 +3732,15 @@
         <v>11</v>
       </c>
       <c r="G65" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H65" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B66" t="s">
         <v>182</v>
@@ -3755,10 +3755,10 @@
         <v>11</v>
       </c>
       <c r="G66" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H66" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
@@ -3766,7 +3766,7 @@
         <v>347</v>
       </c>
       <c r="B67" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="D67">
         <v>1350</v>
@@ -3778,10 +3778,10 @@
         <v>34</v>
       </c>
       <c r="G67" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H67" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.2">
@@ -3804,18 +3804,18 @@
         <v>34</v>
       </c>
       <c r="G68" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H68" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="B69" t="s">
         <v>467</v>
-      </c>
-      <c r="B69" t="s">
-        <v>468</v>
       </c>
       <c r="D69">
         <v>1450</v>
@@ -3827,41 +3827,41 @@
         <v>74</v>
       </c>
       <c r="G69" t="s">
+        <v>544</v>
+      </c>
+      <c r="H69" t="s">
         <v>545</v>
-      </c>
-      <c r="H69" t="s">
-        <v>546</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B70" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="D70">
         <v>1213</v>
       </c>
       <c r="E70" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="F70" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="G70" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H70" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="B71" t="s">
         <v>454</v>
-      </c>
-      <c r="B71" t="s">
-        <v>455</v>
       </c>
       <c r="D71">
         <v>1325</v>
@@ -3873,7 +3873,7 @@
         <v>90</v>
       </c>
       <c r="G71" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.2">
@@ -3881,7 +3881,7 @@
         <v>339</v>
       </c>
       <c r="B72" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D72">
         <v>1405</v>
@@ -3893,18 +3893,18 @@
         <v>252</v>
       </c>
       <c r="G72" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H72" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="B73" t="s">
         <v>394</v>
-      </c>
-      <c r="B73" t="s">
-        <v>395</v>
       </c>
       <c r="D73">
         <v>1350</v>
@@ -3916,21 +3916,21 @@
         <v>34</v>
       </c>
       <c r="G73" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H73" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="B74" t="s">
         <v>385</v>
       </c>
-      <c r="B74" t="s">
+      <c r="C74" t="s">
         <v>386</v>
-      </c>
-      <c r="C74" t="s">
-        <v>387</v>
       </c>
       <c r="D74">
         <v>1480</v>
@@ -3942,15 +3942,15 @@
         <v>51</v>
       </c>
       <c r="G74" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="B75" t="s">
         <v>495</v>
-      </c>
-      <c r="B75" t="s">
-        <v>496</v>
       </c>
       <c r="D75">
         <v>1325</v>
@@ -3962,10 +3962,10 @@
         <v>90</v>
       </c>
       <c r="G75" t="s">
+        <v>544</v>
+      </c>
+      <c r="H75" t="s">
         <v>545</v>
-      </c>
-      <c r="H75" t="s">
-        <v>546</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
@@ -3985,7 +3985,7 @@
         <v>14</v>
       </c>
       <c r="G76" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
@@ -4005,18 +4005,18 @@
         <v>34</v>
       </c>
       <c r="G77" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H77" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="B78" t="s">
         <v>461</v>
-      </c>
-      <c r="B78" t="s">
-        <v>462</v>
       </c>
       <c r="D78">
         <v>1325</v>
@@ -4028,10 +4028,10 @@
         <v>90</v>
       </c>
       <c r="G78" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H78" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.2">
@@ -4051,18 +4051,18 @@
         <v>90</v>
       </c>
       <c r="G79" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H79" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B80" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D80">
         <v>1375</v>
@@ -4074,7 +4074,7 @@
         <v>17</v>
       </c>
       <c r="G80" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
@@ -4082,7 +4082,7 @@
         <v>240</v>
       </c>
       <c r="B81" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="D81">
         <v>1375</v>
@@ -4094,15 +4094,15 @@
         <v>17</v>
       </c>
       <c r="G81" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B82" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="D82">
         <v>1375</v>
@@ -4114,7 +4114,7 @@
         <v>17</v>
       </c>
       <c r="G82" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.2">
@@ -4134,10 +4134,10 @@
         <v>34</v>
       </c>
       <c r="G83" t="s">
+        <v>544</v>
+      </c>
+      <c r="H83" t="s">
         <v>545</v>
-      </c>
-      <c r="H83" t="s">
-        <v>546</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.2">
@@ -4157,7 +4157,7 @@
         <v>31</v>
       </c>
       <c r="G84" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
@@ -4177,7 +4177,7 @@
         <v>14</v>
       </c>
       <c r="G85" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.2">
@@ -4200,18 +4200,18 @@
         <v>67</v>
       </c>
       <c r="G86" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H86" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B87" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="C87" t="s">
         <v>37</v>
@@ -4223,13 +4223,13 @@
         <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="G87" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H87" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.2">
@@ -4249,10 +4249,10 @@
         <v>113</v>
       </c>
       <c r="G88" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H88" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.2">
@@ -4275,18 +4275,18 @@
         <v>116</v>
       </c>
       <c r="G89" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H89" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="B90" t="s">
         <v>431</v>
-      </c>
-      <c r="B90" t="s">
-        <v>432</v>
       </c>
       <c r="D90">
         <v>1375</v>
@@ -4298,18 +4298,18 @@
         <v>17</v>
       </c>
       <c r="G90" t="s">
+        <v>544</v>
+      </c>
+      <c r="H90" t="s">
         <v>545</v>
-      </c>
-      <c r="H90" t="s">
-        <v>546</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B91" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D91">
         <v>1325</v>
@@ -4321,10 +4321,10 @@
         <v>90</v>
       </c>
       <c r="G91" t="s">
+        <v>544</v>
+      </c>
+      <c r="H91" t="s">
         <v>545</v>
-      </c>
-      <c r="H91" t="s">
-        <v>546</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.2">
@@ -4332,7 +4332,7 @@
         <v>328</v>
       </c>
       <c r="B92" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="D92">
         <v>1350</v>
@@ -4344,10 +4344,10 @@
         <v>34</v>
       </c>
       <c r="G92" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H92" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.2">
@@ -4367,15 +4367,15 @@
         <v>168</v>
       </c>
       <c r="G93" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="B94" t="s">
         <v>492</v>
-      </c>
-      <c r="B94" t="s">
-        <v>493</v>
       </c>
       <c r="D94">
         <v>1550</v>
@@ -4384,21 +4384,21 @@
         <v>10</v>
       </c>
       <c r="F94" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="G94" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H94" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="B95" t="s">
         <v>476</v>
-      </c>
-      <c r="B95" t="s">
-        <v>477</v>
       </c>
       <c r="C95" t="s">
         <v>130</v>
@@ -4413,18 +4413,18 @@
         <v>31</v>
       </c>
       <c r="G95" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H95" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="B96" t="s">
         <v>381</v>
-      </c>
-      <c r="B96" t="s">
-        <v>382</v>
       </c>
       <c r="D96">
         <v>1500</v>
@@ -4436,10 +4436,10 @@
         <v>315</v>
       </c>
       <c r="G96" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H96" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.2">
@@ -4447,7 +4447,7 @@
         <v>279</v>
       </c>
       <c r="B97" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D97">
         <v>1505</v>
@@ -4459,10 +4459,10 @@
         <v>280</v>
       </c>
       <c r="G97" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H97" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.2">
@@ -4470,7 +4470,7 @@
         <v>343</v>
       </c>
       <c r="B98" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D98">
         <v>1510</v>
@@ -4482,18 +4482,18 @@
         <v>113</v>
       </c>
       <c r="G98" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H98" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="B99" t="s">
         <v>397</v>
-      </c>
-      <c r="B99" t="s">
-        <v>398</v>
       </c>
       <c r="D99">
         <v>1487</v>
@@ -4502,13 +4502,13 @@
         <v>10</v>
       </c>
       <c r="F99" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="G99" t="s">
+        <v>544</v>
+      </c>
+      <c r="H99" t="s">
         <v>545</v>
-      </c>
-      <c r="H99" t="s">
-        <v>546</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.2">
@@ -4531,10 +4531,10 @@
         <v>351</v>
       </c>
       <c r="G100" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H100" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.2">
@@ -4557,18 +4557,18 @@
         <v>14</v>
       </c>
       <c r="G101" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H101" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="B102" t="s">
         <v>377</v>
-      </c>
-      <c r="B102" t="s">
-        <v>378</v>
       </c>
       <c r="D102">
         <v>1325</v>
@@ -4580,10 +4580,10 @@
         <v>90</v>
       </c>
       <c r="G102" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H102" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.2">
@@ -4591,7 +4591,7 @@
         <v>119</v>
       </c>
       <c r="B103" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="D103">
         <v>1325</v>
@@ -4603,13 +4603,13 @@
         <v>90</v>
       </c>
       <c r="G103" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H103" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="I103" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.2">
@@ -4617,7 +4617,7 @@
         <v>282</v>
       </c>
       <c r="B104" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="D104">
         <v>1325</v>
@@ -4629,10 +4629,10 @@
         <v>90</v>
       </c>
       <c r="G104" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H104" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.2">
@@ -4652,7 +4652,7 @@
         <v>14</v>
       </c>
       <c r="G105" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.2">
@@ -4672,10 +4672,10 @@
         <v>90</v>
       </c>
       <c r="G106" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H106" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.2">
@@ -4695,10 +4695,10 @@
         <v>82</v>
       </c>
       <c r="G107" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H107" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.2">
@@ -4718,10 +4718,10 @@
         <v>31</v>
       </c>
       <c r="G108" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H108" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.2">
@@ -4729,7 +4729,7 @@
         <v>68</v>
       </c>
       <c r="B109" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C109" t="s">
         <v>69</v>
@@ -4744,41 +4744,41 @@
         <v>34</v>
       </c>
       <c r="G109" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H109" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B110" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="D110">
         <v>1230</v>
       </c>
       <c r="E110" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="F110" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G110" t="s">
+        <v>544</v>
+      </c>
+      <c r="H110" t="s">
         <v>545</v>
-      </c>
-      <c r="H110" t="s">
-        <v>546</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="B111" t="s">
         <v>497</v>
-      </c>
-      <c r="B111" t="s">
-        <v>498</v>
       </c>
       <c r="D111">
         <v>1387.5</v>
@@ -4790,10 +4790,10 @@
         <v>11</v>
       </c>
       <c r="G111" t="s">
+        <v>544</v>
+      </c>
+      <c r="H111" t="s">
         <v>545</v>
-      </c>
-      <c r="H111" t="s">
-        <v>546</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.2">
@@ -4813,7 +4813,7 @@
         <v>14</v>
       </c>
       <c r="G112" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.2">
@@ -4833,10 +4833,10 @@
         <v>17</v>
       </c>
       <c r="G113" t="s">
+        <v>544</v>
+      </c>
+      <c r="H113" t="s">
         <v>545</v>
-      </c>
-      <c r="H113" t="s">
-        <v>546</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.2">
@@ -4856,15 +4856,15 @@
         <v>17</v>
       </c>
       <c r="G114" t="s">
+        <v>544</v>
+      </c>
+      <c r="H114" t="s">
         <v>545</v>
-      </c>
-      <c r="H114" t="s">
-        <v>546</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B115" t="s">
         <v>172</v>
@@ -4879,15 +4879,15 @@
         <v>82</v>
       </c>
       <c r="G115" t="s">
+        <v>544</v>
+      </c>
+      <c r="H115" t="s">
         <v>545</v>
-      </c>
-      <c r="H115" t="s">
-        <v>546</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B116" t="s">
         <v>172</v>
@@ -4902,33 +4902,33 @@
         <v>82</v>
       </c>
       <c r="G116" t="s">
+        <v>544</v>
+      </c>
+      <c r="H116" t="s">
         <v>545</v>
-      </c>
-      <c r="H116" t="s">
-        <v>546</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B117" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D117">
         <v>1295.5</v>
       </c>
       <c r="E117" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="F117" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="G117" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H117" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.2">
@@ -4948,10 +4948,10 @@
         <v>17</v>
       </c>
       <c r="G118" t="s">
+        <v>544</v>
+      </c>
+      <c r="H118" t="s">
         <v>545</v>
-      </c>
-      <c r="H118" t="s">
-        <v>546</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.2">
@@ -4971,10 +4971,10 @@
         <v>17</v>
       </c>
       <c r="G119" t="s">
+        <v>544</v>
+      </c>
+      <c r="H119" t="s">
         <v>545</v>
-      </c>
-      <c r="H119" t="s">
-        <v>546</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.2">
@@ -4994,10 +4994,10 @@
         <v>17</v>
       </c>
       <c r="G120" t="s">
+        <v>544</v>
+      </c>
+      <c r="H120" t="s">
         <v>545</v>
-      </c>
-      <c r="H120" t="s">
-        <v>546</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.2">
@@ -5017,10 +5017,10 @@
         <v>34</v>
       </c>
       <c r="G121" t="s">
+        <v>544</v>
+      </c>
+      <c r="H121" t="s">
         <v>545</v>
-      </c>
-      <c r="H121" t="s">
-        <v>546</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.2">
@@ -5040,10 +5040,10 @@
         <v>34</v>
       </c>
       <c r="G122" t="s">
+        <v>544</v>
+      </c>
+      <c r="H122" t="s">
         <v>545</v>
-      </c>
-      <c r="H122" t="s">
-        <v>546</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.2">
@@ -5063,10 +5063,10 @@
         <v>17</v>
       </c>
       <c r="G123" t="s">
+        <v>544</v>
+      </c>
+      <c r="H123" t="s">
         <v>545</v>
-      </c>
-      <c r="H123" t="s">
-        <v>546</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.2">
@@ -5086,10 +5086,10 @@
         <v>11</v>
       </c>
       <c r="G124" t="s">
+        <v>544</v>
+      </c>
+      <c r="H124" t="s">
         <v>545</v>
-      </c>
-      <c r="H124" t="s">
-        <v>546</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.2">
@@ -5109,10 +5109,10 @@
         <v>11</v>
       </c>
       <c r="G125" t="s">
+        <v>544</v>
+      </c>
+      <c r="H125" t="s">
         <v>545</v>
-      </c>
-      <c r="H125" t="s">
-        <v>546</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.2">
@@ -5132,10 +5132,10 @@
         <v>34</v>
       </c>
       <c r="G126" t="s">
+        <v>544</v>
+      </c>
+      <c r="H126" t="s">
         <v>545</v>
-      </c>
-      <c r="H126" t="s">
-        <v>546</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.2">
@@ -5155,10 +5155,10 @@
         <v>34</v>
       </c>
       <c r="G127" t="s">
+        <v>544</v>
+      </c>
+      <c r="H127" t="s">
         <v>545</v>
-      </c>
-      <c r="H127" t="s">
-        <v>546</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.2">
@@ -5178,10 +5178,10 @@
         <v>34</v>
       </c>
       <c r="G128" t="s">
+        <v>544</v>
+      </c>
+      <c r="H128" t="s">
         <v>545</v>
-      </c>
-      <c r="H128" t="s">
-        <v>546</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.2">
@@ -5201,10 +5201,10 @@
         <v>17</v>
       </c>
       <c r="G129" t="s">
+        <v>544</v>
+      </c>
+      <c r="H129" t="s">
         <v>545</v>
-      </c>
-      <c r="H129" t="s">
-        <v>546</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.2">
@@ -5224,10 +5224,10 @@
         <v>17</v>
       </c>
       <c r="G130" t="s">
+        <v>544</v>
+      </c>
+      <c r="H130" t="s">
         <v>545</v>
-      </c>
-      <c r="H130" t="s">
-        <v>546</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.2">
@@ -5247,10 +5247,10 @@
         <v>31</v>
       </c>
       <c r="G131" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H131" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.2">
@@ -5258,7 +5258,7 @@
         <v>228</v>
       </c>
       <c r="B132" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C132" t="s">
         <v>229</v>
@@ -5273,7 +5273,7 @@
         <v>34</v>
       </c>
       <c r="G132" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.2">
@@ -5296,13 +5296,13 @@
         <v>90</v>
       </c>
       <c r="G133" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H133" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="I133" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.2">
@@ -5325,13 +5325,13 @@
         <v>17</v>
       </c>
       <c r="G134" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H134" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="I134" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.2">
@@ -5354,13 +5354,13 @@
         <v>17</v>
       </c>
       <c r="G135" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H135" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="I135" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.2">
@@ -5383,21 +5383,21 @@
         <v>90</v>
       </c>
       <c r="G136" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H136" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="I136" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="B137" t="s">
         <v>502</v>
-      </c>
-      <c r="B137" t="s">
-        <v>503</v>
       </c>
       <c r="D137">
         <v>1325</v>
@@ -5409,15 +5409,15 @@
         <v>90</v>
       </c>
       <c r="G137" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="B138" t="s">
         <v>483</v>
-      </c>
-      <c r="B138" t="s">
-        <v>484</v>
       </c>
       <c r="D138">
         <v>1350</v>
@@ -5429,27 +5429,27 @@
         <v>82</v>
       </c>
       <c r="G138" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B139" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="D139">
         <v>1295.5</v>
       </c>
       <c r="E139" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="F139" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="G139" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.2">
@@ -5457,7 +5457,7 @@
         <v>89</v>
       </c>
       <c r="B140" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="D140">
         <v>1325</v>
@@ -5469,10 +5469,10 @@
         <v>90</v>
       </c>
       <c r="G140" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H140" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.2">
@@ -5492,10 +5492,10 @@
         <v>297</v>
       </c>
       <c r="G141" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H141" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.2">
@@ -5518,18 +5518,18 @@
         <v>14</v>
       </c>
       <c r="G142" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H142" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="B143" t="s">
         <v>417</v>
-      </c>
-      <c r="B143" t="s">
-        <v>418</v>
       </c>
       <c r="D143">
         <v>1400</v>
@@ -5541,10 +5541,10 @@
         <v>31</v>
       </c>
       <c r="G143" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H143" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.2">
@@ -5564,18 +5564,18 @@
         <v>31</v>
       </c>
       <c r="G144" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H144" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="B145" t="s">
         <v>485</v>
-      </c>
-      <c r="B145" t="s">
-        <v>486</v>
       </c>
       <c r="D145">
         <v>1400</v>
@@ -5587,10 +5587,10 @@
         <v>31</v>
       </c>
       <c r="G145" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H145" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.2">
@@ -5610,10 +5610,10 @@
         <v>160</v>
       </c>
       <c r="G146" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H146" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.2">
@@ -5633,10 +5633,10 @@
         <v>82</v>
       </c>
       <c r="G147" t="s">
+        <v>544</v>
+      </c>
+      <c r="H147" t="s">
         <v>545</v>
-      </c>
-      <c r="H147" t="s">
-        <v>546</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.2">
@@ -5656,10 +5656,10 @@
         <v>82</v>
       </c>
       <c r="G148" t="s">
+        <v>544</v>
+      </c>
+      <c r="H148" t="s">
         <v>545</v>
-      </c>
-      <c r="H148" t="s">
-        <v>546</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.2">
@@ -5679,10 +5679,10 @@
         <v>82</v>
       </c>
       <c r="G149" t="s">
+        <v>544</v>
+      </c>
+      <c r="H149" t="s">
         <v>545</v>
-      </c>
-      <c r="H149" t="s">
-        <v>546</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.2">
@@ -5702,10 +5702,10 @@
         <v>82</v>
       </c>
       <c r="G150" t="s">
+        <v>544</v>
+      </c>
+      <c r="H150" t="s">
         <v>545</v>
-      </c>
-      <c r="H150" t="s">
-        <v>546</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.2">
@@ -5725,10 +5725,10 @@
         <v>108</v>
       </c>
       <c r="G151" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H151" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.2">
@@ -5748,10 +5748,10 @@
         <v>11</v>
       </c>
       <c r="G152" t="s">
+        <v>544</v>
+      </c>
+      <c r="H152" t="s">
         <v>545</v>
-      </c>
-      <c r="H152" t="s">
-        <v>546</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.2">
@@ -5771,10 +5771,10 @@
         <v>34</v>
       </c>
       <c r="G153" t="s">
+        <v>544</v>
+      </c>
+      <c r="H153" t="s">
         <v>545</v>
-      </c>
-      <c r="H153" t="s">
-        <v>546</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.2">
@@ -5794,10 +5794,10 @@
         <v>82</v>
       </c>
       <c r="G154" t="s">
+        <v>544</v>
+      </c>
+      <c r="H154" t="s">
         <v>545</v>
-      </c>
-      <c r="H154" t="s">
-        <v>546</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.2">
@@ -5817,18 +5817,18 @@
         <v>11</v>
       </c>
       <c r="G155" t="s">
+        <v>544</v>
+      </c>
+      <c r="H155" t="s">
         <v>545</v>
-      </c>
-      <c r="H155" t="s">
-        <v>546</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="B156" t="s">
         <v>438</v>
-      </c>
-      <c r="B156" t="s">
-        <v>439</v>
       </c>
       <c r="D156">
         <v>1390</v>
@@ -5837,13 +5837,13 @@
         <v>10</v>
       </c>
       <c r="F156" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="G156" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H156" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.2">
@@ -5863,10 +5863,10 @@
         <v>98</v>
       </c>
       <c r="G157" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H157" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.2">
@@ -5886,10 +5886,10 @@
         <v>34</v>
       </c>
       <c r="G158" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H158" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.2">
@@ -5909,10 +5909,10 @@
         <v>34</v>
       </c>
       <c r="G159" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H159" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.2">
@@ -5932,10 +5932,10 @@
         <v>245</v>
       </c>
       <c r="G160" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H160" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.2">
@@ -5955,15 +5955,15 @@
         <v>11</v>
       </c>
       <c r="G161" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H161" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B162" t="s">
         <v>33</v>
@@ -5978,15 +5978,15 @@
         <v>17</v>
       </c>
       <c r="G162" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H162" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B163" t="s">
         <v>33</v>
@@ -6001,36 +6001,36 @@
         <v>245</v>
       </c>
       <c r="G163" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H163" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B164" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D164">
         <v>1288</v>
       </c>
       <c r="E164" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="F164" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="G164" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H164" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="I164" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.2">
@@ -6038,7 +6038,7 @@
         <v>180</v>
       </c>
       <c r="B165" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D165">
         <v>1325</v>
@@ -6050,13 +6050,13 @@
         <v>90</v>
       </c>
       <c r="G165" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H165" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="I165" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.2">
@@ -6064,7 +6064,7 @@
         <v>199</v>
       </c>
       <c r="B166" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D166">
         <v>1325</v>
@@ -6076,10 +6076,10 @@
         <v>90</v>
       </c>
       <c r="G166" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H166" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.2">
@@ -6099,18 +6099,18 @@
         <v>90</v>
       </c>
       <c r="G167" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H167" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="B168" t="s">
         <v>506</v>
-      </c>
-      <c r="B168" t="s">
-        <v>507</v>
       </c>
       <c r="D168">
         <v>1470</v>
@@ -6122,33 +6122,33 @@
         <v>284</v>
       </c>
       <c r="G168" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H168" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B169" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="D169">
         <v>1288</v>
       </c>
       <c r="E169" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="F169" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="G169" t="s">
+        <v>544</v>
+      </c>
+      <c r="H169" t="s">
         <v>545</v>
-      </c>
-      <c r="H169" t="s">
-        <v>546</v>
       </c>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.2">
@@ -6168,10 +6168,10 @@
         <v>34</v>
       </c>
       <c r="G170" t="s">
+        <v>544</v>
+      </c>
+      <c r="H170" t="s">
         <v>545</v>
-      </c>
-      <c r="H170" t="s">
-        <v>546</v>
       </c>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.2">
@@ -6191,10 +6191,10 @@
         <v>82</v>
       </c>
       <c r="G171" t="s">
+        <v>544</v>
+      </c>
+      <c r="H171" t="s">
         <v>545</v>
-      </c>
-      <c r="H171" t="s">
-        <v>546</v>
       </c>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.2">
@@ -6214,15 +6214,15 @@
         <v>315</v>
       </c>
       <c r="G172" t="s">
+        <v>544</v>
+      </c>
+      <c r="H172" t="s">
         <v>545</v>
-      </c>
-      <c r="H172" t="s">
-        <v>546</v>
       </c>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B173" t="s">
         <v>207</v>
@@ -6237,10 +6237,10 @@
         <v>34</v>
       </c>
       <c r="G173" t="s">
+        <v>544</v>
+      </c>
+      <c r="H173" t="s">
         <v>545</v>
-      </c>
-      <c r="H173" t="s">
-        <v>546</v>
       </c>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.2">
@@ -6248,7 +6248,7 @@
         <v>249</v>
       </c>
       <c r="B174" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D174">
         <v>1362.5</v>
@@ -6260,21 +6260,21 @@
         <v>192</v>
       </c>
       <c r="G174" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H174" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="I174" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B175" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D175">
         <v>1325</v>
@@ -6286,33 +6286,33 @@
         <v>90</v>
       </c>
       <c r="G175" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H175" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B176" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D176">
         <v>1285</v>
       </c>
       <c r="E176" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="F176" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="G176" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H176" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.2">
@@ -6335,10 +6335,10 @@
         <v>332</v>
       </c>
       <c r="G177" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H177" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.2">
@@ -6361,10 +6361,10 @@
         <v>361</v>
       </c>
       <c r="G178" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H178" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.2">
@@ -6384,7 +6384,7 @@
         <v>51</v>
       </c>
       <c r="G179" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.2">
@@ -6407,7 +6407,7 @@
         <v>31</v>
       </c>
       <c r="G180" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.2">
@@ -6427,10 +6427,10 @@
         <v>17</v>
       </c>
       <c r="G181" t="s">
+        <v>544</v>
+      </c>
+      <c r="H181" t="s">
         <v>545</v>
-      </c>
-      <c r="H181" t="s">
-        <v>546</v>
       </c>
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.2">
@@ -6450,10 +6450,10 @@
         <v>82</v>
       </c>
       <c r="G182" t="s">
+        <v>544</v>
+      </c>
+      <c r="H182" t="s">
         <v>545</v>
-      </c>
-      <c r="H182" t="s">
-        <v>546</v>
       </c>
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.2">
@@ -6473,10 +6473,10 @@
         <v>17</v>
       </c>
       <c r="G183" t="s">
+        <v>544</v>
+      </c>
+      <c r="H183" t="s">
         <v>545</v>
-      </c>
-      <c r="H183" t="s">
-        <v>546</v>
       </c>
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.2">
@@ -6496,10 +6496,10 @@
         <v>17</v>
       </c>
       <c r="G184" t="s">
+        <v>544</v>
+      </c>
+      <c r="H184" t="s">
         <v>545</v>
-      </c>
-      <c r="H184" t="s">
-        <v>546</v>
       </c>
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.2">
@@ -6519,10 +6519,10 @@
         <v>371</v>
       </c>
       <c r="G185" t="s">
+        <v>544</v>
+      </c>
+      <c r="H185" t="s">
         <v>545</v>
-      </c>
-      <c r="H185" t="s">
-        <v>546</v>
       </c>
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.2">
@@ -6542,10 +6542,10 @@
         <v>34</v>
       </c>
       <c r="G186" t="s">
+        <v>544</v>
+      </c>
+      <c r="H186" t="s">
         <v>545</v>
-      </c>
-      <c r="H186" t="s">
-        <v>546</v>
       </c>
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.2">
@@ -6565,10 +6565,10 @@
         <v>90</v>
       </c>
       <c r="G187" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H187" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.2">
@@ -6588,10 +6588,10 @@
         <v>90</v>
       </c>
       <c r="G188" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H188" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.2">
@@ -6611,18 +6611,18 @@
         <v>90</v>
       </c>
       <c r="G189" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H189" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="190" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="B190" t="s">
         <v>389</v>
-      </c>
-      <c r="B190" t="s">
-        <v>390</v>
       </c>
       <c r="D190">
         <v>1325</v>
@@ -6634,10 +6634,10 @@
         <v>90</v>
       </c>
       <c r="G190" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H190" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="191" spans="1:9" x14ac:dyDescent="0.2">
@@ -6645,7 +6645,7 @@
         <v>198</v>
       </c>
       <c r="B191" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D191">
         <v>1350</v>
@@ -6657,13 +6657,13 @@
         <v>34</v>
       </c>
       <c r="G191" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H191" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="I191" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="192" spans="1:9" x14ac:dyDescent="0.2">
@@ -6671,7 +6671,7 @@
         <v>291</v>
       </c>
       <c r="B192" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D192">
         <v>1325</v>
@@ -6683,13 +6683,13 @@
         <v>90</v>
       </c>
       <c r="G192" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H192" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="I192" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.2">
@@ -6697,7 +6697,7 @@
         <v>205</v>
       </c>
       <c r="B193" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="D193">
         <v>1325</v>
@@ -6709,10 +6709,10 @@
         <v>90</v>
       </c>
       <c r="G193" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H193" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="194" spans="1:9" x14ac:dyDescent="0.2">
@@ -6732,10 +6732,10 @@
         <v>82</v>
       </c>
       <c r="G194" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H194" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="195" spans="1:9" x14ac:dyDescent="0.2">
@@ -6758,18 +6758,18 @@
         <v>90</v>
       </c>
       <c r="G195" s="3" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H195" s="3" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A196" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="B196" t="s">
         <v>419</v>
-      </c>
-      <c r="B196" t="s">
-        <v>420</v>
       </c>
       <c r="D196">
         <v>1410</v>
@@ -6781,10 +6781,10 @@
         <v>14</v>
       </c>
       <c r="G196" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H196" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="197" spans="1:9" x14ac:dyDescent="0.2">
@@ -6792,7 +6792,7 @@
         <v>346</v>
       </c>
       <c r="B197" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D197">
         <v>1387.5</v>
@@ -6804,10 +6804,10 @@
         <v>11</v>
       </c>
       <c r="G197" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H197" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="198" spans="1:9" x14ac:dyDescent="0.2">
@@ -6830,10 +6830,10 @@
         <v>14</v>
       </c>
       <c r="G198" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H198" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.2">
@@ -6856,10 +6856,10 @@
         <v>60</v>
       </c>
       <c r="G199" s="3" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H199" s="3" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="200" spans="1:9" x14ac:dyDescent="0.2">
@@ -6867,7 +6867,7 @@
         <v>193</v>
       </c>
       <c r="B200" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="D200">
         <v>1350</v>
@@ -6879,21 +6879,21 @@
         <v>82</v>
       </c>
       <c r="G200" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H200" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A201" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="B201" t="s">
         <v>456</v>
       </c>
-      <c r="B201" t="s">
+      <c r="C201" t="s">
         <v>457</v>
-      </c>
-      <c r="C201" t="s">
-        <v>458</v>
       </c>
       <c r="D201">
         <v>1475</v>
@@ -6902,13 +6902,13 @@
         <v>10</v>
       </c>
       <c r="F201" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="G201" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H201" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="202" spans="1:9" x14ac:dyDescent="0.2">
@@ -6931,10 +6931,10 @@
         <v>90</v>
       </c>
       <c r="G202" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H202" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="203" spans="1:9" x14ac:dyDescent="0.2">
@@ -6957,33 +6957,33 @@
         <v>14</v>
       </c>
       <c r="G203" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H203" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="204" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A204" s="1" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B204" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="D204">
         <v>1288</v>
       </c>
       <c r="E204" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="F204" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="G204" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H204" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="205" spans="1:9" x14ac:dyDescent="0.2">
@@ -7003,59 +7003,59 @@
         <v>41</v>
       </c>
       <c r="G205" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H205" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="I205" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="206" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A206" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B206" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="D206">
         <v>1267.5</v>
       </c>
       <c r="E206" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="F206" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="G206" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H206" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="207" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A207" s="1" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B207" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="D207">
         <v>1288</v>
       </c>
       <c r="E207" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="F207" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="G207" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H207" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="208" spans="1:9" x14ac:dyDescent="0.2">
@@ -7075,21 +7075,21 @@
         <v>17</v>
       </c>
       <c r="G208" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H208" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="209" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A209" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="B209" t="s">
         <v>374</v>
       </c>
-      <c r="B209" t="s">
+      <c r="C209" t="s">
         <v>375</v>
-      </c>
-      <c r="C209" t="s">
-        <v>376</v>
       </c>
       <c r="D209">
         <v>1450</v>
@@ -7101,10 +7101,10 @@
         <v>74</v>
       </c>
       <c r="G209" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H209" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="210" spans="1:9" x14ac:dyDescent="0.2">
@@ -7124,7 +7124,7 @@
         <v>74</v>
       </c>
       <c r="G210" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.2">
@@ -7144,7 +7144,7 @@
         <v>337</v>
       </c>
       <c r="G211" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.2">
@@ -7167,10 +7167,10 @@
         <v>23</v>
       </c>
       <c r="G212" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H212" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="213" spans="1:9" x14ac:dyDescent="0.2">
@@ -7178,7 +7178,7 @@
         <v>299</v>
       </c>
       <c r="B213" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="D213">
         <v>1450</v>
@@ -7190,18 +7190,18 @@
         <v>74</v>
       </c>
       <c r="G213" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H213" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A214" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B214" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="D214">
         <v>1450</v>
@@ -7213,21 +7213,21 @@
         <v>74</v>
       </c>
       <c r="G214" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H214" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="I214" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="215" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A215" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B215" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="D215">
         <v>1375</v>
@@ -7239,21 +7239,21 @@
         <v>17</v>
       </c>
       <c r="G215" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H215" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="I215" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A216" s="1" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B216" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="D216">
         <v>1350</v>
@@ -7265,13 +7265,13 @@
         <v>82</v>
       </c>
       <c r="G216" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H216" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="I216" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="217" spans="1:9" x14ac:dyDescent="0.2">
@@ -7279,7 +7279,7 @@
         <v>183</v>
       </c>
       <c r="B217" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C217" t="s">
         <v>37</v>
@@ -7294,10 +7294,10 @@
         <v>56</v>
       </c>
       <c r="G217" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H217" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="218" spans="1:9" x14ac:dyDescent="0.2">
@@ -7305,7 +7305,7 @@
         <v>26</v>
       </c>
       <c r="B218" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C218" t="s">
         <v>27</v>
@@ -7320,10 +7320,10 @@
         <v>28</v>
       </c>
       <c r="G218" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H218" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="219" spans="1:9" x14ac:dyDescent="0.2">
@@ -7331,7 +7331,7 @@
         <v>86</v>
       </c>
       <c r="B219" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C219" t="s">
         <v>27</v>
@@ -7346,10 +7346,10 @@
         <v>31</v>
       </c>
       <c r="G219" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H219" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="220" spans="1:9" x14ac:dyDescent="0.2">
@@ -7357,7 +7357,7 @@
         <v>132</v>
       </c>
       <c r="B220" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C220" t="s">
         <v>27</v>
@@ -7372,10 +7372,10 @@
         <v>133</v>
       </c>
       <c r="G220" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H220" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="221" spans="1:9" x14ac:dyDescent="0.2">
@@ -7383,7 +7383,7 @@
         <v>269</v>
       </c>
       <c r="B221" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C221" t="s">
         <v>27</v>
@@ -7398,10 +7398,10 @@
         <v>90</v>
       </c>
       <c r="G221" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H221" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="222" spans="1:9" x14ac:dyDescent="0.2">
@@ -7409,7 +7409,7 @@
         <v>272</v>
       </c>
       <c r="B222" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C222" t="s">
         <v>27</v>
@@ -7424,10 +7424,10 @@
         <v>31</v>
       </c>
       <c r="G222" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H222" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="223" spans="1:9" x14ac:dyDescent="0.2">
@@ -7435,7 +7435,7 @@
         <v>304</v>
       </c>
       <c r="B223" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C223" t="s">
         <v>27</v>
@@ -7450,10 +7450,10 @@
         <v>256</v>
       </c>
       <c r="G223" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H223" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="224" spans="1:9" x14ac:dyDescent="0.2">
@@ -7461,7 +7461,7 @@
         <v>338</v>
       </c>
       <c r="B224" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C224" t="s">
         <v>27</v>
@@ -7476,18 +7476,18 @@
         <v>56</v>
       </c>
       <c r="G224" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H224" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A225" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B225" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C225" t="s">
         <v>27</v>
@@ -7502,10 +7502,10 @@
         <v>17</v>
       </c>
       <c r="G225" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H225" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.2">
@@ -7513,7 +7513,7 @@
         <v>29</v>
       </c>
       <c r="B226" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C226" t="s">
         <v>30</v>
@@ -7528,10 +7528,10 @@
         <v>31</v>
       </c>
       <c r="G226" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H226" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.2">
@@ -7539,7 +7539,7 @@
         <v>55</v>
       </c>
       <c r="B227" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C227" t="s">
         <v>30</v>
@@ -7554,10 +7554,10 @@
         <v>56</v>
       </c>
       <c r="G227" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H227" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.2">
@@ -7565,7 +7565,7 @@
         <v>88</v>
       </c>
       <c r="B228" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C228" t="s">
         <v>30</v>
@@ -7580,10 +7580,10 @@
         <v>31</v>
       </c>
       <c r="G228" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H228" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.2">
@@ -7591,7 +7591,7 @@
         <v>95</v>
       </c>
       <c r="B229" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C229" t="s">
         <v>30</v>
@@ -7606,10 +7606,10 @@
         <v>31</v>
       </c>
       <c r="G229" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H229" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.2">
@@ -7617,7 +7617,7 @@
         <v>123</v>
       </c>
       <c r="B230" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C230" t="s">
         <v>30</v>
@@ -7632,10 +7632,10 @@
         <v>31</v>
       </c>
       <c r="G230" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H230" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.2">
@@ -7643,7 +7643,7 @@
         <v>126</v>
       </c>
       <c r="B231" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C231" t="s">
         <v>30</v>
@@ -7658,10 +7658,10 @@
         <v>31</v>
       </c>
       <c r="G231" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H231" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.2">
@@ -7669,7 +7669,7 @@
         <v>255</v>
       </c>
       <c r="B232" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C232" t="s">
         <v>30</v>
@@ -7684,10 +7684,10 @@
         <v>256</v>
       </c>
       <c r="G232" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H232" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.2">
@@ -7695,7 +7695,7 @@
         <v>275</v>
       </c>
       <c r="B233" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C233" t="s">
         <v>30</v>
@@ -7710,10 +7710,10 @@
         <v>256</v>
       </c>
       <c r="G233" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H233" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.2">
@@ -7721,7 +7721,7 @@
         <v>278</v>
       </c>
       <c r="B234" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C234" t="s">
         <v>30</v>
@@ -7736,10 +7736,10 @@
         <v>133</v>
       </c>
       <c r="G234" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H234" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="235" spans="1:8" x14ac:dyDescent="0.2">
@@ -7747,7 +7747,7 @@
         <v>333</v>
       </c>
       <c r="B235" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C235" t="s">
         <v>30</v>
@@ -7762,18 +7762,18 @@
         <v>31</v>
       </c>
       <c r="G235" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H235" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="236" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A236" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B236" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C236" t="s">
         <v>30</v>
@@ -7788,18 +7788,18 @@
         <v>56</v>
       </c>
       <c r="G236" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H236" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A237" s="1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B237" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C237" t="s">
         <v>30</v>
@@ -7814,10 +7814,10 @@
         <v>34</v>
       </c>
       <c r="G237" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H237" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.2">
@@ -7825,7 +7825,7 @@
         <v>43</v>
       </c>
       <c r="B238" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C238" t="s">
         <v>30</v>
@@ -7840,18 +7840,18 @@
         <v>44</v>
       </c>
       <c r="G238" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H238" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A239" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="B239" t="s">
         <v>465</v>
-      </c>
-      <c r="B239" t="s">
-        <v>466</v>
       </c>
       <c r="D239">
         <v>1410</v>
@@ -7863,10 +7863,10 @@
         <v>14</v>
       </c>
       <c r="G239" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H239" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="240" spans="1:8" x14ac:dyDescent="0.2">
@@ -7874,7 +7874,7 @@
         <v>311</v>
       </c>
       <c r="B240" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C240" t="s">
         <v>229</v>
@@ -7889,15 +7889,15 @@
         <v>34</v>
       </c>
       <c r="G240" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="241" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A241" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="B241" t="s">
         <v>449</v>
-      </c>
-      <c r="B241" t="s">
-        <v>450</v>
       </c>
       <c r="D241">
         <v>1508</v>
@@ -7906,10 +7906,10 @@
         <v>10</v>
       </c>
       <c r="F241" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G241" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="242" spans="1:9" x14ac:dyDescent="0.2">
@@ -7929,18 +7929,18 @@
         <v>14</v>
       </c>
       <c r="G242" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H242" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="243" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A243" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="B243" t="s">
         <v>463</v>
-      </c>
-      <c r="B243" t="s">
-        <v>464</v>
       </c>
       <c r="D243">
         <v>1400</v>
@@ -7952,10 +7952,10 @@
         <v>31</v>
       </c>
       <c r="G243" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H243" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="244" spans="1:9" x14ac:dyDescent="0.2">
@@ -7963,7 +7963,7 @@
         <v>233</v>
       </c>
       <c r="B244" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C244" t="s">
         <v>37</v>
@@ -7978,34 +7978,34 @@
         <v>90</v>
       </c>
       <c r="G244" s="3" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H244" s="3" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="I244" s="3"/>
     </row>
     <row r="245" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A245" s="1" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B245" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D245">
         <v>1250</v>
       </c>
       <c r="E245" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="F245" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="G245" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H245" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="246" spans="1:9" x14ac:dyDescent="0.2">
@@ -8025,7 +8025,7 @@
         <v>14</v>
       </c>
       <c r="G246" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="247" spans="1:9" x14ac:dyDescent="0.2">
@@ -8045,7 +8045,7 @@
         <v>168</v>
       </c>
       <c r="G247" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="248" spans="1:9" x14ac:dyDescent="0.2">
@@ -8068,7 +8068,7 @@
         <v>38</v>
       </c>
       <c r="G248" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="249" spans="1:9" x14ac:dyDescent="0.2">
@@ -8088,10 +8088,10 @@
         <v>82</v>
       </c>
       <c r="G249" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H249" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="250" spans="1:9" x14ac:dyDescent="0.2">
@@ -8111,10 +8111,10 @@
         <v>34</v>
       </c>
       <c r="G250" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H250" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="251" spans="1:9" x14ac:dyDescent="0.2">
@@ -8137,10 +8137,10 @@
         <v>131</v>
       </c>
       <c r="G251" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H251" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="252" spans="1:9" x14ac:dyDescent="0.2">
@@ -8163,15 +8163,15 @@
         <v>77</v>
       </c>
       <c r="G252" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="253" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A253" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B253" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="D253">
         <v>1487.5</v>
@@ -8183,10 +8183,10 @@
         <v>371</v>
       </c>
       <c r="G253" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H253" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="254" spans="1:9" x14ac:dyDescent="0.2">
@@ -8194,7 +8194,7 @@
         <v>234</v>
       </c>
       <c r="B254" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D254">
         <v>1465</v>
@@ -8206,18 +8206,18 @@
         <v>235</v>
       </c>
       <c r="G254" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H254" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="255" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A255" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="B255" t="s">
         <v>400</v>
-      </c>
-      <c r="B255" t="s">
-        <v>401</v>
       </c>
       <c r="C255" t="s">
         <v>37</v>
@@ -8232,7 +8232,7 @@
         <v>77</v>
       </c>
       <c r="G255" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="256" spans="1:9" x14ac:dyDescent="0.2">
@@ -8252,18 +8252,18 @@
         <v>17</v>
       </c>
       <c r="G256" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H256" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="257" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A257" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="B257" t="s">
         <v>379</v>
-      </c>
-      <c r="B257" t="s">
-        <v>380</v>
       </c>
       <c r="D257">
         <v>1339</v>
@@ -8275,21 +8275,21 @@
         <v>77</v>
       </c>
       <c r="G257" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H257" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="258" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A258" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="B258" t="s">
         <v>499</v>
       </c>
-      <c r="B258" t="s">
+      <c r="C258" t="s">
         <v>500</v>
-      </c>
-      <c r="C258" t="s">
-        <v>501</v>
       </c>
       <c r="D258">
         <v>1402.5</v>
@@ -8301,62 +8301,62 @@
         <v>38</v>
       </c>
       <c r="G258" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H258" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="259" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A259" s="1" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B259" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="D259">
         <v>1288</v>
       </c>
       <c r="E259" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="F259" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="G259" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H259" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="I259" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="260" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A260" s="1" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B260" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="D260">
         <v>1270</v>
       </c>
       <c r="E260" t="s">
+        <v>511</v>
+      </c>
+      <c r="F260" t="s">
         <v>512</v>
       </c>
-      <c r="F260" t="s">
-        <v>513</v>
-      </c>
       <c r="G260" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H260" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="I260" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="261" spans="1:9" x14ac:dyDescent="0.2">
@@ -8376,10 +8376,10 @@
         <v>77</v>
       </c>
       <c r="G261" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H261" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="262" spans="1:9" x14ac:dyDescent="0.2">
@@ -8399,10 +8399,10 @@
         <v>17</v>
       </c>
       <c r="G262" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H262" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="263" spans="1:9" x14ac:dyDescent="0.2">
@@ -8422,10 +8422,10 @@
         <v>31</v>
       </c>
       <c r="G263" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H263" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="264" spans="1:9" x14ac:dyDescent="0.2">
@@ -8445,7 +8445,7 @@
         <v>31</v>
       </c>
       <c r="G264" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="265" spans="1:9" x14ac:dyDescent="0.2">
@@ -8465,7 +8465,7 @@
         <v>337</v>
       </c>
       <c r="G265" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="266" spans="1:9" x14ac:dyDescent="0.2">
@@ -8488,10 +8488,10 @@
         <v>31</v>
       </c>
       <c r="G266" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H266" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="267" spans="1:9" x14ac:dyDescent="0.2">
@@ -8511,10 +8511,10 @@
         <v>38</v>
       </c>
       <c r="G267" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H267" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="268" spans="1:9" x14ac:dyDescent="0.2">
@@ -8534,10 +8534,10 @@
         <v>14</v>
       </c>
       <c r="G268" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H268" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="269" spans="1:9" x14ac:dyDescent="0.2">
@@ -8557,10 +8557,10 @@
         <v>82</v>
       </c>
       <c r="G269" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H269" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="270" spans="1:9" x14ac:dyDescent="0.2">
@@ -8580,18 +8580,18 @@
         <v>318</v>
       </c>
       <c r="G270" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H270" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="271" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A271" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="B271" t="s">
         <v>410</v>
-      </c>
-      <c r="B271" t="s">
-        <v>411</v>
       </c>
       <c r="D271">
         <v>1438</v>
@@ -8600,13 +8600,13 @@
         <v>10</v>
       </c>
       <c r="F271" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="G271" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H271" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="272" spans="1:9" x14ac:dyDescent="0.2">
@@ -8626,15 +8626,15 @@
         <v>14</v>
       </c>
       <c r="G272" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="273" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A273" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="B273" t="s">
         <v>428</v>
-      </c>
-      <c r="B273" t="s">
-        <v>429</v>
       </c>
       <c r="C273" t="s">
         <v>210</v>
@@ -8649,18 +8649,18 @@
         <v>14</v>
       </c>
       <c r="G273" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H273" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="274" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A274" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="B274" t="s">
         <v>422</v>
-      </c>
-      <c r="B274" t="s">
-        <v>423</v>
       </c>
       <c r="D274">
         <v>1395</v>
@@ -8669,18 +8669,18 @@
         <v>10</v>
       </c>
       <c r="F274" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="G274" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="275" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A275" s="1" t="s">
-        <v>373</v>
+        <v>601</v>
       </c>
       <c r="B275" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D275">
         <v>1350</v>
@@ -8692,10 +8692,10 @@
         <v>34</v>
       </c>
       <c r="G275" t="s">
+        <v>544</v>
+      </c>
+      <c r="H275" t="s">
         <v>545</v>
-      </c>
-      <c r="H275" t="s">
-        <v>546</v>
       </c>
     </row>
     <row r="276" spans="1:9" x14ac:dyDescent="0.2">
@@ -8715,21 +8715,21 @@
         <v>245</v>
       </c>
       <c r="G276" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H276" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="277" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A277" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="B277" t="s">
+        <v>575</v>
+      </c>
+      <c r="C277" t="s">
         <v>441</v>
-      </c>
-      <c r="B277" t="s">
-        <v>576</v>
-      </c>
-      <c r="C277" t="s">
-        <v>442</v>
       </c>
       <c r="D277">
         <v>1350</v>
@@ -8738,13 +8738,13 @@
         <v>10</v>
       </c>
       <c r="F277" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="G277" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H277" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="278" spans="1:9" x14ac:dyDescent="0.2">
@@ -8764,10 +8764,10 @@
         <v>90</v>
       </c>
       <c r="G278" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H278" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="279" spans="1:9" x14ac:dyDescent="0.2">
@@ -8790,7 +8790,7 @@
         <v>38</v>
       </c>
       <c r="G279" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="280" spans="1:9" x14ac:dyDescent="0.2">
@@ -8813,41 +8813,41 @@
         <v>90</v>
       </c>
       <c r="G280" t="s">
+        <v>544</v>
+      </c>
+      <c r="H280" t="s">
         <v>545</v>
-      </c>
-      <c r="H280" t="s">
-        <v>546</v>
       </c>
     </row>
     <row r="281" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A281" s="1" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B281" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="D281">
         <v>1295.5</v>
       </c>
       <c r="E281" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="F281" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="G281" t="s">
+        <v>544</v>
+      </c>
+      <c r="H281" t="s">
         <v>545</v>
-      </c>
-      <c r="H281" t="s">
-        <v>546</v>
       </c>
     </row>
     <row r="282" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A282" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="B282" t="s">
         <v>452</v>
-      </c>
-      <c r="B282" t="s">
-        <v>453</v>
       </c>
       <c r="D282">
         <v>1350</v>
@@ -8859,39 +8859,39 @@
         <v>34</v>
       </c>
       <c r="G282" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H282" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="I282" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="283" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A283" s="1" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B283" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D283">
         <v>1270</v>
       </c>
       <c r="E283" t="s">
+        <v>511</v>
+      </c>
+      <c r="F283" t="s">
         <v>512</v>
       </c>
-      <c r="F283" t="s">
-        <v>513</v>
-      </c>
       <c r="G283" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H283" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="I283" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="284" spans="1:9" x14ac:dyDescent="0.2">
@@ -8899,7 +8899,7 @@
         <v>290</v>
       </c>
       <c r="B284" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D284">
         <v>1325</v>
@@ -8911,15 +8911,15 @@
         <v>90</v>
       </c>
       <c r="G284" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H284" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="285" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A285" s="1" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B285" t="s">
         <v>103</v>
@@ -8934,13 +8934,13 @@
         <v>10</v>
       </c>
       <c r="F285" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="G285" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H285" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
   </sheetData>

--- a/data/metadata_corrected.xlsx
+++ b/data/metadata_corrected.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mikekestemont/GitRepos/mdu/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B0D883D-B208-BF46-9E87-E7219B060D4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27EEB13C-AB27-0244-9333-4FE6182DB7E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1760" uniqueCount="602">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1763" uniqueCount="601">
   <si>
     <t>id</t>
   </si>
@@ -242,9 +242,6 @@
     <t>roman_van_limborch</t>
   </si>
   <si>
-    <t>Heinriic</t>
-  </si>
-  <si>
     <t>gwidekijn_van_sassen</t>
   </si>
   <si>
@@ -401,9 +398,6 @@
     <t>Willem van Oringen</t>
   </si>
   <si>
-    <t>Clays van Haerlem</t>
-  </si>
-  <si>
     <t>spiegel_historiael__4_velthem__fragm_ge7</t>
   </si>
   <si>
@@ -965,9 +959,6 @@
     <t>roman_der_lorreinen_fragm_gi</t>
   </si>
   <si>
-    <t>Roman der Lorreinen</t>
-  </si>
-  <si>
     <t>strofische_gedichten</t>
   </si>
   <si>
@@ -1757,9 +1748,6 @@
     <t>Torec</t>
   </si>
   <si>
-    <t>Allegorie</t>
-  </si>
-  <si>
     <t>Walewein</t>
   </si>
   <si>
@@ -1839,6 +1827,15 @@
   </si>
   <si>
     <t>vl-aiol</t>
+  </si>
+  <si>
+    <t>roman_der_lorreinen_I</t>
+  </si>
+  <si>
+    <t>Roman der Lorreinen II</t>
+  </si>
+  <si>
+    <t>Roman der Lorreinen I</t>
   </si>
 </sst>
 </file>
@@ -2224,10 +2221,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I285"/>
+  <dimension ref="A1:I286"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A250" workbookViewId="0">
-      <selection activeCell="B275" sqref="B275"/>
+    <sheetView tabSelected="1" topLeftCell="A160" workbookViewId="0">
+      <selection activeCell="B188" sqref="B188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2266,15 +2263,15 @@
         <v>7</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="B2" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D2">
         <v>1410</v>
@@ -2286,15 +2283,15 @@
         <v>14</v>
       </c>
       <c r="G2" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B3" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C3" t="s">
         <v>37</v>
@@ -2309,41 +2306,41 @@
         <v>31</v>
       </c>
       <c r="G3" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="H3" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="B4" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="D4">
         <v>1295.5</v>
       </c>
       <c r="E4" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="F4" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="G4" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="H4" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="B5" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="D5">
         <v>1375</v>
@@ -2355,18 +2352,18 @@
         <v>17</v>
       </c>
       <c r="G5" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="H5" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="B6" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="D6">
         <v>1544</v>
@@ -2375,18 +2372,18 @@
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="G6" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D7">
         <v>1325</v>
@@ -2395,21 +2392,21 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G7" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="H7" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B8" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D8">
         <v>1350</v>
@@ -2421,18 +2418,18 @@
         <v>34</v>
       </c>
       <c r="G8" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="H8" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="B9" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="D9">
         <v>1490</v>
@@ -2441,18 +2438,18 @@
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="G9" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B10" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D10">
         <v>1387.5</v>
@@ -2464,18 +2461,18 @@
         <v>11</v>
       </c>
       <c r="G10" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="H10" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="B11" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D11">
         <v>1325</v>
@@ -2484,21 +2481,21 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G11" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="H11" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="B12" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="D12">
         <v>1374</v>
@@ -2510,18 +2507,18 @@
         <v>67</v>
       </c>
       <c r="G12" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="H12" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B13" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D13">
         <v>1350</v>
@@ -2533,18 +2530,18 @@
         <v>34</v>
       </c>
       <c r="G13" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="H13" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B14" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D14">
         <v>1400</v>
@@ -2553,21 +2550,21 @@
         <v>10</v>
       </c>
       <c r="F14" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G14" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="H14" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="B15" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="D15">
         <v>1650</v>
@@ -2576,21 +2573,21 @@
         <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="G15" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="H15" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B16" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D16">
         <v>1412.5</v>
@@ -2599,18 +2596,18 @@
         <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="G16" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="B17" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="D17">
         <v>1510</v>
@@ -2619,21 +2616,21 @@
         <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="G17" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="H17" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B18" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="D18">
         <v>1339</v>
@@ -2642,24 +2639,24 @@
         <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G18" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="H18" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="B19" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="C19" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D19">
         <v>1400</v>
@@ -2671,33 +2668,33 @@
         <v>31</v>
       </c>
       <c r="G19" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="H19" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="B20" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="D20">
         <v>1265</v>
       </c>
       <c r="E20" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="F20" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="G20" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="H20" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
@@ -2717,15 +2714,15 @@
         <v>11</v>
       </c>
       <c r="G21" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="H21" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B22" t="s">
         <v>25</v>
@@ -2740,15 +2737,15 @@
         <v>11</v>
       </c>
       <c r="G22" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="H22" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B23" t="s">
         <v>25</v>
@@ -2763,15 +2760,15 @@
         <v>56</v>
       </c>
       <c r="G23" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="H23" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="B24" t="s">
         <v>25</v>
@@ -2786,18 +2783,18 @@
         <v>56</v>
       </c>
       <c r="G24" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="H24" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B25" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D25">
         <v>1410</v>
@@ -2809,18 +2806,18 @@
         <v>14</v>
       </c>
       <c r="G25" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="H25" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B26" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D26">
         <v>1362.5</v>
@@ -2829,21 +2826,21 @@
         <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G26" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="H26" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B27" t="s">
         <v>83</v>
-      </c>
-      <c r="B27" t="s">
-        <v>84</v>
       </c>
       <c r="D27">
         <v>1350</v>
@@ -2852,21 +2849,21 @@
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G27" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="H27" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="B28" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D28">
         <v>1350</v>
@@ -2878,21 +2875,21 @@
         <v>34</v>
       </c>
       <c r="G28" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="H28" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B29" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="C29" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D29">
         <v>1470</v>
@@ -2901,21 +2898,21 @@
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G29" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="H29" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B30" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="D30">
         <v>1432</v>
@@ -2924,21 +2921,21 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="G30" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="H30" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B31" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="D31">
         <v>1470</v>
@@ -2947,44 +2944,44 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G31" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="H31" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="B32" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="D32">
         <v>1270</v>
       </c>
       <c r="E32" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="F32" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="G32" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="H32" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B33" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D33">
         <v>1410</v>
@@ -2996,15 +2993,15 @@
         <v>14</v>
       </c>
       <c r="G33" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B34" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D34">
         <v>1312.5</v>
@@ -3016,18 +3013,18 @@
         <v>56</v>
       </c>
       <c r="G34" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="H34" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="B35" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="C35" t="s">
         <v>37</v>
@@ -3039,18 +3036,18 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G35" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B36" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="D36">
         <v>1310</v>
@@ -3059,21 +3056,21 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G36" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="H36" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B37" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="D37">
         <v>1450</v>
@@ -3082,21 +3079,21 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G37" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="H37" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B38" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="D38">
         <v>1387.5</v>
@@ -3108,18 +3105,18 @@
         <v>11</v>
       </c>
       <c r="G38" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="H38" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="B39" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="D39">
         <v>1435</v>
@@ -3128,21 +3125,21 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="G39" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="H39" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B40" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D40">
         <v>1450</v>
@@ -3151,21 +3148,21 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G40" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="H40" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="B41" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="C41" t="s">
         <v>37</v>
@@ -3177,21 +3174,21 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="G41" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B42" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C42" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D42">
         <v>1350</v>
@@ -3203,18 +3200,18 @@
         <v>34</v>
       </c>
       <c r="G42" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="H42" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="B43" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="D43">
         <v>1351</v>
@@ -3223,24 +3220,24 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="G43" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="H43" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="B44" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="C44" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="D44">
         <v>1480</v>
@@ -3252,67 +3249,67 @@
         <v>51</v>
       </c>
       <c r="G44" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="H44" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="B45" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="D45">
         <v>1287</v>
       </c>
       <c r="E45" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="F45" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="G45" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="H45" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="B46" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="D46">
         <v>1288</v>
       </c>
       <c r="E46" t="s">
+        <v>508</v>
+      </c>
+      <c r="F46" t="s">
         <v>511</v>
       </c>
-      <c r="F46" t="s">
-        <v>514</v>
-      </c>
       <c r="G46" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="H46" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="I46" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B47" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D47">
         <v>1405</v>
@@ -3321,21 +3318,21 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G47" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="H47" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B48" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D48">
         <v>1350</v>
@@ -3347,18 +3344,18 @@
         <v>34</v>
       </c>
       <c r="G48" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="H48" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B49" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C49" t="s">
         <v>37</v>
@@ -3373,15 +3370,15 @@
         <v>38</v>
       </c>
       <c r="G49" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B50" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D50">
         <v>1539</v>
@@ -3390,18 +3387,18 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G50" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B51" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D51">
         <v>1374</v>
@@ -3413,18 +3410,18 @@
         <v>67</v>
       </c>
       <c r="G51" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="H51" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B52" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D52">
         <v>1410</v>
@@ -3436,18 +3433,18 @@
         <v>14</v>
       </c>
       <c r="G52" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="H52" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B53" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C53" t="s">
         <v>37</v>
@@ -3462,15 +3459,15 @@
         <v>38</v>
       </c>
       <c r="G53" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="B54" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="D54">
         <v>1410</v>
@@ -3482,15 +3479,15 @@
         <v>14</v>
       </c>
       <c r="G54" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="B55" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="D55">
         <v>1481</v>
@@ -3499,21 +3496,21 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="G55" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="H55" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B56" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C56" t="s">
         <v>37</v>
@@ -3528,38 +3525,38 @@
         <v>38</v>
       </c>
       <c r="G56" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="B57" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="D57">
         <v>1290</v>
       </c>
       <c r="E57" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="F57" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="G57" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="H57" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="B58" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="D58">
         <v>1410</v>
@@ -3571,7 +3568,7 @@
         <v>14</v>
       </c>
       <c r="G58" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
@@ -3582,7 +3579,7 @@
         <v>48</v>
       </c>
       <c r="C59" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="D59">
         <v>1350</v>
@@ -3594,18 +3591,18 @@
         <v>34</v>
       </c>
       <c r="G59" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="H59" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B60" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="D60">
         <v>1410</v>
@@ -3617,18 +3614,18 @@
         <v>14</v>
       </c>
       <c r="G60" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="H60" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B61" t="s">
         <v>78</v>
-      </c>
-      <c r="B61" t="s">
-        <v>79</v>
       </c>
       <c r="D61">
         <v>1350</v>
@@ -3640,18 +3637,18 @@
         <v>34</v>
       </c>
       <c r="G61" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="H61" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B62" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D62">
         <v>1350</v>
@@ -3663,18 +3660,18 @@
         <v>34</v>
       </c>
       <c r="G62" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="H62" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="B63" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="D63">
         <v>1375</v>
@@ -3686,18 +3683,18 @@
         <v>17</v>
       </c>
       <c r="G63" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="H63" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B64" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D64">
         <v>1362.5</v>
@@ -3706,21 +3703,21 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G64" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="H64" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B65" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D65">
         <v>1387.5</v>
@@ -3732,18 +3729,18 @@
         <v>11</v>
       </c>
       <c r="G65" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="H65" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="B66" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D66">
         <v>1387.5</v>
@@ -3755,18 +3752,18 @@
         <v>11</v>
       </c>
       <c r="G66" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="H66" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="B67" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="D67">
         <v>1350</v>
@@ -3778,21 +3775,21 @@
         <v>34</v>
       </c>
       <c r="G67" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="H67" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B68" t="s">
+        <v>145</v>
+      </c>
+      <c r="C68" t="s">
         <v>146</v>
-      </c>
-      <c r="B68" t="s">
-        <v>147</v>
-      </c>
-      <c r="C68" t="s">
-        <v>148</v>
       </c>
       <c r="D68">
         <v>1350</v>
@@ -3804,18 +3801,18 @@
         <v>34</v>
       </c>
       <c r="G68" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="H68" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="B69" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="D69">
         <v>1450</v>
@@ -3824,44 +3821,44 @@
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G69" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="H69" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="B70" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="D70">
         <v>1213</v>
       </c>
       <c r="E70" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="F70" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="G70" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="H70" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="B71" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="D71">
         <v>1325</v>
@@ -3870,18 +3867,18 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G71" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="B72" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="D72">
         <v>1405</v>
@@ -3890,21 +3887,21 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G72" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="H72" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="B73" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="D73">
         <v>1350</v>
@@ -3916,21 +3913,21 @@
         <v>34</v>
       </c>
       <c r="G73" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="H73" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="B74" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="C74" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="D74">
         <v>1480</v>
@@ -3942,15 +3939,15 @@
         <v>51</v>
       </c>
       <c r="G74" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="B75" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="D75">
         <v>1325</v>
@@ -3959,21 +3956,21 @@
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G75" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="H75" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B76" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D76">
         <v>1410</v>
@@ -3985,15 +3982,15 @@
         <v>14</v>
       </c>
       <c r="G76" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B77" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D77">
         <v>1350</v>
@@ -4005,18 +4002,18 @@
         <v>34</v>
       </c>
       <c r="G77" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="H77" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="B78" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="D78">
         <v>1325</v>
@@ -4025,21 +4022,21 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G78" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="H78" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B79" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D79">
         <v>1325</v>
@@ -4048,21 +4045,21 @@
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G79" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="H79" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="B80" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="D80">
         <v>1375</v>
@@ -4074,15 +4071,15 @@
         <v>17</v>
       </c>
       <c r="G80" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B81" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="D81">
         <v>1375</v>
@@ -4094,15 +4091,15 @@
         <v>17</v>
       </c>
       <c r="G81" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="B82" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="D82">
         <v>1375</v>
@@ -4114,15 +4111,15 @@
         <v>17</v>
       </c>
       <c r="G82" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B83" t="s">
         <v>70</v>
-      </c>
-      <c r="B83" t="s">
-        <v>71</v>
       </c>
       <c r="D83">
         <v>1350</v>
@@ -4134,18 +4131,18 @@
         <v>34</v>
       </c>
       <c r="G83" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="H83" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B84" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="D84">
         <v>1400</v>
@@ -4157,15 +4154,15 @@
         <v>31</v>
       </c>
       <c r="G84" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="B85" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="D85">
         <v>1410</v>
@@ -4177,7 +4174,7 @@
         <v>14</v>
       </c>
       <c r="G85" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.2">
@@ -4200,18 +4197,18 @@
         <v>67</v>
       </c>
       <c r="G86" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="H86" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="B87" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="C87" t="s">
         <v>37</v>
@@ -4223,21 +4220,21 @@
         <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="G87" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="H87" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B88" t="s">
         <v>111</v>
-      </c>
-      <c r="B88" t="s">
-        <v>112</v>
       </c>
       <c r="D88">
         <v>1510</v>
@@ -4246,21 +4243,21 @@
         <v>10</v>
       </c>
       <c r="F88" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G88" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="H88" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B89" t="s">
         <v>114</v>
-      </c>
-      <c r="B89" t="s">
-        <v>115</v>
       </c>
       <c r="C89" t="s">
         <v>37</v>
@@ -4272,21 +4269,21 @@
         <v>10</v>
       </c>
       <c r="F89" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G89" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="H89" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="B90" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="D90">
         <v>1375</v>
@@ -4298,18 +4295,18 @@
         <v>17</v>
       </c>
       <c r="G90" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="H90" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="B91" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="D91">
         <v>1325</v>
@@ -4318,21 +4315,21 @@
         <v>10</v>
       </c>
       <c r="F91" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G91" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="H91" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B92" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="D92">
         <v>1350</v>
@@ -4344,18 +4341,18 @@
         <v>34</v>
       </c>
       <c r="G92" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="H92" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B93" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D93">
         <v>1551</v>
@@ -4364,18 +4361,18 @@
         <v>10</v>
       </c>
       <c r="F93" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G93" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="B94" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="D94">
         <v>1550</v>
@@ -4384,24 +4381,24 @@
         <v>10</v>
       </c>
       <c r="F94" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="G94" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="H94" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="B95" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="C95" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D95">
         <v>1400</v>
@@ -4413,18 +4410,18 @@
         <v>31</v>
       </c>
       <c r="G95" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="H95" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="B96" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="D96">
         <v>1500</v>
@@ -4433,21 +4430,21 @@
         <v>10</v>
       </c>
       <c r="F96" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="G96" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="H96" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B97" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="D97">
         <v>1505</v>
@@ -4456,21 +4453,21 @@
         <v>10</v>
       </c>
       <c r="F97" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="G97" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="H97" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="B98" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="D98">
         <v>1510</v>
@@ -4479,21 +4476,21 @@
         <v>10</v>
       </c>
       <c r="F98" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G98" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="H98" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="B99" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="D99">
         <v>1487</v>
@@ -4502,24 +4499,24 @@
         <v>10</v>
       </c>
       <c r="F99" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="G99" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="H99" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="B100" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="C100" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D100">
         <v>1404.5</v>
@@ -4528,24 +4525,24 @@
         <v>10</v>
       </c>
       <c r="F100" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="G100" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="H100" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B101" t="s">
         <v>99</v>
       </c>
-      <c r="B101" t="s">
+      <c r="C101" t="s">
         <v>100</v>
-      </c>
-      <c r="C101" t="s">
-        <v>101</v>
       </c>
       <c r="D101">
         <v>1410</v>
@@ -4557,18 +4554,18 @@
         <v>14</v>
       </c>
       <c r="G101" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="H101" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="B102" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="D102">
         <v>1325</v>
@@ -4577,21 +4574,21 @@
         <v>10</v>
       </c>
       <c r="F102" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G102" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="H102" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B103" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="D103">
         <v>1325</v>
@@ -4600,24 +4597,24 @@
         <v>10</v>
       </c>
       <c r="F103" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G103" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="H103" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="I103" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B104" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="D104">
         <v>1325</v>
@@ -4626,21 +4623,21 @@
         <v>10</v>
       </c>
       <c r="F104" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G104" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="H104" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B105" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D105">
         <v>1410</v>
@@ -4652,15 +4649,15 @@
         <v>14</v>
       </c>
       <c r="G105" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B106" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D106">
         <v>1325</v>
@@ -4669,21 +4666,21 @@
         <v>10</v>
       </c>
       <c r="F106" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G106" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="H106" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B107" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D107">
         <v>1350</v>
@@ -4692,21 +4689,21 @@
         <v>10</v>
       </c>
       <c r="F107" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G107" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="H107" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B108" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D108">
         <v>1400</v>
@@ -4718,10 +4715,10 @@
         <v>31</v>
       </c>
       <c r="G108" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="H108" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.2">
@@ -4729,10 +4726,7 @@
         <v>68</v>
       </c>
       <c r="B109" t="s">
-        <v>569</v>
-      </c>
-      <c r="C109" t="s">
-        <v>69</v>
+        <v>566</v>
       </c>
       <c r="D109">
         <v>1350</v>
@@ -4744,41 +4738,41 @@
         <v>34</v>
       </c>
       <c r="G109" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="H109" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="B110" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="D110">
         <v>1230</v>
       </c>
       <c r="E110" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="F110" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="G110" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="H110" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="B111" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="D111">
         <v>1387.5</v>
@@ -4790,10 +4784,10 @@
         <v>11</v>
       </c>
       <c r="G111" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="H111" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.2">
@@ -4813,15 +4807,15 @@
         <v>14</v>
       </c>
       <c r="G112" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B113" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D113">
         <v>1375</v>
@@ -4833,18 +4827,18 @@
         <v>17</v>
       </c>
       <c r="G113" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="H113" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B114" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D114">
         <v>1375</v>
@@ -4856,18 +4850,18 @@
         <v>17</v>
       </c>
       <c r="G114" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="H114" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="B115" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D115">
         <v>1350</v>
@@ -4876,21 +4870,21 @@
         <v>10</v>
       </c>
       <c r="F115" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G115" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="H115" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="B116" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D116">
         <v>1350</v>
@@ -4899,36 +4893,36 @@
         <v>10</v>
       </c>
       <c r="F116" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G116" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="H116" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="B117" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="D117">
         <v>1295.5</v>
       </c>
       <c r="E117" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="F117" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="G117" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="H117" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.2">
@@ -4948,10 +4942,10 @@
         <v>17</v>
       </c>
       <c r="G118" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="H118" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.2">
@@ -4971,10 +4965,10 @@
         <v>17</v>
       </c>
       <c r="G119" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="H119" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.2">
@@ -4994,15 +4988,15 @@
         <v>17</v>
       </c>
       <c r="G120" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="H120" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B121" t="s">
         <v>16</v>
@@ -5017,15 +5011,15 @@
         <v>34</v>
       </c>
       <c r="G121" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="H121" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B122" t="s">
         <v>16</v>
@@ -5040,15 +5034,15 @@
         <v>34</v>
       </c>
       <c r="G122" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="H122" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B123" t="s">
         <v>16</v>
@@ -5063,15 +5057,15 @@
         <v>17</v>
       </c>
       <c r="G123" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="H123" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B124" t="s">
         <v>16</v>
@@ -5086,15 +5080,15 @@
         <v>11</v>
       </c>
       <c r="G124" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="H124" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B125" t="s">
         <v>16</v>
@@ -5109,15 +5103,15 @@
         <v>11</v>
       </c>
       <c r="G125" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="H125" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B126" t="s">
         <v>16</v>
@@ -5132,15 +5126,15 @@
         <v>34</v>
       </c>
       <c r="G126" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="H126" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B127" t="s">
         <v>16</v>
@@ -5155,15 +5149,15 @@
         <v>34</v>
       </c>
       <c r="G127" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="H127" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B128" t="s">
         <v>16</v>
@@ -5178,15 +5172,15 @@
         <v>34</v>
       </c>
       <c r="G128" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="H128" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B129" t="s">
         <v>16</v>
@@ -5201,15 +5195,15 @@
         <v>17</v>
       </c>
       <c r="G129" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="H129" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="B130" t="s">
         <v>16</v>
@@ -5224,18 +5218,18 @@
         <v>17</v>
       </c>
       <c r="G130" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="H130" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B131" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D131">
         <v>1400</v>
@@ -5247,21 +5241,21 @@
         <v>31</v>
       </c>
       <c r="G131" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="H131" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B132" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="C132" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D132">
         <v>1350</v>
@@ -5273,15 +5267,15 @@
         <v>34</v>
       </c>
       <c r="G132" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B133" t="s">
         <v>102</v>
-      </c>
-      <c r="B133" t="s">
-        <v>103</v>
       </c>
       <c r="C133" t="s">
         <v>30</v>
@@ -5293,24 +5287,24 @@
         <v>10</v>
       </c>
       <c r="F133" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G133" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="H133" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="I133" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C134" t="s">
         <v>30</v>
@@ -5325,21 +5319,21 @@
         <v>17</v>
       </c>
       <c r="G134" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="H134" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="I134" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C135" t="s">
         <v>30</v>
@@ -5354,21 +5348,21 @@
         <v>17</v>
       </c>
       <c r="G135" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="H135" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="I135" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="B136" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C136" t="s">
         <v>37</v>
@@ -5380,24 +5374,24 @@
         <v>10</v>
       </c>
       <c r="F136" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G136" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="H136" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="I136" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="B137" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="D137">
         <v>1325</v>
@@ -5406,18 +5400,18 @@
         <v>10</v>
       </c>
       <c r="F137" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G137" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="B138" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="D138">
         <v>1350</v>
@@ -5426,38 +5420,38 @@
         <v>10</v>
       </c>
       <c r="F138" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G138" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="B139" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="D139">
         <v>1295.5</v>
       </c>
       <c r="E139" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="F139" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="G139" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B140" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="D140">
         <v>1325</v>
@@ -5466,21 +5460,21 @@
         <v>10</v>
       </c>
       <c r="F140" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G140" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="H140" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B141" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D141">
         <v>1414.5</v>
@@ -5489,24 +5483,24 @@
         <v>10</v>
       </c>
       <c r="F141" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="G141" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="H141" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="B142" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="C142" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D142">
         <v>1410</v>
@@ -5518,18 +5512,18 @@
         <v>14</v>
       </c>
       <c r="G142" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="H142" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="B143" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="D143">
         <v>1400</v>
@@ -5541,10 +5535,10 @@
         <v>31</v>
       </c>
       <c r="G143" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="H143" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.2">
@@ -5564,18 +5558,18 @@
         <v>31</v>
       </c>
       <c r="G144" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="H144" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="B145" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="D145">
         <v>1400</v>
@@ -5587,18 +5581,18 @@
         <v>31</v>
       </c>
       <c r="G145" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="H145" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B146" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D146">
         <v>1478.5</v>
@@ -5607,21 +5601,21 @@
         <v>10</v>
       </c>
       <c r="F146" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G146" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="H146" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B147" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D147">
         <v>1350</v>
@@ -5630,21 +5624,21 @@
         <v>10</v>
       </c>
       <c r="F147" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G147" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="H147" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B148" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D148">
         <v>1350</v>
@@ -5653,21 +5647,21 @@
         <v>10</v>
       </c>
       <c r="F148" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G148" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="H148" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B149" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D149">
         <v>1350</v>
@@ -5676,21 +5670,21 @@
         <v>10</v>
       </c>
       <c r="F149" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G149" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="H149" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="B150" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D150">
         <v>1350</v>
@@ -5699,21 +5693,21 @@
         <v>10</v>
       </c>
       <c r="F150" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G150" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="H150" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B151" t="s">
         <v>106</v>
-      </c>
-      <c r="B151" t="s">
-        <v>107</v>
       </c>
       <c r="D151">
         <v>1225</v>
@@ -5722,21 +5716,21 @@
         <v>10</v>
       </c>
       <c r="F151" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G151" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="H151" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B152" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D152">
         <v>1387.5</v>
@@ -5748,18 +5742,18 @@
         <v>11</v>
       </c>
       <c r="G152" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="H152" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B153" t="s">
         <v>109</v>
-      </c>
-      <c r="B153" t="s">
-        <v>110</v>
       </c>
       <c r="D153">
         <v>1350</v>
@@ -5771,18 +5765,18 @@
         <v>34</v>
       </c>
       <c r="G153" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="H153" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B154" t="s">
         <v>80</v>
-      </c>
-      <c r="B154" t="s">
-        <v>81</v>
       </c>
       <c r="D154">
         <v>1350</v>
@@ -5791,13 +5785,13 @@
         <v>10</v>
       </c>
       <c r="F154" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G154" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="H154" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.2">
@@ -5817,18 +5811,18 @@
         <v>11</v>
       </c>
       <c r="G155" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="H155" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="B156" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="D156">
         <v>1390</v>
@@ -5837,21 +5831,21 @@
         <v>10</v>
       </c>
       <c r="F156" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="G156" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="H156" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B157" t="s">
         <v>96</v>
-      </c>
-      <c r="B157" t="s">
-        <v>97</v>
       </c>
       <c r="D157">
         <v>1445</v>
@@ -5860,13 +5854,13 @@
         <v>10</v>
       </c>
       <c r="F157" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G157" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="H157" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.2">
@@ -5886,15 +5880,15 @@
         <v>34</v>
       </c>
       <c r="G158" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="H158" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B159" t="s">
         <v>33</v>
@@ -5909,15 +5903,15 @@
         <v>34</v>
       </c>
       <c r="G159" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="H159" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B160" t="s">
         <v>33</v>
@@ -5929,18 +5923,18 @@
         <v>10</v>
       </c>
       <c r="F160" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="G160" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="H160" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="B161" t="s">
         <v>33</v>
@@ -5955,15 +5949,15 @@
         <v>11</v>
       </c>
       <c r="G161" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="H161" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="B162" t="s">
         <v>33</v>
@@ -5978,15 +5972,15 @@
         <v>17</v>
       </c>
       <c r="G162" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="H162" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="B163" t="s">
         <v>33</v>
@@ -5998,47 +5992,47 @@
         <v>10</v>
       </c>
       <c r="F163" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="G163" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="H163" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="B164" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="D164">
         <v>1288</v>
       </c>
       <c r="E164" t="s">
+        <v>508</v>
+      </c>
+      <c r="F164" t="s">
         <v>511</v>
       </c>
-      <c r="F164" t="s">
-        <v>514</v>
-      </c>
       <c r="G164" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="H164" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="I164" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B165" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="D165">
         <v>1325</v>
@@ -6047,24 +6041,24 @@
         <v>10</v>
       </c>
       <c r="F165" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G165" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="H165" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="I165" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B166" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="D166">
         <v>1325</v>
@@ -6073,21 +6067,21 @@
         <v>10</v>
       </c>
       <c r="F166" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G166" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="H166" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B167" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D167">
         <v>1325</v>
@@ -6096,21 +6090,21 @@
         <v>10</v>
       </c>
       <c r="F167" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G167" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="H167" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="B168" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="D168">
         <v>1470</v>
@@ -6119,44 +6113,44 @@
         <v>10</v>
       </c>
       <c r="F168" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G168" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="H168" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="B169" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="D169">
         <v>1288</v>
       </c>
       <c r="E169" t="s">
+        <v>508</v>
+      </c>
+      <c r="F169" t="s">
         <v>511</v>
       </c>
-      <c r="F169" t="s">
-        <v>514</v>
-      </c>
       <c r="G169" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="H169" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B170" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D170">
         <v>1350</v>
@@ -6168,18 +6162,18 @@
         <v>34</v>
       </c>
       <c r="G170" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="H170" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B171" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D171">
         <v>1350</v>
@@ -6188,21 +6182,21 @@
         <v>10</v>
       </c>
       <c r="F171" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G171" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="H171" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="B172" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D172">
         <v>1500</v>
@@ -6211,21 +6205,21 @@
         <v>10</v>
       </c>
       <c r="F172" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="G172" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="H172" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="B173" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D173">
         <v>1350</v>
@@ -6237,18 +6231,18 @@
         <v>34</v>
       </c>
       <c r="G173" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="H173" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B174" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="D174">
         <v>1362.5</v>
@@ -6257,24 +6251,24 @@
         <v>10</v>
       </c>
       <c r="F174" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G174" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="H174" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="I174" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="B175" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="D175">
         <v>1325</v>
@@ -6283,47 +6277,47 @@
         <v>10</v>
       </c>
       <c r="F175" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G175" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="H175" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="B176" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="D176">
         <v>1285</v>
       </c>
       <c r="E176" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="F176" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="G176" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="H176" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="B177" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C177" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="D177">
         <v>1375</v>
@@ -6332,24 +6326,24 @@
         <v>10</v>
       </c>
       <c r="F177" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="G177" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="H177" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="B178" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="C178" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="D178">
         <v>1440</v>
@@ -6358,13 +6352,13 @@
         <v>10</v>
       </c>
       <c r="F178" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="G178" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="H178" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.2">
@@ -6384,18 +6378,18 @@
         <v>51</v>
       </c>
       <c r="G179" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B180" t="s">
+        <v>199</v>
+      </c>
+      <c r="C180" t="s">
         <v>200</v>
-      </c>
-      <c r="B180" t="s">
-        <v>201</v>
-      </c>
-      <c r="C180" t="s">
-        <v>202</v>
       </c>
       <c r="D180">
         <v>1400</v>
@@ -6407,7 +6401,7 @@
         <v>31</v>
       </c>
       <c r="G180" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.2">
@@ -6427,15 +6421,15 @@
         <v>17</v>
       </c>
       <c r="G181" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="H181" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B182" t="s">
         <v>19</v>
@@ -6447,18 +6441,18 @@
         <v>10</v>
       </c>
       <c r="F182" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G182" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="H182" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B183" t="s">
         <v>19</v>
@@ -6473,15 +6467,15 @@
         <v>17</v>
       </c>
       <c r="G183" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="H183" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="B184" t="s">
         <v>19</v>
@@ -6496,15 +6490,15 @@
         <v>17</v>
       </c>
       <c r="G184" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="H184" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="B185" t="s">
         <v>19</v>
@@ -6516,21 +6510,21 @@
         <v>10</v>
       </c>
       <c r="F185" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="G185" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="H185" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
-        <v>309</v>
+        <v>598</v>
       </c>
       <c r="B186" t="s">
-        <v>310</v>
+        <v>600</v>
       </c>
       <c r="D186">
         <v>1350</v>
@@ -6542,41 +6536,41 @@
         <v>34</v>
       </c>
       <c r="G186" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="H186" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
-        <v>175</v>
+        <v>307</v>
       </c>
       <c r="B187" t="s">
-        <v>176</v>
+        <v>599</v>
       </c>
       <c r="D187">
-        <v>1325</v>
+        <v>1350</v>
       </c>
       <c r="E187" t="s">
         <v>10</v>
       </c>
       <c r="F187" t="s">
-        <v>90</v>
+        <v>34</v>
       </c>
       <c r="G187" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="H187" t="s">
-        <v>552</v>
+        <v>542</v>
       </c>
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
-        <v>242</v>
+        <v>173</v>
       </c>
       <c r="B188" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D188">
         <v>1325</v>
@@ -6585,21 +6579,21 @@
         <v>10</v>
       </c>
       <c r="F188" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G188" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="H188" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
-        <v>327</v>
+        <v>240</v>
       </c>
       <c r="B189" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D189">
         <v>1325</v>
@@ -6608,21 +6602,21 @@
         <v>10</v>
       </c>
       <c r="F189" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G189" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="H189" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
     <row r="190" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
-        <v>388</v>
+        <v>324</v>
       </c>
       <c r="B190" t="s">
-        <v>389</v>
+        <v>174</v>
       </c>
       <c r="D190">
         <v>1325</v>
@@ -6631,73 +6625,70 @@
         <v>10</v>
       </c>
       <c r="F190" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G190" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="H190" t="s">
-        <v>588</v>
+        <v>549</v>
       </c>
     </row>
     <row r="191" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
-        <v>198</v>
+        <v>385</v>
       </c>
       <c r="B191" t="s">
-        <v>593</v>
+        <v>386</v>
       </c>
       <c r="D191">
-        <v>1350</v>
+        <v>1325</v>
       </c>
       <c r="E191" t="s">
         <v>10</v>
       </c>
       <c r="F191" t="s">
-        <v>34</v>
+        <v>89</v>
       </c>
       <c r="G191" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="H191" t="s">
-        <v>588</v>
-      </c>
-      <c r="I191" t="s">
-        <v>565</v>
+        <v>584</v>
       </c>
     </row>
     <row r="192" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
-        <v>291</v>
+        <v>196</v>
       </c>
       <c r="B192" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="D192">
-        <v>1325</v>
+        <v>1350</v>
       </c>
       <c r="E192" t="s">
         <v>10</v>
       </c>
       <c r="F192" t="s">
-        <v>90</v>
+        <v>34</v>
       </c>
       <c r="G192" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="H192" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="I192" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
-        <v>205</v>
+        <v>289</v>
       </c>
       <c r="B193" t="s">
-        <v>585</v>
+        <v>589</v>
       </c>
       <c r="D193">
         <v>1325</v>
@@ -6706,413 +6697,413 @@
         <v>10</v>
       </c>
       <c r="F193" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G193" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="H193" t="s">
-        <v>588</v>
+        <v>584</v>
+      </c>
+      <c r="I193" t="s">
+        <v>562</v>
       </c>
     </row>
     <row r="194" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A194" s="1" t="s">
-        <v>368</v>
+        <v>203</v>
       </c>
       <c r="B194" t="s">
-        <v>369</v>
+        <v>581</v>
       </c>
       <c r="D194">
-        <v>1350</v>
+        <v>1325</v>
       </c>
       <c r="E194" t="s">
         <v>10</v>
       </c>
       <c r="F194" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="G194" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="H194" t="s">
-        <v>552</v>
+        <v>584</v>
       </c>
     </row>
     <row r="195" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A195" s="1" t="s">
-        <v>92</v>
+        <v>365</v>
       </c>
       <c r="B195" t="s">
-        <v>93</v>
-      </c>
-      <c r="C195" t="s">
-        <v>94</v>
+        <v>366</v>
       </c>
       <c r="D195">
-        <v>1325</v>
+        <v>1350</v>
       </c>
       <c r="E195" t="s">
         <v>10</v>
       </c>
       <c r="F195" t="s">
-        <v>90</v>
-      </c>
-      <c r="G195" s="3" t="s">
-        <v>544</v>
-      </c>
-      <c r="H195" s="3" t="s">
-        <v>574</v>
+        <v>81</v>
+      </c>
+      <c r="G195" t="s">
+        <v>541</v>
+      </c>
+      <c r="H195" t="s">
+        <v>549</v>
       </c>
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A196" s="1" t="s">
-        <v>418</v>
+        <v>91</v>
       </c>
       <c r="B196" t="s">
-        <v>419</v>
+        <v>92</v>
       </c>
       <c r="D196">
-        <v>1410</v>
+        <v>1325</v>
       </c>
       <c r="E196" t="s">
         <v>10</v>
       </c>
       <c r="F196" t="s">
-        <v>14</v>
-      </c>
-      <c r="G196" t="s">
-        <v>544</v>
-      </c>
-      <c r="H196" t="s">
-        <v>574</v>
+        <v>89</v>
+      </c>
+      <c r="G196" s="3" t="s">
+        <v>541</v>
+      </c>
+      <c r="H196" s="3" t="s">
+        <v>548</v>
       </c>
     </row>
     <row r="197" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A197" s="1" t="s">
-        <v>346</v>
+        <v>415</v>
       </c>
       <c r="B197" t="s">
-        <v>572</v>
+        <v>416</v>
       </c>
       <c r="D197">
-        <v>1387.5</v>
+        <v>1410</v>
       </c>
       <c r="E197" t="s">
         <v>10</v>
       </c>
       <c r="F197" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G197" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="H197" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
     </row>
     <row r="198" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A198" s="1" t="s">
-        <v>208</v>
+        <v>343</v>
       </c>
       <c r="B198" t="s">
-        <v>209</v>
-      </c>
-      <c r="C198" t="s">
-        <v>210</v>
+        <v>569</v>
       </c>
       <c r="D198">
-        <v>1410</v>
+        <v>1387.5</v>
       </c>
       <c r="E198" t="s">
         <v>10</v>
       </c>
       <c r="F198" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G198" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="H198" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A199" s="1" t="s">
-        <v>57</v>
+        <v>206</v>
       </c>
       <c r="B199" t="s">
-        <v>58</v>
+        <v>207</v>
       </c>
       <c r="C199" t="s">
-        <v>59</v>
+        <v>208</v>
       </c>
       <c r="D199">
-        <v>1413.5</v>
+        <v>1410</v>
       </c>
       <c r="E199" t="s">
         <v>10</v>
       </c>
       <c r="F199" t="s">
-        <v>60</v>
-      </c>
-      <c r="G199" s="3" t="s">
-        <v>544</v>
-      </c>
-      <c r="H199" s="3" t="s">
-        <v>552</v>
+        <v>14</v>
+      </c>
+      <c r="G199" t="s">
+        <v>541</v>
+      </c>
+      <c r="H199" t="s">
+        <v>548</v>
       </c>
     </row>
     <row r="200" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A200" s="1" t="s">
-        <v>193</v>
+        <v>57</v>
       </c>
       <c r="B200" t="s">
-        <v>576</v>
+        <v>58</v>
+      </c>
+      <c r="C200" t="s">
+        <v>59</v>
       </c>
       <c r="D200">
-        <v>1350</v>
+        <v>1413.5</v>
       </c>
       <c r="E200" t="s">
         <v>10</v>
       </c>
       <c r="F200" t="s">
-        <v>82</v>
-      </c>
-      <c r="G200" t="s">
-        <v>544</v>
-      </c>
-      <c r="H200" t="s">
+        <v>60</v>
+      </c>
+      <c r="G200" s="3" t="s">
+        <v>541</v>
+      </c>
+      <c r="H200" s="3" t="s">
         <v>549</v>
       </c>
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A201" s="1" t="s">
-        <v>455</v>
+        <v>191</v>
       </c>
       <c r="B201" t="s">
-        <v>456</v>
-      </c>
-      <c r="C201" t="s">
-        <v>457</v>
+        <v>572</v>
       </c>
       <c r="D201">
-        <v>1475</v>
+        <v>1350</v>
       </c>
       <c r="E201" t="s">
         <v>10</v>
       </c>
       <c r="F201" t="s">
-        <v>458</v>
+        <v>81</v>
       </c>
       <c r="G201" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="H201" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
     </row>
     <row r="202" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A202" s="1" t="s">
-        <v>221</v>
+        <v>452</v>
       </c>
       <c r="B202" t="s">
-        <v>222</v>
+        <v>453</v>
       </c>
       <c r="C202" t="s">
-        <v>37</v>
+        <v>454</v>
       </c>
       <c r="D202">
-        <v>1325</v>
+        <v>1475</v>
       </c>
       <c r="E202" t="s">
         <v>10</v>
       </c>
       <c r="F202" t="s">
-        <v>90</v>
+        <v>455</v>
       </c>
       <c r="G202" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="H202" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
     </row>
     <row r="203" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A203" s="1" t="s">
-        <v>356</v>
+        <v>219</v>
       </c>
       <c r="B203" t="s">
-        <v>357</v>
+        <v>220</v>
       </c>
       <c r="C203" t="s">
-        <v>210</v>
+        <v>37</v>
       </c>
       <c r="D203">
-        <v>1410</v>
+        <v>1325</v>
       </c>
       <c r="E203" t="s">
         <v>10</v>
       </c>
       <c r="F203" t="s">
-        <v>14</v>
+        <v>89</v>
       </c>
       <c r="G203" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="H203" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
     </row>
     <row r="204" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A204" s="1" t="s">
-        <v>519</v>
+        <v>353</v>
       </c>
       <c r="B204" t="s">
-        <v>519</v>
+        <v>354</v>
+      </c>
+      <c r="C204" t="s">
+        <v>208</v>
       </c>
       <c r="D204">
-        <v>1288</v>
+        <v>1410</v>
       </c>
       <c r="E204" t="s">
-        <v>511</v>
+        <v>10</v>
       </c>
       <c r="F204" t="s">
-        <v>514</v>
+        <v>14</v>
       </c>
       <c r="G204" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="H204" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="205" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A205" s="1" t="s">
-        <v>39</v>
+        <v>516</v>
       </c>
       <c r="B205" t="s">
-        <v>40</v>
+        <v>516</v>
       </c>
       <c r="D205">
-        <v>1450</v>
+        <v>1288</v>
       </c>
       <c r="E205" t="s">
-        <v>10</v>
+        <v>508</v>
       </c>
       <c r="F205" t="s">
-        <v>41</v>
+        <v>511</v>
       </c>
       <c r="G205" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="H205" t="s">
-        <v>549</v>
-      </c>
-      <c r="I205" t="s">
-        <v>565</v>
+        <v>546</v>
       </c>
     </row>
     <row r="206" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A206" s="1" t="s">
-        <v>539</v>
+        <v>39</v>
       </c>
       <c r="B206" t="s">
-        <v>554</v>
+        <v>40</v>
       </c>
       <c r="D206">
-        <v>1267.5</v>
+        <v>1450</v>
       </c>
       <c r="E206" t="s">
-        <v>511</v>
+        <v>10</v>
       </c>
       <c r="F206" t="s">
-        <v>540</v>
+        <v>41</v>
       </c>
       <c r="G206" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="H206" t="s">
-        <v>549</v>
+        <v>546</v>
+      </c>
+      <c r="I206" t="s">
+        <v>562</v>
       </c>
     </row>
     <row r="207" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A207" s="1" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="B207" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="D207">
-        <v>1288</v>
+        <v>1267.5</v>
       </c>
       <c r="E207" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="F207" t="s">
-        <v>514</v>
+        <v>537</v>
       </c>
       <c r="G207" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="H207" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
     </row>
     <row r="208" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A208" s="1" t="s">
-        <v>224</v>
+        <v>538</v>
       </c>
       <c r="B208" t="s">
-        <v>225</v>
+        <v>550</v>
       </c>
       <c r="D208">
-        <v>1375</v>
+        <v>1288</v>
       </c>
       <c r="E208" t="s">
-        <v>10</v>
+        <v>508</v>
       </c>
       <c r="F208" t="s">
-        <v>17</v>
+        <v>511</v>
       </c>
       <c r="G208" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="H208" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
     </row>
     <row r="209" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A209" s="1" t="s">
-        <v>373</v>
+        <v>222</v>
       </c>
       <c r="B209" t="s">
-        <v>374</v>
-      </c>
-      <c r="C209" t="s">
-        <v>375</v>
+        <v>223</v>
       </c>
       <c r="D209">
-        <v>1450</v>
+        <v>1375</v>
       </c>
       <c r="E209" t="s">
         <v>10</v>
       </c>
       <c r="F209" t="s">
-        <v>74</v>
+        <v>17</v>
       </c>
       <c r="G209" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="H209" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
     </row>
     <row r="210" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A210" s="1" t="s">
-        <v>72</v>
+        <v>370</v>
       </c>
       <c r="B210" t="s">
-        <v>73</v>
+        <v>371</v>
+      </c>
+      <c r="C210" t="s">
+        <v>372</v>
       </c>
       <c r="D210">
         <v>1450</v>
@@ -7121,87 +7112,87 @@
         <v>10</v>
       </c>
       <c r="F210" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G210" t="s">
-        <v>584</v>
+        <v>541</v>
+      </c>
+      <c r="H210" t="s">
+        <v>548</v>
       </c>
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A211" s="1" t="s">
-        <v>341</v>
+        <v>71</v>
       </c>
       <c r="B211" t="s">
-        <v>342</v>
+        <v>72</v>
       </c>
       <c r="D211">
-        <v>1425</v>
+        <v>1450</v>
       </c>
       <c r="E211" t="s">
         <v>10</v>
       </c>
       <c r="F211" t="s">
-        <v>337</v>
+        <v>73</v>
       </c>
       <c r="G211" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
     </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A212" s="1" t="s">
-        <v>20</v>
+        <v>338</v>
       </c>
       <c r="B212" t="s">
-        <v>21</v>
-      </c>
-      <c r="C212" t="s">
-        <v>22</v>
+        <v>339</v>
       </c>
       <c r="D212">
-        <v>1515</v>
+        <v>1425</v>
       </c>
       <c r="E212" t="s">
         <v>10</v>
       </c>
       <c r="F212" t="s">
-        <v>23</v>
+        <v>334</v>
       </c>
       <c r="G212" t="s">
-        <v>544</v>
-      </c>
-      <c r="H212" t="s">
-        <v>551</v>
+        <v>580</v>
       </c>
     </row>
     <row r="213" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A213" s="1" t="s">
-        <v>299</v>
+        <v>20</v>
       </c>
       <c r="B213" t="s">
-        <v>579</v>
+        <v>21</v>
+      </c>
+      <c r="C213" t="s">
+        <v>22</v>
       </c>
       <c r="D213">
-        <v>1450</v>
+        <v>1515</v>
       </c>
       <c r="E213" t="s">
         <v>10</v>
       </c>
       <c r="F213" t="s">
-        <v>74</v>
+        <v>23</v>
       </c>
       <c r="G213" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="H213" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A214" s="1" t="s">
-        <v>403</v>
+        <v>297</v>
       </c>
       <c r="B214" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="D214">
         <v>1450</v>
@@ -7210,388 +7201,385 @@
         <v>10</v>
       </c>
       <c r="F214" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G214" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="H214" t="s">
-        <v>551</v>
-      </c>
-      <c r="I214" t="s">
-        <v>565</v>
+        <v>548</v>
       </c>
     </row>
     <row r="215" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A215" s="1" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="B215" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="D215">
-        <v>1375</v>
+        <v>1450</v>
       </c>
       <c r="E215" t="s">
         <v>10</v>
       </c>
       <c r="F215" t="s">
-        <v>17</v>
+        <v>73</v>
       </c>
       <c r="G215" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="H215" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="I215" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A216" s="1" t="s">
-        <v>459</v>
+        <v>405</v>
       </c>
       <c r="B216" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="D216">
-        <v>1350</v>
+        <v>1375</v>
       </c>
       <c r="E216" t="s">
         <v>10</v>
       </c>
       <c r="F216" t="s">
-        <v>82</v>
+        <v>17</v>
       </c>
       <c r="G216" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="H216" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="I216" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
     </row>
     <row r="217" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A217" s="1" t="s">
-        <v>183</v>
+        <v>456</v>
       </c>
       <c r="B217" t="s">
-        <v>600</v>
-      </c>
-      <c r="C217" t="s">
-        <v>37</v>
+        <v>575</v>
       </c>
       <c r="D217">
-        <v>1312.5</v>
+        <v>1350</v>
       </c>
       <c r="E217" t="s">
         <v>10</v>
       </c>
       <c r="F217" t="s">
-        <v>56</v>
+        <v>81</v>
       </c>
       <c r="G217" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="H217" t="s">
-        <v>550</v>
+        <v>548</v>
+      </c>
+      <c r="I217" t="s">
+        <v>562</v>
       </c>
     </row>
     <row r="218" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A218" s="1" t="s">
-        <v>26</v>
+        <v>181</v>
       </c>
       <c r="B218" t="s">
-        <v>577</v>
+        <v>596</v>
       </c>
       <c r="C218" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="D218">
-        <v>1337.5</v>
+        <v>1312.5</v>
       </c>
       <c r="E218" t="s">
         <v>10</v>
       </c>
       <c r="F218" t="s">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="G218" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="H218" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
     </row>
     <row r="219" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A219" s="1" t="s">
-        <v>86</v>
+        <v>26</v>
       </c>
       <c r="B219" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="C219" t="s">
         <v>27</v>
       </c>
       <c r="D219">
-        <v>1400</v>
+        <v>1337.5</v>
       </c>
       <c r="E219" t="s">
         <v>10</v>
       </c>
       <c r="F219" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G219" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="H219" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
     </row>
     <row r="220" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A220" s="1" t="s">
-        <v>132</v>
+        <v>85</v>
       </c>
       <c r="B220" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="C220" t="s">
         <v>27</v>
       </c>
       <c r="D220">
-        <v>1397.5</v>
+        <v>1400</v>
       </c>
       <c r="E220" t="s">
         <v>10</v>
       </c>
       <c r="F220" t="s">
-        <v>133</v>
+        <v>31</v>
       </c>
       <c r="G220" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="H220" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
     </row>
     <row r="221" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A221" s="1" t="s">
-        <v>269</v>
+        <v>130</v>
       </c>
       <c r="B221" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="C221" t="s">
         <v>27</v>
       </c>
       <c r="D221">
-        <v>1325</v>
+        <v>1397.5</v>
       </c>
       <c r="E221" t="s">
         <v>10</v>
       </c>
       <c r="F221" t="s">
-        <v>90</v>
+        <v>131</v>
       </c>
       <c r="G221" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="H221" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
     </row>
     <row r="222" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A222" s="1" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="B222" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="C222" t="s">
         <v>27</v>
       </c>
       <c r="D222">
-        <v>1400</v>
+        <v>1325</v>
       </c>
       <c r="E222" t="s">
         <v>10</v>
       </c>
       <c r="F222" t="s">
-        <v>31</v>
+        <v>89</v>
       </c>
       <c r="G222" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="H222" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
     </row>
     <row r="223" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A223" s="1" t="s">
-        <v>304</v>
+        <v>270</v>
       </c>
       <c r="B223" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="C223" t="s">
         <v>27</v>
       </c>
       <c r="D223">
-        <v>1332.5</v>
+        <v>1400</v>
       </c>
       <c r="E223" t="s">
         <v>10</v>
       </c>
       <c r="F223" t="s">
-        <v>256</v>
+        <v>31</v>
       </c>
       <c r="G223" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="H223" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
     </row>
     <row r="224" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A224" s="1" t="s">
-        <v>338</v>
+        <v>302</v>
       </c>
       <c r="B224" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="C224" t="s">
         <v>27</v>
       </c>
       <c r="D224">
-        <v>1312.5</v>
+        <v>1332.5</v>
       </c>
       <c r="E224" t="s">
         <v>10</v>
       </c>
       <c r="F224" t="s">
-        <v>56</v>
+        <v>254</v>
       </c>
       <c r="G224" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="H224" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A225" s="1" t="s">
-        <v>395</v>
+        <v>335</v>
       </c>
       <c r="B225" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="C225" t="s">
         <v>27</v>
       </c>
       <c r="D225">
-        <v>1375</v>
+        <v>1312.5</v>
       </c>
       <c r="E225" t="s">
         <v>10</v>
       </c>
       <c r="F225" t="s">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="G225" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="H225" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A226" s="1" t="s">
-        <v>29</v>
+        <v>392</v>
       </c>
       <c r="B226" t="s">
-        <v>599</v>
+        <v>573</v>
       </c>
       <c r="C226" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D226">
-        <v>1400</v>
+        <v>1375</v>
       </c>
       <c r="E226" t="s">
         <v>10</v>
       </c>
       <c r="F226" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="G226" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="H226" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A227" s="1" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="B227" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="C227" t="s">
         <v>30</v>
       </c>
       <c r="D227">
-        <v>1312.5</v>
+        <v>1400</v>
       </c>
       <c r="E227" t="s">
         <v>10</v>
       </c>
       <c r="F227" t="s">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="G227" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="H227" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A228" s="1" t="s">
-        <v>88</v>
+        <v>55</v>
       </c>
       <c r="B228" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="C228" t="s">
         <v>30</v>
       </c>
       <c r="D228">
-        <v>1400</v>
+        <v>1312.5</v>
       </c>
       <c r="E228" t="s">
         <v>10</v>
       </c>
       <c r="F228" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="G228" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="H228" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A229" s="1" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="B229" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="C229" t="s">
         <v>30</v>
@@ -7606,18 +7594,18 @@
         <v>31</v>
       </c>
       <c r="G229" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="H229" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A230" s="1" t="s">
-        <v>123</v>
+        <v>94</v>
       </c>
       <c r="B230" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="C230" t="s">
         <v>30</v>
@@ -7632,18 +7620,18 @@
         <v>31</v>
       </c>
       <c r="G230" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="H230" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A231" s="1" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B231" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="C231" t="s">
         <v>30</v>
@@ -7658,44 +7646,44 @@
         <v>31</v>
       </c>
       <c r="G231" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="H231" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A232" s="1" t="s">
-        <v>255</v>
+        <v>124</v>
       </c>
       <c r="B232" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="C232" t="s">
         <v>30</v>
       </c>
       <c r="D232">
-        <v>1332.5</v>
+        <v>1400</v>
       </c>
       <c r="E232" t="s">
         <v>10</v>
       </c>
       <c r="F232" t="s">
-        <v>256</v>
+        <v>31</v>
       </c>
       <c r="G232" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="H232" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A233" s="1" t="s">
-        <v>275</v>
+        <v>253</v>
       </c>
       <c r="B233" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="C233" t="s">
         <v>30</v>
@@ -7707,399 +7695,402 @@
         <v>10</v>
       </c>
       <c r="F233" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="G233" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="H233" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A234" s="1" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="B234" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="C234" t="s">
         <v>30</v>
       </c>
       <c r="D234">
-        <v>1397.5</v>
+        <v>1332.5</v>
       </c>
       <c r="E234" t="s">
         <v>10</v>
       </c>
       <c r="F234" t="s">
-        <v>133</v>
+        <v>254</v>
       </c>
       <c r="G234" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="H234" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
     </row>
     <row r="235" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A235" s="1" t="s">
-        <v>333</v>
+        <v>276</v>
       </c>
       <c r="B235" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="C235" t="s">
         <v>30</v>
       </c>
       <c r="D235">
-        <v>1400</v>
+        <v>1397.5</v>
       </c>
       <c r="E235" t="s">
         <v>10</v>
       </c>
       <c r="F235" t="s">
-        <v>31</v>
+        <v>131</v>
       </c>
       <c r="G235" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="H235" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
     </row>
     <row r="236" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A236" s="1" t="s">
-        <v>425</v>
+        <v>330</v>
       </c>
       <c r="B236" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="C236" t="s">
         <v>30</v>
       </c>
       <c r="D236">
-        <v>1312.5</v>
+        <v>1400</v>
       </c>
       <c r="E236" t="s">
         <v>10</v>
       </c>
       <c r="F236" t="s">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="G236" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="H236" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A237" s="1" t="s">
-        <v>443</v>
+        <v>422</v>
       </c>
       <c r="B237" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="C237" t="s">
         <v>30</v>
       </c>
       <c r="D237">
-        <v>1350</v>
+        <v>1312.5</v>
       </c>
       <c r="E237" t="s">
         <v>10</v>
       </c>
       <c r="F237" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="G237" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="H237" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A238" s="1" t="s">
-        <v>43</v>
+        <v>440</v>
       </c>
       <c r="B238" t="s">
-        <v>578</v>
+        <v>595</v>
       </c>
       <c r="C238" t="s">
         <v>30</v>
       </c>
       <c r="D238">
-        <v>1325</v>
+        <v>1350</v>
       </c>
       <c r="E238" t="s">
         <v>10</v>
       </c>
       <c r="F238" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="G238" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="H238" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A239" s="1" t="s">
-        <v>464</v>
+        <v>43</v>
       </c>
       <c r="B239" t="s">
-        <v>465</v>
+        <v>574</v>
+      </c>
+      <c r="C239" t="s">
+        <v>30</v>
       </c>
       <c r="D239">
-        <v>1410</v>
+        <v>1325</v>
       </c>
       <c r="E239" t="s">
         <v>10</v>
       </c>
       <c r="F239" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="G239" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="H239" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
     </row>
     <row r="240" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A240" s="1" t="s">
-        <v>311</v>
+        <v>461</v>
       </c>
       <c r="B240" t="s">
-        <v>580</v>
-      </c>
-      <c r="C240" t="s">
-        <v>229</v>
+        <v>462</v>
       </c>
       <c r="D240">
-        <v>1350</v>
+        <v>1410</v>
       </c>
       <c r="E240" t="s">
         <v>10</v>
       </c>
       <c r="F240" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="G240" t="s">
-        <v>547</v>
+        <v>541</v>
+      </c>
+      <c r="H240" t="s">
+        <v>548</v>
       </c>
     </row>
     <row r="241" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A241" s="1" t="s">
-        <v>448</v>
+        <v>308</v>
       </c>
       <c r="B241" t="s">
-        <v>449</v>
+        <v>576</v>
+      </c>
+      <c r="C241" t="s">
+        <v>227</v>
       </c>
       <c r="D241">
-        <v>1508</v>
+        <v>1350</v>
       </c>
       <c r="E241" t="s">
         <v>10</v>
       </c>
       <c r="F241" t="s">
-        <v>450</v>
+        <v>34</v>
       </c>
       <c r="G241" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="242" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A242" s="1" t="s">
-        <v>12</v>
+        <v>445</v>
       </c>
       <c r="B242" t="s">
-        <v>13</v>
+        <v>446</v>
       </c>
       <c r="D242">
-        <v>1410</v>
+        <v>1508</v>
       </c>
       <c r="E242" t="s">
         <v>10</v>
       </c>
       <c r="F242" t="s">
-        <v>14</v>
+        <v>447</v>
       </c>
       <c r="G242" t="s">
         <v>544</v>
       </c>
-      <c r="H242" t="s">
-        <v>549</v>
-      </c>
     </row>
     <row r="243" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A243" s="1" t="s">
-        <v>462</v>
+        <v>12</v>
       </c>
       <c r="B243" t="s">
-        <v>463</v>
+        <v>13</v>
       </c>
       <c r="D243">
-        <v>1400</v>
+        <v>1410</v>
       </c>
       <c r="E243" t="s">
         <v>10</v>
       </c>
       <c r="F243" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="G243" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="H243" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
     </row>
     <row r="244" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A244" s="1" t="s">
-        <v>233</v>
+        <v>459</v>
       </c>
       <c r="B244" t="s">
-        <v>573</v>
-      </c>
-      <c r="C244" t="s">
-        <v>37</v>
+        <v>460</v>
       </c>
       <c r="D244">
-        <v>1325</v>
+        <v>1400</v>
       </c>
       <c r="E244" t="s">
         <v>10</v>
       </c>
       <c r="F244" t="s">
-        <v>90</v>
-      </c>
-      <c r="G244" s="3" t="s">
-        <v>544</v>
-      </c>
-      <c r="H244" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G244" t="s">
+        <v>541</v>
+      </c>
+      <c r="H244" t="s">
         <v>548</v>
       </c>
-      <c r="I244" s="3"/>
     </row>
     <row r="245" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A245" s="1" t="s">
-        <v>515</v>
+        <v>231</v>
       </c>
       <c r="B245" t="s">
-        <v>515</v>
+        <v>570</v>
+      </c>
+      <c r="C245" t="s">
+        <v>37</v>
       </c>
       <c r="D245">
-        <v>1250</v>
+        <v>1325</v>
       </c>
       <c r="E245" t="s">
-        <v>511</v>
+        <v>10</v>
       </c>
       <c r="F245" t="s">
-        <v>516</v>
-      </c>
-      <c r="G245" t="s">
-        <v>544</v>
-      </c>
-      <c r="H245" t="s">
-        <v>548</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="G245" s="3" t="s">
+        <v>541</v>
+      </c>
+      <c r="H245" s="3" t="s">
+        <v>545</v>
+      </c>
+      <c r="I245" s="3"/>
     </row>
     <row r="246" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A246" s="1" t="s">
-        <v>247</v>
+        <v>512</v>
       </c>
       <c r="B246" t="s">
-        <v>248</v>
+        <v>512</v>
       </c>
       <c r="D246">
-        <v>1410</v>
+        <v>1250</v>
       </c>
       <c r="E246" t="s">
-        <v>10</v>
+        <v>508</v>
       </c>
       <c r="F246" t="s">
-        <v>14</v>
+        <v>513</v>
       </c>
       <c r="G246" t="s">
-        <v>584</v>
+        <v>541</v>
+      </c>
+      <c r="H246" t="s">
+        <v>545</v>
       </c>
     </row>
     <row r="247" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A247" s="1" t="s">
-        <v>166</v>
+        <v>245</v>
       </c>
       <c r="B247" t="s">
-        <v>167</v>
+        <v>246</v>
       </c>
       <c r="D247">
-        <v>1551</v>
+        <v>1410</v>
       </c>
       <c r="E247" t="s">
         <v>10</v>
       </c>
       <c r="F247" t="s">
-        <v>168</v>
+        <v>14</v>
       </c>
       <c r="G247" t="s">
-        <v>547</v>
+        <v>580</v>
       </c>
     </row>
     <row r="248" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A248" s="1" t="s">
-        <v>35</v>
+        <v>164</v>
       </c>
       <c r="B248" t="s">
-        <v>36</v>
-      </c>
-      <c r="C248" t="s">
-        <v>37</v>
+        <v>165</v>
       </c>
       <c r="D248">
-        <v>1402.5</v>
+        <v>1551</v>
       </c>
       <c r="E248" t="s">
         <v>10</v>
       </c>
       <c r="F248" t="s">
-        <v>38</v>
+        <v>166</v>
       </c>
       <c r="G248" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="249" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A249" s="1" t="s">
-        <v>117</v>
+        <v>35</v>
       </c>
       <c r="B249" t="s">
-        <v>118</v>
+        <v>36</v>
+      </c>
+      <c r="C249" t="s">
+        <v>37</v>
       </c>
       <c r="D249">
-        <v>1350</v>
+        <v>1402.5</v>
       </c>
       <c r="E249" t="s">
         <v>10</v>
       </c>
       <c r="F249" t="s">
-        <v>82</v>
+        <v>38</v>
       </c>
       <c r="G249" t="s">
         <v>544</v>
       </c>
-      <c r="H249" t="s">
-        <v>588</v>
-      </c>
     </row>
     <row r="250" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A250" s="1" t="s">
-        <v>285</v>
+        <v>116</v>
       </c>
       <c r="B250" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D250">
         <v>1350</v>
@@ -8108,332 +8099,332 @@
         <v>10</v>
       </c>
       <c r="F250" t="s">
-        <v>34</v>
+        <v>81</v>
       </c>
       <c r="G250" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="H250" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
     </row>
     <row r="251" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A251" s="1" t="s">
-        <v>128</v>
+        <v>283</v>
       </c>
       <c r="B251" t="s">
-        <v>129</v>
-      </c>
-      <c r="C251" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="D251">
-        <v>1445</v>
+        <v>1350</v>
       </c>
       <c r="E251" t="s">
         <v>10</v>
       </c>
       <c r="F251" t="s">
-        <v>131</v>
+        <v>34</v>
       </c>
       <c r="G251" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="H251" t="s">
-        <v>550</v>
+        <v>584</v>
       </c>
     </row>
     <row r="252" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A252" s="1" t="s">
-        <v>215</v>
+        <v>126</v>
       </c>
       <c r="B252" t="s">
-        <v>216</v>
+        <v>127</v>
       </c>
       <c r="C252" t="s">
-        <v>37</v>
+        <v>128</v>
       </c>
       <c r="D252">
-        <v>1339</v>
+        <v>1445</v>
       </c>
       <c r="E252" t="s">
         <v>10</v>
       </c>
       <c r="F252" t="s">
-        <v>77</v>
+        <v>129</v>
       </c>
       <c r="G252" t="s">
+        <v>541</v>
+      </c>
+      <c r="H252" t="s">
         <v>547</v>
       </c>
     </row>
     <row r="253" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A253" s="1" t="s">
-        <v>426</v>
+        <v>213</v>
       </c>
       <c r="B253" t="s">
-        <v>581</v>
+        <v>214</v>
+      </c>
+      <c r="C253" t="s">
+        <v>37</v>
       </c>
       <c r="D253">
-        <v>1487.5</v>
+        <v>1339</v>
       </c>
       <c r="E253" t="s">
         <v>10</v>
       </c>
       <c r="F253" t="s">
-        <v>371</v>
+        <v>76</v>
       </c>
       <c r="G253" t="s">
         <v>544</v>
       </c>
-      <c r="H253" t="s">
-        <v>551</v>
-      </c>
     </row>
     <row r="254" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A254" s="1" t="s">
-        <v>234</v>
+        <v>423</v>
       </c>
       <c r="B254" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="D254">
-        <v>1465</v>
+        <v>1487.5</v>
       </c>
       <c r="E254" t="s">
         <v>10</v>
       </c>
       <c r="F254" t="s">
-        <v>235</v>
+        <v>368</v>
       </c>
       <c r="G254" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="H254" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
     </row>
     <row r="255" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A255" s="1" t="s">
-        <v>399</v>
+        <v>232</v>
       </c>
       <c r="B255" t="s">
-        <v>400</v>
-      </c>
-      <c r="C255" t="s">
-        <v>37</v>
+        <v>578</v>
       </c>
       <c r="D255">
-        <v>1339</v>
+        <v>1465</v>
       </c>
       <c r="E255" t="s">
         <v>10</v>
       </c>
       <c r="F255" t="s">
-        <v>77</v>
+        <v>233</v>
       </c>
       <c r="G255" t="s">
-        <v>547</v>
+        <v>541</v>
+      </c>
+      <c r="H255" t="s">
+        <v>548</v>
       </c>
     </row>
     <row r="256" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A256" s="1" t="s">
-        <v>104</v>
+        <v>396</v>
       </c>
       <c r="B256" t="s">
-        <v>105</v>
+        <v>397</v>
+      </c>
+      <c r="C256" t="s">
+        <v>37</v>
       </c>
       <c r="D256">
-        <v>1375</v>
+        <v>1339</v>
       </c>
       <c r="E256" t="s">
         <v>10</v>
       </c>
       <c r="F256" t="s">
-        <v>17</v>
+        <v>76</v>
       </c>
       <c r="G256" t="s">
         <v>544</v>
       </c>
-      <c r="H256" t="s">
-        <v>551</v>
-      </c>
     </row>
     <row r="257" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A257" s="1" t="s">
-        <v>378</v>
+        <v>103</v>
       </c>
       <c r="B257" t="s">
-        <v>379</v>
+        <v>104</v>
       </c>
       <c r="D257">
-        <v>1339</v>
+        <v>1375</v>
       </c>
       <c r="E257" t="s">
         <v>10</v>
       </c>
       <c r="F257" t="s">
-        <v>77</v>
+        <v>17</v>
       </c>
       <c r="G257" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="H257" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
     </row>
     <row r="258" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A258" s="1" t="s">
-        <v>498</v>
+        <v>375</v>
       </c>
       <c r="B258" t="s">
-        <v>499</v>
-      </c>
-      <c r="C258" t="s">
-        <v>500</v>
+        <v>376</v>
       </c>
       <c r="D258">
-        <v>1402.5</v>
+        <v>1339</v>
       </c>
       <c r="E258" t="s">
         <v>10</v>
       </c>
       <c r="F258" t="s">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="G258" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="H258" t="s">
-        <v>583</v>
+        <v>548</v>
       </c>
     </row>
     <row r="259" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A259" s="1" t="s">
-        <v>529</v>
+        <v>495</v>
       </c>
       <c r="B259" t="s">
-        <v>564</v>
+        <v>496</v>
+      </c>
+      <c r="C259" t="s">
+        <v>497</v>
       </c>
       <c r="D259">
-        <v>1288</v>
+        <v>1402.5</v>
       </c>
       <c r="E259" t="s">
-        <v>511</v>
+        <v>10</v>
       </c>
       <c r="F259" t="s">
-        <v>514</v>
+        <v>38</v>
       </c>
       <c r="G259" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="H259" t="s">
-        <v>583</v>
-      </c>
-      <c r="I259" t="s">
-        <v>565</v>
+        <v>579</v>
       </c>
     </row>
     <row r="260" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A260" s="1" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="B260" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="D260">
-        <v>1270</v>
+        <v>1288</v>
       </c>
       <c r="E260" t="s">
+        <v>508</v>
+      </c>
+      <c r="F260" t="s">
         <v>511</v>
       </c>
-      <c r="F260" t="s">
-        <v>512</v>
-      </c>
       <c r="G260" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="H260" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="I260" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
     </row>
     <row r="261" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A261" s="1" t="s">
-        <v>75</v>
+        <v>520</v>
       </c>
       <c r="B261" t="s">
-        <v>76</v>
+        <v>561</v>
       </c>
       <c r="D261">
-        <v>1339</v>
+        <v>1270</v>
       </c>
       <c r="E261" t="s">
-        <v>10</v>
+        <v>508</v>
       </c>
       <c r="F261" t="s">
-        <v>77</v>
+        <v>509</v>
       </c>
       <c r="G261" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="H261" t="s">
-        <v>551</v>
+        <v>579</v>
+      </c>
+      <c r="I261" t="s">
+        <v>562</v>
       </c>
     </row>
     <row r="262" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A262" s="1" t="s">
-        <v>362</v>
+        <v>74</v>
       </c>
       <c r="B262" t="s">
-        <v>363</v>
+        <v>75</v>
       </c>
       <c r="D262">
-        <v>1375</v>
+        <v>1339</v>
       </c>
       <c r="E262" t="s">
         <v>10</v>
       </c>
       <c r="F262" t="s">
-        <v>17</v>
+        <v>76</v>
       </c>
       <c r="G262" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="H262" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
     </row>
     <row r="263" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A263" s="1" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="B263" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="D263">
-        <v>1400</v>
+        <v>1375</v>
       </c>
       <c r="E263" t="s">
         <v>10</v>
       </c>
       <c r="F263" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="G263" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="H263" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
     </row>
     <row r="264" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A264" s="1" t="s">
-        <v>45</v>
+        <v>363</v>
       </c>
       <c r="B264" t="s">
-        <v>46</v>
+        <v>364</v>
       </c>
       <c r="D264">
         <v>1400</v>
@@ -8445,73 +8436,73 @@
         <v>31</v>
       </c>
       <c r="G264" t="s">
-        <v>584</v>
+        <v>541</v>
+      </c>
+      <c r="H264" t="s">
+        <v>548</v>
       </c>
     </row>
     <row r="265" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A265" s="1" t="s">
-        <v>335</v>
+        <v>45</v>
       </c>
       <c r="B265" t="s">
-        <v>336</v>
+        <v>46</v>
       </c>
       <c r="D265">
-        <v>1425</v>
+        <v>1400</v>
       </c>
       <c r="E265" t="s">
         <v>10</v>
       </c>
       <c r="F265" t="s">
-        <v>337</v>
+        <v>31</v>
       </c>
       <c r="G265" t="s">
-        <v>547</v>
+        <v>580</v>
       </c>
     </row>
     <row r="266" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A266" s="1" t="s">
-        <v>151</v>
+        <v>332</v>
       </c>
       <c r="B266" t="s">
-        <v>152</v>
-      </c>
-      <c r="C266" t="s">
-        <v>94</v>
+        <v>333</v>
       </c>
       <c r="D266">
-        <v>1400</v>
+        <v>1425</v>
       </c>
       <c r="E266" t="s">
         <v>10</v>
       </c>
       <c r="F266" t="s">
-        <v>31</v>
+        <v>334</v>
       </c>
       <c r="G266" t="s">
         <v>544</v>
       </c>
-      <c r="H266" t="s">
-        <v>552</v>
-      </c>
     </row>
     <row r="267" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A267" s="1" t="s">
-        <v>312</v>
+        <v>149</v>
       </c>
       <c r="B267" t="s">
-        <v>313</v>
+        <v>150</v>
+      </c>
+      <c r="C267" t="s">
+        <v>93</v>
       </c>
       <c r="D267">
-        <v>1402.5</v>
+        <v>1400</v>
       </c>
       <c r="E267" t="s">
         <v>10</v>
       </c>
       <c r="F267" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G267" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="H267" t="s">
         <v>549</v>
@@ -8519,125 +8510,125 @@
     </row>
     <row r="268" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A268" s="1" t="s">
-        <v>63</v>
+        <v>309</v>
       </c>
       <c r="B268" t="s">
-        <v>64</v>
+        <v>310</v>
       </c>
       <c r="D268">
-        <v>1410</v>
+        <v>1402.5</v>
       </c>
       <c r="E268" t="s">
         <v>10</v>
       </c>
       <c r="F268" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="G268" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="H268" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
     </row>
     <row r="269" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A269" s="1" t="s">
-        <v>203</v>
+        <v>63</v>
       </c>
       <c r="B269" t="s">
-        <v>204</v>
+        <v>64</v>
       </c>
       <c r="D269">
-        <v>1350</v>
+        <v>1410</v>
       </c>
       <c r="E269" t="s">
         <v>10</v>
       </c>
       <c r="F269" t="s">
-        <v>82</v>
+        <v>14</v>
       </c>
       <c r="G269" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="H269" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
     </row>
     <row r="270" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A270" s="1" t="s">
-        <v>316</v>
+        <v>201</v>
       </c>
       <c r="B270" t="s">
-        <v>317</v>
+        <v>202</v>
       </c>
       <c r="D270">
-        <v>1580</v>
+        <v>1350</v>
       </c>
       <c r="E270" t="s">
         <v>10</v>
       </c>
       <c r="F270" t="s">
-        <v>318</v>
+        <v>81</v>
       </c>
       <c r="G270" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="H270" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="271" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A271" s="1" t="s">
-        <v>409</v>
+        <v>313</v>
       </c>
       <c r="B271" t="s">
-        <v>410</v>
+        <v>314</v>
       </c>
       <c r="D271">
-        <v>1438</v>
+        <v>1580</v>
       </c>
       <c r="E271" t="s">
         <v>10</v>
       </c>
       <c r="F271" t="s">
-        <v>411</v>
+        <v>315</v>
       </c>
       <c r="G271" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="H271" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
     </row>
     <row r="272" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A272" s="1" t="s">
-        <v>186</v>
+        <v>406</v>
       </c>
       <c r="B272" t="s">
-        <v>187</v>
+        <v>407</v>
       </c>
       <c r="D272">
-        <v>1410</v>
+        <v>1438</v>
       </c>
       <c r="E272" t="s">
         <v>10</v>
       </c>
       <c r="F272" t="s">
-        <v>14</v>
+        <v>408</v>
       </c>
       <c r="G272" t="s">
-        <v>584</v>
+        <v>541</v>
+      </c>
+      <c r="H272" t="s">
+        <v>546</v>
       </c>
     </row>
     <row r="273" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A273" s="1" t="s">
-        <v>427</v>
+        <v>184</v>
       </c>
       <c r="B273" t="s">
-        <v>428</v>
-      </c>
-      <c r="C273" t="s">
-        <v>210</v>
+        <v>185</v>
       </c>
       <c r="D273">
         <v>1410</v>
@@ -8649,99 +8640,96 @@
         <v>14</v>
       </c>
       <c r="G273" t="s">
-        <v>544</v>
-      </c>
-      <c r="H273" t="s">
-        <v>551</v>
+        <v>580</v>
       </c>
     </row>
     <row r="274" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A274" s="1" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="B274" t="s">
-        <v>422</v>
+        <v>425</v>
+      </c>
+      <c r="C274" t="s">
+        <v>208</v>
       </c>
       <c r="D274">
-        <v>1395</v>
+        <v>1410</v>
       </c>
       <c r="E274" t="s">
         <v>10</v>
       </c>
       <c r="F274" t="s">
-        <v>423</v>
+        <v>14</v>
       </c>
       <c r="G274" t="s">
-        <v>547</v>
+        <v>541</v>
+      </c>
+      <c r="H274" t="s">
+        <v>548</v>
       </c>
     </row>
     <row r="275" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A275" s="1" t="s">
-        <v>601</v>
+        <v>418</v>
       </c>
       <c r="B275" t="s">
-        <v>543</v>
+        <v>419</v>
       </c>
       <c r="D275">
-        <v>1350</v>
+        <v>1395</v>
       </c>
       <c r="E275" t="s">
         <v>10</v>
       </c>
       <c r="F275" t="s">
-        <v>34</v>
+        <v>420</v>
       </c>
       <c r="G275" t="s">
         <v>544</v>
       </c>
-      <c r="H275" t="s">
-        <v>545</v>
-      </c>
     </row>
     <row r="276" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A276" s="1" t="s">
-        <v>302</v>
+        <v>597</v>
       </c>
       <c r="B276" t="s">
-        <v>303</v>
+        <v>540</v>
       </c>
       <c r="D276">
-        <v>1300</v>
+        <v>1350</v>
       </c>
       <c r="E276" t="s">
         <v>10</v>
       </c>
       <c r="F276" t="s">
-        <v>245</v>
+        <v>34</v>
       </c>
       <c r="G276" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="H276" t="s">
-        <v>574</v>
+        <v>542</v>
       </c>
     </row>
     <row r="277" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A277" s="1" t="s">
-        <v>440</v>
+        <v>300</v>
       </c>
       <c r="B277" t="s">
-        <v>575</v>
-      </c>
-      <c r="C277" t="s">
-        <v>441</v>
+        <v>301</v>
       </c>
       <c r="D277">
-        <v>1350</v>
+        <v>1300</v>
       </c>
       <c r="E277" t="s">
         <v>10</v>
       </c>
       <c r="F277" t="s">
-        <v>442</v>
+        <v>243</v>
       </c>
       <c r="G277" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="H277" t="s">
         <v>548</v>
@@ -8749,203 +8737,226 @@
     </row>
     <row r="278" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A278" s="1" t="s">
-        <v>184</v>
+        <v>437</v>
       </c>
       <c r="B278" t="s">
-        <v>185</v>
+        <v>571</v>
+      </c>
+      <c r="C278" t="s">
+        <v>438</v>
       </c>
       <c r="D278">
-        <v>1325</v>
+        <v>1350</v>
       </c>
       <c r="E278" t="s">
         <v>10</v>
       </c>
       <c r="F278" t="s">
-        <v>90</v>
+        <v>439</v>
       </c>
       <c r="G278" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="H278" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
     </row>
     <row r="279" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A279" s="1" t="s">
-        <v>161</v>
+        <v>182</v>
       </c>
       <c r="B279" t="s">
-        <v>162</v>
-      </c>
-      <c r="C279" t="s">
-        <v>163</v>
+        <v>183</v>
       </c>
       <c r="D279">
-        <v>1402.5</v>
+        <v>1325</v>
       </c>
       <c r="E279" t="s">
         <v>10</v>
       </c>
       <c r="F279" t="s">
-        <v>38</v>
+        <v>89</v>
       </c>
       <c r="G279" t="s">
-        <v>547</v>
+        <v>541</v>
+      </c>
+      <c r="H279" t="s">
+        <v>545</v>
       </c>
     </row>
     <row r="280" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A280" s="1" t="s">
-        <v>120</v>
+        <v>159</v>
       </c>
       <c r="B280" t="s">
-        <v>121</v>
+        <v>160</v>
       </c>
       <c r="C280" t="s">
-        <v>122</v>
+        <v>161</v>
       </c>
       <c r="D280">
-        <v>1325</v>
+        <v>1402.5</v>
       </c>
       <c r="E280" t="s">
         <v>10</v>
       </c>
       <c r="F280" t="s">
-        <v>90</v>
+        <v>38</v>
       </c>
       <c r="G280" t="s">
         <v>544</v>
       </c>
-      <c r="H280" t="s">
-        <v>545</v>
-      </c>
     </row>
     <row r="281" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A281" s="1" t="s">
-        <v>532</v>
+        <v>119</v>
       </c>
       <c r="B281" t="s">
-        <v>532</v>
+        <v>120</v>
       </c>
       <c r="D281">
-        <v>1295.5</v>
+        <v>1325</v>
       </c>
       <c r="E281" t="s">
-        <v>511</v>
+        <v>10</v>
       </c>
       <c r="F281" t="s">
-        <v>521</v>
+        <v>89</v>
       </c>
       <c r="G281" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="H281" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
     </row>
     <row r="282" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A282" s="1" t="s">
-        <v>451</v>
+        <v>529</v>
       </c>
       <c r="B282" t="s">
-        <v>452</v>
+        <v>529</v>
       </c>
       <c r="D282">
-        <v>1350</v>
+        <v>1295.5</v>
       </c>
       <c r="E282" t="s">
-        <v>10</v>
+        <v>508</v>
       </c>
       <c r="F282" t="s">
-        <v>34</v>
+        <v>518</v>
       </c>
       <c r="G282" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="H282" t="s">
-        <v>548</v>
-      </c>
-      <c r="I282" t="s">
-        <v>565</v>
+        <v>542</v>
       </c>
     </row>
     <row r="283" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A283" s="1" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="B283" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="D283">
-        <v>1270</v>
+        <v>1350</v>
       </c>
       <c r="E283" t="s">
-        <v>511</v>
+        <v>10</v>
       </c>
       <c r="F283" t="s">
-        <v>512</v>
+        <v>34</v>
       </c>
       <c r="G283" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="H283" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="I283" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
     </row>
     <row r="284" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A284" s="1" t="s">
-        <v>290</v>
+        <v>449</v>
       </c>
       <c r="B284" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="D284">
-        <v>1325</v>
+        <v>1270</v>
       </c>
       <c r="E284" t="s">
-        <v>10</v>
+        <v>508</v>
       </c>
       <c r="F284" t="s">
-        <v>90</v>
+        <v>509</v>
       </c>
       <c r="G284" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="H284" t="s">
-        <v>548</v>
+        <v>545</v>
+      </c>
+      <c r="I284" t="s">
+        <v>562</v>
       </c>
     </row>
     <row r="285" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A285" s="1" t="s">
-        <v>596</v>
+        <v>288</v>
       </c>
       <c r="B285" t="s">
-        <v>103</v>
-      </c>
-      <c r="C285" t="s">
+        <v>449</v>
+      </c>
+      <c r="D285">
+        <v>1325</v>
+      </c>
+      <c r="E285" t="s">
+        <v>10</v>
+      </c>
+      <c r="F285" t="s">
+        <v>89</v>
+      </c>
+      <c r="G285" t="s">
+        <v>541</v>
+      </c>
+      <c r="H285" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="286" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A286" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="B286" t="s">
+        <v>102</v>
+      </c>
+      <c r="C286" t="s">
         <v>30</v>
       </c>
-      <c r="D285">
+      <c r="D286">
         <v>1425</v>
       </c>
-      <c r="E285" t="s">
-        <v>10</v>
-      </c>
-      <c r="F285" t="s">
-        <v>401</v>
-      </c>
-      <c r="G285" t="s">
-        <v>544</v>
-      </c>
-      <c r="H285" t="s">
-        <v>548</v>
+      <c r="E286" t="s">
+        <v>10</v>
+      </c>
+      <c r="F286" t="s">
+        <v>398</v>
+      </c>
+      <c r="G286" t="s">
+        <v>541</v>
+      </c>
+      <c r="H286" t="s">
+        <v>545</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J284">
-    <sortCondition ref="B223:B284"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J285">
+    <sortCondition ref="B224:B285"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/metadata_corrected.xlsx
+++ b/data/metadata_corrected.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mikekestemont/GitRepos/mdu/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27EEB13C-AB27-0244-9333-4FE6182DB7E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C44750D2-6308-BC43-ACEC-037E00293271}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1763" uniqueCount="601">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1770" uniqueCount="603">
   <si>
     <t>id</t>
   </si>
@@ -1346,9 +1346,6 @@
     <t>1380-1400</t>
   </si>
   <si>
-    <t>roman_van_walewein</t>
-  </si>
-  <si>
     <t>Penninc en Pieter Vostaert</t>
   </si>
   <si>
@@ -1748,9 +1745,6 @@
     <t>Torec</t>
   </si>
   <si>
-    <t>Walewein</t>
-  </si>
-  <si>
     <t>Sint Patricius</t>
   </si>
   <si>
@@ -1836,6 +1830,18 @@
   </si>
   <si>
     <t>Roman der Lorreinen I</t>
+  </si>
+  <si>
+    <t>roman_van_walewein_penninc</t>
+  </si>
+  <si>
+    <t>roman_van_walewein_vostaert</t>
+  </si>
+  <si>
+    <t>Walewein (Penninc)</t>
+  </si>
+  <si>
+    <t>Walewein (Vostaert)</t>
   </si>
 </sst>
 </file>
@@ -2221,10 +2227,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I286"/>
+  <dimension ref="A1:I287"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A160" workbookViewId="0">
-      <selection activeCell="B188" sqref="B188"/>
+    <sheetView tabSelected="1" topLeftCell="A252" workbookViewId="0">
+      <selection activeCell="A279" sqref="A279"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2263,7 +2269,7 @@
         <v>7</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -2283,7 +2289,7 @@
         <v>14</v>
       </c>
       <c r="G2" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -2306,33 +2312,33 @@
         <v>31</v>
       </c>
       <c r="G3" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H3" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B4" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="D4">
         <v>1295.5</v>
       </c>
       <c r="E4" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F4" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="G4" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -2352,18 +2358,18 @@
         <v>17</v>
       </c>
       <c r="G5" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H5" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="B6" t="s">
         <v>474</v>
-      </c>
-      <c r="B6" t="s">
-        <v>475</v>
       </c>
       <c r="D6">
         <v>1544</v>
@@ -2372,10 +2378,10 @@
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="G6" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -2395,10 +2401,10 @@
         <v>89</v>
       </c>
       <c r="G7" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H7" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -2418,10 +2424,10 @@
         <v>34</v>
       </c>
       <c r="G8" t="s">
+        <v>540</v>
+      </c>
+      <c r="H8" t="s">
         <v>541</v>
-      </c>
-      <c r="H8" t="s">
-        <v>542</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -2441,7 +2447,7 @@
         <v>323</v>
       </c>
       <c r="G9" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -2461,10 +2467,10 @@
         <v>11</v>
       </c>
       <c r="G10" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H10" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -2484,10 +2490,10 @@
         <v>89</v>
       </c>
       <c r="G11" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H11" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -2507,10 +2513,10 @@
         <v>67</v>
       </c>
       <c r="G12" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H12" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -2530,10 +2536,10 @@
         <v>34</v>
       </c>
       <c r="G13" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H13" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -2553,18 +2559,18 @@
         <v>155</v>
       </c>
       <c r="G14" t="s">
+        <v>540</v>
+      </c>
+      <c r="H14" t="s">
         <v>541</v>
-      </c>
-      <c r="H14" t="s">
-        <v>542</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="B15" t="s">
         <v>469</v>
-      </c>
-      <c r="B15" t="s">
-        <v>470</v>
       </c>
       <c r="D15">
         <v>1650</v>
@@ -2573,13 +2579,13 @@
         <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="G15" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H15" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
@@ -2599,7 +2605,7 @@
         <v>211</v>
       </c>
       <c r="G16" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
@@ -2619,10 +2625,10 @@
         <v>412</v>
       </c>
       <c r="G17" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H17" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
@@ -2630,7 +2636,7 @@
         <v>125</v>
       </c>
       <c r="B18" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="D18">
         <v>1339</v>
@@ -2642,18 +2648,18 @@
         <v>76</v>
       </c>
       <c r="G18" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H18" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="B19" t="s">
         <v>500</v>
-      </c>
-      <c r="B19" t="s">
-        <v>501</v>
       </c>
       <c r="C19" t="s">
         <v>128</v>
@@ -2668,33 +2674,33 @@
         <v>31</v>
       </c>
       <c r="G19" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H19" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B20" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D20">
         <v>1265</v>
       </c>
       <c r="E20" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F20" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="G20" t="s">
+        <v>540</v>
+      </c>
+      <c r="H20" t="s">
         <v>541</v>
-      </c>
-      <c r="H20" t="s">
-        <v>542</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
@@ -2714,10 +2720,10 @@
         <v>11</v>
       </c>
       <c r="G21" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H21" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
@@ -2737,10 +2743,10 @@
         <v>11</v>
       </c>
       <c r="G22" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H22" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
@@ -2760,10 +2766,10 @@
         <v>56</v>
       </c>
       <c r="G23" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H23" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
@@ -2783,10 +2789,10 @@
         <v>56</v>
       </c>
       <c r="G24" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H24" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
@@ -2806,10 +2812,10 @@
         <v>14</v>
       </c>
       <c r="G25" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H25" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
@@ -2829,10 +2835,10 @@
         <v>190</v>
       </c>
       <c r="G26" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H26" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
@@ -2852,10 +2858,10 @@
         <v>81</v>
       </c>
       <c r="G27" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H27" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
@@ -2875,10 +2881,10 @@
         <v>34</v>
       </c>
       <c r="G28" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H28" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
@@ -2886,7 +2892,7 @@
         <v>303</v>
       </c>
       <c r="B29" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="C29" t="s">
         <v>128</v>
@@ -2901,10 +2907,10 @@
         <v>282</v>
       </c>
       <c r="G29" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H29" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
@@ -2912,7 +2918,7 @@
         <v>305</v>
       </c>
       <c r="B30" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="D30">
         <v>1432</v>
@@ -2924,10 +2930,10 @@
         <v>306</v>
       </c>
       <c r="G30" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H30" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
@@ -2935,7 +2941,7 @@
         <v>281</v>
       </c>
       <c r="B31" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="D31">
         <v>1470</v>
@@ -2947,33 +2953,33 @@
         <v>282</v>
       </c>
       <c r="G31" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H31" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B32" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="D32">
         <v>1270</v>
       </c>
       <c r="E32" t="s">
+        <v>507</v>
+      </c>
+      <c r="F32" t="s">
         <v>508</v>
       </c>
-      <c r="F32" t="s">
-        <v>509</v>
-      </c>
       <c r="G32" t="s">
+        <v>540</v>
+      </c>
+      <c r="H32" t="s">
         <v>541</v>
-      </c>
-      <c r="H32" t="s">
-        <v>542</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
@@ -2993,7 +2999,7 @@
         <v>14</v>
       </c>
       <c r="G33" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
@@ -3013,18 +3019,18 @@
         <v>56</v>
       </c>
       <c r="G34" t="s">
+        <v>540</v>
+      </c>
+      <c r="H34" t="s">
         <v>541</v>
-      </c>
-      <c r="H34" t="s">
-        <v>542</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="B35" t="s">
         <v>477</v>
-      </c>
-      <c r="B35" t="s">
-        <v>478</v>
       </c>
       <c r="C35" t="s">
         <v>37</v>
@@ -3039,7 +3045,7 @@
         <v>76</v>
       </c>
       <c r="G35" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
@@ -3047,7 +3053,7 @@
         <v>224</v>
       </c>
       <c r="B36" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="D36">
         <v>1310</v>
@@ -3059,10 +3065,10 @@
         <v>225</v>
       </c>
       <c r="G36" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H36" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
@@ -3070,7 +3076,7 @@
         <v>140</v>
       </c>
       <c r="B37" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="D37">
         <v>1450</v>
@@ -3082,10 +3088,10 @@
         <v>73</v>
       </c>
       <c r="G37" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H37" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
@@ -3093,7 +3099,7 @@
         <v>384</v>
       </c>
       <c r="B38" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="D38">
         <v>1387.5</v>
@@ -3105,10 +3111,10 @@
         <v>11</v>
       </c>
       <c r="G38" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H38" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
@@ -3116,7 +3122,7 @@
         <v>379</v>
       </c>
       <c r="B39" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="D39">
         <v>1435</v>
@@ -3128,10 +3134,10 @@
         <v>380</v>
       </c>
       <c r="G39" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H39" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
@@ -3151,18 +3157,18 @@
         <v>73</v>
       </c>
       <c r="G40" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H40" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="B41" t="s">
         <v>486</v>
-      </c>
-      <c r="B41" t="s">
-        <v>487</v>
       </c>
       <c r="C41" t="s">
         <v>37</v>
@@ -3177,7 +3183,7 @@
         <v>420</v>
       </c>
       <c r="G41" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
@@ -3200,18 +3206,18 @@
         <v>34</v>
       </c>
       <c r="G42" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H42" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="B43" t="s">
         <v>483</v>
-      </c>
-      <c r="B43" t="s">
-        <v>484</v>
       </c>
       <c r="D43">
         <v>1351</v>
@@ -3220,24 +3226,24 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="G43" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H43" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="B44" t="s">
         <v>465</v>
       </c>
-      <c r="B44" t="s">
+      <c r="C44" t="s">
         <v>466</v>
-      </c>
-      <c r="C44" t="s">
-        <v>467</v>
       </c>
       <c r="D44">
         <v>1480</v>
@@ -3249,59 +3255,59 @@
         <v>51</v>
       </c>
       <c r="G44" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H44" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B45" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="D45">
         <v>1287</v>
       </c>
       <c r="E45" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F45" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="G45" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H45" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B46" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="D46">
         <v>1288</v>
       </c>
       <c r="E46" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F46" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="G46" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H46" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="I46" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
@@ -3321,10 +3327,10 @@
         <v>250</v>
       </c>
       <c r="G47" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H47" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
@@ -3344,10 +3350,10 @@
         <v>34</v>
       </c>
       <c r="G48" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H48" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
@@ -3370,7 +3376,7 @@
         <v>38</v>
       </c>
       <c r="G49" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
@@ -3390,7 +3396,7 @@
         <v>266</v>
       </c>
       <c r="G50" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
@@ -3410,10 +3416,10 @@
         <v>67</v>
       </c>
       <c r="G51" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H51" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
@@ -3433,10 +3439,10 @@
         <v>14</v>
       </c>
       <c r="G52" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H52" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
@@ -3459,15 +3465,15 @@
         <v>38</v>
       </c>
       <c r="G53" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="B54" t="s">
         <v>441</v>
-      </c>
-      <c r="B54" t="s">
-        <v>442</v>
       </c>
       <c r="D54">
         <v>1410</v>
@@ -3479,15 +3485,15 @@
         <v>14</v>
       </c>
       <c r="G54" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B55" t="s">
         <v>504</v>
-      </c>
-      <c r="B55" t="s">
-        <v>505</v>
       </c>
       <c r="D55">
         <v>1481</v>
@@ -3496,13 +3502,13 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="G55" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H55" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
@@ -3525,30 +3531,30 @@
         <v>38</v>
       </c>
       <c r="G56" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B57" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="D57">
         <v>1290</v>
       </c>
       <c r="E57" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F57" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="G57" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H57" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
@@ -3568,7 +3574,7 @@
         <v>14</v>
       </c>
       <c r="G58" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
@@ -3579,7 +3585,7 @@
         <v>48</v>
       </c>
       <c r="C59" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="D59">
         <v>1350</v>
@@ -3591,10 +3597,10 @@
         <v>34</v>
       </c>
       <c r="G59" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H59" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
@@ -3614,10 +3620,10 @@
         <v>14</v>
       </c>
       <c r="G60" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H60" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
@@ -3637,10 +3643,10 @@
         <v>34</v>
       </c>
       <c r="G61" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H61" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
@@ -3660,10 +3666,10 @@
         <v>34</v>
       </c>
       <c r="G62" t="s">
+        <v>540</v>
+      </c>
+      <c r="H62" t="s">
         <v>541</v>
-      </c>
-      <c r="H62" t="s">
-        <v>542</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
@@ -3683,10 +3689,10 @@
         <v>17</v>
       </c>
       <c r="G63" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H63" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
@@ -3706,10 +3712,10 @@
         <v>190</v>
       </c>
       <c r="G64" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H64" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
@@ -3729,10 +3735,10 @@
         <v>11</v>
       </c>
       <c r="G65" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H65" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
@@ -3752,10 +3758,10 @@
         <v>11</v>
       </c>
       <c r="G66" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H66" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
@@ -3763,7 +3769,7 @@
         <v>344</v>
       </c>
       <c r="B67" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="D67">
         <v>1350</v>
@@ -3775,10 +3781,10 @@
         <v>34</v>
       </c>
       <c r="G67" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H67" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.2">
@@ -3801,18 +3807,18 @@
         <v>34</v>
       </c>
       <c r="G68" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H68" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="B69" t="s">
         <v>463</v>
-      </c>
-      <c r="B69" t="s">
-        <v>464</v>
       </c>
       <c r="D69">
         <v>1450</v>
@@ -3824,41 +3830,41 @@
         <v>73</v>
       </c>
       <c r="G69" t="s">
+        <v>540</v>
+      </c>
+      <c r="H69" t="s">
         <v>541</v>
-      </c>
-      <c r="H69" t="s">
-        <v>542</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B70" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D70">
         <v>1213</v>
       </c>
       <c r="E70" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F70" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="G70" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H70" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="B71" t="s">
         <v>450</v>
-      </c>
-      <c r="B71" t="s">
-        <v>451</v>
       </c>
       <c r="D71">
         <v>1325</v>
@@ -3870,7 +3876,7 @@
         <v>89</v>
       </c>
       <c r="G71" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.2">
@@ -3878,7 +3884,7 @@
         <v>336</v>
       </c>
       <c r="B72" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="D72">
         <v>1405</v>
@@ -3890,10 +3896,10 @@
         <v>250</v>
       </c>
       <c r="G72" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H72" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.2">
@@ -3913,10 +3919,10 @@
         <v>34</v>
       </c>
       <c r="G73" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H73" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
@@ -3939,15 +3945,15 @@
         <v>51</v>
       </c>
       <c r="G74" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="B75" t="s">
         <v>491</v>
-      </c>
-      <c r="B75" t="s">
-        <v>492</v>
       </c>
       <c r="D75">
         <v>1325</v>
@@ -3959,10 +3965,10 @@
         <v>89</v>
       </c>
       <c r="G75" t="s">
+        <v>540</v>
+      </c>
+      <c r="H75" t="s">
         <v>541</v>
-      </c>
-      <c r="H75" t="s">
-        <v>542</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
@@ -3982,7 +3988,7 @@
         <v>14</v>
       </c>
       <c r="G76" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
@@ -4002,18 +4008,18 @@
         <v>34</v>
       </c>
       <c r="G77" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H77" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="B78" t="s">
         <v>457</v>
-      </c>
-      <c r="B78" t="s">
-        <v>458</v>
       </c>
       <c r="D78">
         <v>1325</v>
@@ -4025,10 +4031,10 @@
         <v>89</v>
       </c>
       <c r="G78" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H78" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.2">
@@ -4048,10 +4054,10 @@
         <v>89</v>
       </c>
       <c r="G79" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H79" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.2">
@@ -4059,7 +4065,7 @@
         <v>429</v>
       </c>
       <c r="B80" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="D80">
         <v>1375</v>
@@ -4071,7 +4077,7 @@
         <v>17</v>
       </c>
       <c r="G80" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
@@ -4079,7 +4085,7 @@
         <v>238</v>
       </c>
       <c r="B81" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D81">
         <v>1375</v>
@@ -4091,15 +4097,15 @@
         <v>17</v>
       </c>
       <c r="G81" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B82" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D82">
         <v>1375</v>
@@ -4111,7 +4117,7 @@
         <v>17</v>
       </c>
       <c r="G82" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.2">
@@ -4131,10 +4137,10 @@
         <v>34</v>
       </c>
       <c r="G83" t="s">
+        <v>540</v>
+      </c>
+      <c r="H83" t="s">
         <v>541</v>
-      </c>
-      <c r="H83" t="s">
-        <v>542</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.2">
@@ -4154,7 +4160,7 @@
         <v>31</v>
       </c>
       <c r="G84" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
@@ -4174,7 +4180,7 @@
         <v>14</v>
       </c>
       <c r="G85" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.2">
@@ -4197,18 +4203,18 @@
         <v>67</v>
       </c>
       <c r="G86" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H86" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="B87" t="s">
         <v>591</v>
-      </c>
-      <c r="B87" t="s">
-        <v>593</v>
       </c>
       <c r="C87" t="s">
         <v>37</v>
@@ -4223,10 +4229,10 @@
         <v>398</v>
       </c>
       <c r="G87" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H87" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.2">
@@ -4246,10 +4252,10 @@
         <v>112</v>
       </c>
       <c r="G88" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H88" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.2">
@@ -4272,10 +4278,10 @@
         <v>115</v>
       </c>
       <c r="G89" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H89" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.2">
@@ -4295,10 +4301,10 @@
         <v>17</v>
       </c>
       <c r="G90" t="s">
+        <v>540</v>
+      </c>
+      <c r="H90" t="s">
         <v>541</v>
-      </c>
-      <c r="H90" t="s">
-        <v>542</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.2">
@@ -4318,10 +4324,10 @@
         <v>89</v>
       </c>
       <c r="G91" t="s">
+        <v>540</v>
+      </c>
+      <c r="H91" t="s">
         <v>541</v>
-      </c>
-      <c r="H91" t="s">
-        <v>542</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.2">
@@ -4329,7 +4335,7 @@
         <v>325</v>
       </c>
       <c r="B92" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="D92">
         <v>1350</v>
@@ -4341,10 +4347,10 @@
         <v>34</v>
       </c>
       <c r="G92" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H92" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.2">
@@ -4364,15 +4370,15 @@
         <v>166</v>
       </c>
       <c r="G93" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="B94" t="s">
         <v>488</v>
-      </c>
-      <c r="B94" t="s">
-        <v>489</v>
       </c>
       <c r="D94">
         <v>1550</v>
@@ -4381,21 +4387,21 @@
         <v>10</v>
       </c>
       <c r="F94" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="G94" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H94" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="B95" t="s">
         <v>472</v>
-      </c>
-      <c r="B95" t="s">
-        <v>473</v>
       </c>
       <c r="C95" t="s">
         <v>128</v>
@@ -4410,10 +4416,10 @@
         <v>31</v>
       </c>
       <c r="G95" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H95" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.2">
@@ -4433,10 +4439,10 @@
         <v>312</v>
       </c>
       <c r="G96" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H96" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.2">
@@ -4456,10 +4462,10 @@
         <v>278</v>
       </c>
       <c r="G97" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H97" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.2">
@@ -4479,10 +4485,10 @@
         <v>112</v>
       </c>
       <c r="G98" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H98" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.2">
@@ -4502,10 +4508,10 @@
         <v>395</v>
       </c>
       <c r="G99" t="s">
+        <v>540</v>
+      </c>
+      <c r="H99" t="s">
         <v>541</v>
-      </c>
-      <c r="H99" t="s">
-        <v>542</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.2">
@@ -4528,10 +4534,10 @@
         <v>348</v>
       </c>
       <c r="G100" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H100" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.2">
@@ -4554,10 +4560,10 @@
         <v>14</v>
       </c>
       <c r="G101" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H101" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.2">
@@ -4577,10 +4583,10 @@
         <v>89</v>
       </c>
       <c r="G102" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H102" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.2">
@@ -4588,7 +4594,7 @@
         <v>118</v>
       </c>
       <c r="B103" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="D103">
         <v>1325</v>
@@ -4600,13 +4606,13 @@
         <v>89</v>
       </c>
       <c r="G103" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H103" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="I103" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.2">
@@ -4614,7 +4620,7 @@
         <v>280</v>
       </c>
       <c r="B104" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="D104">
         <v>1325</v>
@@ -4626,10 +4632,10 @@
         <v>89</v>
       </c>
       <c r="G104" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H104" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.2">
@@ -4649,7 +4655,7 @@
         <v>14</v>
       </c>
       <c r="G105" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.2">
@@ -4669,10 +4675,10 @@
         <v>89</v>
       </c>
       <c r="G106" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H106" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.2">
@@ -4692,10 +4698,10 @@
         <v>81</v>
       </c>
       <c r="G107" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H107" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.2">
@@ -4715,10 +4721,10 @@
         <v>31</v>
       </c>
       <c r="G108" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H108" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.2">
@@ -4726,7 +4732,7 @@
         <v>68</v>
       </c>
       <c r="B109" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="D109">
         <v>1350</v>
@@ -4738,41 +4744,41 @@
         <v>34</v>
       </c>
       <c r="G109" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H109" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B110" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="D110">
         <v>1230</v>
       </c>
       <c r="E110" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F110" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="G110" t="s">
+        <v>540</v>
+      </c>
+      <c r="H110" t="s">
         <v>541</v>
-      </c>
-      <c r="H110" t="s">
-        <v>542</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="B111" t="s">
         <v>493</v>
-      </c>
-      <c r="B111" t="s">
-        <v>494</v>
       </c>
       <c r="D111">
         <v>1387.5</v>
@@ -4784,10 +4790,10 @@
         <v>11</v>
       </c>
       <c r="G111" t="s">
+        <v>540</v>
+      </c>
+      <c r="H111" t="s">
         <v>541</v>
-      </c>
-      <c r="H111" t="s">
-        <v>542</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.2">
@@ -4807,7 +4813,7 @@
         <v>14</v>
       </c>
       <c r="G112" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.2">
@@ -4827,10 +4833,10 @@
         <v>17</v>
       </c>
       <c r="G113" t="s">
+        <v>540</v>
+      </c>
+      <c r="H113" t="s">
         <v>541</v>
-      </c>
-      <c r="H113" t="s">
-        <v>542</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.2">
@@ -4850,10 +4856,10 @@
         <v>17</v>
       </c>
       <c r="G114" t="s">
+        <v>540</v>
+      </c>
+      <c r="H114" t="s">
         <v>541</v>
-      </c>
-      <c r="H114" t="s">
-        <v>542</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.2">
@@ -4873,15 +4879,15 @@
         <v>81</v>
       </c>
       <c r="G115" t="s">
+        <v>540</v>
+      </c>
+      <c r="H115" t="s">
         <v>541</v>
-      </c>
-      <c r="H115" t="s">
-        <v>542</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B116" t="s">
         <v>170</v>
@@ -4896,33 +4902,33 @@
         <v>81</v>
       </c>
       <c r="G116" t="s">
+        <v>540</v>
+      </c>
+      <c r="H116" t="s">
         <v>541</v>
-      </c>
-      <c r="H116" t="s">
-        <v>542</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B117" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="D117">
         <v>1295.5</v>
       </c>
       <c r="E117" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F117" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="G117" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H117" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.2">
@@ -4942,10 +4948,10 @@
         <v>17</v>
       </c>
       <c r="G118" t="s">
+        <v>540</v>
+      </c>
+      <c r="H118" t="s">
         <v>541</v>
-      </c>
-      <c r="H118" t="s">
-        <v>542</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.2">
@@ -4965,10 +4971,10 @@
         <v>17</v>
       </c>
       <c r="G119" t="s">
+        <v>540</v>
+      </c>
+      <c r="H119" t="s">
         <v>541</v>
-      </c>
-      <c r="H119" t="s">
-        <v>542</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.2">
@@ -4988,10 +4994,10 @@
         <v>17</v>
       </c>
       <c r="G120" t="s">
+        <v>540</v>
+      </c>
+      <c r="H120" t="s">
         <v>541</v>
-      </c>
-      <c r="H120" t="s">
-        <v>542</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.2">
@@ -5011,10 +5017,10 @@
         <v>34</v>
       </c>
       <c r="G121" t="s">
+        <v>540</v>
+      </c>
+      <c r="H121" t="s">
         <v>541</v>
-      </c>
-      <c r="H121" t="s">
-        <v>542</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.2">
@@ -5034,10 +5040,10 @@
         <v>34</v>
       </c>
       <c r="G122" t="s">
+        <v>540</v>
+      </c>
+      <c r="H122" t="s">
         <v>541</v>
-      </c>
-      <c r="H122" t="s">
-        <v>542</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.2">
@@ -5057,10 +5063,10 @@
         <v>17</v>
       </c>
       <c r="G123" t="s">
+        <v>540</v>
+      </c>
+      <c r="H123" t="s">
         <v>541</v>
-      </c>
-      <c r="H123" t="s">
-        <v>542</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.2">
@@ -5080,10 +5086,10 @@
         <v>11</v>
       </c>
       <c r="G124" t="s">
+        <v>540</v>
+      </c>
+      <c r="H124" t="s">
         <v>541</v>
-      </c>
-      <c r="H124" t="s">
-        <v>542</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.2">
@@ -5103,10 +5109,10 @@
         <v>11</v>
       </c>
       <c r="G125" t="s">
+        <v>540</v>
+      </c>
+      <c r="H125" t="s">
         <v>541</v>
-      </c>
-      <c r="H125" t="s">
-        <v>542</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.2">
@@ -5126,10 +5132,10 @@
         <v>34</v>
       </c>
       <c r="G126" t="s">
+        <v>540</v>
+      </c>
+      <c r="H126" t="s">
         <v>541</v>
-      </c>
-      <c r="H126" t="s">
-        <v>542</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.2">
@@ -5149,10 +5155,10 @@
         <v>34</v>
       </c>
       <c r="G127" t="s">
+        <v>540</v>
+      </c>
+      <c r="H127" t="s">
         <v>541</v>
-      </c>
-      <c r="H127" t="s">
-        <v>542</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.2">
@@ -5172,10 +5178,10 @@
         <v>34</v>
       </c>
       <c r="G128" t="s">
+        <v>540</v>
+      </c>
+      <c r="H128" t="s">
         <v>541</v>
-      </c>
-      <c r="H128" t="s">
-        <v>542</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.2">
@@ -5195,10 +5201,10 @@
         <v>17</v>
       </c>
       <c r="G129" t="s">
+        <v>540</v>
+      </c>
+      <c r="H129" t="s">
         <v>541</v>
-      </c>
-      <c r="H129" t="s">
-        <v>542</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.2">
@@ -5218,10 +5224,10 @@
         <v>17</v>
       </c>
       <c r="G130" t="s">
+        <v>540</v>
+      </c>
+      <c r="H130" t="s">
         <v>541</v>
-      </c>
-      <c r="H130" t="s">
-        <v>542</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.2">
@@ -5241,10 +5247,10 @@
         <v>31</v>
       </c>
       <c r="G131" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H131" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.2">
@@ -5252,7 +5258,7 @@
         <v>226</v>
       </c>
       <c r="B132" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C132" t="s">
         <v>227</v>
@@ -5267,7 +5273,7 @@
         <v>34</v>
       </c>
       <c r="G132" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.2">
@@ -5290,13 +5296,13 @@
         <v>89</v>
       </c>
       <c r="G133" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H133" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="I133" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.2">
@@ -5319,13 +5325,13 @@
         <v>17</v>
       </c>
       <c r="G134" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H134" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="I134" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.2">
@@ -5348,13 +5354,13 @@
         <v>17</v>
       </c>
       <c r="G135" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H135" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="I135" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.2">
@@ -5377,21 +5383,21 @@
         <v>89</v>
       </c>
       <c r="G136" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H136" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="I136" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="B137" t="s">
         <v>498</v>
-      </c>
-      <c r="B137" t="s">
-        <v>499</v>
       </c>
       <c r="D137">
         <v>1325</v>
@@ -5403,15 +5409,15 @@
         <v>89</v>
       </c>
       <c r="G137" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="B138" t="s">
         <v>479</v>
-      </c>
-      <c r="B138" t="s">
-        <v>480</v>
       </c>
       <c r="D138">
         <v>1350</v>
@@ -5423,27 +5429,27 @@
         <v>81</v>
       </c>
       <c r="G138" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B139" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="D139">
         <v>1295.5</v>
       </c>
       <c r="E139" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F139" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="G139" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.2">
@@ -5451,7 +5457,7 @@
         <v>88</v>
       </c>
       <c r="B140" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="D140">
         <v>1325</v>
@@ -5463,10 +5469,10 @@
         <v>89</v>
       </c>
       <c r="G140" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H140" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.2">
@@ -5486,10 +5492,10 @@
         <v>295</v>
       </c>
       <c r="G141" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H141" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.2">
@@ -5512,10 +5518,10 @@
         <v>14</v>
       </c>
       <c r="G142" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H142" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.2">
@@ -5535,10 +5541,10 @@
         <v>31</v>
       </c>
       <c r="G143" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H143" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.2">
@@ -5558,18 +5564,18 @@
         <v>31</v>
       </c>
       <c r="G144" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H144" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="B145" t="s">
         <v>481</v>
-      </c>
-      <c r="B145" t="s">
-        <v>482</v>
       </c>
       <c r="D145">
         <v>1400</v>
@@ -5581,10 +5587,10 @@
         <v>31</v>
       </c>
       <c r="G145" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H145" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.2">
@@ -5604,10 +5610,10 @@
         <v>158</v>
       </c>
       <c r="G146" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H146" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.2">
@@ -5627,10 +5633,10 @@
         <v>81</v>
       </c>
       <c r="G147" t="s">
+        <v>540</v>
+      </c>
+      <c r="H147" t="s">
         <v>541</v>
-      </c>
-      <c r="H147" t="s">
-        <v>542</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.2">
@@ -5650,10 +5656,10 @@
         <v>81</v>
       </c>
       <c r="G148" t="s">
+        <v>540</v>
+      </c>
+      <c r="H148" t="s">
         <v>541</v>
-      </c>
-      <c r="H148" t="s">
-        <v>542</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.2">
@@ -5673,10 +5679,10 @@
         <v>81</v>
       </c>
       <c r="G149" t="s">
+        <v>540</v>
+      </c>
+      <c r="H149" t="s">
         <v>541</v>
-      </c>
-      <c r="H149" t="s">
-        <v>542</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.2">
@@ -5696,10 +5702,10 @@
         <v>81</v>
       </c>
       <c r="G150" t="s">
+        <v>540</v>
+      </c>
+      <c r="H150" t="s">
         <v>541</v>
-      </c>
-      <c r="H150" t="s">
-        <v>542</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.2">
@@ -5719,10 +5725,10 @@
         <v>107</v>
       </c>
       <c r="G151" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H151" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.2">
@@ -5742,10 +5748,10 @@
         <v>11</v>
       </c>
       <c r="G152" t="s">
+        <v>540</v>
+      </c>
+      <c r="H152" t="s">
         <v>541</v>
-      </c>
-      <c r="H152" t="s">
-        <v>542</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.2">
@@ -5765,10 +5771,10 @@
         <v>34</v>
       </c>
       <c r="G153" t="s">
+        <v>540</v>
+      </c>
+      <c r="H153" t="s">
         <v>541</v>
-      </c>
-      <c r="H153" t="s">
-        <v>542</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.2">
@@ -5788,10 +5794,10 @@
         <v>81</v>
       </c>
       <c r="G154" t="s">
+        <v>540</v>
+      </c>
+      <c r="H154" t="s">
         <v>541</v>
-      </c>
-      <c r="H154" t="s">
-        <v>542</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.2">
@@ -5811,10 +5817,10 @@
         <v>11</v>
       </c>
       <c r="G155" t="s">
+        <v>540</v>
+      </c>
+      <c r="H155" t="s">
         <v>541</v>
-      </c>
-      <c r="H155" t="s">
-        <v>542</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.2">
@@ -5834,10 +5840,10 @@
         <v>436</v>
       </c>
       <c r="G156" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H156" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.2">
@@ -5857,10 +5863,10 @@
         <v>97</v>
       </c>
       <c r="G157" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H157" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.2">
@@ -5880,10 +5886,10 @@
         <v>34</v>
       </c>
       <c r="G158" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H158" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.2">
@@ -5903,10 +5909,10 @@
         <v>34</v>
       </c>
       <c r="G159" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H159" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.2">
@@ -5926,10 +5932,10 @@
         <v>243</v>
       </c>
       <c r="G160" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H160" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.2">
@@ -5949,10 +5955,10 @@
         <v>11</v>
       </c>
       <c r="G161" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H161" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.2">
@@ -5972,10 +5978,10 @@
         <v>17</v>
       </c>
       <c r="G162" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H162" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.2">
@@ -5995,36 +6001,36 @@
         <v>243</v>
       </c>
       <c r="G163" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H163" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B164" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="D164">
         <v>1288</v>
       </c>
       <c r="E164" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F164" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="G164" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H164" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="I164" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.2">
@@ -6032,7 +6038,7 @@
         <v>178</v>
       </c>
       <c r="B165" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="D165">
         <v>1325</v>
@@ -6044,13 +6050,13 @@
         <v>89</v>
       </c>
       <c r="G165" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H165" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="I165" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.2">
@@ -6058,7 +6064,7 @@
         <v>197</v>
       </c>
       <c r="B166" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="D166">
         <v>1325</v>
@@ -6070,10 +6076,10 @@
         <v>89</v>
       </c>
       <c r="G166" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H166" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.2">
@@ -6093,18 +6099,18 @@
         <v>89</v>
       </c>
       <c r="G167" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H167" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="B168" t="s">
         <v>502</v>
-      </c>
-      <c r="B168" t="s">
-        <v>503</v>
       </c>
       <c r="D168">
         <v>1470</v>
@@ -6116,33 +6122,33 @@
         <v>282</v>
       </c>
       <c r="G168" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H168" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B169" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="D169">
         <v>1288</v>
       </c>
       <c r="E169" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F169" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="G169" t="s">
+        <v>540</v>
+      </c>
+      <c r="H169" t="s">
         <v>541</v>
-      </c>
-      <c r="H169" t="s">
-        <v>542</v>
       </c>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.2">
@@ -6162,10 +6168,10 @@
         <v>34</v>
       </c>
       <c r="G170" t="s">
+        <v>540</v>
+      </c>
+      <c r="H170" t="s">
         <v>541</v>
-      </c>
-      <c r="H170" t="s">
-        <v>542</v>
       </c>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.2">
@@ -6185,10 +6191,10 @@
         <v>81</v>
       </c>
       <c r="G171" t="s">
+        <v>540</v>
+      </c>
+      <c r="H171" t="s">
         <v>541</v>
-      </c>
-      <c r="H171" t="s">
-        <v>542</v>
       </c>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.2">
@@ -6208,10 +6214,10 @@
         <v>312</v>
       </c>
       <c r="G172" t="s">
+        <v>540</v>
+      </c>
+      <c r="H172" t="s">
         <v>541</v>
-      </c>
-      <c r="H172" t="s">
-        <v>542</v>
       </c>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.2">
@@ -6231,10 +6237,10 @@
         <v>34</v>
       </c>
       <c r="G173" t="s">
+        <v>540</v>
+      </c>
+      <c r="H173" t="s">
         <v>541</v>
-      </c>
-      <c r="H173" t="s">
-        <v>542</v>
       </c>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.2">
@@ -6242,7 +6248,7 @@
         <v>247</v>
       </c>
       <c r="B174" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="D174">
         <v>1362.5</v>
@@ -6254,21 +6260,21 @@
         <v>190</v>
       </c>
       <c r="G174" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H174" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="I174" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B175" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="D175">
         <v>1325</v>
@@ -6280,33 +6286,33 @@
         <v>89</v>
       </c>
       <c r="G175" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H175" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B176" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D176">
         <v>1285</v>
       </c>
       <c r="E176" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F176" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="G176" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H176" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.2">
@@ -6329,10 +6335,10 @@
         <v>329</v>
       </c>
       <c r="G177" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H177" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.2">
@@ -6355,10 +6361,10 @@
         <v>358</v>
       </c>
       <c r="G178" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H178" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.2">
@@ -6378,7 +6384,7 @@
         <v>51</v>
       </c>
       <c r="G179" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.2">
@@ -6401,7 +6407,7 @@
         <v>31</v>
       </c>
       <c r="G180" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.2">
@@ -6421,10 +6427,10 @@
         <v>17</v>
       </c>
       <c r="G181" t="s">
+        <v>540</v>
+      </c>
+      <c r="H181" t="s">
         <v>541</v>
-      </c>
-      <c r="H181" t="s">
-        <v>542</v>
       </c>
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.2">
@@ -6444,10 +6450,10 @@
         <v>81</v>
       </c>
       <c r="G182" t="s">
+        <v>540</v>
+      </c>
+      <c r="H182" t="s">
         <v>541</v>
-      </c>
-      <c r="H182" t="s">
-        <v>542</v>
       </c>
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.2">
@@ -6467,10 +6473,10 @@
         <v>17</v>
       </c>
       <c r="G183" t="s">
+        <v>540</v>
+      </c>
+      <c r="H183" t="s">
         <v>541</v>
-      </c>
-      <c r="H183" t="s">
-        <v>542</v>
       </c>
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.2">
@@ -6490,10 +6496,10 @@
         <v>17</v>
       </c>
       <c r="G184" t="s">
+        <v>540</v>
+      </c>
+      <c r="H184" t="s">
         <v>541</v>
-      </c>
-      <c r="H184" t="s">
-        <v>542</v>
       </c>
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.2">
@@ -6513,18 +6519,18 @@
         <v>368</v>
       </c>
       <c r="G185" t="s">
+        <v>540</v>
+      </c>
+      <c r="H185" t="s">
         <v>541</v>
-      </c>
-      <c r="H185" t="s">
-        <v>542</v>
       </c>
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="B186" t="s">
         <v>598</v>
-      </c>
-      <c r="B186" t="s">
-        <v>600</v>
       </c>
       <c r="D186">
         <v>1350</v>
@@ -6536,10 +6542,10 @@
         <v>34</v>
       </c>
       <c r="G186" t="s">
+        <v>540</v>
+      </c>
+      <c r="H186" t="s">
         <v>541</v>
-      </c>
-      <c r="H186" t="s">
-        <v>542</v>
       </c>
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.2">
@@ -6547,7 +6553,7 @@
         <v>307</v>
       </c>
       <c r="B187" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="D187">
         <v>1350</v>
@@ -6559,10 +6565,10 @@
         <v>34</v>
       </c>
       <c r="G187" t="s">
+        <v>540</v>
+      </c>
+      <c r="H187" t="s">
         <v>541</v>
-      </c>
-      <c r="H187" t="s">
-        <v>542</v>
       </c>
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.2">
@@ -6582,10 +6588,10 @@
         <v>89</v>
       </c>
       <c r="G188" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H188" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.2">
@@ -6605,10 +6611,10 @@
         <v>89</v>
       </c>
       <c r="G189" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H189" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="190" spans="1:9" x14ac:dyDescent="0.2">
@@ -6628,10 +6634,10 @@
         <v>89</v>
       </c>
       <c r="G190" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H190" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="191" spans="1:9" x14ac:dyDescent="0.2">
@@ -6651,10 +6657,10 @@
         <v>89</v>
       </c>
       <c r="G191" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H191" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="192" spans="1:9" x14ac:dyDescent="0.2">
@@ -6662,7 +6668,7 @@
         <v>196</v>
       </c>
       <c r="B192" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="D192">
         <v>1350</v>
@@ -6674,13 +6680,13 @@
         <v>34</v>
       </c>
       <c r="G192" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H192" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="I192" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.2">
@@ -6688,7 +6694,7 @@
         <v>289</v>
       </c>
       <c r="B193" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="D193">
         <v>1325</v>
@@ -6700,13 +6706,13 @@
         <v>89</v>
       </c>
       <c r="G193" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H193" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="I193" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="194" spans="1:9" x14ac:dyDescent="0.2">
@@ -6714,7 +6720,7 @@
         <v>203</v>
       </c>
       <c r="B194" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="D194">
         <v>1325</v>
@@ -6726,10 +6732,10 @@
         <v>89</v>
       </c>
       <c r="G194" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H194" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="195" spans="1:9" x14ac:dyDescent="0.2">
@@ -6749,10 +6755,10 @@
         <v>81</v>
       </c>
       <c r="G195" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H195" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.2">
@@ -6772,10 +6778,10 @@
         <v>89</v>
       </c>
       <c r="G196" s="3" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H196" s="3" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="197" spans="1:9" x14ac:dyDescent="0.2">
@@ -6795,10 +6801,10 @@
         <v>14</v>
       </c>
       <c r="G197" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H197" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="198" spans="1:9" x14ac:dyDescent="0.2">
@@ -6806,7 +6812,7 @@
         <v>343</v>
       </c>
       <c r="B198" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="D198">
         <v>1387.5</v>
@@ -6818,10 +6824,10 @@
         <v>11</v>
       </c>
       <c r="G198" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H198" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.2">
@@ -6844,10 +6850,10 @@
         <v>14</v>
       </c>
       <c r="G199" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H199" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="200" spans="1:9" x14ac:dyDescent="0.2">
@@ -6870,10 +6876,10 @@
         <v>60</v>
       </c>
       <c r="G200" s="3" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H200" s="3" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.2">
@@ -6881,7 +6887,7 @@
         <v>191</v>
       </c>
       <c r="B201" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="D201">
         <v>1350</v>
@@ -6893,21 +6899,21 @@
         <v>81</v>
       </c>
       <c r="G201" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H201" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="202" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A202" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="B202" t="s">
         <v>452</v>
       </c>
-      <c r="B202" t="s">
+      <c r="C202" t="s">
         <v>453</v>
-      </c>
-      <c r="C202" t="s">
-        <v>454</v>
       </c>
       <c r="D202">
         <v>1475</v>
@@ -6916,13 +6922,13 @@
         <v>10</v>
       </c>
       <c r="F202" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="G202" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H202" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="203" spans="1:9" x14ac:dyDescent="0.2">
@@ -6945,10 +6951,10 @@
         <v>89</v>
       </c>
       <c r="G203" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H203" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="204" spans="1:9" x14ac:dyDescent="0.2">
@@ -6971,33 +6977,33 @@
         <v>14</v>
       </c>
       <c r="G204" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H204" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="205" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A205" s="1" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B205" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D205">
         <v>1288</v>
       </c>
       <c r="E205" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F205" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="G205" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H205" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="206" spans="1:9" x14ac:dyDescent="0.2">
@@ -7017,59 +7023,59 @@
         <v>41</v>
       </c>
       <c r="G206" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H206" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I206" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="207" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A207" s="1" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B207" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="D207">
         <v>1267.5</v>
       </c>
       <c r="E207" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F207" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G207" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H207" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="208" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A208" s="1" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B208" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="D208">
         <v>1288</v>
       </c>
       <c r="E208" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F208" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="G208" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H208" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="209" spans="1:9" x14ac:dyDescent="0.2">
@@ -7089,10 +7095,10 @@
         <v>17</v>
       </c>
       <c r="G209" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H209" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="210" spans="1:9" x14ac:dyDescent="0.2">
@@ -7115,10 +7121,10 @@
         <v>73</v>
       </c>
       <c r="G210" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H210" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.2">
@@ -7138,7 +7144,7 @@
         <v>73</v>
       </c>
       <c r="G211" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
     </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.2">
@@ -7158,7 +7164,7 @@
         <v>334</v>
       </c>
       <c r="G212" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
     </row>
     <row r="213" spans="1:9" x14ac:dyDescent="0.2">
@@ -7181,10 +7187,10 @@
         <v>23</v>
       </c>
       <c r="G213" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H213" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.2">
@@ -7192,7 +7198,7 @@
         <v>297</v>
       </c>
       <c r="B214" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="D214">
         <v>1450</v>
@@ -7204,10 +7210,10 @@
         <v>73</v>
       </c>
       <c r="G214" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H214" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="215" spans="1:9" x14ac:dyDescent="0.2">
@@ -7215,7 +7221,7 @@
         <v>400</v>
       </c>
       <c r="B215" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="D215">
         <v>1450</v>
@@ -7227,13 +7233,13 @@
         <v>73</v>
       </c>
       <c r="G215" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H215" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="I215" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.2">
@@ -7241,7 +7247,7 @@
         <v>405</v>
       </c>
       <c r="B216" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="D216">
         <v>1375</v>
@@ -7253,21 +7259,21 @@
         <v>17</v>
       </c>
       <c r="G216" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H216" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="I216" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="217" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A217" s="1" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B217" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="D217">
         <v>1350</v>
@@ -7279,13 +7285,13 @@
         <v>81</v>
       </c>
       <c r="G217" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H217" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="I217" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="218" spans="1:9" x14ac:dyDescent="0.2">
@@ -7293,7 +7299,7 @@
         <v>181</v>
       </c>
       <c r="B218" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="C218" t="s">
         <v>37</v>
@@ -7308,10 +7314,10 @@
         <v>56</v>
       </c>
       <c r="G218" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H218" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="219" spans="1:9" x14ac:dyDescent="0.2">
@@ -7319,7 +7325,7 @@
         <v>26</v>
       </c>
       <c r="B219" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="C219" t="s">
         <v>27</v>
@@ -7334,10 +7340,10 @@
         <v>28</v>
       </c>
       <c r="G219" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H219" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="220" spans="1:9" x14ac:dyDescent="0.2">
@@ -7345,7 +7351,7 @@
         <v>85</v>
       </c>
       <c r="B220" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="C220" t="s">
         <v>27</v>
@@ -7360,10 +7366,10 @@
         <v>31</v>
       </c>
       <c r="G220" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H220" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="221" spans="1:9" x14ac:dyDescent="0.2">
@@ -7371,7 +7377,7 @@
         <v>130</v>
       </c>
       <c r="B221" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="C221" t="s">
         <v>27</v>
@@ -7386,10 +7392,10 @@
         <v>131</v>
       </c>
       <c r="G221" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H221" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="222" spans="1:9" x14ac:dyDescent="0.2">
@@ -7397,7 +7403,7 @@
         <v>267</v>
       </c>
       <c r="B222" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="C222" t="s">
         <v>27</v>
@@ -7412,10 +7418,10 @@
         <v>89</v>
       </c>
       <c r="G222" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H222" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="223" spans="1:9" x14ac:dyDescent="0.2">
@@ -7423,7 +7429,7 @@
         <v>270</v>
       </c>
       <c r="B223" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="C223" t="s">
         <v>27</v>
@@ -7438,10 +7444,10 @@
         <v>31</v>
       </c>
       <c r="G223" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H223" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="224" spans="1:9" x14ac:dyDescent="0.2">
@@ -7449,7 +7455,7 @@
         <v>302</v>
       </c>
       <c r="B224" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="C224" t="s">
         <v>27</v>
@@ -7464,10 +7470,10 @@
         <v>254</v>
       </c>
       <c r="G224" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H224" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.2">
@@ -7475,7 +7481,7 @@
         <v>335</v>
       </c>
       <c r="B225" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="C225" t="s">
         <v>27</v>
@@ -7490,10 +7496,10 @@
         <v>56</v>
       </c>
       <c r="G225" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H225" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.2">
@@ -7501,7 +7507,7 @@
         <v>392</v>
       </c>
       <c r="B226" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="C226" t="s">
         <v>27</v>
@@ -7516,10 +7522,10 @@
         <v>17</v>
       </c>
       <c r="G226" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H226" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.2">
@@ -7527,7 +7533,7 @@
         <v>29</v>
       </c>
       <c r="B227" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="C227" t="s">
         <v>30</v>
@@ -7542,10 +7548,10 @@
         <v>31</v>
       </c>
       <c r="G227" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H227" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.2">
@@ -7553,7 +7559,7 @@
         <v>55</v>
       </c>
       <c r="B228" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="C228" t="s">
         <v>30</v>
@@ -7568,10 +7574,10 @@
         <v>56</v>
       </c>
       <c r="G228" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H228" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.2">
@@ -7579,7 +7585,7 @@
         <v>87</v>
       </c>
       <c r="B229" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="C229" t="s">
         <v>30</v>
@@ -7594,10 +7600,10 @@
         <v>31</v>
       </c>
       <c r="G229" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H229" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.2">
@@ -7605,7 +7611,7 @@
         <v>94</v>
       </c>
       <c r="B230" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="C230" t="s">
         <v>30</v>
@@ -7620,10 +7626,10 @@
         <v>31</v>
       </c>
       <c r="G230" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H230" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.2">
@@ -7631,7 +7637,7 @@
         <v>121</v>
       </c>
       <c r="B231" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="C231" t="s">
         <v>30</v>
@@ -7646,10 +7652,10 @@
         <v>31</v>
       </c>
       <c r="G231" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H231" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.2">
@@ -7657,7 +7663,7 @@
         <v>124</v>
       </c>
       <c r="B232" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="C232" t="s">
         <v>30</v>
@@ -7672,10 +7678,10 @@
         <v>31</v>
       </c>
       <c r="G232" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H232" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.2">
@@ -7683,7 +7689,7 @@
         <v>253</v>
       </c>
       <c r="B233" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="C233" t="s">
         <v>30</v>
@@ -7698,10 +7704,10 @@
         <v>254</v>
       </c>
       <c r="G233" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H233" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.2">
@@ -7709,7 +7715,7 @@
         <v>273</v>
       </c>
       <c r="B234" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="C234" t="s">
         <v>30</v>
@@ -7724,10 +7730,10 @@
         <v>254</v>
       </c>
       <c r="G234" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H234" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="235" spans="1:8" x14ac:dyDescent="0.2">
@@ -7735,7 +7741,7 @@
         <v>276</v>
       </c>
       <c r="B235" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="C235" t="s">
         <v>30</v>
@@ -7750,10 +7756,10 @@
         <v>131</v>
       </c>
       <c r="G235" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H235" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="236" spans="1:8" x14ac:dyDescent="0.2">
@@ -7761,7 +7767,7 @@
         <v>330</v>
       </c>
       <c r="B236" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="C236" t="s">
         <v>30</v>
@@ -7776,10 +7782,10 @@
         <v>31</v>
       </c>
       <c r="G236" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H236" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.2">
@@ -7787,7 +7793,7 @@
         <v>422</v>
       </c>
       <c r="B237" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="C237" t="s">
         <v>30</v>
@@ -7802,18 +7808,18 @@
         <v>56</v>
       </c>
       <c r="G237" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H237" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A238" s="1" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B238" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="C238" t="s">
         <v>30</v>
@@ -7828,10 +7834,10 @@
         <v>34</v>
       </c>
       <c r="G238" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H238" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.2">
@@ -7839,7 +7845,7 @@
         <v>43</v>
       </c>
       <c r="B239" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="C239" t="s">
         <v>30</v>
@@ -7854,18 +7860,18 @@
         <v>44</v>
       </c>
       <c r="G239" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H239" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="240" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A240" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="B240" t="s">
         <v>461</v>
-      </c>
-      <c r="B240" t="s">
-        <v>462</v>
       </c>
       <c r="D240">
         <v>1410</v>
@@ -7877,10 +7883,10 @@
         <v>14</v>
       </c>
       <c r="G240" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H240" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="241" spans="1:9" x14ac:dyDescent="0.2">
@@ -7888,7 +7894,7 @@
         <v>308</v>
       </c>
       <c r="B241" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="C241" t="s">
         <v>227</v>
@@ -7903,15 +7909,15 @@
         <v>34</v>
       </c>
       <c r="G241" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="242" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A242" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="B242" t="s">
         <v>445</v>
-      </c>
-      <c r="B242" t="s">
-        <v>446</v>
       </c>
       <c r="D242">
         <v>1508</v>
@@ -7920,10 +7926,10 @@
         <v>10</v>
       </c>
       <c r="F242" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="G242" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="243" spans="1:9" x14ac:dyDescent="0.2">
@@ -7943,18 +7949,18 @@
         <v>14</v>
       </c>
       <c r="G243" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H243" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="244" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A244" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="B244" t="s">
         <v>459</v>
-      </c>
-      <c r="B244" t="s">
-        <v>460</v>
       </c>
       <c r="D244">
         <v>1400</v>
@@ -7966,10 +7972,10 @@
         <v>31</v>
       </c>
       <c r="G244" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H244" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="245" spans="1:9" x14ac:dyDescent="0.2">
@@ -7977,7 +7983,7 @@
         <v>231</v>
       </c>
       <c r="B245" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C245" t="s">
         <v>37</v>
@@ -7992,34 +7998,34 @@
         <v>89</v>
       </c>
       <c r="G245" s="3" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H245" s="3" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="I245" s="3"/>
     </row>
     <row r="246" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A246" s="1" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B246" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D246">
         <v>1250</v>
       </c>
       <c r="E246" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F246" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="G246" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H246" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="247" spans="1:9" x14ac:dyDescent="0.2">
@@ -8039,7 +8045,7 @@
         <v>14</v>
       </c>
       <c r="G247" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
     </row>
     <row r="248" spans="1:9" x14ac:dyDescent="0.2">
@@ -8059,7 +8065,7 @@
         <v>166</v>
       </c>
       <c r="G248" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="249" spans="1:9" x14ac:dyDescent="0.2">
@@ -8082,7 +8088,7 @@
         <v>38</v>
       </c>
       <c r="G249" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="250" spans="1:9" x14ac:dyDescent="0.2">
@@ -8102,10 +8108,10 @@
         <v>81</v>
       </c>
       <c r="G250" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H250" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="251" spans="1:9" x14ac:dyDescent="0.2">
@@ -8125,10 +8131,10 @@
         <v>34</v>
       </c>
       <c r="G251" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H251" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="252" spans="1:9" x14ac:dyDescent="0.2">
@@ -8151,10 +8157,10 @@
         <v>129</v>
       </c>
       <c r="G252" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H252" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="253" spans="1:9" x14ac:dyDescent="0.2">
@@ -8177,7 +8183,7 @@
         <v>76</v>
       </c>
       <c r="G253" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="254" spans="1:9" x14ac:dyDescent="0.2">
@@ -8185,7 +8191,7 @@
         <v>423</v>
       </c>
       <c r="B254" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="D254">
         <v>1487.5</v>
@@ -8197,10 +8203,10 @@
         <v>368</v>
       </c>
       <c r="G254" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H254" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="255" spans="1:9" x14ac:dyDescent="0.2">
@@ -8208,7 +8214,7 @@
         <v>232</v>
       </c>
       <c r="B255" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="D255">
         <v>1465</v>
@@ -8220,10 +8226,10 @@
         <v>233</v>
       </c>
       <c r="G255" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H255" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="256" spans="1:9" x14ac:dyDescent="0.2">
@@ -8246,7 +8252,7 @@
         <v>76</v>
       </c>
       <c r="G256" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="257" spans="1:9" x14ac:dyDescent="0.2">
@@ -8266,10 +8272,10 @@
         <v>17</v>
       </c>
       <c r="G257" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H257" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="258" spans="1:9" x14ac:dyDescent="0.2">
@@ -8289,21 +8295,21 @@
         <v>76</v>
       </c>
       <c r="G258" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H258" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="259" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A259" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="B259" t="s">
         <v>495</v>
       </c>
-      <c r="B259" t="s">
+      <c r="C259" t="s">
         <v>496</v>
-      </c>
-      <c r="C259" t="s">
-        <v>497</v>
       </c>
       <c r="D259">
         <v>1402.5</v>
@@ -8315,62 +8321,62 @@
         <v>38</v>
       </c>
       <c r="G259" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H259" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
     </row>
     <row r="260" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A260" s="1" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B260" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D260">
         <v>1288</v>
       </c>
       <c r="E260" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F260" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="G260" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H260" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="I260" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="261" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A261" s="1" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B261" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D261">
         <v>1270</v>
       </c>
       <c r="E261" t="s">
+        <v>507</v>
+      </c>
+      <c r="F261" t="s">
         <v>508</v>
       </c>
-      <c r="F261" t="s">
-        <v>509</v>
-      </c>
       <c r="G261" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H261" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="I261" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="262" spans="1:9" x14ac:dyDescent="0.2">
@@ -8390,10 +8396,10 @@
         <v>76</v>
       </c>
       <c r="G262" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H262" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="263" spans="1:9" x14ac:dyDescent="0.2">
@@ -8413,10 +8419,10 @@
         <v>17</v>
       </c>
       <c r="G263" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H263" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="264" spans="1:9" x14ac:dyDescent="0.2">
@@ -8436,10 +8442,10 @@
         <v>31</v>
       </c>
       <c r="G264" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H264" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="265" spans="1:9" x14ac:dyDescent="0.2">
@@ -8459,7 +8465,7 @@
         <v>31</v>
       </c>
       <c r="G265" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
     </row>
     <row r="266" spans="1:9" x14ac:dyDescent="0.2">
@@ -8479,7 +8485,7 @@
         <v>334</v>
       </c>
       <c r="G266" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="267" spans="1:9" x14ac:dyDescent="0.2">
@@ -8502,10 +8508,10 @@
         <v>31</v>
       </c>
       <c r="G267" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H267" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="268" spans="1:9" x14ac:dyDescent="0.2">
@@ -8525,10 +8531,10 @@
         <v>38</v>
       </c>
       <c r="G268" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H268" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="269" spans="1:9" x14ac:dyDescent="0.2">
@@ -8548,10 +8554,10 @@
         <v>14</v>
       </c>
       <c r="G269" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H269" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="270" spans="1:9" x14ac:dyDescent="0.2">
@@ -8571,10 +8577,10 @@
         <v>81</v>
       </c>
       <c r="G270" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H270" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="271" spans="1:9" x14ac:dyDescent="0.2">
@@ -8594,10 +8600,10 @@
         <v>315</v>
       </c>
       <c r="G271" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H271" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="272" spans="1:9" x14ac:dyDescent="0.2">
@@ -8617,10 +8623,10 @@
         <v>408</v>
       </c>
       <c r="G272" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H272" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="273" spans="1:9" x14ac:dyDescent="0.2">
@@ -8640,7 +8646,7 @@
         <v>14</v>
       </c>
       <c r="G273" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
     </row>
     <row r="274" spans="1:9" x14ac:dyDescent="0.2">
@@ -8663,10 +8669,10 @@
         <v>14</v>
       </c>
       <c r="G274" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H274" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="275" spans="1:9" x14ac:dyDescent="0.2">
@@ -8686,15 +8692,15 @@
         <v>420</v>
       </c>
       <c r="G275" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="276" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A276" s="1" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="B276" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="D276">
         <v>1350</v>
@@ -8706,10 +8712,10 @@
         <v>34</v>
       </c>
       <c r="G276" t="s">
+        <v>540</v>
+      </c>
+      <c r="H276" t="s">
         <v>541</v>
-      </c>
-      <c r="H276" t="s">
-        <v>542</v>
       </c>
     </row>
     <row r="277" spans="1:9" x14ac:dyDescent="0.2">
@@ -8729,21 +8735,21 @@
         <v>243</v>
       </c>
       <c r="G277" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H277" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="278" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A278" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="B278" t="s">
+        <v>601</v>
+      </c>
+      <c r="C278" t="s">
         <v>437</v>
-      </c>
-      <c r="B278" t="s">
-        <v>571</v>
-      </c>
-      <c r="C278" t="s">
-        <v>438</v>
       </c>
       <c r="D278">
         <v>1350</v>
@@ -8752,211 +8758,237 @@
         <v>10</v>
       </c>
       <c r="F278" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G278" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H278" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="279" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A279" s="1" t="s">
-        <v>182</v>
+        <v>600</v>
       </c>
       <c r="B279" t="s">
-        <v>183</v>
+        <v>602</v>
+      </c>
+      <c r="C279" t="s">
+        <v>437</v>
       </c>
       <c r="D279">
-        <v>1325</v>
+        <v>1350</v>
       </c>
       <c r="E279" t="s">
         <v>10</v>
       </c>
       <c r="F279" t="s">
-        <v>89</v>
+        <v>438</v>
       </c>
       <c r="G279" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H279" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="280" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A280" s="1" t="s">
-        <v>159</v>
+        <v>182</v>
       </c>
       <c r="B280" t="s">
-        <v>160</v>
-      </c>
-      <c r="C280" t="s">
-        <v>161</v>
+        <v>183</v>
       </c>
       <c r="D280">
-        <v>1402.5</v>
+        <v>1325</v>
       </c>
       <c r="E280" t="s">
         <v>10</v>
       </c>
       <c r="F280" t="s">
-        <v>38</v>
+        <v>89</v>
       </c>
       <c r="G280" t="s">
+        <v>540</v>
+      </c>
+      <c r="H280" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="281" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A281" s="1" t="s">
-        <v>119</v>
+        <v>159</v>
       </c>
       <c r="B281" t="s">
-        <v>120</v>
+        <v>160</v>
+      </c>
+      <c r="C281" t="s">
+        <v>161</v>
       </c>
       <c r="D281">
-        <v>1325</v>
+        <v>1402.5</v>
       </c>
       <c r="E281" t="s">
         <v>10</v>
       </c>
       <c r="F281" t="s">
-        <v>89</v>
+        <v>38</v>
       </c>
       <c r="G281" t="s">
-        <v>541</v>
-      </c>
-      <c r="H281" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="282" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A282" s="1" t="s">
-        <v>529</v>
+        <v>119</v>
       </c>
       <c r="B282" t="s">
-        <v>529</v>
+        <v>120</v>
       </c>
       <c r="D282">
-        <v>1295.5</v>
+        <v>1325</v>
       </c>
       <c r="E282" t="s">
-        <v>508</v>
+        <v>10</v>
       </c>
       <c r="F282" t="s">
-        <v>518</v>
+        <v>89</v>
       </c>
       <c r="G282" t="s">
+        <v>540</v>
+      </c>
+      <c r="H282" t="s">
         <v>541</v>
-      </c>
-      <c r="H282" t="s">
-        <v>542</v>
       </c>
     </row>
     <row r="283" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A283" s="1" t="s">
-        <v>448</v>
+        <v>528</v>
       </c>
       <c r="B283" t="s">
-        <v>449</v>
+        <v>528</v>
       </c>
       <c r="D283">
-        <v>1350</v>
+        <v>1295.5</v>
       </c>
       <c r="E283" t="s">
-        <v>10</v>
+        <v>507</v>
       </c>
       <c r="F283" t="s">
-        <v>34</v>
+        <v>517</v>
       </c>
       <c r="G283" t="s">
+        <v>540</v>
+      </c>
+      <c r="H283" t="s">
         <v>541</v>
-      </c>
-      <c r="H283" t="s">
-        <v>545</v>
-      </c>
-      <c r="I283" t="s">
-        <v>562</v>
       </c>
     </row>
     <row r="284" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A284" s="1" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B284" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D284">
-        <v>1270</v>
+        <v>1350</v>
       </c>
       <c r="E284" t="s">
-        <v>508</v>
+        <v>10</v>
       </c>
       <c r="F284" t="s">
-        <v>509</v>
+        <v>34</v>
       </c>
       <c r="G284" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H284" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="I284" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="285" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A285" s="1" t="s">
-        <v>288</v>
+        <v>448</v>
       </c>
       <c r="B285" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D285">
-        <v>1325</v>
+        <v>1270</v>
       </c>
       <c r="E285" t="s">
-        <v>10</v>
+        <v>507</v>
       </c>
       <c r="F285" t="s">
-        <v>89</v>
+        <v>508</v>
       </c>
       <c r="G285" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H285" t="s">
-        <v>545</v>
+        <v>544</v>
+      </c>
+      <c r="I285" t="s">
+        <v>561</v>
       </c>
     </row>
     <row r="286" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A286" s="1" t="s">
-        <v>592</v>
+        <v>288</v>
       </c>
       <c r="B286" t="s">
+        <v>448</v>
+      </c>
+      <c r="D286">
+        <v>1325</v>
+      </c>
+      <c r="E286" t="s">
+        <v>10</v>
+      </c>
+      <c r="F286" t="s">
+        <v>89</v>
+      </c>
+      <c r="G286" t="s">
+        <v>540</v>
+      </c>
+      <c r="H286" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="287" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A287" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="B287" t="s">
         <v>102</v>
       </c>
-      <c r="C286" t="s">
+      <c r="C287" t="s">
         <v>30</v>
       </c>
-      <c r="D286">
+      <c r="D287">
         <v>1425</v>
       </c>
-      <c r="E286" t="s">
-        <v>10</v>
-      </c>
-      <c r="F286" t="s">
+      <c r="E287" t="s">
+        <v>10</v>
+      </c>
+      <c r="F287" t="s">
         <v>398</v>
       </c>
-      <c r="G286" t="s">
-        <v>541</v>
-      </c>
-      <c r="H286" t="s">
-        <v>545</v>
+      <c r="G287" t="s">
+        <v>540</v>
+      </c>
+      <c r="H287" t="s">
+        <v>544</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J285">
-    <sortCondition ref="B224:B285"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J286">
+    <sortCondition ref="B224:B286"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/metadata_corrected.xlsx
+++ b/data/metadata_corrected.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mikekestemont/GitRepos/mdu/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C44750D2-6308-BC43-ACEC-037E00293271}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E203D543-BA06-6D42-BBDF-BC65768E5623}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/data/metadata_corrected.xlsx
+++ b/data/metadata_corrected.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mikekestemont/GitRepos/mdu/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E203D543-BA06-6D42-BBDF-BC65768E5623}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77D269EE-6B38-9645-AD5A-2E83D248B1F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="33600" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1770" uniqueCount="603">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1767" uniqueCount="603">
   <si>
     <t>id</t>
   </si>
@@ -1346,9 +1346,6 @@
     <t>1380-1400</t>
   </si>
   <si>
-    <t>Penninc en Pieter Vostaert</t>
-  </si>
-  <si>
     <t>1350-1350</t>
   </si>
   <si>
@@ -1583,9 +1580,6 @@
     <t>Sinte Kerstine</t>
   </si>
   <si>
-    <t>Luiks Diatessaron</t>
-  </si>
-  <si>
     <t>1300-1291</t>
   </si>
   <si>
@@ -1842,6 +1836,12 @@
   </si>
   <si>
     <t>Walewein (Vostaert)</t>
+  </si>
+  <si>
+    <t>Penninc</t>
+  </si>
+  <si>
+    <t>Pieter Vostaert</t>
   </si>
 </sst>
 </file>
@@ -2227,10 +2227,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I287"/>
+  <dimension ref="A1:I286"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A252" workbookViewId="0">
-      <selection activeCell="A279" sqref="A279"/>
+    <sheetView tabSelected="1" topLeftCell="A113" zoomScale="160" workbookViewId="0">
+      <selection activeCell="A117" sqref="A117:XFD117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2269,7 +2269,7 @@
         <v>7</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -2289,7 +2289,7 @@
         <v>14</v>
       </c>
       <c r="G2" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -2312,33 +2312,33 @@
         <v>31</v>
       </c>
       <c r="G3" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="H3" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="B4" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="D4">
         <v>1295.5</v>
       </c>
       <c r="E4" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F4" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="G4" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="H4" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -2358,18 +2358,18 @@
         <v>17</v>
       </c>
       <c r="G5" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="H5" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="B6" t="s">
         <v>473</v>
-      </c>
-      <c r="B6" t="s">
-        <v>474</v>
       </c>
       <c r="D6">
         <v>1544</v>
@@ -2378,10 +2378,10 @@
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="G6" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -2401,10 +2401,10 @@
         <v>89</v>
       </c>
       <c r="G7" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="H7" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -2424,10 +2424,10 @@
         <v>34</v>
       </c>
       <c r="G8" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="H8" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -2447,7 +2447,7 @@
         <v>323</v>
       </c>
       <c r="G9" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -2467,10 +2467,10 @@
         <v>11</v>
       </c>
       <c r="G10" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="H10" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -2490,10 +2490,10 @@
         <v>89</v>
       </c>
       <c r="G11" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="H11" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -2513,10 +2513,10 @@
         <v>67</v>
       </c>
       <c r="G12" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="H12" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -2536,10 +2536,10 @@
         <v>34</v>
       </c>
       <c r="G13" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="H13" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -2559,18 +2559,18 @@
         <v>155</v>
       </c>
       <c r="G14" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="H14" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="B15" t="s">
         <v>468</v>
-      </c>
-      <c r="B15" t="s">
-        <v>469</v>
       </c>
       <c r="D15">
         <v>1650</v>
@@ -2579,13 +2579,13 @@
         <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="G15" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="H15" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
@@ -2605,7 +2605,7 @@
         <v>211</v>
       </c>
       <c r="G16" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
@@ -2625,10 +2625,10 @@
         <v>412</v>
       </c>
       <c r="G17" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="H17" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
@@ -2636,7 +2636,7 @@
         <v>125</v>
       </c>
       <c r="B18" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="D18">
         <v>1339</v>
@@ -2648,18 +2648,18 @@
         <v>76</v>
       </c>
       <c r="G18" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="H18" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="B19" t="s">
         <v>499</v>
-      </c>
-      <c r="B19" t="s">
-        <v>500</v>
       </c>
       <c r="C19" t="s">
         <v>128</v>
@@ -2674,33 +2674,33 @@
         <v>31</v>
       </c>
       <c r="G19" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="H19" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="B20" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="D20">
         <v>1265</v>
       </c>
       <c r="E20" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F20" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="G20" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="H20" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
@@ -2720,10 +2720,10 @@
         <v>11</v>
       </c>
       <c r="G21" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="H21" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
@@ -2743,10 +2743,10 @@
         <v>11</v>
       </c>
       <c r="G22" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="H22" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
@@ -2766,10 +2766,10 @@
         <v>56</v>
       </c>
       <c r="G23" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="H23" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
@@ -2789,10 +2789,10 @@
         <v>56</v>
       </c>
       <c r="G24" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="H24" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
@@ -2812,10 +2812,10 @@
         <v>14</v>
       </c>
       <c r="G25" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="H25" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
@@ -2835,10 +2835,10 @@
         <v>190</v>
       </c>
       <c r="G26" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="H26" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
@@ -2858,10 +2858,10 @@
         <v>81</v>
       </c>
       <c r="G27" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="H27" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
@@ -2881,10 +2881,10 @@
         <v>34</v>
       </c>
       <c r="G28" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="H28" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
@@ -2892,7 +2892,7 @@
         <v>303</v>
       </c>
       <c r="B29" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="C29" t="s">
         <v>128</v>
@@ -2907,10 +2907,10 @@
         <v>282</v>
       </c>
       <c r="G29" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="H29" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
@@ -2918,7 +2918,7 @@
         <v>305</v>
       </c>
       <c r="B30" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="D30">
         <v>1432</v>
@@ -2930,10 +2930,10 @@
         <v>306</v>
       </c>
       <c r="G30" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="H30" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
@@ -2941,7 +2941,7 @@
         <v>281</v>
       </c>
       <c r="B31" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="D31">
         <v>1470</v>
@@ -2953,33 +2953,33 @@
         <v>282</v>
       </c>
       <c r="G31" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="H31" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B32" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="D32">
         <v>1270</v>
       </c>
       <c r="E32" t="s">
+        <v>506</v>
+      </c>
+      <c r="F32" t="s">
         <v>507</v>
       </c>
-      <c r="F32" t="s">
-        <v>508</v>
-      </c>
       <c r="G32" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="H32" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
@@ -2999,7 +2999,7 @@
         <v>14</v>
       </c>
       <c r="G33" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
@@ -3019,18 +3019,18 @@
         <v>56</v>
       </c>
       <c r="G34" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="H34" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="B35" t="s">
         <v>476</v>
-      </c>
-      <c r="B35" t="s">
-        <v>477</v>
       </c>
       <c r="C35" t="s">
         <v>37</v>
@@ -3045,7 +3045,7 @@
         <v>76</v>
       </c>
       <c r="G35" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
@@ -3053,7 +3053,7 @@
         <v>224</v>
       </c>
       <c r="B36" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="D36">
         <v>1310</v>
@@ -3065,10 +3065,10 @@
         <v>225</v>
       </c>
       <c r="G36" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="H36" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
@@ -3076,7 +3076,7 @@
         <v>140</v>
       </c>
       <c r="B37" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="D37">
         <v>1450</v>
@@ -3088,10 +3088,10 @@
         <v>73</v>
       </c>
       <c r="G37" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="H37" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
@@ -3099,7 +3099,7 @@
         <v>384</v>
       </c>
       <c r="B38" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="D38">
         <v>1387.5</v>
@@ -3111,10 +3111,10 @@
         <v>11</v>
       </c>
       <c r="G38" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="H38" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
@@ -3122,7 +3122,7 @@
         <v>379</v>
       </c>
       <c r="B39" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="D39">
         <v>1435</v>
@@ -3134,10 +3134,10 @@
         <v>380</v>
       </c>
       <c r="G39" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="H39" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
@@ -3157,18 +3157,18 @@
         <v>73</v>
       </c>
       <c r="G40" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="H40" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="B41" t="s">
         <v>485</v>
-      </c>
-      <c r="B41" t="s">
-        <v>486</v>
       </c>
       <c r="C41" t="s">
         <v>37</v>
@@ -3183,7 +3183,7 @@
         <v>420</v>
       </c>
       <c r="G41" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
@@ -3206,18 +3206,18 @@
         <v>34</v>
       </c>
       <c r="G42" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="H42" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="B43" t="s">
         <v>482</v>
-      </c>
-      <c r="B43" t="s">
-        <v>483</v>
       </c>
       <c r="D43">
         <v>1351</v>
@@ -3226,24 +3226,24 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="G43" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="H43" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="B44" t="s">
         <v>464</v>
       </c>
-      <c r="B44" t="s">
+      <c r="C44" t="s">
         <v>465</v>
-      </c>
-      <c r="C44" t="s">
-        <v>466</v>
       </c>
       <c r="D44">
         <v>1480</v>
@@ -3255,59 +3255,65 @@
         <v>51</v>
       </c>
       <c r="G44" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="H44" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="B45" t="s">
-        <v>554</v>
+        <v>552</v>
+      </c>
+      <c r="C45" t="s">
+        <v>37</v>
       </c>
       <c r="D45">
         <v>1287</v>
       </c>
       <c r="E45" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F45" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="G45" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="H45" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="B46" t="s">
-        <v>554</v>
+        <v>552</v>
+      </c>
+      <c r="C46" t="s">
+        <v>37</v>
       </c>
       <c r="D46">
         <v>1288</v>
       </c>
       <c r="E46" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F46" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="G46" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="H46" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="I46" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
@@ -3327,10 +3333,10 @@
         <v>250</v>
       </c>
       <c r="G47" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="H47" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
@@ -3350,10 +3356,10 @@
         <v>34</v>
       </c>
       <c r="G48" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="H48" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
@@ -3376,7 +3382,7 @@
         <v>38</v>
       </c>
       <c r="G49" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
@@ -3396,7 +3402,7 @@
         <v>266</v>
       </c>
       <c r="G50" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
@@ -3416,10 +3422,10 @@
         <v>67</v>
       </c>
       <c r="G51" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="H51" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
@@ -3439,10 +3445,10 @@
         <v>14</v>
       </c>
       <c r="G52" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="H52" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
@@ -3465,15 +3471,15 @@
         <v>38</v>
       </c>
       <c r="G53" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="B54" t="s">
         <v>440</v>
-      </c>
-      <c r="B54" t="s">
-        <v>441</v>
       </c>
       <c r="D54">
         <v>1410</v>
@@ -3485,15 +3491,15 @@
         <v>14</v>
       </c>
       <c r="G54" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="B55" t="s">
         <v>503</v>
-      </c>
-      <c r="B55" t="s">
-        <v>504</v>
       </c>
       <c r="D55">
         <v>1481</v>
@@ -3502,13 +3508,13 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="G55" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="H55" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
@@ -3531,30 +3537,30 @@
         <v>38</v>
       </c>
       <c r="G56" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B57" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="D57">
         <v>1290</v>
       </c>
       <c r="E57" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F57" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="G57" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="H57" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
@@ -3574,7 +3580,7 @@
         <v>14</v>
       </c>
       <c r="G58" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
@@ -3585,7 +3591,7 @@
         <v>48</v>
       </c>
       <c r="C59" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D59">
         <v>1350</v>
@@ -3597,10 +3603,10 @@
         <v>34</v>
       </c>
       <c r="G59" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="H59" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
@@ -3620,10 +3626,10 @@
         <v>14</v>
       </c>
       <c r="G60" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="H60" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
@@ -3643,10 +3649,10 @@
         <v>34</v>
       </c>
       <c r="G61" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="H61" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
@@ -3666,10 +3672,10 @@
         <v>34</v>
       </c>
       <c r="G62" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="H62" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
@@ -3689,10 +3695,10 @@
         <v>17</v>
       </c>
       <c r="G63" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="H63" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
@@ -3712,10 +3718,10 @@
         <v>190</v>
       </c>
       <c r="G64" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="H64" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
@@ -3735,10 +3741,10 @@
         <v>11</v>
       </c>
       <c r="G65" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="H65" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
@@ -3758,10 +3764,10 @@
         <v>11</v>
       </c>
       <c r="G66" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="H66" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
@@ -3769,7 +3775,7 @@
         <v>344</v>
       </c>
       <c r="B67" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="D67">
         <v>1350</v>
@@ -3781,10 +3787,10 @@
         <v>34</v>
       </c>
       <c r="G67" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="H67" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.2">
@@ -3807,18 +3813,18 @@
         <v>34</v>
       </c>
       <c r="G68" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="H68" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="B69" t="s">
         <v>462</v>
-      </c>
-      <c r="B69" t="s">
-        <v>463</v>
       </c>
       <c r="D69">
         <v>1450</v>
@@ -3830,41 +3836,41 @@
         <v>73</v>
       </c>
       <c r="G69" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="H69" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B70" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="D70">
         <v>1213</v>
       </c>
       <c r="E70" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F70" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="G70" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="H70" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="B71" t="s">
         <v>449</v>
-      </c>
-      <c r="B71" t="s">
-        <v>450</v>
       </c>
       <c r="D71">
         <v>1325</v>
@@ -3876,7 +3882,7 @@
         <v>89</v>
       </c>
       <c r="G71" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.2">
@@ -3884,7 +3890,7 @@
         <v>336</v>
       </c>
       <c r="B72" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="D72">
         <v>1405</v>
@@ -3896,10 +3902,10 @@
         <v>250</v>
       </c>
       <c r="G72" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="H72" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.2">
@@ -3919,10 +3925,10 @@
         <v>34</v>
       </c>
       <c r="G73" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="H73" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
@@ -3945,15 +3951,15 @@
         <v>51</v>
       </c>
       <c r="G74" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="B75" t="s">
         <v>490</v>
-      </c>
-      <c r="B75" t="s">
-        <v>491</v>
       </c>
       <c r="D75">
         <v>1325</v>
@@ -3965,10 +3971,10 @@
         <v>89</v>
       </c>
       <c r="G75" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="H75" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
@@ -3988,7 +3994,7 @@
         <v>14</v>
       </c>
       <c r="G76" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
@@ -4008,18 +4014,18 @@
         <v>34</v>
       </c>
       <c r="G77" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="H77" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="B78" t="s">
         <v>456</v>
-      </c>
-      <c r="B78" t="s">
-        <v>457</v>
       </c>
       <c r="D78">
         <v>1325</v>
@@ -4031,10 +4037,10 @@
         <v>89</v>
       </c>
       <c r="G78" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="H78" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.2">
@@ -4054,10 +4060,10 @@
         <v>89</v>
       </c>
       <c r="G79" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="H79" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.2">
@@ -4065,7 +4071,7 @@
         <v>429</v>
       </c>
       <c r="B80" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="D80">
         <v>1375</v>
@@ -4077,7 +4083,7 @@
         <v>17</v>
       </c>
       <c r="G80" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
@@ -4085,7 +4091,7 @@
         <v>238</v>
       </c>
       <c r="B81" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="D81">
         <v>1375</v>
@@ -4097,15 +4103,15 @@
         <v>17</v>
       </c>
       <c r="G81" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B82" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="D82">
         <v>1375</v>
@@ -4117,7 +4123,7 @@
         <v>17</v>
       </c>
       <c r="G82" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.2">
@@ -4137,10 +4143,10 @@
         <v>34</v>
       </c>
       <c r="G83" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="H83" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.2">
@@ -4160,7 +4166,7 @@
         <v>31</v>
       </c>
       <c r="G84" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
@@ -4180,7 +4186,7 @@
         <v>14</v>
       </c>
       <c r="G85" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.2">
@@ -4203,18 +4209,18 @@
         <v>67</v>
       </c>
       <c r="G86" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="H86" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="B87" t="s">
         <v>589</v>
-      </c>
-      <c r="B87" t="s">
-        <v>591</v>
       </c>
       <c r="C87" t="s">
         <v>37</v>
@@ -4229,10 +4235,10 @@
         <v>398</v>
       </c>
       <c r="G87" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="H87" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.2">
@@ -4252,10 +4258,10 @@
         <v>112</v>
       </c>
       <c r="G88" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="H88" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.2">
@@ -4278,10 +4284,10 @@
         <v>115</v>
       </c>
       <c r="G89" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="H89" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.2">
@@ -4301,10 +4307,10 @@
         <v>17</v>
       </c>
       <c r="G90" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="H90" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.2">
@@ -4324,10 +4330,10 @@
         <v>89</v>
       </c>
       <c r="G91" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="H91" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.2">
@@ -4335,7 +4341,7 @@
         <v>325</v>
       </c>
       <c r="B92" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="D92">
         <v>1350</v>
@@ -4347,10 +4353,10 @@
         <v>34</v>
       </c>
       <c r="G92" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="H92" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.2">
@@ -4370,15 +4376,15 @@
         <v>166</v>
       </c>
       <c r="G93" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="B94" t="s">
         <v>487</v>
-      </c>
-      <c r="B94" t="s">
-        <v>488</v>
       </c>
       <c r="D94">
         <v>1550</v>
@@ -4387,21 +4393,21 @@
         <v>10</v>
       </c>
       <c r="F94" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="G94" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="H94" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="B95" t="s">
         <v>471</v>
-      </c>
-      <c r="B95" t="s">
-        <v>472</v>
       </c>
       <c r="C95" t="s">
         <v>128</v>
@@ -4416,10 +4422,10 @@
         <v>31</v>
       </c>
       <c r="G95" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="H95" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.2">
@@ -4439,10 +4445,10 @@
         <v>312</v>
       </c>
       <c r="G96" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="H96" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.2">
@@ -4462,10 +4468,10 @@
         <v>278</v>
       </c>
       <c r="G97" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="H97" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.2">
@@ -4485,10 +4491,10 @@
         <v>112</v>
       </c>
       <c r="G98" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="H98" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.2">
@@ -4508,10 +4514,10 @@
         <v>395</v>
       </c>
       <c r="G99" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="H99" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.2">
@@ -4534,10 +4540,10 @@
         <v>348</v>
       </c>
       <c r="G100" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="H100" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.2">
@@ -4560,10 +4566,10 @@
         <v>14</v>
       </c>
       <c r="G101" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="H101" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.2">
@@ -4583,10 +4589,10 @@
         <v>89</v>
       </c>
       <c r="G102" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="H102" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.2">
@@ -4594,7 +4600,7 @@
         <v>118</v>
       </c>
       <c r="B103" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="D103">
         <v>1325</v>
@@ -4606,13 +4612,13 @@
         <v>89</v>
       </c>
       <c r="G103" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="H103" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="I103" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.2">
@@ -4620,7 +4626,7 @@
         <v>280</v>
       </c>
       <c r="B104" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="D104">
         <v>1325</v>
@@ -4632,10 +4638,10 @@
         <v>89</v>
       </c>
       <c r="G104" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="H104" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.2">
@@ -4655,7 +4661,7 @@
         <v>14</v>
       </c>
       <c r="G105" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.2">
@@ -4675,10 +4681,10 @@
         <v>89</v>
       </c>
       <c r="G106" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="H106" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.2">
@@ -4698,10 +4704,10 @@
         <v>81</v>
       </c>
       <c r="G107" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="H107" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.2">
@@ -4721,10 +4727,10 @@
         <v>31</v>
       </c>
       <c r="G108" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="H108" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.2">
@@ -4732,7 +4738,7 @@
         <v>68</v>
       </c>
       <c r="B109" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="D109">
         <v>1350</v>
@@ -4744,41 +4750,41 @@
         <v>34</v>
       </c>
       <c r="G109" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="H109" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="B110" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="D110">
         <v>1230</v>
       </c>
       <c r="E110" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F110" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="G110" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="H110" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="B111" t="s">
         <v>492</v>
-      </c>
-      <c r="B111" t="s">
-        <v>493</v>
       </c>
       <c r="D111">
         <v>1387.5</v>
@@ -4790,10 +4796,10 @@
         <v>11</v>
       </c>
       <c r="G111" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="H111" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.2">
@@ -4813,7 +4819,7 @@
         <v>14</v>
       </c>
       <c r="G112" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.2">
@@ -4833,10 +4839,10 @@
         <v>17</v>
       </c>
       <c r="G113" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="H113" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.2">
@@ -4856,10 +4862,10 @@
         <v>17</v>
       </c>
       <c r="G114" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="H114" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.2">
@@ -4879,15 +4885,15 @@
         <v>81</v>
       </c>
       <c r="G115" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="H115" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B116" t="s">
         <v>170</v>
@@ -4902,38 +4908,38 @@
         <v>81</v>
       </c>
       <c r="G116" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="H116" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
-        <v>516</v>
+        <v>15</v>
       </c>
       <c r="B117" t="s">
-        <v>516</v>
+        <v>16</v>
       </c>
       <c r="D117">
-        <v>1295.5</v>
+        <v>1375</v>
       </c>
       <c r="E117" t="s">
-        <v>507</v>
+        <v>10</v>
       </c>
       <c r="F117" t="s">
-        <v>517</v>
+        <v>17</v>
       </c>
       <c r="G117" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="H117" t="s">
-        <v>580</v>
+        <v>539</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="B118" t="s">
         <v>16</v>
@@ -4948,15 +4954,15 @@
         <v>17</v>
       </c>
       <c r="G118" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="H118" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="B119" t="s">
         <v>16</v>
@@ -4971,38 +4977,38 @@
         <v>17</v>
       </c>
       <c r="G119" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="H119" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
-        <v>52</v>
+        <v>84</v>
       </c>
       <c r="B120" t="s">
         <v>16</v>
       </c>
       <c r="D120">
-        <v>1375</v>
+        <v>1350</v>
       </c>
       <c r="E120" t="s">
         <v>10</v>
       </c>
       <c r="F120" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="G120" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="H120" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B121" t="s">
         <v>16</v>
@@ -5017,61 +5023,61 @@
         <v>34</v>
       </c>
       <c r="G121" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="H121" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B122" t="s">
         <v>16</v>
       </c>
       <c r="D122">
-        <v>1350</v>
+        <v>1375</v>
       </c>
       <c r="E122" t="s">
         <v>10</v>
       </c>
       <c r="F122" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="G122" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="H122" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
-        <v>90</v>
+        <v>143</v>
       </c>
       <c r="B123" t="s">
         <v>16</v>
       </c>
       <c r="D123">
-        <v>1375</v>
+        <v>1387.5</v>
       </c>
       <c r="E123" t="s">
         <v>10</v>
       </c>
       <c r="F123" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G123" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="H123" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
-        <v>143</v>
+        <v>195</v>
       </c>
       <c r="B124" t="s">
         <v>16</v>
@@ -5086,38 +5092,38 @@
         <v>11</v>
       </c>
       <c r="G124" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="H124" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
-        <v>195</v>
+        <v>228</v>
       </c>
       <c r="B125" t="s">
         <v>16</v>
       </c>
       <c r="D125">
-        <v>1387.5</v>
+        <v>1350</v>
       </c>
       <c r="E125" t="s">
         <v>10</v>
       </c>
       <c r="F125" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="G125" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="H125" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
-        <v>228</v>
+        <v>241</v>
       </c>
       <c r="B126" t="s">
         <v>16</v>
@@ -5132,15 +5138,15 @@
         <v>34</v>
       </c>
       <c r="G126" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="H126" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
-        <v>241</v>
+        <v>263</v>
       </c>
       <c r="B127" t="s">
         <v>16</v>
@@ -5155,38 +5161,38 @@
         <v>34</v>
       </c>
       <c r="G127" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="H127" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
-        <v>263</v>
+        <v>296</v>
       </c>
       <c r="B128" t="s">
         <v>16</v>
       </c>
       <c r="D128">
-        <v>1350</v>
+        <v>1375</v>
       </c>
       <c r="E128" t="s">
         <v>10</v>
       </c>
       <c r="F128" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="G128" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="H128" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
-        <v>296</v>
+        <v>318</v>
       </c>
       <c r="B129" t="s">
         <v>16</v>
@@ -5201,84 +5207,90 @@
         <v>17</v>
       </c>
       <c r="G129" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="H129" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
-        <v>318</v>
+        <v>217</v>
       </c>
       <c r="B130" t="s">
-        <v>16</v>
+        <v>218</v>
       </c>
       <c r="D130">
-        <v>1375</v>
+        <v>1400</v>
       </c>
       <c r="E130" t="s">
         <v>10</v>
       </c>
       <c r="F130" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="G130" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="H130" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="B131" t="s">
-        <v>218</v>
+        <v>557</v>
+      </c>
+      <c r="C131" t="s">
+        <v>227</v>
       </c>
       <c r="D131">
-        <v>1400</v>
+        <v>1350</v>
       </c>
       <c r="E131" t="s">
         <v>10</v>
       </c>
       <c r="F131" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G131" t="s">
-        <v>540</v>
-      </c>
-      <c r="H131" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
-        <v>226</v>
+        <v>101</v>
       </c>
       <c r="B132" t="s">
+        <v>102</v>
+      </c>
+      <c r="C132" t="s">
+        <v>30</v>
+      </c>
+      <c r="D132">
+        <v>1325</v>
+      </c>
+      <c r="E132" t="s">
+        <v>10</v>
+      </c>
+      <c r="F132" t="s">
+        <v>89</v>
+      </c>
+      <c r="G132" t="s">
+        <v>538</v>
+      </c>
+      <c r="H132" t="s">
+        <v>542</v>
+      </c>
+      <c r="I132" t="s">
         <v>559</v>
-      </c>
-      <c r="C132" t="s">
-        <v>227</v>
-      </c>
-      <c r="D132">
-        <v>1350</v>
-      </c>
-      <c r="E132" t="s">
-        <v>10</v>
-      </c>
-      <c r="F132" t="s">
-        <v>34</v>
-      </c>
-      <c r="G132" t="s">
-        <v>543</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
-        <v>101</v>
+        <v>132</v>
       </c>
       <c r="B133" t="s">
         <v>102</v>
@@ -5287,27 +5299,27 @@
         <v>30</v>
       </c>
       <c r="D133">
-        <v>1325</v>
+        <v>1375</v>
       </c>
       <c r="E133" t="s">
         <v>10</v>
       </c>
       <c r="F133" t="s">
-        <v>89</v>
+        <v>17</v>
       </c>
       <c r="G133" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="H133" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="I133" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B134" t="s">
         <v>102</v>
@@ -5325,53 +5337,50 @@
         <v>17</v>
       </c>
       <c r="G134" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="H134" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="I134" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
-        <v>133</v>
+        <v>349</v>
       </c>
       <c r="B135" t="s">
-        <v>102</v>
+        <v>350</v>
       </c>
       <c r="C135" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="D135">
-        <v>1375</v>
+        <v>1325</v>
       </c>
       <c r="E135" t="s">
         <v>10</v>
       </c>
       <c r="F135" t="s">
-        <v>17</v>
+        <v>89</v>
       </c>
       <c r="G135" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="H135" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="I135" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
-        <v>349</v>
+        <v>496</v>
       </c>
       <c r="B136" t="s">
-        <v>350</v>
-      </c>
-      <c r="C136" t="s">
-        <v>37</v>
+        <v>497</v>
       </c>
       <c r="D136">
         <v>1325</v>
@@ -5383,153 +5392,150 @@
         <v>89</v>
       </c>
       <c r="G136" t="s">
-        <v>540</v>
-      </c>
-      <c r="H136" t="s">
-        <v>544</v>
-      </c>
-      <c r="I136" t="s">
-        <v>561</v>
+        <v>541</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
-        <v>497</v>
+        <v>477</v>
       </c>
       <c r="B137" t="s">
-        <v>498</v>
+        <v>478</v>
       </c>
       <c r="D137">
-        <v>1325</v>
+        <v>1350</v>
       </c>
       <c r="E137" t="s">
         <v>10</v>
       </c>
       <c r="F137" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="G137" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
-        <v>478</v>
+        <v>527</v>
       </c>
       <c r="B138" t="s">
-        <v>479</v>
+        <v>527</v>
       </c>
       <c r="D138">
-        <v>1350</v>
+        <v>1295.5</v>
       </c>
       <c r="E138" t="s">
-        <v>10</v>
+        <v>506</v>
       </c>
       <c r="F138" t="s">
-        <v>81</v>
+        <v>515</v>
       </c>
       <c r="G138" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
-        <v>529</v>
+        <v>88</v>
       </c>
       <c r="B139" t="s">
-        <v>529</v>
+        <v>564</v>
       </c>
       <c r="D139">
-        <v>1295.5</v>
+        <v>1325</v>
       </c>
       <c r="E139" t="s">
-        <v>507</v>
+        <v>10</v>
       </c>
       <c r="F139" t="s">
-        <v>517</v>
+        <v>89</v>
       </c>
       <c r="G139" t="s">
-        <v>543</v>
+        <v>538</v>
+      </c>
+      <c r="H139" t="s">
+        <v>542</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
-        <v>88</v>
+        <v>293</v>
       </c>
       <c r="B140" t="s">
-        <v>566</v>
+        <v>294</v>
       </c>
       <c r="D140">
-        <v>1325</v>
+        <v>1414.5</v>
       </c>
       <c r="E140" t="s">
         <v>10</v>
       </c>
       <c r="F140" t="s">
-        <v>89</v>
+        <v>295</v>
       </c>
       <c r="G140" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="H140" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
-        <v>293</v>
+        <v>351</v>
       </c>
       <c r="B141" t="s">
-        <v>294</v>
+        <v>352</v>
+      </c>
+      <c r="C141" t="s">
+        <v>161</v>
       </c>
       <c r="D141">
-        <v>1414.5</v>
+        <v>1410</v>
       </c>
       <c r="E141" t="s">
         <v>10</v>
       </c>
       <c r="F141" t="s">
-        <v>295</v>
+        <v>14</v>
       </c>
       <c r="G141" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="H141" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
-        <v>351</v>
+        <v>413</v>
       </c>
       <c r="B142" t="s">
-        <v>352</v>
-      </c>
-      <c r="C142" t="s">
-        <v>161</v>
+        <v>414</v>
       </c>
       <c r="D142">
-        <v>1410</v>
+        <v>1400</v>
       </c>
       <c r="E142" t="s">
         <v>10</v>
       </c>
       <c r="F142" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="G142" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="H142" t="s">
-        <v>547</v>
+        <v>578</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
-        <v>413</v>
+        <v>53</v>
       </c>
       <c r="B143" t="s">
-        <v>414</v>
+        <v>54</v>
       </c>
       <c r="D143">
         <v>1400</v>
@@ -5541,18 +5547,18 @@
         <v>31</v>
       </c>
       <c r="G143" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="H143" t="s">
-        <v>580</v>
+        <v>545</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
-        <v>53</v>
+        <v>479</v>
       </c>
       <c r="B144" t="s">
-        <v>54</v>
+        <v>480</v>
       </c>
       <c r="D144">
         <v>1400</v>
@@ -5564,61 +5570,61 @@
         <v>31</v>
       </c>
       <c r="G144" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="H144" t="s">
-        <v>547</v>
+        <v>580</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
-        <v>480</v>
+        <v>156</v>
       </c>
       <c r="B145" t="s">
-        <v>481</v>
+        <v>157</v>
       </c>
       <c r="D145">
-        <v>1400</v>
+        <v>1478.5</v>
       </c>
       <c r="E145" t="s">
         <v>10</v>
       </c>
       <c r="F145" t="s">
-        <v>31</v>
+        <v>158</v>
       </c>
       <c r="G145" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="H145" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
-        <v>156</v>
+        <v>255</v>
       </c>
       <c r="B146" t="s">
-        <v>157</v>
+        <v>256</v>
       </c>
       <c r="D146">
-        <v>1478.5</v>
+        <v>1350</v>
       </c>
       <c r="E146" t="s">
         <v>10</v>
       </c>
       <c r="F146" t="s">
-        <v>158</v>
+        <v>81</v>
       </c>
       <c r="G146" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="H146" t="s">
-        <v>580</v>
+        <v>539</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
-        <v>255</v>
+        <v>279</v>
       </c>
       <c r="B147" t="s">
         <v>256</v>
@@ -5633,15 +5639,15 @@
         <v>81</v>
       </c>
       <c r="G147" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="H147" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
-        <v>279</v>
+        <v>304</v>
       </c>
       <c r="B148" t="s">
         <v>256</v>
@@ -5656,15 +5662,15 @@
         <v>81</v>
       </c>
       <c r="G148" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="H148" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
-        <v>304</v>
+        <v>345</v>
       </c>
       <c r="B149" t="s">
         <v>256</v>
@@ -5679,87 +5685,87 @@
         <v>81</v>
       </c>
       <c r="G149" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="H149" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
-        <v>345</v>
+        <v>105</v>
       </c>
       <c r="B150" t="s">
-        <v>256</v>
+        <v>106</v>
       </c>
       <c r="D150">
-        <v>1350</v>
+        <v>1225</v>
       </c>
       <c r="E150" t="s">
         <v>10</v>
       </c>
       <c r="F150" t="s">
-        <v>81</v>
+        <v>107</v>
       </c>
       <c r="G150" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="H150" t="s">
-        <v>541</v>
+        <v>580</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
-        <v>105</v>
+        <v>138</v>
       </c>
       <c r="B151" t="s">
-        <v>106</v>
+        <v>139</v>
       </c>
       <c r="D151">
-        <v>1225</v>
+        <v>1387.5</v>
       </c>
       <c r="E151" t="s">
         <v>10</v>
       </c>
       <c r="F151" t="s">
-        <v>107</v>
+        <v>11</v>
       </c>
       <c r="G151" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="H151" t="s">
-        <v>582</v>
+        <v>539</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
-        <v>138</v>
+        <v>108</v>
       </c>
       <c r="B152" t="s">
-        <v>139</v>
+        <v>109</v>
       </c>
       <c r="D152">
-        <v>1387.5</v>
+        <v>1350</v>
       </c>
       <c r="E152" t="s">
         <v>10</v>
       </c>
       <c r="F152" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="G152" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="H152" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
-        <v>108</v>
+        <v>79</v>
       </c>
       <c r="B153" t="s">
-        <v>109</v>
+        <v>80</v>
       </c>
       <c r="D153">
         <v>1350</v>
@@ -5768,102 +5774,102 @@
         <v>10</v>
       </c>
       <c r="F153" t="s">
-        <v>34</v>
+        <v>81</v>
       </c>
       <c r="G153" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="H153" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
-        <v>79</v>
+        <v>8</v>
       </c>
       <c r="B154" t="s">
-        <v>80</v>
+        <v>9</v>
       </c>
       <c r="D154">
-        <v>1350</v>
+        <v>1387.5</v>
       </c>
       <c r="E154" t="s">
         <v>10</v>
       </c>
       <c r="F154" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="G154" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="H154" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
-        <v>8</v>
+        <v>434</v>
       </c>
       <c r="B155" t="s">
-        <v>9</v>
+        <v>435</v>
       </c>
       <c r="D155">
-        <v>1387.5</v>
+        <v>1390</v>
       </c>
       <c r="E155" t="s">
         <v>10</v>
       </c>
       <c r="F155" t="s">
-        <v>11</v>
+        <v>436</v>
       </c>
       <c r="G155" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="H155" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
-        <v>434</v>
+        <v>95</v>
       </c>
       <c r="B156" t="s">
-        <v>435</v>
+        <v>96</v>
       </c>
       <c r="D156">
-        <v>1390</v>
+        <v>1445</v>
       </c>
       <c r="E156" t="s">
         <v>10</v>
       </c>
       <c r="F156" t="s">
-        <v>436</v>
+        <v>97</v>
       </c>
       <c r="G156" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="H156" t="s">
-        <v>547</v>
+        <v>578</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
-        <v>95</v>
+        <v>32</v>
       </c>
       <c r="B157" t="s">
-        <v>96</v>
+        <v>33</v>
       </c>
       <c r="D157">
-        <v>1445</v>
+        <v>1350</v>
       </c>
       <c r="E157" t="s">
         <v>10</v>
       </c>
       <c r="F157" t="s">
-        <v>97</v>
+        <v>34</v>
       </c>
       <c r="G157" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="H157" t="s">
         <v>580</v>
@@ -5871,7 +5877,7 @@
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
-        <v>32</v>
+        <v>194</v>
       </c>
       <c r="B158" t="s">
         <v>33</v>
@@ -5886,159 +5892,162 @@
         <v>34</v>
       </c>
       <c r="G158" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="H158" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
-        <v>194</v>
+        <v>242</v>
       </c>
       <c r="B159" t="s">
         <v>33</v>
       </c>
       <c r="D159">
-        <v>1350</v>
+        <v>1300</v>
       </c>
       <c r="E159" t="s">
         <v>10</v>
       </c>
       <c r="F159" t="s">
-        <v>34</v>
+        <v>243</v>
       </c>
       <c r="G159" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="H159" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
-        <v>242</v>
+        <v>369</v>
       </c>
       <c r="B160" t="s">
         <v>33</v>
       </c>
       <c r="D160">
-        <v>1300</v>
+        <v>1387.5</v>
       </c>
       <c r="E160" t="s">
         <v>10</v>
       </c>
       <c r="F160" t="s">
-        <v>243</v>
+        <v>11</v>
       </c>
       <c r="G160" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="H160" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
-        <v>369</v>
+        <v>417</v>
       </c>
       <c r="B161" t="s">
         <v>33</v>
       </c>
       <c r="D161">
-        <v>1387.5</v>
+        <v>1375</v>
       </c>
       <c r="E161" t="s">
         <v>10</v>
       </c>
       <c r="F161" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="G161" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="H161" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="B162" t="s">
         <v>33</v>
       </c>
       <c r="D162">
-        <v>1375</v>
+        <v>1300</v>
       </c>
       <c r="E162" t="s">
         <v>10</v>
       </c>
       <c r="F162" t="s">
-        <v>17</v>
+        <v>243</v>
       </c>
       <c r="G162" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="H162" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
-        <v>421</v>
+        <v>508</v>
       </c>
       <c r="B163" t="s">
-        <v>33</v>
+        <v>508</v>
       </c>
       <c r="D163">
-        <v>1300</v>
+        <v>1288</v>
       </c>
       <c r="E163" t="s">
-        <v>10</v>
+        <v>506</v>
       </c>
       <c r="F163" t="s">
-        <v>243</v>
+        <v>509</v>
       </c>
       <c r="G163" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="H163" t="s">
-        <v>582</v>
+        <v>542</v>
+      </c>
+      <c r="I163" t="s">
+        <v>559</v>
       </c>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
-        <v>509</v>
+        <v>178</v>
       </c>
       <c r="B164" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="D164">
-        <v>1288</v>
+        <v>1325</v>
       </c>
       <c r="E164" t="s">
-        <v>507</v>
+        <v>10</v>
       </c>
       <c r="F164" t="s">
-        <v>510</v>
+        <v>89</v>
       </c>
       <c r="G164" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="H164" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="I164" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
-        <v>178</v>
+        <v>197</v>
       </c>
       <c r="B165" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="D165">
         <v>1325</v>
@@ -6050,21 +6059,18 @@
         <v>89</v>
       </c>
       <c r="G165" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="H165" t="s">
-        <v>544</v>
-      </c>
-      <c r="I165" t="s">
-        <v>561</v>
+        <v>542</v>
       </c>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
-        <v>197</v>
+        <v>134</v>
       </c>
       <c r="B166" t="s">
-        <v>509</v>
+        <v>135</v>
       </c>
       <c r="D166">
         <v>1325</v>
@@ -6076,84 +6082,84 @@
         <v>89</v>
       </c>
       <c r="G166" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="H166" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
-        <v>134</v>
+        <v>500</v>
       </c>
       <c r="B167" t="s">
-        <v>135</v>
+        <v>501</v>
       </c>
       <c r="D167">
-        <v>1325</v>
+        <v>1470</v>
       </c>
       <c r="E167" t="s">
         <v>10</v>
       </c>
       <c r="F167" t="s">
-        <v>89</v>
+        <v>282</v>
       </c>
       <c r="G167" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="H167" t="s">
-        <v>544</v>
+        <v>575</v>
       </c>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
-        <v>501</v>
+        <v>516</v>
       </c>
       <c r="B168" t="s">
-        <v>502</v>
+        <v>516</v>
       </c>
       <c r="D168">
-        <v>1470</v>
+        <v>1288</v>
       </c>
       <c r="E168" t="s">
-        <v>10</v>
+        <v>506</v>
       </c>
       <c r="F168" t="s">
-        <v>282</v>
+        <v>509</v>
       </c>
       <c r="G168" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="H168" t="s">
-        <v>577</v>
+        <v>539</v>
       </c>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
-        <v>518</v>
+        <v>204</v>
       </c>
       <c r="B169" t="s">
-        <v>518</v>
+        <v>205</v>
       </c>
       <c r="D169">
-        <v>1288</v>
+        <v>1350</v>
       </c>
       <c r="E169" t="s">
-        <v>507</v>
+        <v>10</v>
       </c>
       <c r="F169" t="s">
-        <v>510</v>
+        <v>34</v>
       </c>
       <c r="G169" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="H169" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="B170" t="s">
         <v>205</v>
@@ -6165,300 +6171,303 @@
         <v>10</v>
       </c>
       <c r="F170" t="s">
-        <v>34</v>
+        <v>81</v>
       </c>
       <c r="G170" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="H170" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
-        <v>212</v>
+        <v>311</v>
       </c>
       <c r="B171" t="s">
         <v>205</v>
       </c>
       <c r="D171">
-        <v>1350</v>
+        <v>1500</v>
       </c>
       <c r="E171" t="s">
         <v>10</v>
       </c>
       <c r="F171" t="s">
-        <v>81</v>
+        <v>312</v>
       </c>
       <c r="G171" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="H171" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
-        <v>311</v>
+        <v>387</v>
       </c>
       <c r="B172" t="s">
         <v>205</v>
       </c>
       <c r="D172">
-        <v>1500</v>
+        <v>1350</v>
       </c>
       <c r="E172" t="s">
         <v>10</v>
       </c>
       <c r="F172" t="s">
-        <v>312</v>
+        <v>34</v>
       </c>
       <c r="G172" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="H172" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
-        <v>387</v>
+        <v>247</v>
       </c>
       <c r="B173" t="s">
-        <v>205</v>
+        <v>565</v>
       </c>
       <c r="D173">
-        <v>1350</v>
+        <v>1362.5</v>
       </c>
       <c r="E173" t="s">
         <v>10</v>
       </c>
       <c r="F173" t="s">
-        <v>34</v>
+        <v>190</v>
       </c>
       <c r="G173" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="H173" t="s">
-        <v>541</v>
+        <v>542</v>
+      </c>
+      <c r="I173" t="s">
+        <v>559</v>
       </c>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
-        <v>247</v>
+        <v>466</v>
       </c>
       <c r="B174" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="D174">
-        <v>1362.5</v>
+        <v>1325</v>
       </c>
       <c r="E174" t="s">
         <v>10</v>
       </c>
       <c r="F174" t="s">
-        <v>190</v>
+        <v>89</v>
       </c>
       <c r="G174" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="H174" t="s">
-        <v>544</v>
-      </c>
-      <c r="I174" t="s">
-        <v>561</v>
+        <v>542</v>
       </c>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
-        <v>467</v>
+        <v>512</v>
       </c>
       <c r="B175" t="s">
-        <v>567</v>
+        <v>512</v>
+      </c>
+      <c r="C175" t="s">
+        <v>37</v>
       </c>
       <c r="D175">
-        <v>1325</v>
+        <v>1285</v>
       </c>
       <c r="E175" t="s">
-        <v>10</v>
+        <v>506</v>
       </c>
       <c r="F175" t="s">
-        <v>89</v>
+        <v>513</v>
       </c>
       <c r="G175" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="H175" t="s">
-        <v>544</v>
+        <v>578</v>
       </c>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
-        <v>513</v>
+        <v>326</v>
       </c>
       <c r="B176" t="s">
-        <v>513</v>
+        <v>327</v>
+      </c>
+      <c r="C176" t="s">
+        <v>328</v>
       </c>
       <c r="D176">
-        <v>1285</v>
+        <v>1375</v>
       </c>
       <c r="E176" t="s">
-        <v>507</v>
+        <v>10</v>
       </c>
       <c r="F176" t="s">
-        <v>514</v>
+        <v>329</v>
       </c>
       <c r="G176" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="H176" t="s">
-        <v>580</v>
+        <v>544</v>
       </c>
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
-        <v>326</v>
+        <v>355</v>
       </c>
       <c r="B177" t="s">
-        <v>327</v>
+        <v>356</v>
       </c>
       <c r="C177" t="s">
-        <v>328</v>
+        <v>357</v>
       </c>
       <c r="D177">
-        <v>1375</v>
+        <v>1440</v>
       </c>
       <c r="E177" t="s">
         <v>10</v>
       </c>
       <c r="F177" t="s">
-        <v>329</v>
+        <v>358</v>
       </c>
       <c r="G177" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="H177" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
-        <v>355</v>
+        <v>49</v>
       </c>
       <c r="B178" t="s">
-        <v>356</v>
-      </c>
-      <c r="C178" t="s">
-        <v>357</v>
+        <v>50</v>
       </c>
       <c r="D178">
-        <v>1440</v>
+        <v>1480</v>
       </c>
       <c r="E178" t="s">
         <v>10</v>
       </c>
       <c r="F178" t="s">
-        <v>358</v>
+        <v>51</v>
       </c>
       <c r="G178" t="s">
-        <v>540</v>
-      </c>
-      <c r="H178" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
-        <v>49</v>
+        <v>198</v>
       </c>
       <c r="B179" t="s">
-        <v>50</v>
+        <v>199</v>
+      </c>
+      <c r="C179" t="s">
+        <v>200</v>
       </c>
       <c r="D179">
-        <v>1480</v>
+        <v>1400</v>
       </c>
       <c r="E179" t="s">
         <v>10</v>
       </c>
       <c r="F179" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="G179" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
-        <v>198</v>
+        <v>18</v>
       </c>
       <c r="B180" t="s">
-        <v>199</v>
-      </c>
-      <c r="C180" t="s">
-        <v>200</v>
+        <v>19</v>
       </c>
       <c r="D180">
-        <v>1400</v>
+        <v>1375</v>
       </c>
       <c r="E180" t="s">
         <v>10</v>
       </c>
       <c r="F180" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="G180" t="s">
-        <v>543</v>
+        <v>538</v>
+      </c>
+      <c r="H180" t="s">
+        <v>539</v>
       </c>
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
-        <v>18</v>
+        <v>177</v>
       </c>
       <c r="B181" t="s">
         <v>19</v>
       </c>
       <c r="D181">
-        <v>1375</v>
+        <v>1350</v>
       </c>
       <c r="E181" t="s">
         <v>10</v>
       </c>
       <c r="F181" t="s">
-        <v>17</v>
+        <v>81</v>
       </c>
       <c r="G181" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="H181" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
-        <v>177</v>
+        <v>244</v>
       </c>
       <c r="B182" t="s">
         <v>19</v>
       </c>
       <c r="D182">
-        <v>1350</v>
+        <v>1375</v>
       </c>
       <c r="E182" t="s">
         <v>10</v>
       </c>
       <c r="F182" t="s">
-        <v>81</v>
+        <v>17</v>
       </c>
       <c r="G182" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="H182" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
-        <v>244</v>
+        <v>331</v>
       </c>
       <c r="B183" t="s">
         <v>19</v>
@@ -6473,64 +6482,64 @@
         <v>17</v>
       </c>
       <c r="G183" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="H183" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
-        <v>331</v>
+        <v>367</v>
       </c>
       <c r="B184" t="s">
         <v>19</v>
       </c>
       <c r="D184">
-        <v>1375</v>
+        <v>1487.5</v>
       </c>
       <c r="E184" t="s">
         <v>10</v>
       </c>
       <c r="F184" t="s">
-        <v>17</v>
+        <v>368</v>
       </c>
       <c r="G184" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="H184" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
-        <v>367</v>
+        <v>594</v>
       </c>
       <c r="B185" t="s">
-        <v>19</v>
+        <v>596</v>
       </c>
       <c r="D185">
-        <v>1487.5</v>
+        <v>1350</v>
       </c>
       <c r="E185" t="s">
         <v>10</v>
       </c>
       <c r="F185" t="s">
-        <v>368</v>
+        <v>34</v>
       </c>
       <c r="G185" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="H185" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
-        <v>596</v>
+        <v>307</v>
       </c>
       <c r="B186" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="D186">
         <v>1350</v>
@@ -6542,38 +6551,38 @@
         <v>34</v>
       </c>
       <c r="G186" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="H186" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
-        <v>307</v>
+        <v>173</v>
       </c>
       <c r="B187" t="s">
-        <v>597</v>
+        <v>174</v>
       </c>
       <c r="D187">
-        <v>1350</v>
+        <v>1325</v>
       </c>
       <c r="E187" t="s">
         <v>10</v>
       </c>
       <c r="F187" t="s">
-        <v>34</v>
+        <v>89</v>
       </c>
       <c r="G187" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="H187" t="s">
-        <v>541</v>
+        <v>546</v>
       </c>
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
-        <v>173</v>
+        <v>240</v>
       </c>
       <c r="B188" t="s">
         <v>174</v>
@@ -6588,15 +6597,15 @@
         <v>89</v>
       </c>
       <c r="G188" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="H188" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
-        <v>240</v>
+        <v>324</v>
       </c>
       <c r="B189" t="s">
         <v>174</v>
@@ -6611,18 +6620,18 @@
         <v>89</v>
       </c>
       <c r="G189" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="H189" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
     </row>
     <row r="190" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
-        <v>324</v>
+        <v>385</v>
       </c>
       <c r="B190" t="s">
-        <v>174</v>
+        <v>386</v>
       </c>
       <c r="D190">
         <v>1325</v>
@@ -6634,67 +6643,70 @@
         <v>89</v>
       </c>
       <c r="G190" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="H190" t="s">
-        <v>548</v>
+        <v>580</v>
       </c>
     </row>
     <row r="191" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
-        <v>385</v>
+        <v>196</v>
       </c>
       <c r="B191" t="s">
-        <v>386</v>
+        <v>585</v>
       </c>
       <c r="D191">
-        <v>1325</v>
+        <v>1350</v>
       </c>
       <c r="E191" t="s">
         <v>10</v>
       </c>
       <c r="F191" t="s">
-        <v>89</v>
+        <v>34</v>
       </c>
       <c r="G191" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="H191" t="s">
-        <v>582</v>
+        <v>580</v>
+      </c>
+      <c r="I191" t="s">
+        <v>559</v>
       </c>
     </row>
     <row r="192" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
-        <v>196</v>
+        <v>289</v>
       </c>
       <c r="B192" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="D192">
-        <v>1350</v>
+        <v>1325</v>
       </c>
       <c r="E192" t="s">
         <v>10</v>
       </c>
       <c r="F192" t="s">
-        <v>34</v>
+        <v>89</v>
       </c>
       <c r="G192" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="H192" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="I192" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
-        <v>289</v>
+        <v>203</v>
       </c>
       <c r="B193" t="s">
-        <v>587</v>
+        <v>577</v>
       </c>
       <c r="D193">
         <v>1325</v>
@@ -6706,252 +6718,252 @@
         <v>89</v>
       </c>
       <c r="G193" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="H193" t="s">
-        <v>582</v>
-      </c>
-      <c r="I193" t="s">
-        <v>561</v>
+        <v>580</v>
       </c>
     </row>
     <row r="194" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A194" s="1" t="s">
-        <v>203</v>
+        <v>365</v>
       </c>
       <c r="B194" t="s">
-        <v>579</v>
+        <v>366</v>
       </c>
       <c r="D194">
-        <v>1325</v>
+        <v>1350</v>
       </c>
       <c r="E194" t="s">
         <v>10</v>
       </c>
       <c r="F194" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="G194" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="H194" t="s">
-        <v>582</v>
+        <v>546</v>
       </c>
     </row>
     <row r="195" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A195" s="1" t="s">
-        <v>365</v>
+        <v>91</v>
       </c>
       <c r="B195" t="s">
-        <v>366</v>
+        <v>92</v>
       </c>
       <c r="D195">
-        <v>1350</v>
+        <v>1325</v>
       </c>
       <c r="E195" t="s">
         <v>10</v>
       </c>
       <c r="F195" t="s">
-        <v>81</v>
-      </c>
-      <c r="G195" t="s">
-        <v>540</v>
-      </c>
-      <c r="H195" t="s">
-        <v>548</v>
+        <v>89</v>
+      </c>
+      <c r="G195" s="3" t="s">
+        <v>538</v>
+      </c>
+      <c r="H195" s="3" t="s">
+        <v>545</v>
       </c>
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A196" s="1" t="s">
-        <v>91</v>
+        <v>415</v>
       </c>
       <c r="B196" t="s">
-        <v>92</v>
+        <v>416</v>
       </c>
       <c r="D196">
-        <v>1325</v>
+        <v>1410</v>
       </c>
       <c r="E196" t="s">
         <v>10</v>
       </c>
       <c r="F196" t="s">
-        <v>89</v>
-      </c>
-      <c r="G196" s="3" t="s">
-        <v>540</v>
-      </c>
-      <c r="H196" s="3" t="s">
-        <v>547</v>
+        <v>14</v>
+      </c>
+      <c r="G196" t="s">
+        <v>538</v>
+      </c>
+      <c r="H196" t="s">
+        <v>545</v>
       </c>
     </row>
     <row r="197" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A197" s="1" t="s">
-        <v>415</v>
+        <v>343</v>
       </c>
       <c r="B197" t="s">
-        <v>416</v>
+        <v>566</v>
       </c>
       <c r="D197">
-        <v>1410</v>
+        <v>1387.5</v>
       </c>
       <c r="E197" t="s">
         <v>10</v>
       </c>
       <c r="F197" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G197" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="H197" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="198" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A198" s="1" t="s">
-        <v>343</v>
+        <v>206</v>
       </c>
       <c r="B198" t="s">
-        <v>568</v>
+        <v>207</v>
+      </c>
+      <c r="C198" t="s">
+        <v>208</v>
       </c>
       <c r="D198">
-        <v>1387.5</v>
+        <v>1410</v>
       </c>
       <c r="E198" t="s">
         <v>10</v>
       </c>
       <c r="F198" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G198" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="H198" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A199" s="1" t="s">
-        <v>206</v>
+        <v>57</v>
       </c>
       <c r="B199" t="s">
-        <v>207</v>
+        <v>58</v>
       </c>
       <c r="C199" t="s">
-        <v>208</v>
+        <v>59</v>
       </c>
       <c r="D199">
-        <v>1410</v>
+        <v>1413.5</v>
       </c>
       <c r="E199" t="s">
         <v>10</v>
       </c>
       <c r="F199" t="s">
-        <v>14</v>
-      </c>
-      <c r="G199" t="s">
-        <v>540</v>
-      </c>
-      <c r="H199" t="s">
-        <v>547</v>
+        <v>60</v>
+      </c>
+      <c r="G199" s="3" t="s">
+        <v>538</v>
+      </c>
+      <c r="H199" s="3" t="s">
+        <v>546</v>
       </c>
     </row>
     <row r="200" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A200" s="1" t="s">
-        <v>57</v>
+        <v>191</v>
       </c>
       <c r="B200" t="s">
-        <v>58</v>
-      </c>
-      <c r="C200" t="s">
-        <v>59</v>
+        <v>568</v>
       </c>
       <c r="D200">
-        <v>1413.5</v>
+        <v>1350</v>
       </c>
       <c r="E200" t="s">
         <v>10</v>
       </c>
       <c r="F200" t="s">
-        <v>60</v>
-      </c>
-      <c r="G200" s="3" t="s">
-        <v>540</v>
-      </c>
-      <c r="H200" s="3" t="s">
-        <v>548</v>
+        <v>81</v>
+      </c>
+      <c r="G200" t="s">
+        <v>538</v>
+      </c>
+      <c r="H200" t="s">
+        <v>543</v>
       </c>
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A201" s="1" t="s">
-        <v>191</v>
+        <v>450</v>
       </c>
       <c r="B201" t="s">
-        <v>570</v>
+        <v>451</v>
+      </c>
+      <c r="C201" t="s">
+        <v>452</v>
       </c>
       <c r="D201">
-        <v>1350</v>
+        <v>1475</v>
       </c>
       <c r="E201" t="s">
         <v>10</v>
       </c>
       <c r="F201" t="s">
-        <v>81</v>
+        <v>453</v>
       </c>
       <c r="G201" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="H201" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="202" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A202" s="1" t="s">
-        <v>451</v>
+        <v>219</v>
       </c>
       <c r="B202" t="s">
-        <v>452</v>
+        <v>220</v>
       </c>
       <c r="C202" t="s">
-        <v>453</v>
+        <v>37</v>
       </c>
       <c r="D202">
-        <v>1475</v>
+        <v>1325</v>
       </c>
       <c r="E202" t="s">
         <v>10</v>
       </c>
       <c r="F202" t="s">
-        <v>454</v>
+        <v>89</v>
       </c>
       <c r="G202" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="H202" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="203" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A203" s="1" t="s">
-        <v>219</v>
+        <v>353</v>
       </c>
       <c r="B203" t="s">
-        <v>220</v>
+        <v>354</v>
       </c>
       <c r="C203" t="s">
-        <v>37</v>
+        <v>208</v>
       </c>
       <c r="D203">
-        <v>1325</v>
+        <v>1410</v>
       </c>
       <c r="E203" t="s">
         <v>10</v>
       </c>
       <c r="F203" t="s">
-        <v>89</v>
+        <v>14</v>
       </c>
       <c r="G203" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="H203" t="s">
         <v>545</v>
@@ -6959,77 +6971,74 @@
     </row>
     <row r="204" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A204" s="1" t="s">
-        <v>353</v>
+        <v>514</v>
       </c>
       <c r="B204" t="s">
-        <v>354</v>
-      </c>
-      <c r="C204" t="s">
-        <v>208</v>
+        <v>514</v>
       </c>
       <c r="D204">
-        <v>1410</v>
+        <v>1288</v>
       </c>
       <c r="E204" t="s">
-        <v>10</v>
+        <v>506</v>
       </c>
       <c r="F204" t="s">
-        <v>14</v>
+        <v>509</v>
       </c>
       <c r="G204" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="H204" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
     </row>
     <row r="205" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A205" s="1" t="s">
-        <v>515</v>
+        <v>39</v>
       </c>
       <c r="B205" t="s">
-        <v>515</v>
+        <v>40</v>
       </c>
       <c r="D205">
-        <v>1288</v>
+        <v>1450</v>
       </c>
       <c r="E205" t="s">
-        <v>507</v>
+        <v>10</v>
       </c>
       <c r="F205" t="s">
-        <v>510</v>
+        <v>41</v>
       </c>
       <c r="G205" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="H205" t="s">
-        <v>545</v>
+        <v>543</v>
+      </c>
+      <c r="I205" t="s">
+        <v>559</v>
       </c>
     </row>
     <row r="206" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A206" s="1" t="s">
-        <v>39</v>
+        <v>533</v>
       </c>
       <c r="B206" t="s">
-        <v>40</v>
+        <v>548</v>
       </c>
       <c r="D206">
-        <v>1450</v>
+        <v>1267.5</v>
       </c>
       <c r="E206" t="s">
-        <v>10</v>
+        <v>506</v>
       </c>
       <c r="F206" t="s">
-        <v>41</v>
+        <v>534</v>
       </c>
       <c r="G206" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="H206" t="s">
-        <v>545</v>
-      </c>
-      <c r="I206" t="s">
-        <v>561</v>
+        <v>543</v>
       </c>
     </row>
     <row r="207" spans="1:9" x14ac:dyDescent="0.2">
@@ -7037,79 +7046,79 @@
         <v>535</v>
       </c>
       <c r="B207" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="D207">
-        <v>1267.5</v>
+        <v>1288</v>
       </c>
       <c r="E207" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F207" t="s">
-        <v>536</v>
+        <v>509</v>
       </c>
       <c r="G207" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="H207" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="208" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A208" s="1" t="s">
-        <v>537</v>
+        <v>222</v>
       </c>
       <c r="B208" t="s">
-        <v>549</v>
+        <v>223</v>
       </c>
       <c r="D208">
-        <v>1288</v>
+        <v>1375</v>
       </c>
       <c r="E208" t="s">
-        <v>507</v>
+        <v>10</v>
       </c>
       <c r="F208" t="s">
-        <v>510</v>
+        <v>17</v>
       </c>
       <c r="G208" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="H208" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="209" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A209" s="1" t="s">
-        <v>222</v>
+        <v>370</v>
       </c>
       <c r="B209" t="s">
-        <v>223</v>
+        <v>371</v>
+      </c>
+      <c r="C209" t="s">
+        <v>372</v>
       </c>
       <c r="D209">
-        <v>1375</v>
+        <v>1450</v>
       </c>
       <c r="E209" t="s">
         <v>10</v>
       </c>
       <c r="F209" t="s">
-        <v>17</v>
+        <v>73</v>
       </c>
       <c r="G209" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="H209" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="210" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A210" s="1" t="s">
-        <v>370</v>
+        <v>71</v>
       </c>
       <c r="B210" t="s">
-        <v>371</v>
-      </c>
-      <c r="C210" t="s">
-        <v>372</v>
+        <v>72</v>
       </c>
       <c r="D210">
         <v>1450</v>
@@ -7121,84 +7130,84 @@
         <v>73</v>
       </c>
       <c r="G210" t="s">
-        <v>540</v>
-      </c>
-      <c r="H210" t="s">
-        <v>547</v>
+        <v>576</v>
       </c>
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A211" s="1" t="s">
-        <v>71</v>
+        <v>338</v>
       </c>
       <c r="B211" t="s">
-        <v>72</v>
+        <v>339</v>
       </c>
       <c r="D211">
-        <v>1450</v>
+        <v>1425</v>
       </c>
       <c r="E211" t="s">
         <v>10</v>
       </c>
       <c r="F211" t="s">
-        <v>73</v>
+        <v>334</v>
       </c>
       <c r="G211" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
     </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A212" s="1" t="s">
-        <v>338</v>
+        <v>20</v>
       </c>
       <c r="B212" t="s">
-        <v>339</v>
+        <v>21</v>
+      </c>
+      <c r="C212" t="s">
+        <v>22</v>
       </c>
       <c r="D212">
-        <v>1425</v>
+        <v>1515</v>
       </c>
       <c r="E212" t="s">
         <v>10</v>
       </c>
       <c r="F212" t="s">
-        <v>334</v>
+        <v>23</v>
       </c>
       <c r="G212" t="s">
-        <v>578</v>
+        <v>538</v>
+      </c>
+      <c r="H212" t="s">
+        <v>545</v>
       </c>
     </row>
     <row r="213" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A213" s="1" t="s">
-        <v>20</v>
+        <v>297</v>
       </c>
       <c r="B213" t="s">
-        <v>21</v>
-      </c>
-      <c r="C213" t="s">
-        <v>22</v>
+        <v>571</v>
       </c>
       <c r="D213">
-        <v>1515</v>
+        <v>1450</v>
       </c>
       <c r="E213" t="s">
         <v>10</v>
       </c>
       <c r="F213" t="s">
-        <v>23</v>
+        <v>73</v>
       </c>
       <c r="G213" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="H213" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A214" s="1" t="s">
-        <v>297</v>
+        <v>400</v>
       </c>
       <c r="B214" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="D214">
         <v>1450</v>
@@ -7210,382 +7219,385 @@
         <v>73</v>
       </c>
       <c r="G214" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="H214" t="s">
-        <v>547</v>
+        <v>545</v>
+      </c>
+      <c r="I214" t="s">
+        <v>559</v>
       </c>
     </row>
     <row r="215" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A215" s="1" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="B215" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="D215">
-        <v>1450</v>
+        <v>1375</v>
       </c>
       <c r="E215" t="s">
         <v>10</v>
       </c>
       <c r="F215" t="s">
-        <v>73</v>
+        <v>17</v>
       </c>
       <c r="G215" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="H215" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="I215" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A216" s="1" t="s">
-        <v>405</v>
+        <v>454</v>
       </c>
       <c r="B216" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="D216">
-        <v>1375</v>
+        <v>1350</v>
       </c>
       <c r="E216" t="s">
         <v>10</v>
       </c>
       <c r="F216" t="s">
-        <v>17</v>
+        <v>81</v>
       </c>
       <c r="G216" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="H216" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="I216" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
     </row>
     <row r="217" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A217" s="1" t="s">
-        <v>455</v>
+        <v>181</v>
       </c>
       <c r="B217" t="s">
-        <v>573</v>
+        <v>592</v>
+      </c>
+      <c r="C217" t="s">
+        <v>37</v>
       </c>
       <c r="D217">
-        <v>1350</v>
+        <v>1312.5</v>
       </c>
       <c r="E217" t="s">
         <v>10</v>
       </c>
       <c r="F217" t="s">
-        <v>81</v>
+        <v>56</v>
       </c>
       <c r="G217" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="H217" t="s">
-        <v>547</v>
-      </c>
-      <c r="I217" t="s">
-        <v>561</v>
+        <v>544</v>
       </c>
     </row>
     <row r="218" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A218" s="1" t="s">
-        <v>181</v>
+        <v>26</v>
       </c>
       <c r="B218" t="s">
-        <v>594</v>
+        <v>569</v>
       </c>
       <c r="C218" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="D218">
-        <v>1312.5</v>
+        <v>1337.5</v>
       </c>
       <c r="E218" t="s">
         <v>10</v>
       </c>
       <c r="F218" t="s">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="G218" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="H218" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
     </row>
     <row r="219" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A219" s="1" t="s">
-        <v>26</v>
+        <v>85</v>
       </c>
       <c r="B219" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="C219" t="s">
         <v>27</v>
       </c>
       <c r="D219">
-        <v>1337.5</v>
+        <v>1400</v>
       </c>
       <c r="E219" t="s">
         <v>10</v>
       </c>
       <c r="F219" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G219" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="H219" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
     </row>
     <row r="220" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A220" s="1" t="s">
-        <v>85</v>
+        <v>130</v>
       </c>
       <c r="B220" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="C220" t="s">
         <v>27</v>
       </c>
       <c r="D220">
-        <v>1400</v>
+        <v>1397.5</v>
       </c>
       <c r="E220" t="s">
         <v>10</v>
       </c>
       <c r="F220" t="s">
-        <v>31</v>
+        <v>131</v>
       </c>
       <c r="G220" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="H220" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
     </row>
     <row r="221" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A221" s="1" t="s">
-        <v>130</v>
+        <v>267</v>
       </c>
       <c r="B221" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="C221" t="s">
         <v>27</v>
       </c>
       <c r="D221">
-        <v>1397.5</v>
+        <v>1325</v>
       </c>
       <c r="E221" t="s">
         <v>10</v>
       </c>
       <c r="F221" t="s">
-        <v>131</v>
+        <v>89</v>
       </c>
       <c r="G221" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="H221" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
     </row>
     <row r="222" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A222" s="1" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="B222" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="C222" t="s">
         <v>27</v>
       </c>
       <c r="D222">
-        <v>1325</v>
+        <v>1400</v>
       </c>
       <c r="E222" t="s">
         <v>10</v>
       </c>
       <c r="F222" t="s">
-        <v>89</v>
+        <v>31</v>
       </c>
       <c r="G222" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="H222" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
     </row>
     <row r="223" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A223" s="1" t="s">
-        <v>270</v>
+        <v>302</v>
       </c>
       <c r="B223" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="C223" t="s">
         <v>27</v>
       </c>
       <c r="D223">
-        <v>1400</v>
+        <v>1332.5</v>
       </c>
       <c r="E223" t="s">
         <v>10</v>
       </c>
       <c r="F223" t="s">
-        <v>31</v>
+        <v>254</v>
       </c>
       <c r="G223" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="H223" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
     </row>
     <row r="224" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A224" s="1" t="s">
-        <v>302</v>
+        <v>335</v>
       </c>
       <c r="B224" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="C224" t="s">
         <v>27</v>
       </c>
       <c r="D224">
-        <v>1332.5</v>
+        <v>1312.5</v>
       </c>
       <c r="E224" t="s">
         <v>10</v>
       </c>
       <c r="F224" t="s">
-        <v>254</v>
+        <v>56</v>
       </c>
       <c r="G224" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="H224" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A225" s="1" t="s">
-        <v>335</v>
+        <v>392</v>
       </c>
       <c r="B225" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="C225" t="s">
         <v>27</v>
       </c>
       <c r="D225">
-        <v>1312.5</v>
+        <v>1375</v>
       </c>
       <c r="E225" t="s">
         <v>10</v>
       </c>
       <c r="F225" t="s">
-        <v>56</v>
+        <v>17</v>
       </c>
       <c r="G225" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="H225" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A226" s="1" t="s">
-        <v>392</v>
+        <v>29</v>
       </c>
       <c r="B226" t="s">
-        <v>571</v>
+        <v>591</v>
       </c>
       <c r="C226" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D226">
-        <v>1375</v>
+        <v>1400</v>
       </c>
       <c r="E226" t="s">
         <v>10</v>
       </c>
       <c r="F226" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="G226" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="H226" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A227" s="1" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="B227" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="C227" t="s">
         <v>30</v>
       </c>
       <c r="D227">
-        <v>1400</v>
+        <v>1312.5</v>
       </c>
       <c r="E227" t="s">
         <v>10</v>
       </c>
       <c r="F227" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="G227" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="H227" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A228" s="1" t="s">
-        <v>55</v>
+        <v>87</v>
       </c>
       <c r="B228" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="C228" t="s">
         <v>30</v>
       </c>
       <c r="D228">
-        <v>1312.5</v>
+        <v>1400</v>
       </c>
       <c r="E228" t="s">
         <v>10</v>
       </c>
       <c r="F228" t="s">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="G228" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="H228" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A229" s="1" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="B229" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="C229" t="s">
         <v>30</v>
@@ -7600,18 +7612,18 @@
         <v>31</v>
       </c>
       <c r="G229" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="H229" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A230" s="1" t="s">
-        <v>94</v>
+        <v>121</v>
       </c>
       <c r="B230" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="C230" t="s">
         <v>30</v>
@@ -7626,18 +7638,18 @@
         <v>31</v>
       </c>
       <c r="G230" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="H230" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A231" s="1" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B231" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="C231" t="s">
         <v>30</v>
@@ -7652,44 +7664,44 @@
         <v>31</v>
       </c>
       <c r="G231" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="H231" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A232" s="1" t="s">
-        <v>124</v>
+        <v>253</v>
       </c>
       <c r="B232" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="C232" t="s">
         <v>30</v>
       </c>
       <c r="D232">
-        <v>1400</v>
+        <v>1332.5</v>
       </c>
       <c r="E232" t="s">
         <v>10</v>
       </c>
       <c r="F232" t="s">
-        <v>31</v>
+        <v>254</v>
       </c>
       <c r="G232" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="H232" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A233" s="1" t="s">
-        <v>253</v>
+        <v>273</v>
       </c>
       <c r="B233" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="C233" t="s">
         <v>30</v>
@@ -7704,252 +7716,249 @@
         <v>254</v>
       </c>
       <c r="G233" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="H233" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A234" s="1" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="B234" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="C234" t="s">
         <v>30</v>
       </c>
       <c r="D234">
-        <v>1332.5</v>
+        <v>1397.5</v>
       </c>
       <c r="E234" t="s">
         <v>10</v>
       </c>
       <c r="F234" t="s">
-        <v>254</v>
+        <v>131</v>
       </c>
       <c r="G234" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="H234" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
     </row>
     <row r="235" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A235" s="1" t="s">
-        <v>276</v>
+        <v>330</v>
       </c>
       <c r="B235" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="C235" t="s">
         <v>30</v>
       </c>
       <c r="D235">
-        <v>1397.5</v>
+        <v>1400</v>
       </c>
       <c r="E235" t="s">
         <v>10</v>
       </c>
       <c r="F235" t="s">
-        <v>131</v>
+        <v>31</v>
       </c>
       <c r="G235" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="H235" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
     </row>
     <row r="236" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A236" s="1" t="s">
-        <v>330</v>
+        <v>422</v>
       </c>
       <c r="B236" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="C236" t="s">
         <v>30</v>
       </c>
       <c r="D236">
-        <v>1400</v>
+        <v>1312.5</v>
       </c>
       <c r="E236" t="s">
         <v>10</v>
       </c>
       <c r="F236" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="G236" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="H236" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A237" s="1" t="s">
-        <v>422</v>
+        <v>438</v>
       </c>
       <c r="B237" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="C237" t="s">
         <v>30</v>
       </c>
       <c r="D237">
-        <v>1312.5</v>
+        <v>1350</v>
       </c>
       <c r="E237" t="s">
         <v>10</v>
       </c>
       <c r="F237" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="G237" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="H237" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A238" s="1" t="s">
-        <v>439</v>
+        <v>43</v>
       </c>
       <c r="B238" t="s">
-        <v>593</v>
+        <v>570</v>
       </c>
       <c r="C238" t="s">
         <v>30</v>
       </c>
       <c r="D238">
-        <v>1350</v>
+        <v>1325</v>
       </c>
       <c r="E238" t="s">
         <v>10</v>
       </c>
       <c r="F238" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="G238" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="H238" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A239" s="1" t="s">
-        <v>43</v>
+        <v>459</v>
       </c>
       <c r="B239" t="s">
-        <v>572</v>
-      </c>
-      <c r="C239" t="s">
-        <v>30</v>
+        <v>460</v>
       </c>
       <c r="D239">
-        <v>1325</v>
+        <v>1410</v>
       </c>
       <c r="E239" t="s">
         <v>10</v>
       </c>
       <c r="F239" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="G239" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="H239" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="240" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A240" s="1" t="s">
-        <v>460</v>
+        <v>308</v>
       </c>
       <c r="B240" t="s">
-        <v>461</v>
+        <v>572</v>
+      </c>
+      <c r="C240" t="s">
+        <v>227</v>
       </c>
       <c r="D240">
-        <v>1410</v>
+        <v>1350</v>
       </c>
       <c r="E240" t="s">
         <v>10</v>
       </c>
       <c r="F240" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="G240" t="s">
-        <v>540</v>
-      </c>
-      <c r="H240" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
     </row>
     <row r="241" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A241" s="1" t="s">
-        <v>308</v>
+        <v>443</v>
       </c>
       <c r="B241" t="s">
-        <v>574</v>
-      </c>
-      <c r="C241" t="s">
-        <v>227</v>
+        <v>444</v>
       </c>
       <c r="D241">
-        <v>1350</v>
+        <v>1508</v>
       </c>
       <c r="E241" t="s">
         <v>10</v>
       </c>
       <c r="F241" t="s">
-        <v>34</v>
+        <v>445</v>
       </c>
       <c r="G241" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
     </row>
     <row r="242" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A242" s="1" t="s">
-        <v>444</v>
+        <v>12</v>
       </c>
       <c r="B242" t="s">
-        <v>445</v>
+        <v>13</v>
       </c>
       <c r="D242">
-        <v>1508</v>
+        <v>1410</v>
       </c>
       <c r="E242" t="s">
         <v>10</v>
       </c>
       <c r="F242" t="s">
-        <v>446</v>
+        <v>14</v>
       </c>
       <c r="G242" t="s">
+        <v>538</v>
+      </c>
+      <c r="H242" t="s">
         <v>543</v>
       </c>
     </row>
     <row r="243" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A243" s="1" t="s">
-        <v>12</v>
+        <v>457</v>
       </c>
       <c r="B243" t="s">
-        <v>13</v>
+        <v>458</v>
       </c>
       <c r="D243">
-        <v>1410</v>
+        <v>1400</v>
       </c>
       <c r="E243" t="s">
         <v>10</v>
       </c>
       <c r="F243" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="G243" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="H243" t="s">
         <v>545</v>
@@ -7957,143 +7966,143 @@
     </row>
     <row r="244" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A244" s="1" t="s">
-        <v>458</v>
+        <v>231</v>
       </c>
       <c r="B244" t="s">
-        <v>459</v>
+        <v>567</v>
+      </c>
+      <c r="C244" t="s">
+        <v>37</v>
       </c>
       <c r="D244">
-        <v>1400</v>
+        <v>1325</v>
       </c>
       <c r="E244" t="s">
         <v>10</v>
       </c>
       <c r="F244" t="s">
-        <v>31</v>
-      </c>
-      <c r="G244" t="s">
-        <v>540</v>
-      </c>
-      <c r="H244" t="s">
-        <v>547</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="G244" s="3" t="s">
+        <v>538</v>
+      </c>
+      <c r="H244" s="3" t="s">
+        <v>542</v>
+      </c>
+      <c r="I244" s="3"/>
     </row>
     <row r="245" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A245" s="1" t="s">
-        <v>231</v>
+        <v>510</v>
       </c>
       <c r="B245" t="s">
-        <v>569</v>
-      </c>
-      <c r="C245" t="s">
-        <v>37</v>
+        <v>510</v>
       </c>
       <c r="D245">
-        <v>1325</v>
+        <v>1250</v>
       </c>
       <c r="E245" t="s">
-        <v>10</v>
+        <v>506</v>
       </c>
       <c r="F245" t="s">
-        <v>89</v>
-      </c>
-      <c r="G245" s="3" t="s">
-        <v>540</v>
-      </c>
-      <c r="H245" s="3" t="s">
-        <v>544</v>
-      </c>
-      <c r="I245" s="3"/>
+        <v>511</v>
+      </c>
+      <c r="G245" t="s">
+        <v>538</v>
+      </c>
+      <c r="H245" t="s">
+        <v>542</v>
+      </c>
     </row>
     <row r="246" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A246" s="1" t="s">
-        <v>511</v>
+        <v>245</v>
       </c>
       <c r="B246" t="s">
-        <v>511</v>
+        <v>246</v>
       </c>
       <c r="D246">
-        <v>1250</v>
+        <v>1410</v>
       </c>
       <c r="E246" t="s">
-        <v>507</v>
+        <v>10</v>
       </c>
       <c r="F246" t="s">
-        <v>512</v>
+        <v>14</v>
       </c>
       <c r="G246" t="s">
-        <v>540</v>
-      </c>
-      <c r="H246" t="s">
-        <v>544</v>
+        <v>576</v>
       </c>
     </row>
     <row r="247" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A247" s="1" t="s">
-        <v>245</v>
+        <v>164</v>
       </c>
       <c r="B247" t="s">
-        <v>246</v>
+        <v>165</v>
       </c>
       <c r="D247">
-        <v>1410</v>
+        <v>1551</v>
       </c>
       <c r="E247" t="s">
         <v>10</v>
       </c>
       <c r="F247" t="s">
-        <v>14</v>
+        <v>166</v>
       </c>
       <c r="G247" t="s">
-        <v>578</v>
+        <v>541</v>
       </c>
     </row>
     <row r="248" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A248" s="1" t="s">
-        <v>164</v>
+        <v>35</v>
       </c>
       <c r="B248" t="s">
-        <v>165</v>
+        <v>36</v>
+      </c>
+      <c r="C248" t="s">
+        <v>37</v>
       </c>
       <c r="D248">
-        <v>1551</v>
+        <v>1402.5</v>
       </c>
       <c r="E248" t="s">
         <v>10</v>
       </c>
       <c r="F248" t="s">
-        <v>166</v>
+        <v>38</v>
       </c>
       <c r="G248" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
     </row>
     <row r="249" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A249" s="1" t="s">
-        <v>35</v>
+        <v>116</v>
       </c>
       <c r="B249" t="s">
-        <v>36</v>
-      </c>
-      <c r="C249" t="s">
-        <v>37</v>
+        <v>117</v>
       </c>
       <c r="D249">
-        <v>1402.5</v>
+        <v>1350</v>
       </c>
       <c r="E249" t="s">
         <v>10</v>
       </c>
       <c r="F249" t="s">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="G249" t="s">
-        <v>543</v>
+        <v>538</v>
+      </c>
+      <c r="H249" t="s">
+        <v>580</v>
       </c>
     </row>
     <row r="250" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A250" s="1" t="s">
-        <v>116</v>
+        <v>283</v>
       </c>
       <c r="B250" t="s">
         <v>117</v>
@@ -8105,332 +8114,332 @@
         <v>10</v>
       </c>
       <c r="F250" t="s">
-        <v>81</v>
+        <v>34</v>
       </c>
       <c r="G250" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="H250" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="251" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A251" s="1" t="s">
-        <v>283</v>
+        <v>126</v>
       </c>
       <c r="B251" t="s">
-        <v>117</v>
+        <v>127</v>
+      </c>
+      <c r="C251" t="s">
+        <v>128</v>
       </c>
       <c r="D251">
-        <v>1350</v>
+        <v>1445</v>
       </c>
       <c r="E251" t="s">
         <v>10</v>
       </c>
       <c r="F251" t="s">
-        <v>34</v>
+        <v>129</v>
       </c>
       <c r="G251" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="H251" t="s">
-        <v>582</v>
+        <v>544</v>
       </c>
     </row>
     <row r="252" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A252" s="1" t="s">
-        <v>126</v>
+        <v>213</v>
       </c>
       <c r="B252" t="s">
-        <v>127</v>
+        <v>214</v>
       </c>
       <c r="C252" t="s">
-        <v>128</v>
+        <v>37</v>
       </c>
       <c r="D252">
-        <v>1445</v>
+        <v>1339</v>
       </c>
       <c r="E252" t="s">
         <v>10</v>
       </c>
       <c r="F252" t="s">
-        <v>129</v>
+        <v>76</v>
       </c>
       <c r="G252" t="s">
-        <v>540</v>
-      </c>
-      <c r="H252" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
     </row>
     <row r="253" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A253" s="1" t="s">
-        <v>213</v>
+        <v>423</v>
       </c>
       <c r="B253" t="s">
-        <v>214</v>
-      </c>
-      <c r="C253" t="s">
-        <v>37</v>
+        <v>573</v>
       </c>
       <c r="D253">
-        <v>1339</v>
+        <v>1487.5</v>
       </c>
       <c r="E253" t="s">
         <v>10</v>
       </c>
       <c r="F253" t="s">
-        <v>76</v>
+        <v>368</v>
       </c>
       <c r="G253" t="s">
-        <v>543</v>
+        <v>538</v>
+      </c>
+      <c r="H253" t="s">
+        <v>545</v>
       </c>
     </row>
     <row r="254" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A254" s="1" t="s">
-        <v>423</v>
+        <v>232</v>
       </c>
       <c r="B254" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D254">
-        <v>1487.5</v>
+        <v>1465</v>
       </c>
       <c r="E254" t="s">
         <v>10</v>
       </c>
       <c r="F254" t="s">
-        <v>368</v>
+        <v>233</v>
       </c>
       <c r="G254" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="H254" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
     <row r="255" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A255" s="1" t="s">
-        <v>232</v>
+        <v>396</v>
       </c>
       <c r="B255" t="s">
-        <v>576</v>
+        <v>397</v>
+      </c>
+      <c r="C255" t="s">
+        <v>37</v>
       </c>
       <c r="D255">
-        <v>1465</v>
+        <v>1339</v>
       </c>
       <c r="E255" t="s">
         <v>10</v>
       </c>
       <c r="F255" t="s">
-        <v>233</v>
+        <v>76</v>
       </c>
       <c r="G255" t="s">
-        <v>540</v>
-      </c>
-      <c r="H255" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
     </row>
     <row r="256" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A256" s="1" t="s">
-        <v>396</v>
+        <v>103</v>
       </c>
       <c r="B256" t="s">
-        <v>397</v>
-      </c>
-      <c r="C256" t="s">
-        <v>37</v>
+        <v>104</v>
       </c>
       <c r="D256">
-        <v>1339</v>
+        <v>1375</v>
       </c>
       <c r="E256" t="s">
         <v>10</v>
       </c>
       <c r="F256" t="s">
-        <v>76</v>
+        <v>17</v>
       </c>
       <c r="G256" t="s">
-        <v>543</v>
+        <v>538</v>
+      </c>
+      <c r="H256" t="s">
+        <v>545</v>
       </c>
     </row>
     <row r="257" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A257" s="1" t="s">
-        <v>103</v>
+        <v>375</v>
       </c>
       <c r="B257" t="s">
-        <v>104</v>
+        <v>376</v>
       </c>
       <c r="D257">
-        <v>1375</v>
+        <v>1339</v>
       </c>
       <c r="E257" t="s">
         <v>10</v>
       </c>
       <c r="F257" t="s">
-        <v>17</v>
+        <v>76</v>
       </c>
       <c r="G257" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="H257" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
     <row r="258" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A258" s="1" t="s">
-        <v>375</v>
+        <v>493</v>
       </c>
       <c r="B258" t="s">
-        <v>376</v>
+        <v>494</v>
+      </c>
+      <c r="C258" t="s">
+        <v>495</v>
       </c>
       <c r="D258">
-        <v>1339</v>
+        <v>1402.5</v>
       </c>
       <c r="E258" t="s">
         <v>10</v>
       </c>
       <c r="F258" t="s">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="G258" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="H258" t="s">
-        <v>547</v>
+        <v>575</v>
       </c>
     </row>
     <row r="259" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A259" s="1" t="s">
-        <v>494</v>
+        <v>523</v>
       </c>
       <c r="B259" t="s">
-        <v>495</v>
-      </c>
-      <c r="C259" t="s">
-        <v>496</v>
+        <v>558</v>
       </c>
       <c r="D259">
-        <v>1402.5</v>
+        <v>1288</v>
       </c>
       <c r="E259" t="s">
-        <v>10</v>
+        <v>506</v>
       </c>
       <c r="F259" t="s">
-        <v>38</v>
+        <v>509</v>
       </c>
       <c r="G259" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="H259" t="s">
-        <v>577</v>
+        <v>575</v>
+      </c>
+      <c r="I259" t="s">
+        <v>559</v>
       </c>
     </row>
     <row r="260" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A260" s="1" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
       <c r="B260" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="D260">
-        <v>1288</v>
+        <v>1270</v>
       </c>
       <c r="E260" t="s">
+        <v>506</v>
+      </c>
+      <c r="F260" t="s">
         <v>507</v>
       </c>
-      <c r="F260" t="s">
-        <v>510</v>
-      </c>
       <c r="G260" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="H260" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="I260" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
     </row>
     <row r="261" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A261" s="1" t="s">
-        <v>519</v>
+        <v>74</v>
       </c>
       <c r="B261" t="s">
-        <v>560</v>
+        <v>75</v>
       </c>
       <c r="D261">
-        <v>1270</v>
+        <v>1339</v>
       </c>
       <c r="E261" t="s">
-        <v>507</v>
+        <v>10</v>
       </c>
       <c r="F261" t="s">
-        <v>508</v>
+        <v>76</v>
       </c>
       <c r="G261" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="H261" t="s">
-        <v>577</v>
-      </c>
-      <c r="I261" t="s">
-        <v>561</v>
+        <v>545</v>
       </c>
     </row>
     <row r="262" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A262" s="1" t="s">
-        <v>74</v>
+        <v>359</v>
       </c>
       <c r="B262" t="s">
-        <v>75</v>
+        <v>360</v>
       </c>
       <c r="D262">
-        <v>1339</v>
+        <v>1375</v>
       </c>
       <c r="E262" t="s">
         <v>10</v>
       </c>
       <c r="F262" t="s">
-        <v>76</v>
+        <v>17</v>
       </c>
       <c r="G262" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="H262" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
     <row r="263" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A263" s="1" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="B263" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="D263">
-        <v>1375</v>
+        <v>1400</v>
       </c>
       <c r="E263" t="s">
         <v>10</v>
       </c>
       <c r="F263" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="G263" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="H263" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
     <row r="264" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A264" s="1" t="s">
-        <v>363</v>
+        <v>45</v>
       </c>
       <c r="B264" t="s">
-        <v>364</v>
+        <v>46</v>
       </c>
       <c r="D264">
         <v>1400</v>
@@ -8442,96 +8451,96 @@
         <v>31</v>
       </c>
       <c r="G264" t="s">
-        <v>540</v>
-      </c>
-      <c r="H264" t="s">
-        <v>547</v>
+        <v>576</v>
       </c>
     </row>
     <row r="265" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A265" s="1" t="s">
-        <v>45</v>
+        <v>332</v>
       </c>
       <c r="B265" t="s">
-        <v>46</v>
+        <v>333</v>
       </c>
       <c r="D265">
-        <v>1400</v>
+        <v>1425</v>
       </c>
       <c r="E265" t="s">
         <v>10</v>
       </c>
       <c r="F265" t="s">
-        <v>31</v>
+        <v>334</v>
       </c>
       <c r="G265" t="s">
-        <v>578</v>
+        <v>541</v>
       </c>
     </row>
     <row r="266" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A266" s="1" t="s">
-        <v>332</v>
+        <v>149</v>
       </c>
       <c r="B266" t="s">
-        <v>333</v>
+        <v>150</v>
+      </c>
+      <c r="C266" t="s">
+        <v>93</v>
       </c>
       <c r="D266">
-        <v>1425</v>
+        <v>1400</v>
       </c>
       <c r="E266" t="s">
         <v>10</v>
       </c>
       <c r="F266" t="s">
-        <v>334</v>
+        <v>31</v>
       </c>
       <c r="G266" t="s">
-        <v>543</v>
+        <v>538</v>
+      </c>
+      <c r="H266" t="s">
+        <v>546</v>
       </c>
     </row>
     <row r="267" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A267" s="1" t="s">
-        <v>149</v>
+        <v>309</v>
       </c>
       <c r="B267" t="s">
-        <v>150</v>
-      </c>
-      <c r="C267" t="s">
-        <v>93</v>
+        <v>310</v>
       </c>
       <c r="D267">
-        <v>1400</v>
+        <v>1402.5</v>
       </c>
       <c r="E267" t="s">
         <v>10</v>
       </c>
       <c r="F267" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G267" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="H267" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
     </row>
     <row r="268" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A268" s="1" t="s">
-        <v>309</v>
+        <v>63</v>
       </c>
       <c r="B268" t="s">
-        <v>310</v>
+        <v>64</v>
       </c>
       <c r="D268">
-        <v>1402.5</v>
+        <v>1410</v>
       </c>
       <c r="E268" t="s">
         <v>10</v>
       </c>
       <c r="F268" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="G268" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="H268" t="s">
         <v>545</v>
@@ -8539,102 +8548,102 @@
     </row>
     <row r="269" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A269" s="1" t="s">
-        <v>63</v>
+        <v>201</v>
       </c>
       <c r="B269" t="s">
-        <v>64</v>
+        <v>202</v>
       </c>
       <c r="D269">
-        <v>1410</v>
+        <v>1350</v>
       </c>
       <c r="E269" t="s">
         <v>10</v>
       </c>
       <c r="F269" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="G269" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="H269" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
     <row r="270" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A270" s="1" t="s">
-        <v>201</v>
+        <v>313</v>
       </c>
       <c r="B270" t="s">
-        <v>202</v>
+        <v>314</v>
       </c>
       <c r="D270">
-        <v>1350</v>
+        <v>1580</v>
       </c>
       <c r="E270" t="s">
         <v>10</v>
       </c>
       <c r="F270" t="s">
-        <v>81</v>
+        <v>315</v>
       </c>
       <c r="G270" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="H270" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="271" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A271" s="1" t="s">
-        <v>313</v>
+        <v>406</v>
       </c>
       <c r="B271" t="s">
-        <v>314</v>
+        <v>407</v>
       </c>
       <c r="D271">
-        <v>1580</v>
+        <v>1438</v>
       </c>
       <c r="E271" t="s">
         <v>10</v>
       </c>
       <c r="F271" t="s">
-        <v>315</v>
+        <v>408</v>
       </c>
       <c r="G271" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="H271" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
     </row>
     <row r="272" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A272" s="1" t="s">
-        <v>406</v>
+        <v>184</v>
       </c>
       <c r="B272" t="s">
-        <v>407</v>
+        <v>185</v>
       </c>
       <c r="D272">
-        <v>1438</v>
+        <v>1410</v>
       </c>
       <c r="E272" t="s">
         <v>10</v>
       </c>
       <c r="F272" t="s">
-        <v>408</v>
+        <v>14</v>
       </c>
       <c r="G272" t="s">
-        <v>540</v>
-      </c>
-      <c r="H272" t="s">
-        <v>545</v>
+        <v>576</v>
       </c>
     </row>
     <row r="273" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A273" s="1" t="s">
-        <v>184</v>
+        <v>424</v>
       </c>
       <c r="B273" t="s">
-        <v>185</v>
+        <v>425</v>
+      </c>
+      <c r="C273" t="s">
+        <v>208</v>
       </c>
       <c r="D273">
         <v>1410</v>
@@ -8646,110 +8655,113 @@
         <v>14</v>
       </c>
       <c r="G273" t="s">
-        <v>578</v>
+        <v>538</v>
+      </c>
+      <c r="H273" t="s">
+        <v>545</v>
       </c>
     </row>
     <row r="274" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A274" s="1" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="B274" t="s">
-        <v>425</v>
-      </c>
-      <c r="C274" t="s">
-        <v>208</v>
+        <v>419</v>
       </c>
       <c r="D274">
-        <v>1410</v>
+        <v>1395</v>
       </c>
       <c r="E274" t="s">
         <v>10</v>
       </c>
       <c r="F274" t="s">
-        <v>14</v>
+        <v>420</v>
       </c>
       <c r="G274" t="s">
-        <v>540</v>
-      </c>
-      <c r="H274" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
     </row>
     <row r="275" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A275" s="1" t="s">
-        <v>418</v>
+        <v>593</v>
       </c>
       <c r="B275" t="s">
-        <v>419</v>
+        <v>537</v>
       </c>
       <c r="D275">
-        <v>1395</v>
+        <v>1350</v>
       </c>
       <c r="E275" t="s">
         <v>10</v>
       </c>
       <c r="F275" t="s">
-        <v>420</v>
+        <v>34</v>
       </c>
       <c r="G275" t="s">
-        <v>543</v>
+        <v>538</v>
+      </c>
+      <c r="H275" t="s">
+        <v>539</v>
       </c>
     </row>
     <row r="276" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A276" s="1" t="s">
-        <v>595</v>
+        <v>300</v>
       </c>
       <c r="B276" t="s">
-        <v>539</v>
+        <v>301</v>
       </c>
       <c r="D276">
-        <v>1350</v>
+        <v>1300</v>
       </c>
       <c r="E276" t="s">
         <v>10</v>
       </c>
       <c r="F276" t="s">
-        <v>34</v>
+        <v>243</v>
       </c>
       <c r="G276" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="H276" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
     </row>
     <row r="277" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A277" s="1" t="s">
-        <v>300</v>
+        <v>597</v>
       </c>
       <c r="B277" t="s">
-        <v>301</v>
+        <v>599</v>
+      </c>
+      <c r="C277" t="s">
+        <v>601</v>
       </c>
       <c r="D277">
-        <v>1300</v>
+        <v>1350</v>
       </c>
       <c r="E277" t="s">
         <v>10</v>
       </c>
       <c r="F277" t="s">
-        <v>243</v>
+        <v>437</v>
       </c>
       <c r="G277" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="H277" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
     </row>
     <row r="278" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A278" s="1" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B278" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C278" t="s">
-        <v>437</v>
+        <v>602</v>
       </c>
       <c r="D278">
         <v>1350</v>
@@ -8758,131 +8770,131 @@
         <v>10</v>
       </c>
       <c r="F278" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G278" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="H278" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="279" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A279" s="1" t="s">
-        <v>600</v>
+        <v>182</v>
       </c>
       <c r="B279" t="s">
-        <v>602</v>
-      </c>
-      <c r="C279" t="s">
-        <v>437</v>
+        <v>183</v>
       </c>
       <c r="D279">
-        <v>1350</v>
+        <v>1325</v>
       </c>
       <c r="E279" t="s">
         <v>10</v>
       </c>
       <c r="F279" t="s">
-        <v>438</v>
+        <v>89</v>
       </c>
       <c r="G279" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="H279" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="280" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A280" s="1" t="s">
-        <v>182</v>
+        <v>159</v>
       </c>
       <c r="B280" t="s">
-        <v>183</v>
+        <v>160</v>
+      </c>
+      <c r="C280" t="s">
+        <v>161</v>
       </c>
       <c r="D280">
-        <v>1325</v>
+        <v>1402.5</v>
       </c>
       <c r="E280" t="s">
         <v>10</v>
       </c>
       <c r="F280" t="s">
-        <v>89</v>
+        <v>38</v>
       </c>
       <c r="G280" t="s">
-        <v>540</v>
-      </c>
-      <c r="H280" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
     </row>
     <row r="281" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A281" s="1" t="s">
-        <v>159</v>
+        <v>119</v>
       </c>
       <c r="B281" t="s">
-        <v>160</v>
-      </c>
-      <c r="C281" t="s">
-        <v>161</v>
+        <v>120</v>
       </c>
       <c r="D281">
-        <v>1402.5</v>
+        <v>1325</v>
       </c>
       <c r="E281" t="s">
         <v>10</v>
       </c>
       <c r="F281" t="s">
-        <v>38</v>
+        <v>89</v>
       </c>
       <c r="G281" t="s">
-        <v>543</v>
+        <v>538</v>
+      </c>
+      <c r="H281" t="s">
+        <v>539</v>
       </c>
     </row>
     <row r="282" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A282" s="1" t="s">
-        <v>119</v>
+        <v>526</v>
       </c>
       <c r="B282" t="s">
-        <v>120</v>
+        <v>526</v>
       </c>
       <c r="D282">
-        <v>1325</v>
+        <v>1295.5</v>
       </c>
       <c r="E282" t="s">
-        <v>10</v>
+        <v>506</v>
       </c>
       <c r="F282" t="s">
-        <v>89</v>
+        <v>515</v>
       </c>
       <c r="G282" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="H282" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="283" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A283" s="1" t="s">
-        <v>528</v>
+        <v>446</v>
       </c>
       <c r="B283" t="s">
-        <v>528</v>
+        <v>447</v>
       </c>
       <c r="D283">
-        <v>1295.5</v>
+        <v>1350</v>
       </c>
       <c r="E283" t="s">
-        <v>507</v>
+        <v>10</v>
       </c>
       <c r="F283" t="s">
-        <v>517</v>
+        <v>34</v>
       </c>
       <c r="G283" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="H283" t="s">
-        <v>541</v>
+        <v>542</v>
+      </c>
+      <c r="I283" t="s">
+        <v>559</v>
       </c>
     </row>
     <row r="284" spans="1:9" x14ac:dyDescent="0.2">
@@ -8890,105 +8902,79 @@
         <v>447</v>
       </c>
       <c r="B284" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D284">
-        <v>1350</v>
+        <v>1270</v>
       </c>
       <c r="E284" t="s">
-        <v>10</v>
+        <v>506</v>
       </c>
       <c r="F284" t="s">
-        <v>34</v>
+        <v>507</v>
       </c>
       <c r="G284" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="H284" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="I284" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
     </row>
     <row r="285" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A285" s="1" t="s">
-        <v>448</v>
+        <v>288</v>
       </c>
       <c r="B285" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D285">
-        <v>1270</v>
+        <v>1325</v>
       </c>
       <c r="E285" t="s">
-        <v>507</v>
+        <v>10</v>
       </c>
       <c r="F285" t="s">
-        <v>508</v>
+        <v>89</v>
       </c>
       <c r="G285" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="H285" t="s">
-        <v>544</v>
-      </c>
-      <c r="I285" t="s">
-        <v>561</v>
+        <v>542</v>
       </c>
     </row>
     <row r="286" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A286" s="1" t="s">
-        <v>288</v>
+        <v>588</v>
       </c>
       <c r="B286" t="s">
-        <v>448</v>
+        <v>102</v>
+      </c>
+      <c r="C286" t="s">
+        <v>30</v>
       </c>
       <c r="D286">
-        <v>1325</v>
+        <v>1425</v>
       </c>
       <c r="E286" t="s">
         <v>10</v>
       </c>
       <c r="F286" t="s">
-        <v>89</v>
+        <v>398</v>
       </c>
       <c r="G286" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="H286" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="287" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A287" s="1" t="s">
-        <v>590</v>
-      </c>
-      <c r="B287" t="s">
-        <v>102</v>
-      </c>
-      <c r="C287" t="s">
-        <v>30</v>
-      </c>
-      <c r="D287">
-        <v>1425</v>
-      </c>
-      <c r="E287" t="s">
-        <v>10</v>
-      </c>
-      <c r="F287" t="s">
-        <v>398</v>
-      </c>
-      <c r="G287" t="s">
-        <v>540</v>
-      </c>
-      <c r="H287" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J286">
-    <sortCondition ref="B224:B286"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J285">
+    <sortCondition ref="B223:B285"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/metadata_corrected.xlsx
+++ b/data/metadata_corrected.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mikekestemont/GitRepos/mdu/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mikekestemont/Desktop/abundance/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D384807A-FD6B-CF46-81A9-ED5A7ED2F68D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89481F2B-E75E-CA46-B237-BC486C3C9D7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="33600" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1767" uniqueCount="602">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1785" uniqueCount="612">
   <si>
     <t>id</t>
   </si>
@@ -1622,9 +1622,6 @@
     <t>Aiol</t>
   </si>
   <si>
-    <t>1240-1220</t>
-  </si>
-  <si>
     <t>Enaamse Codex</t>
   </si>
   <si>
@@ -1823,29 +1820,62 @@
     <t>Roman der Lorreinen I</t>
   </si>
   <si>
+    <t>roman_van_walewein_vostaert</t>
+  </si>
+  <si>
     <t>roman_van_walewein_penninc</t>
   </si>
   <si>
-    <t>roman_van_walewein_vostaert</t>
-  </si>
-  <si>
-    <t>Walewein (Penninc)</t>
-  </si>
-  <si>
-    <t>Walewein (Vostaert)</t>
+    <t>Walewein-Penninc</t>
+  </si>
+  <si>
+    <t>Walewein-Vostaert</t>
+  </si>
+  <si>
+    <t>Pieter Vostaert</t>
   </si>
   <si>
     <t>Penninc</t>
   </si>
   <si>
-    <t>Pieter Vostaert</t>
+    <t>Trojeroman</t>
+  </si>
+  <si>
+    <t>trojeroman</t>
+  </si>
+  <si>
+    <t>Segher Diengotgaf</t>
+  </si>
+  <si>
+    <t>1240-1260</t>
+  </si>
+  <si>
+    <t>1220-1240</t>
+  </si>
+  <si>
+    <t>denensage</t>
+  </si>
+  <si>
+    <t>Denensage</t>
+  </si>
+  <si>
+    <t>BML</t>
+  </si>
+  <si>
+    <t>valckenborch</t>
+  </si>
+  <si>
+    <t>Van den Here van Valckenborch</t>
+  </si>
+  <si>
+    <t>DBNL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1862,6 +1892,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1913,7 +1951,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1922,6 +1960,7 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2224,10 +2263,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H286"/>
+  <dimension ref="A1:H289"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A89" zoomScale="160" workbookViewId="0">
-      <selection activeCell="B120" sqref="B120"/>
+    <sheetView tabSelected="1" topLeftCell="A271" zoomScale="160" workbookViewId="0">
+      <selection activeCell="A287" sqref="A287"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2262,7 +2301,7 @@
         <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -2279,7 +2318,7 @@
         <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -2299,10 +2338,10 @@
         <v>30</v>
       </c>
       <c r="F3" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G3" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -2319,10 +2358,10 @@
         <v>514</v>
       </c>
       <c r="F4" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G4" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -2339,10 +2378,10 @@
         <v>16</v>
       </c>
       <c r="F5" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G5" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -2359,7 +2398,7 @@
         <v>473</v>
       </c>
       <c r="F6" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -2376,10 +2415,10 @@
         <v>88</v>
       </c>
       <c r="F7" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G7" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -2396,10 +2435,10 @@
         <v>33</v>
       </c>
       <c r="F8" t="s">
+        <v>536</v>
+      </c>
+      <c r="G8" t="s">
         <v>537</v>
-      </c>
-      <c r="G8" t="s">
-        <v>538</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -2416,7 +2455,7 @@
         <v>322</v>
       </c>
       <c r="F9" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -2433,10 +2472,10 @@
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G10" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -2453,10 +2492,10 @@
         <v>88</v>
       </c>
       <c r="F11" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G11" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
@@ -2473,10 +2512,10 @@
         <v>66</v>
       </c>
       <c r="F12" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G12" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
@@ -2493,10 +2532,10 @@
         <v>33</v>
       </c>
       <c r="F13" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G13" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
@@ -2513,10 +2552,10 @@
         <v>154</v>
       </c>
       <c r="F14" t="s">
+        <v>536</v>
+      </c>
+      <c r="G14" t="s">
         <v>537</v>
-      </c>
-      <c r="G14" t="s">
-        <v>538</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
@@ -2533,10 +2572,10 @@
         <v>468</v>
       </c>
       <c r="F15" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G15" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
@@ -2553,7 +2592,7 @@
         <v>210</v>
       </c>
       <c r="F16" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
@@ -2570,10 +2609,10 @@
         <v>411</v>
       </c>
       <c r="F17" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G17" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
@@ -2581,7 +2620,7 @@
         <v>124</v>
       </c>
       <c r="B18" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D18" t="s">
         <v>9</v>
@@ -2590,10 +2629,10 @@
         <v>75</v>
       </c>
       <c r="F18" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G18" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
@@ -2613,10 +2652,10 @@
         <v>30</v>
       </c>
       <c r="F19" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
@@ -2633,10 +2672,10 @@
         <v>524</v>
       </c>
       <c r="F20" t="s">
+        <v>536</v>
+      </c>
+      <c r="G20" t="s">
         <v>537</v>
-      </c>
-      <c r="G20" t="s">
-        <v>538</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
@@ -2653,10 +2692,10 @@
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G21" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
@@ -2673,10 +2712,10 @@
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G22" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
@@ -2693,10 +2732,10 @@
         <v>55</v>
       </c>
       <c r="F23" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G23" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
@@ -2713,10 +2752,10 @@
         <v>55</v>
       </c>
       <c r="F24" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G24" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
@@ -2733,10 +2772,10 @@
         <v>13</v>
       </c>
       <c r="F25" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G25" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
@@ -2753,10 +2792,10 @@
         <v>189</v>
       </c>
       <c r="F26" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G26" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
@@ -2773,10 +2812,10 @@
         <v>80</v>
       </c>
       <c r="F27" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G27" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
@@ -2793,10 +2832,10 @@
         <v>33</v>
       </c>
       <c r="F28" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G28" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
@@ -2804,7 +2843,7 @@
         <v>302</v>
       </c>
       <c r="B29" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C29" t="s">
         <v>127</v>
@@ -2816,10 +2855,10 @@
         <v>281</v>
       </c>
       <c r="F29" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G29" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
@@ -2827,7 +2866,7 @@
         <v>304</v>
       </c>
       <c r="B30" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="D30" t="s">
         <v>9</v>
@@ -2836,10 +2875,10 @@
         <v>305</v>
       </c>
       <c r="F30" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G30" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
@@ -2847,7 +2886,7 @@
         <v>280</v>
       </c>
       <c r="B31" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="D31" t="s">
         <v>9</v>
@@ -2856,10 +2895,10 @@
         <v>281</v>
       </c>
       <c r="F31" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G31" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
@@ -2867,7 +2906,7 @@
         <v>504</v>
       </c>
       <c r="B32" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="D32" t="s">
         <v>505</v>
@@ -2876,10 +2915,10 @@
         <v>506</v>
       </c>
       <c r="F32" t="s">
+        <v>536</v>
+      </c>
+      <c r="G32" t="s">
         <v>537</v>
-      </c>
-      <c r="G32" t="s">
-        <v>538</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
@@ -2896,7 +2935,7 @@
         <v>13</v>
       </c>
       <c r="F33" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
@@ -2913,10 +2952,10 @@
         <v>55</v>
       </c>
       <c r="F34" t="s">
+        <v>536</v>
+      </c>
+      <c r="G34" t="s">
         <v>537</v>
-      </c>
-      <c r="G34" t="s">
-        <v>538</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
@@ -2936,7 +2975,7 @@
         <v>75</v>
       </c>
       <c r="F35" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
@@ -2944,7 +2983,7 @@
         <v>223</v>
       </c>
       <c r="B36" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D36" t="s">
         <v>9</v>
@@ -2953,10 +2992,10 @@
         <v>224</v>
       </c>
       <c r="F36" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G36" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
@@ -2964,7 +3003,7 @@
         <v>139</v>
       </c>
       <c r="B37" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="D37" t="s">
         <v>9</v>
@@ -2973,10 +3012,10 @@
         <v>72</v>
       </c>
       <c r="F37" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G37" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
@@ -2984,7 +3023,7 @@
         <v>383</v>
       </c>
       <c r="B38" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="D38" t="s">
         <v>9</v>
@@ -2993,10 +3032,10 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G38" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
@@ -3004,7 +3043,7 @@
         <v>378</v>
       </c>
       <c r="B39" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D39" t="s">
         <v>9</v>
@@ -3013,10 +3052,10 @@
         <v>379</v>
       </c>
       <c r="F39" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G39" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
@@ -3033,10 +3072,10 @@
         <v>72</v>
       </c>
       <c r="F40" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G40" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
@@ -3056,7 +3095,7 @@
         <v>419</v>
       </c>
       <c r="F41" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
@@ -3076,10 +3115,10 @@
         <v>33</v>
       </c>
       <c r="F42" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G42" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
@@ -3096,10 +3135,10 @@
         <v>482</v>
       </c>
       <c r="F43" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G43" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
@@ -3119,10 +3158,10 @@
         <v>50</v>
       </c>
       <c r="F44" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G44" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
@@ -3130,7 +3169,7 @@
         <v>517</v>
       </c>
       <c r="B45" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C45" t="s">
         <v>36</v>
@@ -3142,10 +3181,10 @@
         <v>518</v>
       </c>
       <c r="F45" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G45" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
@@ -3153,7 +3192,7 @@
         <v>527</v>
       </c>
       <c r="B46" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C46" t="s">
         <v>36</v>
@@ -3165,13 +3204,13 @@
         <v>508</v>
       </c>
       <c r="F46" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G46" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H46" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
@@ -3188,10 +3227,10 @@
         <v>249</v>
       </c>
       <c r="F47" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G47" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
@@ -3208,13 +3247,13 @@
         <v>33</v>
       </c>
       <c r="F48" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G48" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>233</v>
       </c>
@@ -3231,10 +3270,10 @@
         <v>37</v>
       </c>
       <c r="F49" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>263</v>
       </c>
@@ -3248,10 +3287,10 @@
         <v>265</v>
       </c>
       <c r="F50" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>121</v>
       </c>
@@ -3265,13 +3304,13 @@
         <v>66</v>
       </c>
       <c r="F51" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G51" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>270</v>
       </c>
@@ -3285,13 +3324,13 @@
         <v>13</v>
       </c>
       <c r="F52" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G52" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>228</v>
       </c>
@@ -3308,10 +3347,10 @@
         <v>37</v>
       </c>
       <c r="F53" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>438</v>
       </c>
@@ -3325,10 +3364,10 @@
         <v>13</v>
       </c>
       <c r="F54" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>501</v>
       </c>
@@ -3342,13 +3381,16 @@
         <v>503</v>
       </c>
       <c r="F55" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G55" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+        <v>544</v>
+      </c>
+      <c r="H55" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>161</v>
       </c>
@@ -3365,30 +3407,30 @@
         <v>37</v>
       </c>
       <c r="F56" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B57" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="D57" t="s">
         <v>505</v>
       </c>
       <c r="E57" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="F57" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G57" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>400</v>
       </c>
@@ -3402,10 +3444,10 @@
         <v>13</v>
       </c>
       <c r="F58" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>46</v>
       </c>
@@ -3413,7 +3455,7 @@
         <v>47</v>
       </c>
       <c r="C59" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="D59" t="s">
         <v>9</v>
@@ -3422,13 +3464,13 @@
         <v>33</v>
       </c>
       <c r="F59" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G59" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>387</v>
       </c>
@@ -3442,13 +3484,13 @@
         <v>13</v>
       </c>
       <c r="F60" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G60" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>76</v>
       </c>
@@ -3462,13 +3504,13 @@
         <v>33</v>
       </c>
       <c r="F61" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G61" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>256</v>
       </c>
@@ -3482,13 +3524,13 @@
         <v>33</v>
       </c>
       <c r="F62" t="s">
+        <v>536</v>
+      </c>
+      <c r="G62" t="s">
         <v>537</v>
       </c>
-      <c r="G62" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>430</v>
       </c>
@@ -3502,13 +3544,13 @@
         <v>16</v>
       </c>
       <c r="F63" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G63" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>187</v>
       </c>
@@ -3522,10 +3564,10 @@
         <v>189</v>
       </c>
       <c r="F64" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G64" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
@@ -3542,10 +3584,10 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G65" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
@@ -3562,10 +3604,10 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G66" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.2">
@@ -3573,7 +3615,7 @@
         <v>343</v>
       </c>
       <c r="B67" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D67" t="s">
         <v>9</v>
@@ -3582,10 +3624,10 @@
         <v>33</v>
       </c>
       <c r="F67" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G67" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
@@ -3605,10 +3647,10 @@
         <v>33</v>
       </c>
       <c r="F68" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G68" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
@@ -3625,10 +3667,10 @@
         <v>72</v>
       </c>
       <c r="F69" t="s">
+        <v>536</v>
+      </c>
+      <c r="G69" t="s">
         <v>537</v>
-      </c>
-      <c r="G69" t="s">
-        <v>538</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
@@ -3645,10 +3687,10 @@
         <v>521</v>
       </c>
       <c r="F70" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G70" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
@@ -3665,7 +3707,7 @@
         <v>88</v>
       </c>
       <c r="F71" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
@@ -3673,7 +3715,7 @@
         <v>335</v>
       </c>
       <c r="B72" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="D72" t="s">
         <v>9</v>
@@ -3682,10 +3724,10 @@
         <v>249</v>
       </c>
       <c r="F72" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G72" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
@@ -3702,10 +3744,10 @@
         <v>33</v>
       </c>
       <c r="F73" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G73" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
@@ -3725,7 +3767,7 @@
         <v>50</v>
       </c>
       <c r="F74" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
@@ -3742,10 +3784,10 @@
         <v>88</v>
       </c>
       <c r="F75" t="s">
+        <v>536</v>
+      </c>
+      <c r="G75" t="s">
         <v>537</v>
-      </c>
-      <c r="G75" t="s">
-        <v>538</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
@@ -3762,7 +3804,7 @@
         <v>13</v>
       </c>
       <c r="F76" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
@@ -3779,10 +3821,10 @@
         <v>33</v>
       </c>
       <c r="F77" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G77" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
@@ -3799,10 +3841,10 @@
         <v>88</v>
       </c>
       <c r="F78" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G78" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
@@ -3819,10 +3861,10 @@
         <v>88</v>
       </c>
       <c r="F79" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G79" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.2">
@@ -3830,7 +3872,7 @@
         <v>428</v>
       </c>
       <c r="B80" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="D80" t="s">
         <v>9</v>
@@ -3839,7 +3881,7 @@
         <v>16</v>
       </c>
       <c r="F80" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.2">
@@ -3847,7 +3889,7 @@
         <v>237</v>
       </c>
       <c r="B81" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="D81" t="s">
         <v>9</v>
@@ -3856,7 +3898,7 @@
         <v>16</v>
       </c>
       <c r="F81" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.2">
@@ -3864,7 +3906,7 @@
         <v>440</v>
       </c>
       <c r="B82" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="D82" t="s">
         <v>9</v>
@@ -3873,7 +3915,7 @@
         <v>16</v>
       </c>
       <c r="F82" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.2">
@@ -3890,10 +3932,10 @@
         <v>33</v>
       </c>
       <c r="F83" t="s">
+        <v>536</v>
+      </c>
+      <c r="G83" t="s">
         <v>537</v>
-      </c>
-      <c r="G83" t="s">
-        <v>538</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.2">
@@ -3910,7 +3952,7 @@
         <v>30</v>
       </c>
       <c r="F84" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.2">
@@ -3927,7 +3969,7 @@
         <v>13</v>
       </c>
       <c r="F85" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.2">
@@ -3947,18 +3989,18 @@
         <v>66</v>
       </c>
       <c r="F86" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G86" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B87" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C87" t="s">
         <v>36</v>
@@ -3970,10 +4012,10 @@
         <v>397</v>
       </c>
       <c r="F87" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G87" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.2">
@@ -3990,10 +4032,10 @@
         <v>111</v>
       </c>
       <c r="F88" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G88" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.2">
@@ -4013,10 +4055,10 @@
         <v>114</v>
       </c>
       <c r="F89" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G89" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.2">
@@ -4033,10 +4075,10 @@
         <v>16</v>
       </c>
       <c r="F90" t="s">
+        <v>536</v>
+      </c>
+      <c r="G90" t="s">
         <v>537</v>
-      </c>
-      <c r="G90" t="s">
-        <v>538</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.2">
@@ -4053,10 +4095,10 @@
         <v>88</v>
       </c>
       <c r="F91" t="s">
+        <v>536</v>
+      </c>
+      <c r="G91" t="s">
         <v>537</v>
-      </c>
-      <c r="G91" t="s">
-        <v>538</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.2">
@@ -4064,7 +4106,7 @@
         <v>324</v>
       </c>
       <c r="B92" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D92" t="s">
         <v>9</v>
@@ -4073,10 +4115,10 @@
         <v>33</v>
       </c>
       <c r="F92" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G92" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.2">
@@ -4093,7 +4135,7 @@
         <v>165</v>
       </c>
       <c r="F93" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.2">
@@ -4110,10 +4152,10 @@
         <v>487</v>
       </c>
       <c r="F94" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G94" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.2">
@@ -4133,10 +4175,10 @@
         <v>30</v>
       </c>
       <c r="F95" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G95" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.2">
@@ -4153,10 +4195,10 @@
         <v>311</v>
       </c>
       <c r="F96" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G96" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.2">
@@ -4173,10 +4215,10 @@
         <v>277</v>
       </c>
       <c r="F97" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G97" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.2">
@@ -4193,10 +4235,10 @@
         <v>111</v>
       </c>
       <c r="F98" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G98" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.2">
@@ -4213,10 +4255,10 @@
         <v>394</v>
       </c>
       <c r="F99" t="s">
+        <v>536</v>
+      </c>
+      <c r="G99" t="s">
         <v>537</v>
-      </c>
-      <c r="G99" t="s">
-        <v>538</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.2">
@@ -4236,10 +4278,10 @@
         <v>347</v>
       </c>
       <c r="F100" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G100" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.2">
@@ -4259,10 +4301,10 @@
         <v>13</v>
       </c>
       <c r="F101" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G101" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.2">
@@ -4279,10 +4321,10 @@
         <v>88</v>
       </c>
       <c r="F102" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G102" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.2">
@@ -4290,7 +4332,7 @@
         <v>117</v>
       </c>
       <c r="B103" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D103" t="s">
         <v>9</v>
@@ -4299,13 +4341,13 @@
         <v>88</v>
       </c>
       <c r="F103" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G103" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H103" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.2">
@@ -4313,7 +4355,7 @@
         <v>279</v>
       </c>
       <c r="B104" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D104" t="s">
         <v>9</v>
@@ -4322,10 +4364,10 @@
         <v>88</v>
       </c>
       <c r="F104" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G104" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.2">
@@ -4342,7 +4384,7 @@
         <v>13</v>
       </c>
       <c r="F105" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.2">
@@ -4359,10 +4401,10 @@
         <v>88</v>
       </c>
       <c r="F106" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G106" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.2">
@@ -4379,10 +4421,10 @@
         <v>80</v>
       </c>
       <c r="F107" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G107" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.2">
@@ -4399,10 +4441,10 @@
         <v>30</v>
       </c>
       <c r="F108" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G108" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.2">
@@ -4410,7 +4452,7 @@
         <v>67</v>
       </c>
       <c r="B109" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="D109" t="s">
         <v>9</v>
@@ -4419,10 +4461,10 @@
         <v>33</v>
       </c>
       <c r="F109" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G109" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.2">
@@ -4430,19 +4472,19 @@
         <v>528</v>
       </c>
       <c r="B110" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D110" t="s">
         <v>505</v>
       </c>
       <c r="E110" t="s">
-        <v>529</v>
+        <v>605</v>
       </c>
       <c r="F110" t="s">
+        <v>536</v>
+      </c>
+      <c r="G110" t="s">
         <v>537</v>
-      </c>
-      <c r="G110" t="s">
-        <v>538</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.2">
@@ -4459,10 +4501,10 @@
         <v>10</v>
       </c>
       <c r="F111" t="s">
+        <v>536</v>
+      </c>
+      <c r="G111" t="s">
         <v>537</v>
-      </c>
-      <c r="G111" t="s">
-        <v>538</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.2">
@@ -4479,7 +4521,7 @@
         <v>13</v>
       </c>
       <c r="F112" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.2">
@@ -4496,10 +4538,10 @@
         <v>16</v>
       </c>
       <c r="F113" t="s">
+        <v>536</v>
+      </c>
+      <c r="G113" t="s">
         <v>537</v>
-      </c>
-      <c r="G113" t="s">
-        <v>538</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.2">
@@ -4516,10 +4558,10 @@
         <v>16</v>
       </c>
       <c r="F114" t="s">
+        <v>536</v>
+      </c>
+      <c r="G114" t="s">
         <v>537</v>
-      </c>
-      <c r="G114" t="s">
-        <v>538</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.2">
@@ -4536,10 +4578,10 @@
         <v>80</v>
       </c>
       <c r="F115" t="s">
+        <v>536</v>
+      </c>
+      <c r="G115" t="s">
         <v>537</v>
-      </c>
-      <c r="G115" t="s">
-        <v>538</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.2">
@@ -4556,10 +4598,10 @@
         <v>80</v>
       </c>
       <c r="F116" t="s">
+        <v>536</v>
+      </c>
+      <c r="G116" t="s">
         <v>537</v>
-      </c>
-      <c r="G116" t="s">
-        <v>538</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.2">
@@ -4576,10 +4618,10 @@
         <v>16</v>
       </c>
       <c r="F117" t="s">
+        <v>536</v>
+      </c>
+      <c r="G117" t="s">
         <v>537</v>
-      </c>
-      <c r="G117" t="s">
-        <v>538</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.2">
@@ -4596,10 +4638,10 @@
         <v>16</v>
       </c>
       <c r="F118" t="s">
+        <v>536</v>
+      </c>
+      <c r="G118" t="s">
         <v>537</v>
-      </c>
-      <c r="G118" t="s">
-        <v>538</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.2">
@@ -4616,10 +4658,10 @@
         <v>16</v>
       </c>
       <c r="F119" t="s">
+        <v>536</v>
+      </c>
+      <c r="G119" t="s">
         <v>537</v>
-      </c>
-      <c r="G119" t="s">
-        <v>538</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.2">
@@ -4636,10 +4678,10 @@
         <v>33</v>
       </c>
       <c r="F120" t="s">
+        <v>536</v>
+      </c>
+      <c r="G120" t="s">
         <v>537</v>
-      </c>
-      <c r="G120" t="s">
-        <v>538</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.2">
@@ -4656,10 +4698,10 @@
         <v>33</v>
       </c>
       <c r="F121" t="s">
+        <v>536</v>
+      </c>
+      <c r="G121" t="s">
         <v>537</v>
-      </c>
-      <c r="G121" t="s">
-        <v>538</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.2">
@@ -4676,10 +4718,10 @@
         <v>16</v>
       </c>
       <c r="F122" t="s">
+        <v>536</v>
+      </c>
+      <c r="G122" t="s">
         <v>537</v>
-      </c>
-      <c r="G122" t="s">
-        <v>538</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.2">
@@ -4696,10 +4738,10 @@
         <v>10</v>
       </c>
       <c r="F123" t="s">
+        <v>536</v>
+      </c>
+      <c r="G123" t="s">
         <v>537</v>
-      </c>
-      <c r="G123" t="s">
-        <v>538</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.2">
@@ -4716,10 +4758,10 @@
         <v>10</v>
       </c>
       <c r="F124" t="s">
+        <v>536</v>
+      </c>
+      <c r="G124" t="s">
         <v>537</v>
-      </c>
-      <c r="G124" t="s">
-        <v>538</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.2">
@@ -4736,10 +4778,10 @@
         <v>33</v>
       </c>
       <c r="F125" t="s">
+        <v>536</v>
+      </c>
+      <c r="G125" t="s">
         <v>537</v>
-      </c>
-      <c r="G125" t="s">
-        <v>538</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.2">
@@ -4756,10 +4798,10 @@
         <v>33</v>
       </c>
       <c r="F126" t="s">
+        <v>536</v>
+      </c>
+      <c r="G126" t="s">
         <v>537</v>
-      </c>
-      <c r="G126" t="s">
-        <v>538</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.2">
@@ -4776,10 +4818,10 @@
         <v>33</v>
       </c>
       <c r="F127" t="s">
+        <v>536</v>
+      </c>
+      <c r="G127" t="s">
         <v>537</v>
-      </c>
-      <c r="G127" t="s">
-        <v>538</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.2">
@@ -4796,10 +4838,10 @@
         <v>16</v>
       </c>
       <c r="F128" t="s">
+        <v>536</v>
+      </c>
+      <c r="G128" t="s">
         <v>537</v>
-      </c>
-      <c r="G128" t="s">
-        <v>538</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.2">
@@ -4816,10 +4858,10 @@
         <v>16</v>
       </c>
       <c r="F129" t="s">
+        <v>536</v>
+      </c>
+      <c r="G129" t="s">
         <v>537</v>
-      </c>
-      <c r="G129" t="s">
-        <v>538</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.2">
@@ -4836,10 +4878,10 @@
         <v>30</v>
       </c>
       <c r="F130" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G130" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.2">
@@ -4847,7 +4889,7 @@
         <v>225</v>
       </c>
       <c r="B131" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C131" t="s">
         <v>226</v>
@@ -4859,7 +4901,7 @@
         <v>33</v>
       </c>
       <c r="F131" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.2">
@@ -4879,13 +4921,13 @@
         <v>88</v>
       </c>
       <c r="F132" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G132" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H132" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.2">
@@ -4905,13 +4947,13 @@
         <v>16</v>
       </c>
       <c r="F133" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G133" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H133" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.2">
@@ -4931,13 +4973,13 @@
         <v>16</v>
       </c>
       <c r="F134" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G134" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H134" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.2">
@@ -4957,13 +4999,13 @@
         <v>88</v>
       </c>
       <c r="F135" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G135" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H135" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.2">
@@ -4980,7 +5022,7 @@
         <v>88</v>
       </c>
       <c r="F136" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.2">
@@ -4997,7 +5039,7 @@
         <v>80</v>
       </c>
       <c r="F137" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.2">
@@ -5014,7 +5056,7 @@
         <v>514</v>
       </c>
       <c r="F138" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.2">
@@ -5022,7 +5064,7 @@
         <v>87</v>
       </c>
       <c r="B139" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="D139" t="s">
         <v>9</v>
@@ -5031,10 +5073,10 @@
         <v>88</v>
       </c>
       <c r="F139" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G139" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.2">
@@ -5051,10 +5093,10 @@
         <v>294</v>
       </c>
       <c r="F140" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G140" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.2">
@@ -5074,10 +5116,10 @@
         <v>13</v>
       </c>
       <c r="F141" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G141" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.2">
@@ -5094,10 +5136,10 @@
         <v>30</v>
       </c>
       <c r="F142" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G142" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.2">
@@ -5114,10 +5156,10 @@
         <v>30</v>
       </c>
       <c r="F143" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G143" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.2">
@@ -5134,10 +5176,10 @@
         <v>30</v>
       </c>
       <c r="F144" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G144" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.2">
@@ -5154,10 +5196,10 @@
         <v>157</v>
       </c>
       <c r="F145" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G145" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.2">
@@ -5174,10 +5216,10 @@
         <v>80</v>
       </c>
       <c r="F146" t="s">
+        <v>536</v>
+      </c>
+      <c r="G146" t="s">
         <v>537</v>
-      </c>
-      <c r="G146" t="s">
-        <v>538</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.2">
@@ -5194,10 +5236,10 @@
         <v>80</v>
       </c>
       <c r="F147" t="s">
+        <v>536</v>
+      </c>
+      <c r="G147" t="s">
         <v>537</v>
-      </c>
-      <c r="G147" t="s">
-        <v>538</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.2">
@@ -5214,10 +5256,10 @@
         <v>80</v>
       </c>
       <c r="F148" t="s">
+        <v>536</v>
+      </c>
+      <c r="G148" t="s">
         <v>537</v>
-      </c>
-      <c r="G148" t="s">
-        <v>538</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.2">
@@ -5234,10 +5276,10 @@
         <v>80</v>
       </c>
       <c r="F149" t="s">
+        <v>536</v>
+      </c>
+      <c r="G149" t="s">
         <v>537</v>
-      </c>
-      <c r="G149" t="s">
-        <v>538</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.2">
@@ -5254,10 +5296,10 @@
         <v>106</v>
       </c>
       <c r="F150" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G150" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.2">
@@ -5274,10 +5316,10 @@
         <v>10</v>
       </c>
       <c r="F151" t="s">
+        <v>536</v>
+      </c>
+      <c r="G151" t="s">
         <v>537</v>
-      </c>
-      <c r="G151" t="s">
-        <v>538</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.2">
@@ -5294,10 +5336,10 @@
         <v>33</v>
       </c>
       <c r="F152" t="s">
+        <v>536</v>
+      </c>
+      <c r="G152" t="s">
         <v>537</v>
-      </c>
-      <c r="G152" t="s">
-        <v>538</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.2">
@@ -5314,10 +5356,10 @@
         <v>80</v>
       </c>
       <c r="F153" t="s">
+        <v>536</v>
+      </c>
+      <c r="G153" t="s">
         <v>537</v>
-      </c>
-      <c r="G153" t="s">
-        <v>538</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.2">
@@ -5334,10 +5376,10 @@
         <v>10</v>
       </c>
       <c r="F154" t="s">
+        <v>536</v>
+      </c>
+      <c r="G154" t="s">
         <v>537</v>
-      </c>
-      <c r="G154" t="s">
-        <v>538</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.2">
@@ -5354,10 +5396,10 @@
         <v>435</v>
       </c>
       <c r="F155" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G155" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.2">
@@ -5374,10 +5416,10 @@
         <v>96</v>
       </c>
       <c r="F156" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G156" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.2">
@@ -5394,10 +5436,10 @@
         <v>33</v>
       </c>
       <c r="F157" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G157" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.2">
@@ -5414,10 +5456,10 @@
         <v>33</v>
       </c>
       <c r="F158" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G158" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.2">
@@ -5434,10 +5476,10 @@
         <v>242</v>
       </c>
       <c r="F159" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G159" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.2">
@@ -5454,10 +5496,10 @@
         <v>10</v>
       </c>
       <c r="F160" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G160" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.2">
@@ -5474,10 +5516,10 @@
         <v>16</v>
       </c>
       <c r="F161" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G161" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.2">
@@ -5494,10 +5536,10 @@
         <v>242</v>
       </c>
       <c r="F162" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G162" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.2">
@@ -5514,13 +5556,13 @@
         <v>508</v>
       </c>
       <c r="F163" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G163" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H163" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.2">
@@ -5537,13 +5579,13 @@
         <v>88</v>
       </c>
       <c r="F164" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G164" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H164" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.2">
@@ -5560,10 +5602,10 @@
         <v>88</v>
       </c>
       <c r="F165" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G165" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.2">
@@ -5580,10 +5622,10 @@
         <v>88</v>
       </c>
       <c r="F166" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G166" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.2">
@@ -5600,10 +5642,10 @@
         <v>281</v>
       </c>
       <c r="F167" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G167" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.2">
@@ -5620,10 +5662,10 @@
         <v>508</v>
       </c>
       <c r="F168" t="s">
+        <v>536</v>
+      </c>
+      <c r="G168" t="s">
         <v>537</v>
-      </c>
-      <c r="G168" t="s">
-        <v>538</v>
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.2">
@@ -5640,10 +5682,10 @@
         <v>33</v>
       </c>
       <c r="F169" t="s">
+        <v>536</v>
+      </c>
+      <c r="G169" t="s">
         <v>537</v>
-      </c>
-      <c r="G169" t="s">
-        <v>538</v>
       </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.2">
@@ -5660,10 +5702,10 @@
         <v>80</v>
       </c>
       <c r="F170" t="s">
+        <v>536</v>
+      </c>
+      <c r="G170" t="s">
         <v>537</v>
-      </c>
-      <c r="G170" t="s">
-        <v>538</v>
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.2">
@@ -5680,10 +5722,10 @@
         <v>311</v>
       </c>
       <c r="F171" t="s">
+        <v>536</v>
+      </c>
+      <c r="G171" t="s">
         <v>537</v>
-      </c>
-      <c r="G171" t="s">
-        <v>538</v>
       </c>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.2">
@@ -5700,10 +5742,10 @@
         <v>33</v>
       </c>
       <c r="F172" t="s">
+        <v>536</v>
+      </c>
+      <c r="G172" t="s">
         <v>537</v>
-      </c>
-      <c r="G172" t="s">
-        <v>538</v>
       </c>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.2">
@@ -5711,7 +5753,7 @@
         <v>246</v>
       </c>
       <c r="B173" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="D173" t="s">
         <v>9</v>
@@ -5720,13 +5762,13 @@
         <v>189</v>
       </c>
       <c r="F173" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G173" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H173" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.2">
@@ -5734,7 +5776,7 @@
         <v>465</v>
       </c>
       <c r="B174" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="D174" t="s">
         <v>9</v>
@@ -5743,10 +5785,10 @@
         <v>88</v>
       </c>
       <c r="F174" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G174" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.2">
@@ -5766,10 +5808,10 @@
         <v>512</v>
       </c>
       <c r="F175" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G175" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.2">
@@ -5789,10 +5831,10 @@
         <v>328</v>
       </c>
       <c r="F176" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G176" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.2">
@@ -5812,10 +5854,10 @@
         <v>357</v>
       </c>
       <c r="F177" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G177" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.2">
@@ -5832,7 +5874,7 @@
         <v>50</v>
       </c>
       <c r="F178" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.2">
@@ -5852,7 +5894,7 @@
         <v>30</v>
       </c>
       <c r="F179" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.2">
@@ -5869,10 +5911,10 @@
         <v>16</v>
       </c>
       <c r="F180" t="s">
+        <v>536</v>
+      </c>
+      <c r="G180" t="s">
         <v>537</v>
-      </c>
-      <c r="G180" t="s">
-        <v>538</v>
       </c>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.2">
@@ -5889,10 +5931,10 @@
         <v>80</v>
       </c>
       <c r="F181" t="s">
+        <v>536</v>
+      </c>
+      <c r="G181" t="s">
         <v>537</v>
-      </c>
-      <c r="G181" t="s">
-        <v>538</v>
       </c>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.2">
@@ -5909,10 +5951,10 @@
         <v>16</v>
       </c>
       <c r="F182" t="s">
+        <v>536</v>
+      </c>
+      <c r="G182" t="s">
         <v>537</v>
-      </c>
-      <c r="G182" t="s">
-        <v>538</v>
       </c>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.2">
@@ -5929,10 +5971,10 @@
         <v>16</v>
       </c>
       <c r="F183" t="s">
+        <v>536</v>
+      </c>
+      <c r="G183" t="s">
         <v>537</v>
-      </c>
-      <c r="G183" t="s">
-        <v>538</v>
       </c>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.2">
@@ -5949,18 +5991,18 @@
         <v>367</v>
       </c>
       <c r="F184" t="s">
+        <v>536</v>
+      </c>
+      <c r="G184" t="s">
         <v>537</v>
-      </c>
-      <c r="G184" t="s">
-        <v>538</v>
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B185" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="D185" t="s">
         <v>9</v>
@@ -5969,10 +6011,10 @@
         <v>33</v>
       </c>
       <c r="F185" t="s">
+        <v>536</v>
+      </c>
+      <c r="G185" t="s">
         <v>537</v>
-      </c>
-      <c r="G185" t="s">
-        <v>538</v>
       </c>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.2">
@@ -5980,7 +6022,7 @@
         <v>306</v>
       </c>
       <c r="B186" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D186" t="s">
         <v>9</v>
@@ -5989,10 +6031,10 @@
         <v>33</v>
       </c>
       <c r="F186" t="s">
+        <v>536</v>
+      </c>
+      <c r="G186" t="s">
         <v>537</v>
-      </c>
-      <c r="G186" t="s">
-        <v>538</v>
       </c>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.2">
@@ -6009,10 +6051,10 @@
         <v>88</v>
       </c>
       <c r="F187" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G187" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.2">
@@ -6029,10 +6071,10 @@
         <v>88</v>
       </c>
       <c r="F188" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G188" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.2">
@@ -6049,10 +6091,10 @@
         <v>88</v>
       </c>
       <c r="F189" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G189" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.2">
@@ -6069,10 +6111,10 @@
         <v>88</v>
       </c>
       <c r="F190" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G190" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.2">
@@ -6080,7 +6122,7 @@
         <v>195</v>
       </c>
       <c r="B191" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="D191" t="s">
         <v>9</v>
@@ -6089,13 +6131,13 @@
         <v>33</v>
       </c>
       <c r="F191" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G191" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="H191" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.2">
@@ -6103,7 +6145,7 @@
         <v>288</v>
       </c>
       <c r="B192" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="D192" t="s">
         <v>9</v>
@@ -6112,13 +6154,13 @@
         <v>88</v>
       </c>
       <c r="F192" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G192" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="H192" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.2">
@@ -6126,7 +6168,7 @@
         <v>202</v>
       </c>
       <c r="B193" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D193" t="s">
         <v>9</v>
@@ -6135,10 +6177,10 @@
         <v>88</v>
       </c>
       <c r="F193" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G193" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.2">
@@ -6155,10 +6197,10 @@
         <v>80</v>
       </c>
       <c r="F194" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G194" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.2">
@@ -6175,10 +6217,10 @@
         <v>88</v>
       </c>
       <c r="F195" s="3" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G195" s="3" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.2">
@@ -6195,10 +6237,10 @@
         <v>13</v>
       </c>
       <c r="F196" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G196" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.2">
@@ -6206,7 +6248,7 @@
         <v>342</v>
       </c>
       <c r="B197" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="D197" t="s">
         <v>9</v>
@@ -6215,10 +6257,10 @@
         <v>10</v>
       </c>
       <c r="F197" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G197" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.2">
@@ -6238,10 +6280,10 @@
         <v>13</v>
       </c>
       <c r="F198" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G198" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.2">
@@ -6261,10 +6303,10 @@
         <v>59</v>
       </c>
       <c r="F199" s="3" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G199" s="3" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.2">
@@ -6272,7 +6314,7 @@
         <v>190</v>
       </c>
       <c r="B200" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="D200" t="s">
         <v>9</v>
@@ -6281,10 +6323,10 @@
         <v>80</v>
       </c>
       <c r="F200" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G200" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.2">
@@ -6304,10 +6346,10 @@
         <v>452</v>
       </c>
       <c r="F201" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G201" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.2">
@@ -6327,10 +6369,10 @@
         <v>88</v>
       </c>
       <c r="F202" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G202" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.2">
@@ -6350,10 +6392,10 @@
         <v>13</v>
       </c>
       <c r="F203" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G203" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.2">
@@ -6370,10 +6412,10 @@
         <v>508</v>
       </c>
       <c r="F204" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G204" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.2">
@@ -6390,41 +6432,41 @@
         <v>40</v>
       </c>
       <c r="F205" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G205" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="H205" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A206" s="1" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B206" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D206" t="s">
         <v>505</v>
       </c>
       <c r="E206" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="F206" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G206" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A207" s="1" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B207" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="D207" t="s">
         <v>505</v>
@@ -6433,13 +6475,13 @@
         <v>508</v>
       </c>
       <c r="F207" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G207" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="H207" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.2">
@@ -6456,10 +6498,10 @@
         <v>16</v>
       </c>
       <c r="F208" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G208" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.2">
@@ -6479,10 +6521,10 @@
         <v>72</v>
       </c>
       <c r="F209" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="G209" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.2">
@@ -6499,7 +6541,7 @@
         <v>72</v>
       </c>
       <c r="F210" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.2">
@@ -6516,7 +6558,7 @@
         <v>333</v>
       </c>
       <c r="F211" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.2">
@@ -6536,10 +6578,10 @@
         <v>22</v>
       </c>
       <c r="F212" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G212" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.2">
@@ -6547,7 +6589,7 @@
         <v>296</v>
       </c>
       <c r="B213" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="D213" t="s">
         <v>9</v>
@@ -6556,10 +6598,10 @@
         <v>72</v>
       </c>
       <c r="F213" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G213" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.2">
@@ -6567,7 +6609,7 @@
         <v>399</v>
       </c>
       <c r="B214" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="D214" t="s">
         <v>9</v>
@@ -6576,13 +6618,13 @@
         <v>72</v>
       </c>
       <c r="F214" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G214" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H214" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.2">
@@ -6590,7 +6632,7 @@
         <v>404</v>
       </c>
       <c r="B215" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="D215" t="s">
         <v>9</v>
@@ -6599,13 +6641,13 @@
         <v>16</v>
       </c>
       <c r="F215" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G215" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H215" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.2">
@@ -6613,7 +6655,7 @@
         <v>453</v>
       </c>
       <c r="B216" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="D216" t="s">
         <v>9</v>
@@ -6622,13 +6664,13 @@
         <v>80</v>
       </c>
       <c r="F216" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G216" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H216" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.2">
@@ -6636,7 +6678,7 @@
         <v>180</v>
       </c>
       <c r="B217" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C217" t="s">
         <v>36</v>
@@ -6648,10 +6690,10 @@
         <v>55</v>
       </c>
       <c r="F217" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G217" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.2">
@@ -6659,7 +6701,7 @@
         <v>25</v>
       </c>
       <c r="B218" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C218" t="s">
         <v>26</v>
@@ -6671,10 +6713,10 @@
         <v>27</v>
       </c>
       <c r="F218" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G218" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.2">
@@ -6682,7 +6724,7 @@
         <v>84</v>
       </c>
       <c r="B219" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C219" t="s">
         <v>26</v>
@@ -6694,10 +6736,10 @@
         <v>30</v>
       </c>
       <c r="F219" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G219" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.2">
@@ -6705,7 +6747,7 @@
         <v>129</v>
       </c>
       <c r="B220" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C220" t="s">
         <v>26</v>
@@ -6717,10 +6759,10 @@
         <v>130</v>
       </c>
       <c r="F220" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G220" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.2">
@@ -6728,7 +6770,7 @@
         <v>266</v>
       </c>
       <c r="B221" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C221" t="s">
         <v>26</v>
@@ -6740,10 +6782,10 @@
         <v>88</v>
       </c>
       <c r="F221" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G221" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.2">
@@ -6751,7 +6793,7 @@
         <v>269</v>
       </c>
       <c r="B222" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C222" t="s">
         <v>26</v>
@@ -6763,10 +6805,10 @@
         <v>30</v>
       </c>
       <c r="F222" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G222" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.2">
@@ -6774,7 +6816,7 @@
         <v>301</v>
       </c>
       <c r="B223" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C223" t="s">
         <v>26</v>
@@ -6786,10 +6828,10 @@
         <v>253</v>
       </c>
       <c r="F223" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G223" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.2">
@@ -6797,7 +6839,7 @@
         <v>334</v>
       </c>
       <c r="B224" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C224" t="s">
         <v>26</v>
@@ -6809,10 +6851,10 @@
         <v>55</v>
       </c>
       <c r="F224" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G224" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.2">
@@ -6820,7 +6862,7 @@
         <v>391</v>
       </c>
       <c r="B225" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C225" t="s">
         <v>26</v>
@@ -6832,10 +6874,10 @@
         <v>16</v>
       </c>
       <c r="F225" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G225" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.2">
@@ -6843,7 +6885,7 @@
         <v>28</v>
       </c>
       <c r="B226" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C226" t="s">
         <v>29</v>
@@ -6855,10 +6897,10 @@
         <v>30</v>
       </c>
       <c r="F226" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G226" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.2">
@@ -6866,7 +6908,7 @@
         <v>54</v>
       </c>
       <c r="B227" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C227" t="s">
         <v>29</v>
@@ -6878,10 +6920,10 @@
         <v>55</v>
       </c>
       <c r="F227" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G227" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.2">
@@ -6889,7 +6931,7 @@
         <v>86</v>
       </c>
       <c r="B228" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C228" t="s">
         <v>29</v>
@@ -6901,10 +6943,10 @@
         <v>30</v>
       </c>
       <c r="F228" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G228" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.2">
@@ -6912,7 +6954,7 @@
         <v>93</v>
       </c>
       <c r="B229" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C229" t="s">
         <v>29</v>
@@ -6924,10 +6966,10 @@
         <v>30</v>
       </c>
       <c r="F229" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G229" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.2">
@@ -6935,7 +6977,7 @@
         <v>120</v>
       </c>
       <c r="B230" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C230" t="s">
         <v>29</v>
@@ -6947,10 +6989,10 @@
         <v>30</v>
       </c>
       <c r="F230" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G230" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.2">
@@ -6958,7 +7000,7 @@
         <v>123</v>
       </c>
       <c r="B231" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C231" t="s">
         <v>29</v>
@@ -6970,10 +7012,10 @@
         <v>30</v>
       </c>
       <c r="F231" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G231" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.2">
@@ -6981,7 +7023,7 @@
         <v>252</v>
       </c>
       <c r="B232" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C232" t="s">
         <v>29</v>
@@ -6993,10 +7035,10 @@
         <v>253</v>
       </c>
       <c r="F232" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G232" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.2">
@@ -7004,7 +7046,7 @@
         <v>272</v>
       </c>
       <c r="B233" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C233" t="s">
         <v>29</v>
@@ -7016,10 +7058,10 @@
         <v>253</v>
       </c>
       <c r="F233" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G233" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.2">
@@ -7027,7 +7069,7 @@
         <v>275</v>
       </c>
       <c r="B234" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C234" t="s">
         <v>29</v>
@@ -7039,10 +7081,10 @@
         <v>130</v>
       </c>
       <c r="F234" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G234" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.2">
@@ -7050,7 +7092,7 @@
         <v>329</v>
       </c>
       <c r="B235" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C235" t="s">
         <v>29</v>
@@ -7062,10 +7104,10 @@
         <v>30</v>
       </c>
       <c r="F235" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G235" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.2">
@@ -7073,7 +7115,7 @@
         <v>421</v>
       </c>
       <c r="B236" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C236" t="s">
         <v>29</v>
@@ -7085,10 +7127,10 @@
         <v>55</v>
       </c>
       <c r="F236" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G236" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.2">
@@ -7096,7 +7138,7 @@
         <v>437</v>
       </c>
       <c r="B237" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C237" t="s">
         <v>29</v>
@@ -7108,10 +7150,10 @@
         <v>33</v>
       </c>
       <c r="F237" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G237" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.2">
@@ -7119,7 +7161,7 @@
         <v>42</v>
       </c>
       <c r="B238" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C238" t="s">
         <v>29</v>
@@ -7131,10 +7173,10 @@
         <v>43</v>
       </c>
       <c r="F238" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G238" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.2">
@@ -7151,10 +7193,10 @@
         <v>13</v>
       </c>
       <c r="F239" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G239" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.2">
@@ -7162,7 +7204,7 @@
         <v>307</v>
       </c>
       <c r="B240" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C240" t="s">
         <v>226</v>
@@ -7174,7 +7216,7 @@
         <v>33</v>
       </c>
       <c r="F240" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.2">
@@ -7191,7 +7233,7 @@
         <v>444</v>
       </c>
       <c r="F241" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.2">
@@ -7208,10 +7250,10 @@
         <v>13</v>
       </c>
       <c r="F242" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G242" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.2">
@@ -7228,10 +7270,10 @@
         <v>30</v>
       </c>
       <c r="F243" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G243" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.2">
@@ -7239,7 +7281,7 @@
         <v>230</v>
       </c>
       <c r="B244" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C244" t="s">
         <v>36</v>
@@ -7251,10 +7293,10 @@
         <v>88</v>
       </c>
       <c r="F244" s="3" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G244" s="3" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H244" s="3"/>
     </row>
@@ -7272,10 +7314,10 @@
         <v>510</v>
       </c>
       <c r="F245" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G245" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="246" spans="1:8" x14ac:dyDescent="0.2">
@@ -7292,7 +7334,7 @@
         <v>13</v>
       </c>
       <c r="F246" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="247" spans="1:8" x14ac:dyDescent="0.2">
@@ -7309,7 +7351,7 @@
         <v>165</v>
       </c>
       <c r="F247" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.2">
@@ -7329,7 +7371,7 @@
         <v>37</v>
       </c>
       <c r="F248" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="249" spans="1:8" x14ac:dyDescent="0.2">
@@ -7346,10 +7388,10 @@
         <v>80</v>
       </c>
       <c r="F249" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G249" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="250" spans="1:8" x14ac:dyDescent="0.2">
@@ -7366,10 +7408,10 @@
         <v>33</v>
       </c>
       <c r="F250" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G250" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="251" spans="1:8" x14ac:dyDescent="0.2">
@@ -7389,10 +7431,10 @@
         <v>128</v>
       </c>
       <c r="F251" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G251" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.2">
@@ -7412,7 +7454,7 @@
         <v>75</v>
       </c>
       <c r="F252" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="253" spans="1:8" x14ac:dyDescent="0.2">
@@ -7420,7 +7462,7 @@
         <v>422</v>
       </c>
       <c r="B253" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D253" t="s">
         <v>9</v>
@@ -7429,10 +7471,10 @@
         <v>367</v>
       </c>
       <c r="F253" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G253" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="254" spans="1:8" x14ac:dyDescent="0.2">
@@ -7440,7 +7482,7 @@
         <v>231</v>
       </c>
       <c r="B254" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D254" t="s">
         <v>9</v>
@@ -7449,10 +7491,10 @@
         <v>232</v>
       </c>
       <c r="F254" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G254" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.2">
@@ -7472,7 +7514,7 @@
         <v>75</v>
       </c>
       <c r="F255" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.2">
@@ -7489,10 +7531,10 @@
         <v>16</v>
       </c>
       <c r="F256" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="G256" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="257" spans="1:8" x14ac:dyDescent="0.2">
@@ -7509,10 +7551,10 @@
         <v>75</v>
       </c>
       <c r="F257" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="G257" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="258" spans="1:8" x14ac:dyDescent="0.2">
@@ -7532,10 +7574,10 @@
         <v>37</v>
       </c>
       <c r="F258" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G258" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="259" spans="1:8" x14ac:dyDescent="0.2">
@@ -7543,7 +7585,7 @@
         <v>522</v>
       </c>
       <c r="B259" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="D259" t="s">
         <v>505</v>
@@ -7552,13 +7594,13 @@
         <v>508</v>
       </c>
       <c r="F259" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G259" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="H259" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="260" spans="1:8" x14ac:dyDescent="0.2">
@@ -7566,7 +7608,7 @@
         <v>516</v>
       </c>
       <c r="B260" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="D260" t="s">
         <v>505</v>
@@ -7575,13 +7617,13 @@
         <v>506</v>
       </c>
       <c r="F260" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G260" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="H260" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="261" spans="1:8" x14ac:dyDescent="0.2">
@@ -7598,10 +7640,10 @@
         <v>75</v>
       </c>
       <c r="F261" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G261" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="262" spans="1:8" x14ac:dyDescent="0.2">
@@ -7618,10 +7660,10 @@
         <v>16</v>
       </c>
       <c r="F262" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G262" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="263" spans="1:8" x14ac:dyDescent="0.2">
@@ -7638,10 +7680,10 @@
         <v>30</v>
       </c>
       <c r="F263" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="G263" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="264" spans="1:8" x14ac:dyDescent="0.2">
@@ -7658,7 +7700,7 @@
         <v>30</v>
       </c>
       <c r="F264" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="265" spans="1:8" x14ac:dyDescent="0.2">
@@ -7675,7 +7717,7 @@
         <v>333</v>
       </c>
       <c r="F265" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="266" spans="1:8" x14ac:dyDescent="0.2">
@@ -7695,10 +7737,10 @@
         <v>30</v>
       </c>
       <c r="F266" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="G266" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="267" spans="1:8" x14ac:dyDescent="0.2">
@@ -7715,10 +7757,10 @@
         <v>37</v>
       </c>
       <c r="F267" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G267" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="268" spans="1:8" x14ac:dyDescent="0.2">
@@ -7735,10 +7777,10 @@
         <v>13</v>
       </c>
       <c r="F268" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G268" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="269" spans="1:8" x14ac:dyDescent="0.2">
@@ -7755,10 +7797,10 @@
         <v>80</v>
       </c>
       <c r="F269" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G269" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="270" spans="1:8" x14ac:dyDescent="0.2">
@@ -7775,10 +7817,10 @@
         <v>314</v>
       </c>
       <c r="F270" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G270" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="271" spans="1:8" x14ac:dyDescent="0.2">
@@ -7795,10 +7837,10 @@
         <v>407</v>
       </c>
       <c r="F271" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G271" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="272" spans="1:8" x14ac:dyDescent="0.2">
@@ -7815,7 +7857,7 @@
         <v>13</v>
       </c>
       <c r="F272" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="273" spans="1:8" x14ac:dyDescent="0.2">
@@ -7835,10 +7877,10 @@
         <v>13</v>
       </c>
       <c r="F273" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="G273" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="274" spans="1:8" x14ac:dyDescent="0.2">
@@ -7855,15 +7897,15 @@
         <v>419</v>
       </c>
       <c r="F274" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="275" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A275" s="1" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B275" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="D275" t="s">
         <v>9</v>
@@ -7872,10 +7914,10 @@
         <v>33</v>
       </c>
       <c r="F275" t="s">
+        <v>536</v>
+      </c>
+      <c r="G275" t="s">
         <v>537</v>
-      </c>
-      <c r="G275" t="s">
-        <v>538</v>
       </c>
     </row>
     <row r="276" spans="1:8" x14ac:dyDescent="0.2">
@@ -7892,64 +7934,58 @@
         <v>242</v>
       </c>
       <c r="F276" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G276" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="277" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A277" s="1" t="s">
-        <v>596</v>
+        <v>181</v>
       </c>
       <c r="B277" t="s">
-        <v>598</v>
-      </c>
-      <c r="C277" t="s">
-        <v>600</v>
+        <v>182</v>
       </c>
       <c r="D277" t="s">
         <v>9</v>
       </c>
       <c r="E277" t="s">
-        <v>436</v>
+        <v>88</v>
       </c>
       <c r="F277" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G277" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="278" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A278" s="1" t="s">
-        <v>597</v>
+        <v>158</v>
       </c>
       <c r="B278" t="s">
-        <v>599</v>
+        <v>159</v>
       </c>
       <c r="C278" t="s">
-        <v>601</v>
+        <v>160</v>
       </c>
       <c r="D278" t="s">
         <v>9</v>
       </c>
       <c r="E278" t="s">
-        <v>436</v>
+        <v>37</v>
       </c>
       <c r="F278" t="s">
-        <v>537</v>
-      </c>
-      <c r="G278" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="279" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A279" s="1" t="s">
-        <v>181</v>
+        <v>118</v>
       </c>
       <c r="B279" t="s">
-        <v>182</v>
+        <v>119</v>
       </c>
       <c r="D279" t="s">
         <v>9</v>
@@ -7958,75 +7994,81 @@
         <v>88</v>
       </c>
       <c r="F279" t="s">
+        <v>536</v>
+      </c>
+      <c r="G279" t="s">
         <v>537</v>
-      </c>
-      <c r="G279" t="s">
-        <v>541</v>
       </c>
     </row>
     <row r="280" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A280" s="1" t="s">
-        <v>158</v>
+        <v>525</v>
       </c>
       <c r="B280" t="s">
-        <v>159</v>
-      </c>
-      <c r="C280" t="s">
-        <v>160</v>
+        <v>525</v>
       </c>
       <c r="D280" t="s">
-        <v>9</v>
+        <v>505</v>
       </c>
       <c r="E280" t="s">
-        <v>37</v>
+        <v>514</v>
       </c>
       <c r="F280" t="s">
-        <v>540</v>
+        <v>536</v>
+      </c>
+      <c r="G280" t="s">
+        <v>537</v>
       </c>
     </row>
     <row r="281" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A281" s="1" t="s">
-        <v>118</v>
+        <v>445</v>
       </c>
       <c r="B281" t="s">
-        <v>119</v>
+        <v>446</v>
       </c>
       <c r="D281" t="s">
         <v>9</v>
       </c>
       <c r="E281" t="s">
-        <v>88</v>
+        <v>33</v>
       </c>
       <c r="F281" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G281" t="s">
-        <v>538</v>
+        <v>540</v>
+      </c>
+      <c r="H281" t="s">
+        <v>557</v>
       </c>
     </row>
     <row r="282" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A282" s="1" t="s">
-        <v>525</v>
+        <v>446</v>
       </c>
       <c r="B282" t="s">
-        <v>525</v>
+        <v>446</v>
       </c>
       <c r="D282" t="s">
         <v>505</v>
       </c>
       <c r="E282" t="s">
-        <v>514</v>
+        <v>506</v>
       </c>
       <c r="F282" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G282" t="s">
-        <v>538</v>
+        <v>540</v>
+      </c>
+      <c r="H282" t="s">
+        <v>557</v>
       </c>
     </row>
     <row r="283" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A283" s="1" t="s">
-        <v>445</v>
+        <v>287</v>
       </c>
       <c r="B283" t="s">
         <v>446</v>
@@ -8035,88 +8077,152 @@
         <v>9</v>
       </c>
       <c r="E283" t="s">
-        <v>33</v>
+        <v>88</v>
       </c>
       <c r="F283" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G283" t="s">
-        <v>541</v>
-      </c>
-      <c r="H283" t="s">
-        <v>558</v>
+        <v>540</v>
       </c>
     </row>
     <row r="284" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A284" s="1" t="s">
-        <v>446</v>
+        <v>586</v>
       </c>
       <c r="B284" t="s">
-        <v>446</v>
+        <v>101</v>
+      </c>
+      <c r="C284" t="s">
+        <v>29</v>
       </c>
       <c r="D284" t="s">
-        <v>505</v>
+        <v>9</v>
       </c>
       <c r="E284" t="s">
-        <v>506</v>
+        <v>397</v>
       </c>
       <c r="F284" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G284" t="s">
-        <v>541</v>
-      </c>
-      <c r="H284" t="s">
-        <v>558</v>
+        <v>540</v>
       </c>
     </row>
     <row r="285" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A285" s="1" t="s">
-        <v>287</v>
+        <v>596</v>
       </c>
       <c r="B285" t="s">
-        <v>446</v>
+        <v>597</v>
+      </c>
+      <c r="C285" t="s">
+        <v>600</v>
       </c>
       <c r="D285" t="s">
         <v>9</v>
       </c>
       <c r="E285" t="s">
-        <v>88</v>
+        <v>436</v>
       </c>
       <c r="F285" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G285" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="286" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A286" s="1" t="s">
-        <v>587</v>
+        <v>595</v>
       </c>
       <c r="B286" t="s">
-        <v>101</v>
+        <v>598</v>
       </c>
       <c r="C286" t="s">
-        <v>29</v>
+        <v>599</v>
       </c>
       <c r="D286" t="s">
         <v>9</v>
       </c>
       <c r="E286" t="s">
-        <v>397</v>
+        <v>436</v>
       </c>
       <c r="F286" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G286" t="s">
-        <v>541</v>
+        <v>540</v>
+      </c>
+    </row>
+    <row r="287" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A287" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="B287" t="s">
+        <v>601</v>
+      </c>
+      <c r="C287" t="s">
+        <v>603</v>
+      </c>
+      <c r="D287" t="s">
+        <v>9</v>
+      </c>
+      <c r="E287" t="s">
+        <v>604</v>
+      </c>
+      <c r="F287" t="s">
+        <v>536</v>
+      </c>
+      <c r="G287" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="288" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A288" s="2" t="s">
+        <v>606</v>
+      </c>
+      <c r="B288" t="s">
+        <v>607</v>
+      </c>
+      <c r="D288" t="s">
+        <v>608</v>
+      </c>
+      <c r="E288">
+        <v>1450</v>
+      </c>
+      <c r="F288" t="s">
+        <v>536</v>
+      </c>
+      <c r="G288" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="289" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A289" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="B289" t="s">
+        <v>610</v>
+      </c>
+      <c r="D289" t="s">
+        <v>611</v>
+      </c>
+      <c r="E289">
+        <v>1450</v>
+      </c>
+      <c r="F289" t="s">
+        <v>536</v>
+      </c>
+      <c r="G289" t="s">
+        <v>578</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I285">
-    <sortCondition ref="B223:B285"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I283">
+    <sortCondition ref="B223:B283"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/data/metadata_corrected.xlsx
+++ b/data/metadata_corrected.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mikekestemont/Desktop/abundance/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mikekestemont/GitRepos/zwerfverzen/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89481F2B-E75E-CA46-B237-BC486C3C9D7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{467B7BC4-EB27-3449-9FE9-5467D85B3E0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="33600" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2265,8 +2265,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H289"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A271" zoomScale="160" workbookViewId="0">
-      <selection activeCell="A287" sqref="A287"/>
+    <sheetView tabSelected="1" topLeftCell="A231" zoomScale="160" workbookViewId="0">
+      <selection activeCell="G262" sqref="G262"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/data/metadata_corrected.xlsx
+++ b/data/metadata_corrected.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mikekestemont/GitRepos/zwerfverzen/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{467B7BC4-EB27-3449-9FE9-5467D85B3E0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17D2D8D2-70CD-4644-928A-4BDAA8EB2940}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="33600" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1785" uniqueCount="612">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1768" uniqueCount="602">
   <si>
     <t>id</t>
   </si>
@@ -1838,44 +1838,14 @@
     <t>Penninc</t>
   </si>
   <si>
-    <t>Trojeroman</t>
-  </si>
-  <si>
-    <t>trojeroman</t>
-  </si>
-  <si>
-    <t>Segher Diengotgaf</t>
-  </si>
-  <si>
-    <t>1240-1260</t>
-  </si>
-  <si>
     <t>1220-1240</t>
-  </si>
-  <si>
-    <t>denensage</t>
-  </si>
-  <si>
-    <t>Denensage</t>
-  </si>
-  <si>
-    <t>BML</t>
-  </si>
-  <si>
-    <t>valckenborch</t>
-  </si>
-  <si>
-    <t>Van den Here van Valckenborch</t>
-  </si>
-  <si>
-    <t>DBNL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1892,14 +1862,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1951,7 +1913,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1960,7 +1922,6 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2263,10 +2224,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H289"/>
+  <dimension ref="A1:H286"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A231" zoomScale="160" workbookViewId="0">
-      <selection activeCell="G262" sqref="G262"/>
+    <sheetView tabSelected="1" topLeftCell="A269" zoomScale="160" workbookViewId="0">
+      <selection activeCell="A287" sqref="A287:XFD287"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4478,7 +4439,7 @@
         <v>505</v>
       </c>
       <c r="E110" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="F110" t="s">
         <v>536</v>
@@ -8153,69 +8114,6 @@
       </c>
       <c r="G286" t="s">
         <v>540</v>
-      </c>
-    </row>
-    <row r="287" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A287" s="1" t="s">
-        <v>602</v>
-      </c>
-      <c r="B287" t="s">
-        <v>601</v>
-      </c>
-      <c r="C287" t="s">
-        <v>603</v>
-      </c>
-      <c r="D287" t="s">
-        <v>9</v>
-      </c>
-      <c r="E287" t="s">
-        <v>604</v>
-      </c>
-      <c r="F287" t="s">
-        <v>536</v>
-      </c>
-      <c r="G287" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="288" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A288" s="2" t="s">
-        <v>606</v>
-      </c>
-      <c r="B288" t="s">
-        <v>607</v>
-      </c>
-      <c r="D288" t="s">
-        <v>608</v>
-      </c>
-      <c r="E288">
-        <v>1450</v>
-      </c>
-      <c r="F288" t="s">
-        <v>536</v>
-      </c>
-      <c r="G288" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A289" s="4" t="s">
-        <v>609</v>
-      </c>
-      <c r="B289" t="s">
-        <v>610</v>
-      </c>
-      <c r="D289" t="s">
-        <v>611</v>
-      </c>
-      <c r="E289">
-        <v>1450</v>
-      </c>
-      <c r="F289" t="s">
-        <v>536</v>
-      </c>
-      <c r="G289" t="s">
-        <v>578</v>
       </c>
     </row>
   </sheetData>
